--- a/Jogos_da_Semana_FlashScore_2025-02-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-21.xlsx
@@ -914,7 +914,7 @@
         <v>9.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI3" t="n">
         <v>15</v>
@@ -996,10 +996,10 @@
         <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O4" t="n">
         <v>1.25</v>
@@ -1058,7 +1058,7 @@
         <v>6.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ4" t="n">
         <v>41</v>
@@ -1067,7 +1067,7 @@
         <v>151</v>
       </c>
       <c r="AL4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM4" t="n">
         <v>17</v>
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="J5" t="n">
         <v>3.6</v>
@@ -1266,7 +1266,7 @@
         <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J6" t="n">
         <v>2.5</v>
@@ -1729,10 +1729,10 @@
         <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R9" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S9" t="n">
         <v>6.2</v>
@@ -1741,16 +1741,16 @@
         <v>1.13</v>
       </c>
       <c r="U9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V9" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="W9" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="X9" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="Y9" t="n">
         <v>2.38</v>
@@ -1848,13 +1848,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H10" t="n">
         <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
         <v>2.88</v>
@@ -1902,10 +1902,10 @@
         <v>2.25</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA10" t="n">
         <v>5.5</v>
@@ -1917,7 +1917,7 @@
         <v>9.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -2000,10 +2000,10 @@
         <v>2.05</v>
       </c>
       <c r="H11" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J11" t="n">
         <v>2.6</v>
@@ -2018,7 +2018,7 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O11" t="n">
         <v>1.17</v>
@@ -2033,16 +2033,16 @@
         <v>2.38</v>
       </c>
       <c r="S11" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="T11" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="U11" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="V11" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W11" t="n">
         <v>1.29</v>
@@ -2066,13 +2066,13 @@
         <v>9</v>
       </c>
       <c r="AD11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="n">
         <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG11" t="n">
         <v>17</v>
@@ -2099,7 +2099,7 @@
         <v>12</v>
       </c>
       <c r="AO11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP11" t="n">
         <v>23</v>
@@ -2145,63 +2145,63 @@
         <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I12" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K12" t="n">
         <v>2.18</v>
       </c>
-      <c r="J12" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.15</v>
-      </c>
       <c r="L12" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="P12" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="R12" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>3.05</v>
+        <v>2.85</v>
       </c>
       <c r="V12" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="W12" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="X12" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="Z12" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AA12" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC12" t="n">
         <v>10.75</v>
@@ -2210,43 +2210,43 @@
         <v>37</v>
       </c>
       <c r="AE12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF12" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG12" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="AH12" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AI12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK12" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AL12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM12" t="n">
         <v>10.75</v>
       </c>
       <c r="AN12" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AO12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP12" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
@@ -2283,84 +2283,84 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="J13" t="n">
-        <v>2.8</v>
+        <v>2.57</v>
       </c>
       <c r="K13" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="O13" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R13" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="V13" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="W13" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X13" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="Y13" t="n">
         <v>1.62</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="AA13" t="n">
         <v>8</v>
       </c>
       <c r="AB13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD13" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE13" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AF13" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG13" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="AH13" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="AI13" t="n">
         <v>12</v>
@@ -2372,22 +2372,22 @@
         <v>300</v>
       </c>
       <c r="AL13" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AM13" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AN13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AP13" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AQ13" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
@@ -2574,57 +2574,57 @@
         <v>2.32</v>
       </c>
       <c r="J15" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P15" t="n">
         <v>3.5</v>
       </c>
-      <c r="K15" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N15" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.4</v>
-      </c>
       <c r="Q15" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="R15" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="V15" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="W15" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X15" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB15" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC15" t="n">
         <v>10.25</v>
@@ -2633,28 +2633,28 @@
         <v>37</v>
       </c>
       <c r="AE15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF15" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AH15" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AI15" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AJ15" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AK15" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AL15" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AM15" t="n">
         <v>12</v>
@@ -2730,13 +2730,13 @@
         <v>6.6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P16" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R16" t="n">
         <v>1.65</v>
@@ -2744,61 +2744,61 @@
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="V16" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W16" t="n">
         <v>1.42</v>
       </c>
       <c r="X16" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AA16" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AB16" t="n">
         <v>9</v>
       </c>
       <c r="AC16" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AD16" t="n">
         <v>18</v>
       </c>
       <c r="AE16" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG16" t="n">
         <v>6.6</v>
       </c>
       <c r="AH16" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AI16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ16" t="n">
         <v>90</v>
       </c>
       <c r="AK16" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AL16" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AM16" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AN16" t="n">
         <v>12</v>
@@ -2847,22 +2847,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="H17" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="J17" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="K17" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="L17" t="n">
-        <v>4.65</v>
+        <v>4.9</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
@@ -2893,37 +2893,37 @@
         <v>2.27</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="AC17" t="n">
         <v>8.75</v>
       </c>
       <c r="AD17" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG17" t="n">
         <v>7.6</v>
       </c>
       <c r="AH17" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AI17" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AJ17" t="n">
         <v>120</v>
@@ -2932,22 +2932,22 @@
         <v>101</v>
       </c>
       <c r="AL17" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AM17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN17" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AP17" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AQ17" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
@@ -3570,10 +3570,10 @@
         <v>7.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O22" t="n">
         <v>1.4</v>
@@ -4425,10 +4425,10 @@
         <v>3.7</v>
       </c>
       <c r="H28" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I28" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J28" t="n">
         <v>4.33</v>
@@ -4437,7 +4437,7 @@
         <v>2.2</v>
       </c>
       <c r="L28" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M28" t="n">
         <v>1.05</v>
@@ -4496,10 +4496,10 @@
         <v>34</v>
       </c>
       <c r="AG28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH28" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI28" t="n">
         <v>15</v>
@@ -4563,13 +4563,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H29" t="n">
         <v>3.4</v>
       </c>
       <c r="I29" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
         <v>3</v>
@@ -4587,24 +4587,24 @@
         <v>10</v>
       </c>
       <c r="O29" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P29" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R29" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V29" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W29" t="n">
         <v>1.44</v>
@@ -4613,16 +4613,16 @@
         <v>2.63</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA29" t="n">
         <v>7.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC29" t="n">
         <v>9.5</v>
@@ -4637,7 +4637,7 @@
         <v>29</v>
       </c>
       <c r="AG29" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH29" t="n">
         <v>6.5</v>
@@ -4649,7 +4649,7 @@
         <v>51</v>
       </c>
       <c r="AK29" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL29" t="n">
         <v>9</v>
@@ -4849,10 +4849,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H31" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I31" t="n">
         <v>2</v>
@@ -4864,7 +4864,7 @@
         <v>2.2</v>
       </c>
       <c r="L31" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M31" t="n">
         <v>1.05</v>
@@ -4873,16 +4873,16 @@
         <v>11</v>
       </c>
       <c r="O31" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P31" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="R31" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="S31" t="n">
         <v>2</v>
@@ -4891,10 +4891,10 @@
         <v>1.85</v>
       </c>
       <c r="U31" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V31" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="W31" t="n">
         <v>1.4</v>
@@ -4918,10 +4918,10 @@
         <v>12</v>
       </c>
       <c r="AD31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF31" t="n">
         <v>34</v>
@@ -4942,16 +4942,16 @@
         <v>251</v>
       </c>
       <c r="AL31" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM31" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AN31" t="n">
         <v>9</v>
       </c>
       <c r="AO31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP31" t="n">
         <v>17</v>
@@ -5729,18 +5729,18 @@
         <v>3.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R37" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="V37" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W37" t="n">
         <v>1.4</v>
@@ -5884,10 +5884,10 @@
         <v>1.2</v>
       </c>
       <c r="W38" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X38" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y38" t="n">
         <v>2.2</v>
@@ -5947,10 +5947,10 @@
         <v>51</v>
       </c>
       <c r="AR38" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="39">
@@ -6164,10 +6164,10 @@
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V40" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W40" t="n">
         <v>1.44</v>
@@ -6426,10 +6426,10 @@
         <v>3</v>
       </c>
       <c r="M42" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N42" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O42" t="n">
         <v>1.33</v>
@@ -6635,7 +6635,7 @@
         <v>67</v>
       </c>
       <c r="AK43" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AL43" t="n">
         <v>11</v>
@@ -6690,19 +6690,19 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H44" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I44" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J44" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K44" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L44" t="n">
         <v>4.75</v>
@@ -6758,10 +6758,10 @@
         <v>15</v>
       </c>
       <c r="AE44" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF44" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG44" t="n">
         <v>11</v>
@@ -6982,13 +6982,13 @@
         <v>3.75</v>
       </c>
       <c r="I46" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J46" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K46" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L46" t="n">
         <v>3.6</v>
@@ -7045,7 +7045,7 @@
         <v>9</v>
       </c>
       <c r="AD46" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE46" t="n">
         <v>15</v>
@@ -7072,7 +7072,7 @@
         <v>15</v>
       </c>
       <c r="AM46" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN46" t="n">
         <v>12</v>
@@ -7402,43 +7402,105 @@
           <t>Bengaluru FC</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K49" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="L49" t="n">
+        <v>3.35</v>
+      </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
+      <c r="O49" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2.27</v>
+      </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
+      <c r="U49" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1.53</v>
+      </c>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
-      <c r="AA49" t="inlineStr"/>
-      <c r="AB49" t="inlineStr"/>
-      <c r="AC49" t="inlineStr"/>
-      <c r="AD49" t="inlineStr"/>
-      <c r="AE49" t="inlineStr"/>
-      <c r="AF49" t="inlineStr"/>
-      <c r="AG49" t="inlineStr"/>
-      <c r="AH49" t="inlineStr"/>
-      <c r="AI49" t="inlineStr"/>
-      <c r="AJ49" t="inlineStr"/>
-      <c r="AK49" t="inlineStr"/>
-      <c r="AL49" t="inlineStr"/>
-      <c r="AM49" t="inlineStr"/>
-      <c r="AN49" t="inlineStr"/>
-      <c r="AO49" t="inlineStr"/>
-      <c r="AP49" t="inlineStr"/>
-      <c r="AQ49" t="inlineStr"/>
+      <c r="Y49" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>14</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>30</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>21</v>
+      </c>
       <c r="AR49" t="inlineStr"/>
       <c r="AS49" t="inlineStr"/>
     </row>
@@ -7483,13 +7545,13 @@
         <v>4.4</v>
       </c>
       <c r="J50" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="K50" t="n">
         <v>2.15</v>
       </c>
       <c r="L50" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
@@ -7517,13 +7579,13 @@
         <v>1.38</v>
       </c>
       <c r="X50" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="Y50" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="Z50" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AA50" t="n">
         <v>6.8</v>
@@ -7535,22 +7597,22 @@
         <v>8.25</v>
       </c>
       <c r="AD50" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE50" t="n">
         <v>13.5</v>
       </c>
       <c r="AF50" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG50" t="n">
         <v>10.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AI50" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AJ50" t="n">
         <v>80</v>
@@ -7565,7 +7627,7 @@
         <v>25</v>
       </c>
       <c r="AN50" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO50" t="n">
         <v>70</v>
@@ -8163,16 +8225,16 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H55" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I55" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J55" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K55" t="n">
         <v>2</v>
@@ -8249,7 +8311,7 @@
         <v>67</v>
       </c>
       <c r="AK55" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AL55" t="n">
         <v>7</v>
@@ -8264,7 +8326,7 @@
         <v>23</v>
       </c>
       <c r="AP55" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ55" t="n">
         <v>34</v>
@@ -8596,7 +8658,7 @@
         <v>3.25</v>
       </c>
       <c r="I58" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J58" t="n">
         <v>3.75</v>
@@ -8667,7 +8729,7 @@
         <v>9</v>
       </c>
       <c r="AH58" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI58" t="n">
         <v>15</v>
@@ -8873,13 +8935,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H61" t="n">
         <v>4</v>
       </c>
       <c r="I61" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J61" t="n">
         <v>2.25</v>
@@ -8891,10 +8953,10 @@
         <v>4.75</v>
       </c>
       <c r="M61" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N61" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O61" t="n">
         <v>1.2</v>
@@ -8932,7 +8994,7 @@
         <v>8.5</v>
       </c>
       <c r="AB61" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC61" t="n">
         <v>8.5</v>
@@ -8944,7 +9006,7 @@
         <v>13</v>
       </c>
       <c r="AF61" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG61" t="n">
         <v>13</v>
@@ -8965,7 +9027,7 @@
         <v>15</v>
       </c>
       <c r="AM61" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN61" t="n">
         <v>15</v>
@@ -10284,13 +10346,13 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="H72" t="n">
         <v>7</v>
       </c>
       <c r="I72" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J72" t="n">
         <v>1.53</v>
@@ -10332,10 +10394,10 @@
         <v>1.57</v>
       </c>
       <c r="W72" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X72" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Y72" t="n">
         <v>2.5</v>
@@ -10395,10 +10457,10 @@
         <v>101</v>
       </c>
       <c r="AR72" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="AS72" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="73">
@@ -10433,7 +10495,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="H73" t="n">
         <v>3.2</v>
@@ -10466,7 +10528,7 @@
         <v>2.4</v>
       </c>
       <c r="R73" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
@@ -10540,10 +10602,10 @@
         <v>41</v>
       </c>
       <c r="AR73" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="74">
@@ -10578,7 +10640,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="H74" t="n">
         <v>3.7</v>
@@ -10611,7 +10673,7 @@
         <v>2.05</v>
       </c>
       <c r="R74" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
@@ -10749,10 +10811,10 @@
         <v>3.5</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="R75" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
@@ -10860,7 +10922,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H76" t="n">
         <v>4.5</v>
@@ -10878,30 +10940,34 @@
         <v>7</v>
       </c>
       <c r="M76" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N76" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O76" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P76" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q76" t="n">
         <v>1.62</v>
       </c>
       <c r="R76" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
+        <v>2.25</v>
+      </c>
+      <c r="S76" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T76" t="n">
+        <v>1.8</v>
+      </c>
       <c r="U76" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V76" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W76" t="n">
         <v>1.3</v>
@@ -10910,13 +10976,13 @@
         <v>3.4</v>
       </c>
       <c r="Y76" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Z76" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA76" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB76" t="n">
         <v>7</v>
@@ -10937,7 +11003,7 @@
         <v>13</v>
       </c>
       <c r="AH76" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI76" t="n">
         <v>19</v>
@@ -10946,10 +11012,10 @@
         <v>51</v>
       </c>
       <c r="AK76" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL76" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM76" t="n">
         <v>41</v>
@@ -11001,16 +11067,16 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="H77" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I77" t="n">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="J77" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K77" t="n">
         <v>2.4</v>
@@ -11019,19 +11085,19 @@
         <v>6</v>
       </c>
       <c r="M77" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N77" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O77" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P77" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R77" t="n">
         <v>2.1</v>
@@ -11066,7 +11132,7 @@
         <v>8.5</v>
       </c>
       <c r="AD77" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE77" t="n">
         <v>12</v>
@@ -11078,25 +11144,25 @@
         <v>13</v>
       </c>
       <c r="AH77" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI77" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ77" t="n">
         <v>51</v>
       </c>
       <c r="AK77" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL77" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM77" t="n">
         <v>34</v>
       </c>
       <c r="AN77" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO77" t="n">
         <v>67</v>
@@ -11172,10 +11238,10 @@
         <v>3.4</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="R78" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
@@ -11289,7 +11355,7 @@
         <v>4.5</v>
       </c>
       <c r="I79" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="J79" t="n">
         <v>5.5</v>
@@ -11313,16 +11379,16 @@
         <v>4.5</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R79" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="S79" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="T79" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="U79" t="n">
         <v>2.25</v>
@@ -11428,7 +11494,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="H80" t="n">
         <v>4.33</v>
@@ -11458,16 +11524,16 @@
         <v>4.5</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R80" t="n">
         <v>2.35</v>
       </c>
       <c r="S80" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T80" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="U80" t="n">
         <v>2.38</v>
@@ -11573,7 +11639,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="H81" t="n">
         <v>5.75</v>
@@ -11591,10 +11657,10 @@
         <v>7</v>
       </c>
       <c r="M81" t="n">
-        <v>19</v>
+        <v>1.02</v>
       </c>
       <c r="N81" t="n">
-        <v>1.03</v>
+        <v>11</v>
       </c>
       <c r="O81" t="n">
         <v>1.14</v>
@@ -11603,7 +11669,7 @@
         <v>5</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="R81" t="n">
         <v>2.5</v>
@@ -11859,28 +11925,28 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.32</v>
+        <v>2.47</v>
       </c>
       <c r="H83" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I83" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="J83" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K83" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L83" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M83" t="n">
         <v>1.07</v>
       </c>
       <c r="N83" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="O83" t="n">
         <v>1.31</v>
@@ -11900,46 +11966,46 @@
         <v>3.2</v>
       </c>
       <c r="V83" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W83" t="n">
         <v>1.44</v>
       </c>
       <c r="X83" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="Y83" t="n">
         <v>1.72</v>
       </c>
       <c r="Z83" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="AA83" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AB83" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC83" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD83" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE83" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF83" t="n">
         <v>28</v>
       </c>
       <c r="AG83" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AH83" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AI83" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ83" t="n">
         <v>60</v>
@@ -11948,19 +12014,19 @@
         <v>450</v>
       </c>
       <c r="AL83" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AM83" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AN83" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AO83" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AP83" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AQ83" t="n">
         <v>32</v>
@@ -12000,22 +12066,22 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.7</v>
+        <v>4.35</v>
       </c>
       <c r="H84" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I84" t="n">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="J84" t="n">
-        <v>4.25</v>
+        <v>4.9</v>
       </c>
       <c r="K84" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="L84" t="n">
-        <v>2.6</v>
+        <v>2.37</v>
       </c>
       <c r="M84" t="n">
         <v>1.07</v>
@@ -12030,7 +12096,7 @@
         <v>3</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R84" t="n">
         <v>1.72</v>
@@ -12038,10 +12104,10 @@
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="V84" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W84" t="n">
         <v>1.45</v>
@@ -12050,61 +12116,61 @@
         <v>2.55</v>
       </c>
       <c r="Y84" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="Z84" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="AA84" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AB84" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AC84" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AD84" t="n">
+        <v>75</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF84" t="n">
         <v>55</v>
-      </c>
-      <c r="AE84" t="n">
-        <v>35</v>
-      </c>
-      <c r="AF84" t="n">
-        <v>45</v>
       </c>
       <c r="AG84" t="n">
         <v>6.8</v>
       </c>
       <c r="AH84" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="AI84" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AJ84" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AK84" t="n">
         <v>600</v>
       </c>
       <c r="AL84" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AM84" t="n">
-        <v>8.75</v>
+        <v>7.9</v>
       </c>
       <c r="AN84" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AO84" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AP84" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AQ84" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AR84" t="inlineStr"/>
       <c r="AS84" t="inlineStr"/>
@@ -12353,7 +12419,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H87" t="n">
         <v>3</v>
@@ -12371,10 +12437,10 @@
         <v>4.33</v>
       </c>
       <c r="M87" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N87" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O87" t="n">
         <v>1.53</v>
@@ -12780,31 +12846,31 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.45</v>
+        <v>2.52</v>
       </c>
       <c r="H90" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I90" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="J90" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K90" t="n">
         <v>2.05</v>
       </c>
       <c r="L90" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="M90" t="n">
         <v>1.05</v>
       </c>
       <c r="N90" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="O90" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P90" t="n">
         <v>3.8</v>
@@ -12824,10 +12890,10 @@
         <v>1.45</v>
       </c>
       <c r="W90" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X90" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="Y90" t="n">
         <v>1.5</v>
@@ -12836,28 +12902,28 @@
         <v>2.42</v>
       </c>
       <c r="AA90" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AB90" t="n">
         <v>15</v>
       </c>
       <c r="AC90" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AD90" t="n">
         <v>30</v>
       </c>
       <c r="AE90" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF90" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AG90" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AH90" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AI90" t="n">
         <v>10</v>
@@ -12872,19 +12938,19 @@
         <v>11.5</v>
       </c>
       <c r="AM90" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AN90" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AO90" t="n">
         <v>40</v>
       </c>
       <c r="AP90" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ90" t="n">
         <v>23</v>
-      </c>
-      <c r="AQ90" t="n">
-        <v>24</v>
       </c>
       <c r="AR90" t="inlineStr"/>
       <c r="AS90" t="inlineStr"/>
@@ -13062,13 +13128,13 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H92" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I92" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J92" t="n">
         <v>3.75</v>
@@ -13077,7 +13143,7 @@
         <v>2.25</v>
       </c>
       <c r="L92" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M92" t="n">
         <v>1.04</v>
@@ -13121,7 +13187,7 @@
         <v>12</v>
       </c>
       <c r="AB92" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC92" t="n">
         <v>12</v>
@@ -13130,7 +13196,7 @@
         <v>34</v>
       </c>
       <c r="AE92" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF92" t="n">
         <v>29</v>
@@ -13344,37 +13410,37 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="H94" t="n">
-        <v>2.85</v>
+        <v>3.2</v>
       </c>
       <c r="I94" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="J94" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K94" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="L94" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="M94" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N94" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="O94" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="P94" t="n">
-        <v>2.21</v>
+        <v>2.22</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.7</v>
+        <v>2.47</v>
       </c>
       <c r="R94" t="n">
         <v>1.42</v>
@@ -13382,64 +13448,64 @@
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="n">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="V94" t="n">
         <v>1.14</v>
       </c>
       <c r="W94" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="X94" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Y94" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="Z94" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AA94" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="AB94" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="AC94" t="n">
-        <v>8.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="AD94" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE94" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AF94" t="n">
         <v>50</v>
       </c>
       <c r="AG94" t="n">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="AH94" t="n">
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
       <c r="AI94" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AJ94" t="n">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="AK94" t="n">
         <v>101</v>
       </c>
       <c r="AL94" t="n">
-        <v>8.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="AM94" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AN94" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AO94" t="n">
         <v>80</v>
@@ -13503,30 +13569,30 @@
         <v>3.5</v>
       </c>
       <c r="M95" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N95" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O95" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P95" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R95" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V95" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W95" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-21.xlsx
@@ -846,7 +846,7 @@
         <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K3" t="n">
         <v>2.2</v>
@@ -896,7 +896,7 @@
         <v>7</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC3" t="n">
         <v>8.5</v>
@@ -914,10 +914,10 @@
         <v>9.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ3" t="n">
         <v>51</v>
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J4" t="n">
         <v>2.75</v>
@@ -996,10 +996,10 @@
         <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O4" t="n">
         <v>1.25</v>
@@ -1034,7 +1034,7 @@
         <v>2.1</v>
       </c>
       <c r="AA4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB4" t="n">
         <v>11</v>
@@ -1067,7 +1067,7 @@
         <v>151</v>
       </c>
       <c r="AL4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM4" t="n">
         <v>17</v>
@@ -1260,40 +1260,40 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H6" t="n">
         <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J6" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
         <v>10</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="P6" t="n">
         <v>3.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -1301,7 +1301,7 @@
         <v>3.4</v>
       </c>
       <c r="V6" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="W6" t="n">
         <v>1.4</v>
@@ -1349,13 +1349,13 @@
         <v>251</v>
       </c>
       <c r="AL6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM6" t="n">
         <v>21</v>
       </c>
       <c r="AN6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO6" t="n">
         <v>41</v>
@@ -1419,13 +1419,13 @@
         <v>3.1</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
         <v>6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="P7" t="n">
         <v>2.25</v>
@@ -1446,7 +1446,7 @@
         <v>6</v>
       </c>
       <c r="V7" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="W7" t="n">
         <v>1.62</v>
@@ -1568,13 +1568,13 @@
         <v>5.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
         <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="P8" t="n">
         <v>2.75</v>
@@ -1595,7 +1595,7 @@
         <v>4.33</v>
       </c>
       <c r="V8" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="W8" t="n">
         <v>1.5</v>
@@ -1717,22 +1717,22 @@
         <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
         <v>5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="P9" t="n">
         <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S9" t="n">
         <v>6.2</v>
@@ -1741,16 +1741,16 @@
         <v>1.13</v>
       </c>
       <c r="U9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V9" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="W9" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="X9" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="Y9" t="n">
         <v>2.38</v>
@@ -1848,13 +1848,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H10" t="n">
         <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J10" t="n">
         <v>2.88</v>
@@ -1866,13 +1866,13 @@
         <v>4.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
         <v>6.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
         <v>2.5</v>
@@ -1893,7 +1893,7 @@
         <v>5</v>
       </c>
       <c r="V10" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="W10" t="n">
         <v>1.57</v>
@@ -2015,13 +2015,13 @@
         <v>3.6</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
         <v>15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2039,10 +2039,10 @@
         <v>1.98</v>
       </c>
       <c r="U11" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="W11" t="n">
         <v>1.29</v>
@@ -3552,13 +3552,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H22" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J22" t="n">
         <v>2.1</v>
@@ -3570,10 +3570,10 @@
         <v>7.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O22" t="n">
         <v>1.4</v>
@@ -3602,10 +3602,10 @@
         <v>2.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA22" t="n">
         <v>5</v>
@@ -3617,7 +3617,7 @@
         <v>9</v>
       </c>
       <c r="AD22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE22" t="n">
         <v>15</v>
@@ -3641,7 +3641,7 @@
         <v>101</v>
       </c>
       <c r="AL22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM22" t="n">
         <v>29</v>
@@ -3693,19 +3693,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H23" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
         <v>8.5</v>
       </c>
       <c r="J23" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L23" t="n">
         <v>7.5</v>
@@ -3723,10 +3723,10 @@
         <v>3.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R23" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
@@ -3755,7 +3755,7 @@
         <v>6</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD23" t="n">
         <v>9</v>
@@ -3782,19 +3782,19 @@
         <v>101</v>
       </c>
       <c r="AL23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM23" t="n">
         <v>41</v>
       </c>
       <c r="AN23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO23" t="n">
         <v>101</v>
       </c>
       <c r="AP23" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AQ23" t="n">
         <v>67</v>
@@ -4452,18 +4452,18 @@
         <v>3.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R28" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V28" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W28" t="n">
         <v>1.4</v>
@@ -4563,28 +4563,28 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H29" t="n">
         <v>3.4</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J29" t="n">
         <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L29" t="n">
         <v>3.75</v>
       </c>
       <c r="M29" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O29" t="n">
         <v>1.33</v>
@@ -4637,7 +4637,7 @@
         <v>29</v>
       </c>
       <c r="AG29" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH29" t="n">
         <v>6.5</v>
@@ -4704,22 +4704,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H30" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I30" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J30" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="K30" t="n">
         <v>2.25</v>
       </c>
       <c r="L30" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="M30" t="n">
         <v>1.04</v>
@@ -4734,10 +4734,10 @@
         <v>3.75</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R30" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S30" t="n">
         <v>2</v>
@@ -4758,34 +4758,34 @@
         <v>3</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE30" t="n">
         <v>34</v>
       </c>
       <c r="AF30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG30" t="n">
         <v>12</v>
       </c>
       <c r="AH30" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI30" t="n">
         <v>15</v>
@@ -4794,22 +4794,22 @@
         <v>51</v>
       </c>
       <c r="AK30" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL30" t="n">
         <v>7.5</v>
       </c>
       <c r="AM30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AN30" t="n">
         <v>8.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ30" t="n">
         <v>23</v>
@@ -5012,10 +5012,10 @@
         <v>4</v>
       </c>
       <c r="M32" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N32" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O32" t="n">
         <v>1.33</v>
@@ -5068,7 +5068,7 @@
         <v>29</v>
       </c>
       <c r="AG32" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH32" t="n">
         <v>6</v>
@@ -5276,28 +5276,28 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H34" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="I34" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J34" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="K34" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="L34" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="M34" t="n">
         <v>1.14</v>
       </c>
       <c r="N34" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="O34" t="n">
         <v>1.6</v>
@@ -5309,12 +5309,12 @@
         <v>2.75</v>
       </c>
       <c r="R34" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
         <v>1.13</v>
@@ -5323,19 +5323,19 @@
         <v>1.62</v>
       </c>
       <c r="X34" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Z34" t="n">
         <v>1.6</v>
       </c>
       <c r="AA34" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AB34" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC34" t="n">
         <v>12.5</v>
@@ -5347,16 +5347,16 @@
         <v>40</v>
       </c>
       <c r="AF34" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG34" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="AH34" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AI34" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AJ34" t="n">
         <v>150</v>
@@ -5365,19 +5365,19 @@
         <v>101</v>
       </c>
       <c r="AL34" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AM34" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AN34" t="n">
         <v>10.25</v>
       </c>
       <c r="AO34" t="n">
+        <v>27</v>
+      </c>
+      <c r="AP34" t="n">
         <v>26</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>27</v>
       </c>
       <c r="AQ34" t="n">
         <v>50</v>
@@ -5423,42 +5423,42 @@
         <v>2.65</v>
       </c>
       <c r="I35" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="J35" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="K35" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="L35" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="M35" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="N35" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="O35" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P35" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="R35" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="V35" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W35" t="n">
         <v>1.7</v>
@@ -5467,37 +5467,37 @@
         <v>2.05</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="AA35" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AB35" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AD35" t="n">
         <v>22</v>
       </c>
       <c r="AE35" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AF35" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG35" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="AH35" t="n">
         <v>5.6</v>
       </c>
       <c r="AI35" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ35" t="n">
         <v>175</v>
@@ -5506,19 +5506,19 @@
         <v>101</v>
       </c>
       <c r="AL35" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AM35" t="n">
         <v>20</v>
       </c>
       <c r="AN35" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO35" t="n">
         <v>75</v>
       </c>
       <c r="AP35" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AQ35" t="n">
         <v>80</v>
@@ -5861,7 +5861,7 @@
         <v>1.08</v>
       </c>
       <c r="N38" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O38" t="n">
         <v>1.44</v>
@@ -6408,16 +6408,16 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H42" t="n">
         <v>3.25</v>
       </c>
       <c r="I42" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J42" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K42" t="n">
         <v>2.05</v>
@@ -6426,10 +6426,10 @@
         <v>3</v>
       </c>
       <c r="M42" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N42" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O42" t="n">
         <v>1.33</v>
@@ -6476,10 +6476,10 @@
         <v>34</v>
       </c>
       <c r="AE42" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF42" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG42" t="n">
         <v>9</v>
@@ -6497,7 +6497,7 @@
         <v>301</v>
       </c>
       <c r="AL42" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM42" t="n">
         <v>10</v>
@@ -6976,10 +6976,10 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I46" t="n">
         <v>3.3</v>
@@ -6991,7 +6991,7 @@
         <v>2.4</v>
       </c>
       <c r="L46" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M46" t="n">
         <v>1.03</v>
@@ -7262,16 +7262,16 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H48" t="n">
         <v>3.5</v>
       </c>
       <c r="I48" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J48" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K48" t="n">
         <v>2.2</v>
@@ -7327,19 +7327,19 @@
         <v>9</v>
       </c>
       <c r="AD48" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE48" t="n">
         <v>17</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>15</v>
       </c>
       <c r="AF48" t="n">
         <v>23</v>
       </c>
       <c r="AG48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH48" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI48" t="n">
         <v>13</v>
@@ -7348,10 +7348,10 @@
         <v>41</v>
       </c>
       <c r="AK48" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM48" t="n">
         <v>19</v>
@@ -7403,103 +7403,115 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="H49" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I49" t="n">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="J49" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="K49" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="L49" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
+        <v>3.75</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N49" t="n">
+        <v>13</v>
+      </c>
       <c r="O49" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P49" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="R49" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
+        <v>2.1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.85</v>
+      </c>
       <c r="U49" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="V49" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
+        <v>1.44</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X49" t="n">
+        <v>3.25</v>
+      </c>
       <c r="Y49" t="n">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="Z49" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="AA49" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB49" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC49" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="AD49" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE49" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG49" t="n">
         <v>13</v>
       </c>
-      <c r="AF49" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>15</v>
-      </c>
       <c r="AH49" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="AI49" t="n">
-        <v>8.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="AJ49" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AK49" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AL49" t="n">
         <v>12</v>
       </c>
       <c r="AM49" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AN49" t="n">
-        <v>8.6</v>
+        <v>12</v>
       </c>
       <c r="AO49" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AP49" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AQ49" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AR49" t="inlineStr"/>
       <c r="AS49" t="inlineStr"/>
@@ -7536,36 +7548,36 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H50" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I50" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="J50" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="K50" t="n">
         <v>2.15</v>
       </c>
       <c r="L50" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P50" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q50" t="n">
         <v>1.82</v>
       </c>
       <c r="R50" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
@@ -7579,64 +7591,64 @@
         <v>1.38</v>
       </c>
       <c r="X50" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="Y50" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Z50" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="AA50" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AB50" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AC50" t="n">
         <v>8.25</v>
       </c>
       <c r="AD50" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE50" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF50" t="n">
         <v>27</v>
       </c>
       <c r="AG50" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AH50" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AI50" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AJ50" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK50" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AL50" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AM50" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AN50" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO50" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AP50" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ50" t="n">
         <v>45</v>
-      </c>
-      <c r="AQ50" t="n">
-        <v>50</v>
       </c>
       <c r="AR50" t="inlineStr"/>
       <c r="AS50" t="inlineStr"/>
@@ -8084,22 +8096,22 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H54" t="n">
         <v>3.1</v>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J54" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K54" t="n">
         <v>2.05</v>
       </c>
       <c r="L54" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M54" t="n">
         <v>1.07</v>
@@ -8140,13 +8152,13 @@
         <v>1.91</v>
       </c>
       <c r="AA54" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB54" t="n">
         <v>11</v>
       </c>
       <c r="AC54" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD54" t="n">
         <v>23</v>
@@ -8182,13 +8194,13 @@
         <v>11</v>
       </c>
       <c r="AO54" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP54" t="n">
         <v>26</v>
       </c>
       <c r="AQ54" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR54" t="inlineStr"/>
       <c r="AS54" t="inlineStr"/>
@@ -8225,16 +8237,16 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H55" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I55" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J55" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K55" t="n">
         <v>2</v>
@@ -8311,7 +8323,7 @@
         <v>67</v>
       </c>
       <c r="AK55" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AL55" t="n">
         <v>7</v>
@@ -8326,7 +8338,7 @@
         <v>23</v>
       </c>
       <c r="AP55" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ55" t="n">
         <v>34</v>
@@ -8396,18 +8408,18 @@
         <v>2.63</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R56" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V56" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W56" t="n">
         <v>1.53</v>
@@ -8473,10 +8485,10 @@
         <v>34</v>
       </c>
       <c r="AR56" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -8535,16 +8547,16 @@
         <v>12</v>
       </c>
       <c r="O57" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P57" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R57" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
@@ -8561,10 +8573,10 @@
         <v>3</v>
       </c>
       <c r="Y57" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z57" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA57" t="n">
         <v>7.5</v>
@@ -8582,7 +8594,7 @@
         <v>13</v>
       </c>
       <c r="AF57" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG57" t="n">
         <v>12</v>
@@ -8591,7 +8603,7 @@
         <v>7.5</v>
       </c>
       <c r="AI57" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ57" t="n">
         <v>51</v>
@@ -8603,7 +8615,7 @@
         <v>15</v>
       </c>
       <c r="AM57" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN57" t="n">
         <v>17</v>
@@ -8685,7 +8697,7 @@
         <v>2.05</v>
       </c>
       <c r="R58" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
@@ -8965,7 +8977,7 @@
         <v>4.33</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R61" t="n">
         <v>2.1</v>
@@ -9351,22 +9363,22 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H65" t="n">
         <v>4.33</v>
       </c>
       <c r="I65" t="n">
+        <v>5</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K65" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L65" t="n">
         <v>4.75</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K65" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L65" t="n">
-        <v>4.5</v>
       </c>
       <c r="M65" t="n">
         <v>1.02</v>
@@ -9417,10 +9429,10 @@
         <v>11</v>
       </c>
       <c r="AC65" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD65" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE65" t="n">
         <v>11</v>
@@ -9450,7 +9462,7 @@
         <v>29</v>
       </c>
       <c r="AN65" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO65" t="n">
         <v>51</v>
@@ -10060,28 +10072,28 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="H70" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I70" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J70" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K70" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L70" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M70" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N70" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O70" t="n">
         <v>1.4</v>
@@ -10119,7 +10131,7 @@
         <v>6</v>
       </c>
       <c r="AB70" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC70" t="n">
         <v>9</v>
@@ -10128,7 +10140,7 @@
         <v>15</v>
       </c>
       <c r="AE70" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF70" t="n">
         <v>34</v>
@@ -10140,7 +10152,7 @@
         <v>7</v>
       </c>
       <c r="AI70" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ70" t="n">
         <v>67</v>
@@ -10149,16 +10161,16 @@
         <v>101</v>
       </c>
       <c r="AL70" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM70" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN70" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO70" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP70" t="n">
         <v>41</v>
@@ -10219,30 +10231,30 @@
         <v>3.75</v>
       </c>
       <c r="M71" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N71" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O71" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P71" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R71" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V71" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W71" t="n">
         <v>1.57</v>
@@ -10287,7 +10299,7 @@
         <v>67</v>
       </c>
       <c r="AK71" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AL71" t="n">
         <v>7</v>
@@ -10308,10 +10320,10 @@
         <v>41</v>
       </c>
       <c r="AR71" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -10361,13 +10373,13 @@
         <v>2.88</v>
       </c>
       <c r="L72" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M72" t="n">
         <v>1.03</v>
       </c>
       <c r="N72" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O72" t="n">
         <v>1.17</v>
@@ -10406,7 +10418,7 @@
         <v>1.5</v>
       </c>
       <c r="AA72" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB72" t="n">
         <v>6</v>
@@ -10439,7 +10451,7 @@
         <v>900</v>
       </c>
       <c r="AL72" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM72" t="n">
         <v>67</v>
@@ -10448,13 +10460,13 @@
         <v>41</v>
       </c>
       <c r="AO72" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AP72" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AQ72" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR72" t="n">
         <v>1.24</v>
@@ -10533,10 +10545,10 @@
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="V73" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W73" t="n">
         <v>1.53</v>
@@ -10602,10 +10614,10 @@
         <v>41</v>
       </c>
       <c r="AR73" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -11524,22 +11536,22 @@
         <v>4.5</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R80" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S80" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T80" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U80" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V80" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W80" t="n">
         <v>1.3</v>
@@ -11584,7 +11596,7 @@
         <v>51</v>
       </c>
       <c r="AK80" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AL80" t="n">
         <v>21</v>
@@ -11648,7 +11660,7 @@
         <v>7.5</v>
       </c>
       <c r="J81" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K81" t="n">
         <v>2.63</v>
@@ -11669,10 +11681,10 @@
         <v>5</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R81" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S81" t="n">
         <v>1.78</v>
@@ -11681,10 +11693,10 @@
         <v>2.03</v>
       </c>
       <c r="U81" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V81" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W81" t="n">
         <v>1.25</v>
@@ -11705,7 +11717,7 @@
         <v>7.5</v>
       </c>
       <c r="AC81" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD81" t="n">
         <v>8.5</v>
@@ -11747,7 +11759,7 @@
         <v>51</v>
       </c>
       <c r="AQ81" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR81" t="inlineStr"/>
       <c r="AS81" t="inlineStr"/>
@@ -11784,13 +11796,13 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="H82" t="n">
         <v>3.6</v>
       </c>
       <c r="I82" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="J82" t="n">
         <v>5.5</v>
@@ -11802,10 +11814,10 @@
         <v>2.1</v>
       </c>
       <c r="M82" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N82" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O82" t="n">
         <v>1.25</v>
@@ -11828,16 +11840,16 @@
         <v>1.33</v>
       </c>
       <c r="W82" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X82" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y82" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z82" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA82" t="n">
         <v>15</v>
@@ -11855,7 +11867,7 @@
         <v>41</v>
       </c>
       <c r="AF82" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG82" t="n">
         <v>10</v>
@@ -11879,16 +11891,16 @@
         <v>7.5</v>
       </c>
       <c r="AN82" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO82" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP82" t="n">
         <v>13</v>
       </c>
       <c r="AQ82" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR82" t="inlineStr"/>
       <c r="AS82" t="inlineStr"/>
@@ -12206,43 +12218,113 @@
           <t>Albirex Niigata</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H85" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J85" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L85" t="n">
+        <v>2</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N85" t="n">
+        <v>29</v>
+      </c>
+      <c r="O85" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P85" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3.5</v>
+      </c>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
-      <c r="Z85" t="inlineStr"/>
-      <c r="AA85" t="inlineStr"/>
-      <c r="AB85" t="inlineStr"/>
-      <c r="AC85" t="inlineStr"/>
-      <c r="AD85" t="inlineStr"/>
-      <c r="AE85" t="inlineStr"/>
-      <c r="AF85" t="inlineStr"/>
-      <c r="AG85" t="inlineStr"/>
-      <c r="AH85" t="inlineStr"/>
-      <c r="AI85" t="inlineStr"/>
-      <c r="AJ85" t="inlineStr"/>
-      <c r="AK85" t="inlineStr"/>
-      <c r="AL85" t="inlineStr"/>
-      <c r="AM85" t="inlineStr"/>
-      <c r="AN85" t="inlineStr"/>
-      <c r="AO85" t="inlineStr"/>
-      <c r="AP85" t="inlineStr"/>
-      <c r="AQ85" t="inlineStr"/>
+      <c r="U85" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V85" t="n">
+        <v>2</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X85" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>51</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>15</v>
+      </c>
       <c r="AR85" t="inlineStr"/>
       <c r="AS85" t="inlineStr"/>
     </row>
@@ -12419,16 +12501,16 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H87" t="n">
         <v>3</v>
       </c>
       <c r="I87" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J87" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K87" t="n">
         <v>1.91</v>
@@ -12478,7 +12560,7 @@
         <v>6</v>
       </c>
       <c r="AB87" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC87" t="n">
         <v>10</v>
@@ -12523,7 +12605,7 @@
         <v>34</v>
       </c>
       <c r="AQ87" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR87" t="n">
         <v>2.03</v>
@@ -12846,22 +12928,22 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="H90" t="n">
         <v>3</v>
       </c>
       <c r="I90" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="J90" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K90" t="n">
         <v>2.05</v>
       </c>
       <c r="L90" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="M90" t="n">
         <v>1.05</v>
@@ -12873,21 +12955,21 @@
         <v>1.22</v>
       </c>
       <c r="P90" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R90" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="V90" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="W90" t="n">
         <v>1.37</v>
@@ -12914,10 +12996,10 @@
         <v>30</v>
       </c>
       <c r="AE90" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF90" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG90" t="n">
         <v>7.8</v>
@@ -12935,19 +13017,19 @@
         <v>200</v>
       </c>
       <c r="AL90" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AM90" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AN90" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AO90" t="n">
         <v>40</v>
       </c>
       <c r="AP90" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ90" t="n">
         <v>23</v>
@@ -12987,19 +13069,19 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H91" t="n">
         <v>3.6</v>
       </c>
       <c r="I91" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J91" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K91" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L91" t="n">
         <v>5</v>
@@ -13031,10 +13113,10 @@
         <v>1.29</v>
       </c>
       <c r="W91" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X91" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y91" t="n">
         <v>1.83</v>
@@ -13052,7 +13134,7 @@
         <v>8.5</v>
       </c>
       <c r="AD91" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE91" t="n">
         <v>15</v>
@@ -13076,13 +13158,13 @@
         <v>301</v>
       </c>
       <c r="AL91" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM91" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN91" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO91" t="n">
         <v>51</v>
@@ -13410,28 +13492,28 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H94" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I94" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="J94" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="K94" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="L94" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="M94" t="n">
         <v>1.11</v>
       </c>
       <c r="N94" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O94" t="n">
         <v>1.52</v>
@@ -13448,16 +13530,16 @@
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="V94" t="n">
         <v>1.14</v>
       </c>
       <c r="W94" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="X94" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="Y94" t="n">
         <v>2.27</v>
@@ -13469,28 +13551,28 @@
         <v>4.9</v>
       </c>
       <c r="AB94" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AC94" t="n">
         <v>9.5</v>
       </c>
       <c r="AD94" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE94" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AF94" t="n">
         <v>50</v>
       </c>
       <c r="AG94" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AH94" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AI94" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ94" t="n">
         <v>175</v>
@@ -13502,19 +13584,19 @@
         <v>8.5</v>
       </c>
       <c r="AM94" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN94" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO94" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AP94" t="n">
         <v>60</v>
       </c>
       <c r="AQ94" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AR94" t="inlineStr"/>
       <c r="AS94" t="inlineStr"/>
@@ -13695,43 +13777,109 @@
           <t>Rayo Zuliano</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H96" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I96" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J96" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K96" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L96" t="n">
+        <v>4.2</v>
+      </c>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
+      <c r="O96" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P96" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R96" t="n">
+        <v>1.85</v>
+      </c>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
-      <c r="U96" t="inlineStr"/>
-      <c r="V96" t="inlineStr"/>
-      <c r="W96" t="inlineStr"/>
-      <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr"/>
-      <c r="Z96" t="inlineStr"/>
-      <c r="AA96" t="inlineStr"/>
-      <c r="AB96" t="inlineStr"/>
-      <c r="AC96" t="inlineStr"/>
-      <c r="AD96" t="inlineStr"/>
-      <c r="AE96" t="inlineStr"/>
-      <c r="AF96" t="inlineStr"/>
-      <c r="AG96" t="inlineStr"/>
-      <c r="AH96" t="inlineStr"/>
-      <c r="AI96" t="inlineStr"/>
-      <c r="AJ96" t="inlineStr"/>
-      <c r="AK96" t="inlineStr"/>
-      <c r="AL96" t="inlineStr"/>
-      <c r="AM96" t="inlineStr"/>
-      <c r="AN96" t="inlineStr"/>
-      <c r="AO96" t="inlineStr"/>
-      <c r="AP96" t="inlineStr"/>
-      <c r="AQ96" t="inlineStr"/>
+      <c r="U96" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="V96" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X96" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>60</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>35</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>37</v>
+      </c>
       <c r="AR96" t="inlineStr"/>
       <c r="AS96" t="inlineStr"/>
     </row>
@@ -13911,63 +14059,63 @@
         <v>1.7</v>
       </c>
       <c r="H98" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I98" t="n">
         <v>4.4</v>
       </c>
       <c r="J98" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="K98" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L98" t="n">
-        <v>4.85</v>
+        <v>4.75</v>
       </c>
       <c r="M98" t="n">
         <v>1.06</v>
       </c>
       <c r="N98" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="O98" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P98" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="R98" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="V98" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W98" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="X98" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="Y98" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Z98" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="AA98" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AB98" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AC98" t="n">
         <v>8.25</v>
@@ -13976,16 +14124,16 @@
         <v>13</v>
       </c>
       <c r="AE98" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF98" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG98" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AH98" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AI98" t="n">
         <v>16.5</v>
@@ -13997,13 +14145,13 @@
         <v>700</v>
       </c>
       <c r="AL98" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AM98" t="n">
         <v>25</v>
       </c>
       <c r="AN98" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO98" t="n">
         <v>75</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-21.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H2" t="n">
         <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="J2" t="n">
         <v>3.75</v>
@@ -707,7 +707,7 @@
         <v>2.38</v>
       </c>
       <c r="L2" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -722,34 +722,34 @@
         <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Z2" t="n">
         <v>2.38</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>2.5</v>
       </c>
       <c r="AA2" t="n">
         <v>17</v>
@@ -767,7 +767,7 @@
         <v>29</v>
       </c>
       <c r="AF2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG2" t="n">
         <v>15</v>
@@ -779,13 +779,13 @@
         <v>12</v>
       </c>
       <c r="AJ2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK2" t="n">
         <v>126</v>
       </c>
       <c r="AL2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM2" t="n">
         <v>13</v>
@@ -800,7 +800,7 @@
         <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr"/>
@@ -978,10 +978,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
         <v>3.4</v>
@@ -990,36 +990,36 @@
         <v>2.75</v>
       </c>
       <c r="K4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L4" t="n">
         <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="R4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W4" t="n">
         <v>1.36</v>
@@ -1028,13 +1028,13 @@
         <v>3</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB4" t="n">
         <v>11</v>
@@ -1043,10 +1043,10 @@
         <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
         <v>23</v>
@@ -1058,7 +1058,7 @@
         <v>6.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ4" t="n">
         <v>41</v>
@@ -1070,7 +1070,7 @@
         <v>12</v>
       </c>
       <c r="AM4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN4" t="n">
         <v>12</v>
@@ -1175,7 +1175,7 @@
         <v>1.8</v>
       </c>
       <c r="AA5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB5" t="n">
         <v>13</v>
@@ -1193,31 +1193,31 @@
         <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ5" t="n">
         <v>51</v>
       </c>
       <c r="AK5" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AL5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN5" t="n">
         <v>10</v>
       </c>
       <c r="AO5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP5" t="n">
         <v>23</v>
@@ -1260,13 +1260,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J6" t="n">
         <v>2.4</v>
@@ -1278,22 +1278,22 @@
         <v>4.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
         <v>10</v>
       </c>
       <c r="O6" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="P6" t="n">
         <v>3.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R6" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -1301,7 +1301,7 @@
         <v>3.4</v>
       </c>
       <c r="V6" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="W6" t="n">
         <v>1.4</v>
@@ -1352,13 +1352,13 @@
         <v>12</v>
       </c>
       <c r="AM6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN6" t="n">
         <v>15</v>
       </c>
       <c r="AO6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP6" t="n">
         <v>34</v>
@@ -1404,37 +1404,37 @@
         <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I7" t="n">
         <v>2.2</v>
       </c>
       <c r="J7" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K7" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
         <v>6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="P7" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R7" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S7" t="n">
         <v>4.8</v>
@@ -1443,10 +1443,10 @@
         <v>1.19</v>
       </c>
       <c r="U7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="V7" t="n">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="W7" t="n">
         <v>1.62</v>
@@ -1455,10 +1455,10 @@
         <v>2.2</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA7" t="n">
         <v>8</v>
@@ -1479,13 +1479,13 @@
         <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AH7" t="n">
         <v>6</v>
       </c>
       <c r="AI7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ7" t="n">
         <v>81</v>
@@ -1550,52 +1550,52 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J8" t="n">
         <v>2.5</v>
       </c>
       <c r="K8" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
         <v>5.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R8" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S8" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V8" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="W8" t="n">
         <v>1.5</v>
@@ -1619,7 +1619,7 @@
         <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE8" t="n">
         <v>17</v>
@@ -1628,7 +1628,7 @@
         <v>34</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH8" t="n">
         <v>6.5</v>
@@ -1643,13 +1643,13 @@
         <v>501</v>
       </c>
       <c r="AL8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO8" t="n">
         <v>51</v>
@@ -1661,10 +1661,10 @@
         <v>51</v>
       </c>
       <c r="AR8" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="9">
@@ -1717,13 +1717,13 @@
         <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="N9" t="n">
         <v>5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="P9" t="n">
         <v>2</v>
@@ -1738,13 +1738,13 @@
         <v>6.2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="U9" t="n">
         <v>8</v>
       </c>
       <c r="V9" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="W9" t="n">
         <v>1.78</v>
@@ -1810,10 +1810,10 @@
         <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="10">
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="H10" t="n">
         <v>3.1</v>
@@ -1866,13 +1866,13 @@
         <v>4.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
         <v>6.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P10" t="n">
         <v>2.5</v>
@@ -1881,7 +1881,7 @@
         <v>2.6</v>
       </c>
       <c r="R10" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S10" t="n">
         <v>4.2</v>
@@ -1893,7 +1893,7 @@
         <v>5</v>
       </c>
       <c r="V10" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="W10" t="n">
         <v>1.57</v>
@@ -1905,7 +1905,7 @@
         <v>2.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AA10" t="n">
         <v>5.5</v>
@@ -1997,10 +1997,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I11" t="n">
         <v>3.5</v>
@@ -2015,22 +2015,22 @@
         <v>3.6</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O11" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R11" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="S11" t="n">
         <v>1.88</v>
@@ -2039,10 +2039,10 @@
         <v>1.98</v>
       </c>
       <c r="U11" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="V11" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="W11" t="n">
         <v>1.29</v>
@@ -2051,7 +2051,7 @@
         <v>3.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Z11" t="n">
         <v>2.5</v>
@@ -2984,22 +2984,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H18" t="n">
         <v>3.6</v>
       </c>
       <c r="I18" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J18" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K18" t="n">
         <v>2.38</v>
       </c>
       <c r="L18" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
@@ -3053,7 +3053,7 @@
         <v>8.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
@@ -3083,7 +3083,7 @@
         <v>21</v>
       </c>
       <c r="AN18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO18" t="n">
         <v>41</v>
@@ -3432,7 +3432,7 @@
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O21" t="n">
         <v>1.25</v>
@@ -3500,7 +3500,7 @@
         <v>301</v>
       </c>
       <c r="AL21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM21" t="n">
         <v>29</v>
@@ -3552,13 +3552,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H22" t="n">
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J22" t="n">
         <v>2.1</v>
@@ -3567,19 +3567,19 @@
         <v>2.1</v>
       </c>
       <c r="L22" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P22" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
         <v>2.2</v>
@@ -3602,13 +3602,13 @@
         <v>2.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AA22" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AB22" t="n">
         <v>6</v>
@@ -3617,7 +3617,7 @@
         <v>9</v>
       </c>
       <c r="AD22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE22" t="n">
         <v>15</v>
@@ -3626,25 +3626,25 @@
         <v>41</v>
       </c>
       <c r="AG22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ22" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK22" t="n">
         <v>101</v>
       </c>
       <c r="AL22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AM22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN22" t="n">
         <v>21</v>
@@ -3693,16 +3693,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K23" t="n">
         <v>2.25</v>
@@ -3794,7 +3794,7 @@
         <v>101</v>
       </c>
       <c r="AP23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AQ23" t="n">
         <v>67</v>
@@ -3834,13 +3834,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H24" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J24" t="n">
         <v>2.75</v>
@@ -3849,7 +3849,7 @@
         <v>2.2</v>
       </c>
       <c r="L24" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
@@ -3858,10 +3858,10 @@
         <v>11</v>
       </c>
       <c r="O24" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P24" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q24" t="n">
         <v>1.9</v>
@@ -3870,7 +3870,7 @@
         <v>1.95</v>
       </c>
       <c r="S24" t="n">
-        <v>2.45</v>
+        <v>2.44</v>
       </c>
       <c r="T24" t="n">
         <v>1.54</v>
@@ -3882,10 +3882,10 @@
         <v>1.33</v>
       </c>
       <c r="W24" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X24" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y24" t="n">
         <v>1.73</v>
@@ -3894,10 +3894,10 @@
         <v>2</v>
       </c>
       <c r="AA24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC24" t="n">
         <v>9</v>
@@ -3918,7 +3918,7 @@
         <v>7</v>
       </c>
       <c r="AI24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ24" t="n">
         <v>41</v>
@@ -3933,7 +3933,7 @@
         <v>17</v>
       </c>
       <c r="AN24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO24" t="n">
         <v>34</v>
@@ -3942,7 +3942,7 @@
         <v>26</v>
       </c>
       <c r="AQ24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR24" t="n">
         <v>1.41</v>
@@ -3983,28 +3983,28 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H25" t="n">
         <v>3.4</v>
       </c>
       <c r="I25" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J25" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K25" t="n">
         <v>2.2</v>
       </c>
       <c r="L25" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M25" t="n">
         <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O25" t="n">
         <v>1.22</v>
@@ -4019,7 +4019,7 @@
         <v>2</v>
       </c>
       <c r="S25" t="n">
-        <v>2.3</v>
+        <v>2.29</v>
       </c>
       <c r="T25" t="n">
         <v>1.6</v>
@@ -4043,7 +4043,7 @@
         <v>2.2</v>
       </c>
       <c r="AA25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB25" t="n">
         <v>13</v>
@@ -4052,7 +4052,7 @@
         <v>10</v>
       </c>
       <c r="AD25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE25" t="n">
         <v>19</v>
@@ -4079,7 +4079,7 @@
         <v>10</v>
       </c>
       <c r="AM25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN25" t="n">
         <v>10</v>
@@ -4088,7 +4088,7 @@
         <v>26</v>
       </c>
       <c r="AP25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ25" t="n">
         <v>26</v>
@@ -4302,7 +4302,7 @@
         <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O27" t="n">
         <v>1.36</v>
@@ -4452,18 +4452,18 @@
         <v>3.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R28" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V28" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W28" t="n">
         <v>1.4</v>
@@ -4581,10 +4581,10 @@
         <v>3.75</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O29" t="n">
         <v>1.33</v>
@@ -4593,10 +4593,10 @@
         <v>3.25</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R29" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
@@ -4864,7 +4864,7 @@
         <v>2.2</v>
       </c>
       <c r="L31" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M31" t="n">
         <v>1.05</v>
@@ -4873,16 +4873,16 @@
         <v>11</v>
       </c>
       <c r="O31" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P31" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R31" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S31" t="n">
         <v>2</v>
@@ -4891,10 +4891,10 @@
         <v>1.85</v>
       </c>
       <c r="U31" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V31" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W31" t="n">
         <v>1.4</v>
@@ -4918,10 +4918,10 @@
         <v>12</v>
       </c>
       <c r="AD31" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE31" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF31" t="n">
         <v>34</v>
@@ -4942,16 +4942,16 @@
         <v>251</v>
       </c>
       <c r="AL31" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM31" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AN31" t="n">
         <v>9</v>
       </c>
       <c r="AO31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP31" t="n">
         <v>17</v>
@@ -5135,28 +5135,28 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="H33" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="I33" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="J33" t="n">
         <v>3.85</v>
       </c>
       <c r="K33" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="L33" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="N33" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O33" t="n">
         <v>1.62</v>
@@ -5165,24 +5165,24 @@
         <v>2.15</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="R33" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="V33" t="n">
         <v>1.13</v>
       </c>
       <c r="W33" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="X33" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="Y33" t="n">
         <v>2.18</v>
@@ -5191,13 +5191,13 @@
         <v>1.62</v>
       </c>
       <c r="AA33" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="AB33" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC33" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AD33" t="n">
         <v>45</v>
@@ -5209,13 +5209,13 @@
         <v>60</v>
       </c>
       <c r="AG33" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AH33" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AI33" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AJ33" t="n">
         <v>120</v>
@@ -5224,16 +5224,16 @@
         <v>101</v>
       </c>
       <c r="AL33" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="AM33" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AN33" t="n">
         <v>10.75</v>
       </c>
       <c r="AO33" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AP33" t="n">
         <v>30</v>
@@ -5276,108 +5276,108 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="H34" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I34" t="n">
-        <v>2.45</v>
+        <v>2.65</v>
       </c>
       <c r="J34" t="n">
-        <v>4.05</v>
+        <v>3.6</v>
       </c>
       <c r="K34" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="L34" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M34" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N34" t="n">
-        <v>4.85</v>
+        <v>5.1</v>
       </c>
       <c r="O34" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P34" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="R34" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="V34" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W34" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X34" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Z34" t="n">
         <v>1.62</v>
       </c>
-      <c r="X34" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>1.6</v>
-      </c>
       <c r="AA34" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AC34" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="AD34" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AE34" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AF34" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AG34" t="n">
-        <v>4.85</v>
+        <v>5.1</v>
       </c>
       <c r="AH34" t="n">
         <v>5.6</v>
       </c>
       <c r="AI34" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AJ34" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AK34" t="n">
         <v>101</v>
       </c>
       <c r="AL34" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="AM34" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AN34" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AO34" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AP34" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ34" t="n">
         <v>50</v>
@@ -5417,111 +5417,111 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="H35" t="n">
         <v>2.65</v>
       </c>
       <c r="I35" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="K35" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="L35" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="M35" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="N35" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="O35" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P35" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Q35" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="R35" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="V35" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W35" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="X35" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="AA35" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AB35" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AC35" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AD35" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE35" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AF35" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AG35" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ35" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AK35" t="n">
         <v>101</v>
       </c>
       <c r="AL35" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AM35" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN35" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AO35" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AP35" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AQ35" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr"/>
@@ -5558,111 +5558,111 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="H36" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="I36" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="J36" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="K36" t="n">
         <v>1.78</v>
       </c>
       <c r="L36" t="n">
-        <v>4.25</v>
+        <v>4.6</v>
       </c>
       <c r="M36" t="n">
         <v>1.16</v>
       </c>
       <c r="N36" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="O36" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P36" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="R36" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="X36" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA36" t="n">
         <v>5.1</v>
       </c>
-      <c r="V36" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W36" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="X36" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>5.6</v>
-      </c>
       <c r="AB36" t="n">
-        <v>10.5</v>
+        <v>9.25</v>
       </c>
       <c r="AC36" t="n">
         <v>10</v>
       </c>
       <c r="AD36" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AE36" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AF36" t="n">
         <v>50</v>
       </c>
       <c r="AG36" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="AH36" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AI36" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AJ36" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AK36" t="n">
         <v>101</v>
       </c>
       <c r="AL36" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="AM36" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AN36" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AO36" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AP36" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AQ36" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AR36" t="inlineStr"/>
       <c r="AS36" t="inlineStr"/>
@@ -5840,22 +5840,22 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H38" t="n">
         <v>3.5</v>
       </c>
       <c r="I38" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J38" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K38" t="n">
         <v>2</v>
       </c>
       <c r="L38" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M38" t="n">
         <v>1.08</v>
@@ -6549,28 +6549,28 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H43" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I43" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J43" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K43" t="n">
         <v>2.1</v>
       </c>
       <c r="L43" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M43" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N43" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O43" t="n">
         <v>1.36</v>
@@ -6605,46 +6605,46 @@
         <v>1.73</v>
       </c>
       <c r="AA43" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB43" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC43" t="n">
         <v>9</v>
       </c>
       <c r="AD43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE43" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF43" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG43" t="n">
         <v>8.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI43" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ43" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK43" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AL43" t="n">
         <v>11</v>
       </c>
       <c r="AM43" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN43" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO43" t="n">
         <v>51</v>
@@ -6720,10 +6720,10 @@
         <v>3.75</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R44" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
@@ -7130,7 +7130,7 @@
         <v>2.15</v>
       </c>
       <c r="J47" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K47" t="n">
         <v>2.2</v>
@@ -7145,16 +7145,16 @@
         <v>11</v>
       </c>
       <c r="O47" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P47" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R47" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
@@ -7180,7 +7180,7 @@
         <v>10</v>
       </c>
       <c r="AB47" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC47" t="n">
         <v>11</v>
@@ -7192,7 +7192,7 @@
         <v>23</v>
       </c>
       <c r="AF47" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG47" t="n">
         <v>11</v>
@@ -7216,7 +7216,7 @@
         <v>11</v>
       </c>
       <c r="AN47" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO47" t="n">
         <v>21</v>
@@ -7277,13 +7277,13 @@
         <v>2.2</v>
       </c>
       <c r="L48" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M48" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N48" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O48" t="n">
         <v>1.25</v>
@@ -7321,7 +7321,7 @@
         <v>8.5</v>
       </c>
       <c r="AB48" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC48" t="n">
         <v>9</v>
@@ -7336,7 +7336,7 @@
         <v>23</v>
       </c>
       <c r="AG48" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH48" t="n">
         <v>6.5</v>
@@ -7354,13 +7354,13 @@
         <v>11</v>
       </c>
       <c r="AM48" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN48" t="n">
         <v>12</v>
       </c>
       <c r="AO48" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP48" t="n">
         <v>26</v>
@@ -7403,16 +7403,16 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H49" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I49" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J49" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K49" t="n">
         <v>2.3</v>
@@ -7427,10 +7427,10 @@
         <v>13</v>
       </c>
       <c r="O49" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P49" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q49" t="n">
         <v>1.7</v>
@@ -7463,7 +7463,7 @@
         <v>2.2</v>
       </c>
       <c r="AA49" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB49" t="n">
         <v>11</v>
@@ -7478,7 +7478,7 @@
         <v>15</v>
       </c>
       <c r="AF49" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG49" t="n">
         <v>13</v>
@@ -7496,7 +7496,7 @@
         <v>151</v>
       </c>
       <c r="AL49" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM49" t="n">
         <v>19</v>
@@ -7505,10 +7505,10 @@
         <v>12</v>
       </c>
       <c r="AO49" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP49" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ49" t="n">
         <v>29</v>
@@ -7825,61 +7825,61 @@
         <v>1.7</v>
       </c>
       <c r="H52" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I52" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="J52" t="n">
         <v>2.22</v>
       </c>
       <c r="K52" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="L52" t="n">
-        <v>4.55</v>
+        <v>4.35</v>
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="P52" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R52" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="V52" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="Z52" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="AA52" t="n">
         <v>8.75</v>
       </c>
       <c r="AB52" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AC52" t="n">
         <v>8</v>
       </c>
       <c r="AD52" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE52" t="n">
         <v>12.5</v>
@@ -7888,37 +7888,37 @@
         <v>20</v>
       </c>
       <c r="AG52" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AH52" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AI52" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ52" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AK52" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AL52" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AM52" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN52" t="n">
         <v>14</v>
       </c>
       <c r="AO52" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AP52" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AQ52" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AR52" t="inlineStr"/>
       <c r="AS52" t="inlineStr"/>
@@ -7955,16 +7955,16 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H53" t="n">
         <v>3.4</v>
       </c>
       <c r="I53" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J53" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K53" t="n">
         <v>2.1</v>
@@ -8020,7 +8020,7 @@
         <v>9</v>
       </c>
       <c r="AD53" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE53" t="n">
         <v>17</v>
@@ -8032,7 +8032,7 @@
         <v>9</v>
       </c>
       <c r="AH53" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI53" t="n">
         <v>17</v>
@@ -8117,7 +8117,7 @@
         <v>1.07</v>
       </c>
       <c r="N54" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O54" t="n">
         <v>1.36</v>
@@ -8237,16 +8237,16 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H55" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I55" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J55" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K55" t="n">
         <v>2</v>
@@ -8323,7 +8323,7 @@
         <v>67</v>
       </c>
       <c r="AK55" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AL55" t="n">
         <v>7</v>
@@ -8338,7 +8338,7 @@
         <v>23</v>
       </c>
       <c r="AP55" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ55" t="n">
         <v>34</v>
@@ -8553,10 +8553,10 @@
         <v>3.75</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R57" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
@@ -8573,10 +8573,10 @@
         <v>3</v>
       </c>
       <c r="Y57" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z57" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA57" t="n">
         <v>7.5</v>
@@ -8594,7 +8594,7 @@
         <v>13</v>
       </c>
       <c r="AF57" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG57" t="n">
         <v>12</v>
@@ -8603,7 +8603,7 @@
         <v>7.5</v>
       </c>
       <c r="AI57" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ57" t="n">
         <v>51</v>
@@ -8664,13 +8664,13 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H58" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I58" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J58" t="n">
         <v>3.75</v>
@@ -8697,7 +8697,7 @@
         <v>2.05</v>
       </c>
       <c r="R58" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
@@ -8804,43 +8804,105 @@
           <t>Kuala Lumpur City</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="H59" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K59" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="L59" t="n">
+        <v>4.2</v>
+      </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
+      <c r="O59" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2.32</v>
+      </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
+      <c r="U59" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V59" t="n">
+        <v>1.55</v>
+      </c>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
-      <c r="AA59" t="inlineStr"/>
-      <c r="AB59" t="inlineStr"/>
-      <c r="AC59" t="inlineStr"/>
-      <c r="AD59" t="inlineStr"/>
-      <c r="AE59" t="inlineStr"/>
-      <c r="AF59" t="inlineStr"/>
-      <c r="AG59" t="inlineStr"/>
-      <c r="AH59" t="inlineStr"/>
-      <c r="AI59" t="inlineStr"/>
-      <c r="AJ59" t="inlineStr"/>
-      <c r="AK59" t="inlineStr"/>
-      <c r="AL59" t="inlineStr"/>
-      <c r="AM59" t="inlineStr"/>
-      <c r="AN59" t="inlineStr"/>
-      <c r="AO59" t="inlineStr"/>
-      <c r="AP59" t="inlineStr"/>
-      <c r="AQ59" t="inlineStr"/>
+      <c r="Y59" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>14</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>50</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>26</v>
+      </c>
       <c r="AR59" t="inlineStr"/>
       <c r="AS59" t="inlineStr"/>
     </row>
@@ -8875,43 +8937,105 @@
           <t>Kuching City FC</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="G60" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K60" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="L60" t="n">
+        <v>4.5</v>
+      </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
+      <c r="O60" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1.82</v>
+      </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
+      <c r="U60" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V60" t="n">
+        <v>1.31</v>
+      </c>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr"/>
-      <c r="AA60" t="inlineStr"/>
-      <c r="AB60" t="inlineStr"/>
-      <c r="AC60" t="inlineStr"/>
-      <c r="AD60" t="inlineStr"/>
-      <c r="AE60" t="inlineStr"/>
-      <c r="AF60" t="inlineStr"/>
-      <c r="AG60" t="inlineStr"/>
-      <c r="AH60" t="inlineStr"/>
-      <c r="AI60" t="inlineStr"/>
-      <c r="AJ60" t="inlineStr"/>
-      <c r="AK60" t="inlineStr"/>
-      <c r="AL60" t="inlineStr"/>
-      <c r="AM60" t="inlineStr"/>
-      <c r="AN60" t="inlineStr"/>
-      <c r="AO60" t="inlineStr"/>
-      <c r="AP60" t="inlineStr"/>
-      <c r="AQ60" t="inlineStr"/>
+      <c r="Y60" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>50</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>40</v>
+      </c>
       <c r="AR60" t="inlineStr"/>
       <c r="AS60" t="inlineStr"/>
     </row>
@@ -8965,19 +9089,19 @@
         <v>4.75</v>
       </c>
       <c r="M61" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N61" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O61" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P61" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R61" t="n">
         <v>2.1</v>
@@ -8985,10 +9109,10 @@
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V61" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W61" t="n">
         <v>1.33</v>
@@ -9088,30 +9212,30 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="H62" t="n">
-        <v>4.55</v>
+        <v>4.7</v>
       </c>
       <c r="I62" t="n">
         <v>6.6</v>
       </c>
       <c r="J62" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K62" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="L62" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P62" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="Q62" t="n">
         <v>1.44</v>
@@ -9122,7 +9246,7 @@
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="V62" t="n">
         <v>1.62</v>
@@ -9130,10 +9254,10 @@
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Z62" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="AA62" t="n">
         <v>9.5</v>
@@ -9145,22 +9269,22 @@
         <v>8.25</v>
       </c>
       <c r="AD62" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AE62" t="n">
         <v>10.25</v>
       </c>
       <c r="AF62" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AG62" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AH62" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AI62" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AJ62" t="n">
         <v>55</v>
@@ -9169,7 +9293,7 @@
         <v>350</v>
       </c>
       <c r="AL62" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM62" t="n">
         <v>50</v>
@@ -9181,7 +9305,7 @@
         <v>150</v>
       </c>
       <c r="AP62" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AQ62" t="n">
         <v>50</v>
@@ -9649,13 +9773,13 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H67" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J67" t="n">
         <v>4</v>
@@ -9664,13 +9788,13 @@
         <v>2.2</v>
       </c>
       <c r="L67" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M67" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N67" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O67" t="n">
         <v>1.25</v>
@@ -9679,18 +9803,18 @@
         <v>3.75</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R67" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V67" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W67" t="n">
         <v>1.36</v>
@@ -9705,13 +9829,13 @@
         <v>2</v>
       </c>
       <c r="AA67" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB67" t="n">
         <v>19</v>
       </c>
       <c r="AC67" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD67" t="n">
         <v>41</v>
@@ -9723,7 +9847,7 @@
         <v>34</v>
       </c>
       <c r="AG67" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH67" t="n">
         <v>7</v>
@@ -9744,7 +9868,7 @@
         <v>9.5</v>
       </c>
       <c r="AN67" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO67" t="n">
         <v>17</v>
@@ -9753,7 +9877,7 @@
         <v>15</v>
       </c>
       <c r="AQ67" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR67" t="inlineStr"/>
       <c r="AS67" t="inlineStr"/>
@@ -10525,22 +10649,22 @@
         <v>4.75</v>
       </c>
       <c r="M73" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N73" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O73" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P73" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R73" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
@@ -10614,10 +10738,10 @@
         <v>41</v>
       </c>
       <c r="AR73" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AS73" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="74">
@@ -10934,22 +11058,22 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H76" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I76" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J76" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K76" t="n">
         <v>2.5</v>
       </c>
       <c r="L76" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M76" t="n">
         <v>1.04</v>
@@ -10988,22 +11112,22 @@
         <v>3.4</v>
       </c>
       <c r="Y76" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z76" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA76" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB76" t="n">
         <v>7</v>
       </c>
       <c r="AC76" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD76" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AD76" t="n">
-        <v>9</v>
       </c>
       <c r="AE76" t="n">
         <v>11</v>
@@ -11015,16 +11139,16 @@
         <v>13</v>
       </c>
       <c r="AH76" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI76" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ76" t="n">
         <v>51</v>
       </c>
       <c r="AK76" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL76" t="n">
         <v>21</v>
@@ -11033,10 +11157,10 @@
         <v>41</v>
       </c>
       <c r="AN76" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO76" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AP76" t="n">
         <v>51</v>
@@ -11109,10 +11233,10 @@
         <v>4.33</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R77" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
@@ -11238,22 +11362,22 @@
         <v>3.6</v>
       </c>
       <c r="M78" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N78" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O78" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P78" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R78" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
@@ -11361,22 +11485,22 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="H79" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I79" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="J79" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K79" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L79" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="M79" t="n">
         <v>1.03</v>
@@ -11415,10 +11539,10 @@
         <v>3.5</v>
       </c>
       <c r="Y79" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Z79" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AA79" t="n">
         <v>19</v>
@@ -11427,10 +11551,10 @@
         <v>34</v>
       </c>
       <c r="AC79" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD79" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AE79" t="n">
         <v>41</v>
@@ -11445,7 +11569,7 @@
         <v>9</v>
       </c>
       <c r="AI79" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ79" t="n">
         <v>41</v>
@@ -11454,13 +11578,13 @@
         <v>151</v>
       </c>
       <c r="AL79" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM79" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AN79" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO79" t="n">
         <v>11</v>
@@ -11596,7 +11720,7 @@
         <v>51</v>
       </c>
       <c r="AK80" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AL80" t="n">
         <v>21</v>
@@ -11651,13 +11775,13 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H81" t="n">
         <v>5.75</v>
       </c>
       <c r="I81" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J81" t="n">
         <v>1.67</v>
@@ -11666,7 +11790,7 @@
         <v>2.63</v>
       </c>
       <c r="L81" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M81" t="n">
         <v>1.02</v>
@@ -11681,22 +11805,22 @@
         <v>5</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R81" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S81" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="T81" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="U81" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V81" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W81" t="n">
         <v>1.25</v>
@@ -11705,16 +11829,16 @@
         <v>3.75</v>
       </c>
       <c r="Y81" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z81" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA81" t="n">
         <v>9</v>
       </c>
       <c r="AB81" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC81" t="n">
         <v>9.5</v>
@@ -11741,7 +11865,7 @@
         <v>51</v>
       </c>
       <c r="AK81" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AL81" t="n">
         <v>23</v>
@@ -11753,13 +11877,13 @@
         <v>23</v>
       </c>
       <c r="AO81" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AP81" t="n">
         <v>51</v>
       </c>
       <c r="AQ81" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR81" t="inlineStr"/>
       <c r="AS81" t="inlineStr"/>
@@ -12219,22 +12343,22 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H85" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I85" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="J85" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="K85" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L85" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="M85" t="n">
         <v>1.01</v>
@@ -12269,28 +12393,28 @@
         <v>4.5</v>
       </c>
       <c r="Y85" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Z85" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AA85" t="n">
         <v>26</v>
       </c>
       <c r="AB85" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC85" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD85" t="n">
         <v>51</v>
       </c>
       <c r="AE85" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF85" t="n">
         <v>29</v>
-      </c>
-      <c r="AF85" t="n">
-        <v>26</v>
       </c>
       <c r="AG85" t="n">
         <v>29</v>
@@ -12302,7 +12426,7 @@
         <v>13</v>
       </c>
       <c r="AJ85" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK85" t="n">
         <v>81</v>
@@ -12311,19 +12435,19 @@
         <v>15</v>
       </c>
       <c r="AM85" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN85" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO85" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP85" t="n">
         <v>11</v>
       </c>
       <c r="AQ85" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR85" t="inlineStr"/>
       <c r="AS85" t="inlineStr"/>
@@ -12787,19 +12911,19 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="H89" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I89" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J89" t="n">
         <v>3.2</v>
       </c>
-      <c r="I89" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J89" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K89" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L89" t="n">
         <v>3.1</v>
@@ -12811,21 +12935,21 @@
         <v>7.5</v>
       </c>
       <c r="O89" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P89" t="n">
         <v>3.45</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R89" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="V89" t="n">
         <v>1.37</v>
@@ -12834,7 +12958,7 @@
         <v>1.39</v>
       </c>
       <c r="X89" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="Y89" t="n">
         <v>1.62</v>
@@ -12843,10 +12967,10 @@
         <v>2.18</v>
       </c>
       <c r="AA89" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AB89" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC89" t="n">
         <v>9.75</v>
@@ -12864,19 +12988,19 @@
         <v>7.5</v>
       </c>
       <c r="AH89" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AI89" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AJ89" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AK89" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AL89" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AM89" t="n">
         <v>13.5</v>
@@ -12888,7 +13012,7 @@
         <v>28</v>
       </c>
       <c r="AP89" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AQ89" t="n">
         <v>26</v>
@@ -12928,19 +13052,19 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="H90" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I90" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="J90" t="n">
         <v>3</v>
       </c>
-      <c r="I90" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J90" t="n">
-        <v>3.05</v>
-      </c>
       <c r="K90" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L90" t="n">
         <v>3.4</v>
@@ -12949,7 +13073,7 @@
         <v>1.05</v>
       </c>
       <c r="N90" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="O90" t="n">
         <v>1.22</v>
@@ -12972,10 +13096,10 @@
         <v>1.47</v>
       </c>
       <c r="W90" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X90" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="Y90" t="n">
         <v>1.5</v>
@@ -12984,7 +13108,7 @@
         <v>2.42</v>
       </c>
       <c r="AA90" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AB90" t="n">
         <v>15</v>
@@ -12993,22 +13117,22 @@
         <v>9</v>
       </c>
       <c r="AD90" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE90" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF90" t="n">
         <v>21</v>
       </c>
       <c r="AG90" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AH90" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AI90" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AJ90" t="n">
         <v>35</v>
@@ -13017,10 +13141,10 @@
         <v>200</v>
       </c>
       <c r="AL90" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AM90" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AN90" t="n">
         <v>10</v>
@@ -13069,28 +13193,28 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H91" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I91" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J91" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K91" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L91" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M91" t="n">
         <v>1.06</v>
       </c>
       <c r="N91" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O91" t="n">
         <v>1.3</v>
@@ -13119,22 +13243,22 @@
         <v>2.63</v>
       </c>
       <c r="Y91" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z91" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA91" t="n">
         <v>6.5</v>
       </c>
       <c r="AB91" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC91" t="n">
         <v>8.5</v>
       </c>
       <c r="AD91" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE91" t="n">
         <v>15</v>
@@ -13155,16 +13279,16 @@
         <v>51</v>
       </c>
       <c r="AK91" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL91" t="n">
         <v>12</v>
       </c>
       <c r="AM91" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN91" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO91" t="n">
         <v>51</v>
@@ -13778,44 +13902,44 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="H96" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I96" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J96" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="K96" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L96" t="n">
-        <v>4.2</v>
+        <v>4.45</v>
       </c>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P96" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R96" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="V96" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="W96" t="n">
         <v>1.42</v>
@@ -13824,61 +13948,61 @@
         <v>2.7</v>
       </c>
       <c r="Y96" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="Z96" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="AA96" t="n">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="AB96" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AC96" t="n">
         <v>8</v>
       </c>
       <c r="AD96" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AE96" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF96" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG96" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH96" t="n">
         <v>6.5</v>
       </c>
       <c r="AI96" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ96" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK96" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AL96" t="n">
         <v>11.75</v>
       </c>
       <c r="AM96" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AN96" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO96" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AP96" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AQ96" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AR96" t="inlineStr"/>
       <c r="AS96" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-21.xlsx
@@ -861,16 +861,16 @@
         <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="R3" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -1263,13 +1263,13 @@
         <v>1.8</v>
       </c>
       <c r="H6" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
         <v>4.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
@@ -1290,10 +1290,10 @@
         <v>3.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R6" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -1337,7 +1337,7 @@
         <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI6" t="n">
         <v>15</v>
@@ -1349,7 +1349,7 @@
         <v>251</v>
       </c>
       <c r="AL6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM6" t="n">
         <v>23</v>
@@ -1571,7 +1571,7 @@
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
         <v>1.44</v>
@@ -1848,13 +1848,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H10" t="n">
         <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J10" t="n">
         <v>2.88</v>
@@ -1863,7 +1863,7 @@
         <v>1.91</v>
       </c>
       <c r="L10" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M10" t="n">
         <v>1.11</v>
@@ -1890,10 +1890,10 @@
         <v>1.23</v>
       </c>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V10" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W10" t="n">
         <v>1.57</v>
@@ -1944,7 +1944,7 @@
         <v>8.5</v>
       </c>
       <c r="AM10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN10" t="n">
         <v>15</v>
@@ -1959,10 +1959,10 @@
         <v>51</v>
       </c>
       <c r="AR10" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="11">
@@ -2006,13 +2006,13 @@
         <v>3.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K11" t="n">
         <v>2.4</v>
       </c>
       <c r="L11" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
@@ -2069,7 +2069,7 @@
         <v>19</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
         <v>19</v>
@@ -2096,7 +2096,7 @@
         <v>21</v>
       </c>
       <c r="AN11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO11" t="n">
         <v>41</v>
@@ -2424,7 +2424,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="H14" t="n">
         <v>3.3</v>
@@ -2433,19 +2433,19 @@
         <v>2.47</v>
       </c>
       <c r="J14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K14" t="n">
         <v>2.1</v>
       </c>
       <c r="L14" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="O14" t="n">
         <v>1.25</v>
@@ -2480,10 +2480,10 @@
         <v>2.2</v>
       </c>
       <c r="AA14" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AB14" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC14" t="n">
         <v>9.75</v>
@@ -2492,16 +2492,16 @@
         <v>32</v>
       </c>
       <c r="AE14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AH14" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AI14" t="n">
         <v>12</v>
@@ -2513,22 +2513,22 @@
         <v>300</v>
       </c>
       <c r="AL14" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AM14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AN14" t="n">
         <v>9.25</v>
       </c>
       <c r="AO14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP14" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
@@ -3270,10 +3270,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H20" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I20" t="n">
         <v>5.25</v>
@@ -3294,30 +3294,30 @@
         <v>13</v>
       </c>
       <c r="O20" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P20" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R20" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V20" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W20" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X20" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y20" t="n">
         <v>1.83</v>
@@ -3326,7 +3326,7 @@
         <v>1.83</v>
       </c>
       <c r="AA20" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB20" t="n">
         <v>7.5</v>
@@ -3344,22 +3344,22 @@
         <v>26</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
         <v>8</v>
       </c>
       <c r="AI20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ20" t="n">
         <v>51</v>
       </c>
       <c r="AK20" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM20" t="n">
         <v>29</v>
@@ -3411,13 +3411,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H21" t="n">
         <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J21" t="n">
         <v>2.1</v>
@@ -3426,19 +3426,19 @@
         <v>2.1</v>
       </c>
       <c r="L21" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P21" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="n">
         <v>2.2</v>
@@ -3476,7 +3476,7 @@
         <v>9</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE21" t="n">
         <v>15</v>
@@ -3491,10 +3491,10 @@
         <v>8</v>
       </c>
       <c r="AI21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ21" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK21" t="n">
         <v>101</v>
@@ -3515,7 +3515,7 @@
         <v>51</v>
       </c>
       <c r="AQ21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
@@ -3872,10 +3872,10 @@
         <v>4</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R24" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S24" t="n">
         <v>2.3</v>
@@ -3991,13 +3991,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H25" t="n">
         <v>3.4</v>
       </c>
       <c r="I25" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J25" t="n">
         <v>2.3</v>
@@ -4009,16 +4009,16 @@
         <v>6.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O25" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P25" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q25" t="n">
         <v>2.35</v>
@@ -4051,7 +4051,7 @@
         <v>1.57</v>
       </c>
       <c r="AA25" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AB25" t="n">
         <v>6.5</v>
@@ -4060,7 +4060,7 @@
         <v>9</v>
       </c>
       <c r="AD25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE25" t="n">
         <v>17</v>
@@ -4099,7 +4099,7 @@
         <v>51</v>
       </c>
       <c r="AQ25" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR25" t="n">
         <v>1.78</v>
@@ -4164,16 +4164,16 @@
         <v>9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P26" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R26" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -4738,10 +4738,10 @@
         <v>3.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R30" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S30" t="n">
         <v>2</v>
@@ -4994,28 +4994,28 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="H32" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="I32" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="J32" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="K32" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="L32" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M32" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="N32" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O32" t="n">
         <v>1.62</v>
@@ -5024,10 +5024,10 @@
         <v>2.15</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="R32" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
@@ -5050,31 +5050,31 @@
         <v>1.62</v>
       </c>
       <c r="AA32" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AB32" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC32" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AD32" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AE32" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF32" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG32" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AH32" t="n">
         <v>5.3</v>
       </c>
       <c r="AI32" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AJ32" t="n">
         <v>120</v>
@@ -5083,22 +5083,22 @@
         <v>101</v>
       </c>
       <c r="AL32" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AM32" t="n">
         <v>12.5</v>
       </c>
       <c r="AN32" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AO32" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AP32" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AQ32" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr"/>
@@ -5135,66 +5135,66 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="H33" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="I33" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="J33" t="n">
         <v>3.6</v>
       </c>
       <c r="K33" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="L33" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N33" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="O33" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P33" t="n">
-        <v>2.27</v>
+        <v>2.18</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.65</v>
+        <v>2.77</v>
       </c>
       <c r="R33" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="n">
-        <v>4.85</v>
+        <v>5.1</v>
       </c>
       <c r="V33" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W33" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z33" t="n">
         <v>1.6</v>
       </c>
-      <c r="X33" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>1.62</v>
-      </c>
       <c r="AA33" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB33" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC33" t="n">
         <v>11.25</v>
@@ -5209,37 +5209,37 @@
         <v>55</v>
       </c>
       <c r="AG33" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="AH33" t="n">
         <v>5.6</v>
       </c>
       <c r="AI33" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AJ33" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AK33" t="n">
         <v>101</v>
       </c>
       <c r="AL33" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AM33" t="n">
         <v>11.5</v>
       </c>
       <c r="AN33" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AO33" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AP33" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AQ33" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr"/>
@@ -5276,87 +5276,87 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="H34" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="I34" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="J34" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="K34" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="L34" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M34" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="N34" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="O34" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="P34" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.92</v>
+        <v>2.77</v>
       </c>
       <c r="R34" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W34" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="X34" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="Z34" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AA34" t="n">
         <v>5</v>
       </c>
       <c r="AB34" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AD34" t="n">
         <v>21</v>
       </c>
       <c r="AE34" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF34" t="n">
         <v>50</v>
       </c>
       <c r="AG34" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="AH34" t="n">
         <v>5.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ34" t="n">
         <v>150</v>
@@ -5365,22 +5365,22 @@
         <v>101</v>
       </c>
       <c r="AL34" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="AM34" t="n">
         <v>21</v>
       </c>
       <c r="AN34" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AP34" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AQ34" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AR34" t="inlineStr"/>
       <c r="AS34" t="inlineStr"/>
@@ -5417,87 +5417,87 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="H35" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="I35" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="K35" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="L35" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="M35" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="N35" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="O35" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="P35" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.87</v>
+        <v>2.75</v>
       </c>
       <c r="R35" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="V35" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="W35" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="X35" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="AA35" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AB35" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AC35" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE35" t="n">
         <v>23</v>
       </c>
-      <c r="AE35" t="n">
-        <v>25</v>
-      </c>
       <c r="AF35" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG35" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="AH35" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AI35" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ35" t="n">
         <v>150</v>
@@ -5506,22 +5506,22 @@
         <v>101</v>
       </c>
       <c r="AL35" t="n">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="AM35" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AN35" t="n">
         <v>14.5</v>
       </c>
       <c r="AO35" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AP35" t="n">
         <v>50</v>
       </c>
       <c r="AQ35" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr"/>
@@ -5588,10 +5588,10 @@
         <v>3.75</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R36" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
@@ -5985,13 +5985,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H39" t="n">
         <v>3.1</v>
       </c>
       <c r="I39" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J39" t="n">
         <v>2.63</v>
@@ -6000,7 +6000,7 @@
         <v>2.05</v>
       </c>
       <c r="L39" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M39" t="n">
         <v>1.07</v>
@@ -6023,16 +6023,16 @@
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V39" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W39" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X39" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y39" t="n">
         <v>1.91</v>
@@ -6050,7 +6050,7 @@
         <v>9</v>
       </c>
       <c r="AD39" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE39" t="n">
         <v>17</v>
@@ -6065,13 +6065,13 @@
         <v>6</v>
       </c>
       <c r="AI39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ39" t="n">
         <v>51</v>
       </c>
       <c r="AK39" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL39" t="n">
         <v>11</v>
@@ -6086,7 +6086,7 @@
         <v>41</v>
       </c>
       <c r="AP39" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ39" t="n">
         <v>41</v>
@@ -6135,7 +6135,7 @@
         <v>2.3</v>
       </c>
       <c r="J40" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K40" t="n">
         <v>2.05</v>
@@ -6147,7 +6147,7 @@
         <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O40" t="n">
         <v>1.33</v>
@@ -6188,7 +6188,7 @@
         <v>15</v>
       </c>
       <c r="AC40" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD40" t="n">
         <v>34</v>
@@ -6224,7 +6224,7 @@
         <v>9.5</v>
       </c>
       <c r="AO40" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP40" t="n">
         <v>21</v>
@@ -6429,7 +6429,7 @@
         <v>1.07</v>
       </c>
       <c r="N42" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O42" t="n">
         <v>1.36</v>
@@ -6438,10 +6438,10 @@
         <v>3</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R42" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
@@ -6467,13 +6467,13 @@
         <v>6</v>
       </c>
       <c r="AB42" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC42" t="n">
         <v>9</v>
       </c>
       <c r="AD42" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE42" t="n">
         <v>15</v>
@@ -6485,7 +6485,7 @@
         <v>8.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI42" t="n">
         <v>17</v>
@@ -6500,7 +6500,7 @@
         <v>11</v>
       </c>
       <c r="AM42" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN42" t="n">
         <v>15</v>
@@ -6708,16 +6708,16 @@
         <v>4.5</v>
       </c>
       <c r="M44" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N44" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O44" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P44" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q44" t="n">
         <v>1.48</v>
@@ -6992,16 +6992,16 @@
         <v>3.75</v>
       </c>
       <c r="K46" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L46" t="n">
         <v>2.88</v>
       </c>
       <c r="M46" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N46" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O46" t="n">
         <v>1.29</v>
@@ -7042,34 +7042,34 @@
         <v>17</v>
       </c>
       <c r="AC46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD46" t="n">
         <v>34</v>
       </c>
       <c r="AE46" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF46" t="n">
         <v>34</v>
       </c>
       <c r="AG46" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH46" t="n">
         <v>6.5</v>
       </c>
       <c r="AI46" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ46" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK46" t="n">
         <v>201</v>
       </c>
       <c r="AL46" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM46" t="n">
         <v>11</v>
@@ -7084,7 +7084,7 @@
         <v>17</v>
       </c>
       <c r="AQ46" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR46" t="inlineStr"/>
       <c r="AS46" t="inlineStr"/>
@@ -7121,16 +7121,16 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H47" t="n">
         <v>3.4</v>
       </c>
       <c r="I47" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J47" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K47" t="n">
         <v>2.2</v>
@@ -7186,13 +7186,13 @@
         <v>9</v>
       </c>
       <c r="AD47" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE47" t="n">
         <v>17</v>
       </c>
       <c r="AF47" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG47" t="n">
         <v>11</v>
@@ -7222,10 +7222,10 @@
         <v>34</v>
       </c>
       <c r="AP47" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ47" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR47" t="inlineStr"/>
       <c r="AS47" t="inlineStr"/>
@@ -7262,22 +7262,22 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H48" t="n">
         <v>3.5</v>
       </c>
       <c r="I48" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J48" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K48" t="n">
         <v>2.3</v>
       </c>
       <c r="L48" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M48" t="n">
         <v>1.03</v>
@@ -7316,10 +7316,10 @@
         <v>3.25</v>
       </c>
       <c r="Y48" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z48" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA48" t="n">
         <v>9.5</v>
@@ -7331,7 +7331,7 @@
         <v>9</v>
       </c>
       <c r="AD48" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE48" t="n">
         <v>15</v>
@@ -7358,16 +7358,16 @@
         <v>13</v>
       </c>
       <c r="AM48" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN48" t="n">
         <v>12</v>
       </c>
       <c r="AO48" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP48" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ48" t="n">
         <v>29</v>
@@ -7407,22 +7407,22 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H49" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I49" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="J49" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="K49" t="n">
         <v>2.15</v>
       </c>
       <c r="L49" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
@@ -7441,10 +7441,10 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="V49" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W49" t="n">
         <v>1.38</v>
@@ -7453,61 +7453,61 @@
         <v>2.6</v>
       </c>
       <c r="Y49" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Z49" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="AA49" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AB49" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC49" t="n">
         <v>8.25</v>
       </c>
       <c r="AD49" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE49" t="n">
         <v>14</v>
       </c>
       <c r="AF49" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG49" t="n">
         <v>10.25</v>
       </c>
       <c r="AH49" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AI49" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AJ49" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK49" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AL49" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AM49" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN49" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AO49" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AP49" t="n">
         <v>40</v>
       </c>
       <c r="AQ49" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR49" t="inlineStr"/>
       <c r="AS49" t="inlineStr"/>
@@ -7547,7 +7547,7 @@
         <v>1.95</v>
       </c>
       <c r="H50" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I50" t="n">
         <v>3.7</v>
@@ -7564,69 +7564,69 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P50" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="R50" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="V50" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W50" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X50" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="Y50" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="Z50" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="AA50" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="AB50" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AC50" t="n">
         <v>8.25</v>
       </c>
       <c r="AD50" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE50" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF50" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AG50" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH50" t="n">
         <v>6.4</v>
       </c>
       <c r="AI50" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ50" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK50" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AL50" t="n">
         <v>10.5</v>
@@ -7681,36 +7681,36 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H51" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I51" t="n">
-        <v>4.25</v>
+        <v>4.45</v>
       </c>
       <c r="J51" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="K51" t="n">
         <v>2.27</v>
       </c>
       <c r="L51" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="P51" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q51" t="n">
         <v>1.57</v>
       </c>
       <c r="R51" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
@@ -7726,13 +7726,13 @@
         <v>1.57</v>
       </c>
       <c r="Z51" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="AA51" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB51" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AC51" t="n">
         <v>8</v>
@@ -7741,13 +7741,13 @@
         <v>14</v>
       </c>
       <c r="AE51" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF51" t="n">
         <v>20</v>
       </c>
       <c r="AG51" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH51" t="n">
         <v>7.6</v>
@@ -7756,7 +7756,7 @@
         <v>13</v>
       </c>
       <c r="AJ51" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AK51" t="n">
         <v>300</v>
@@ -7765,19 +7765,19 @@
         <v>16</v>
       </c>
       <c r="AM51" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN51" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AO51" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AP51" t="n">
+        <v>37</v>
+      </c>
+      <c r="AQ51" t="n">
         <v>35</v>
-      </c>
-      <c r="AQ51" t="n">
-        <v>32</v>
       </c>
       <c r="AR51" t="inlineStr"/>
       <c r="AS51" t="inlineStr"/>
@@ -8412,10 +8412,10 @@
         <v>3.75</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R56" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
@@ -8432,10 +8432,10 @@
         <v>3</v>
       </c>
       <c r="Y56" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z56" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA56" t="n">
         <v>7.5</v>
@@ -8453,7 +8453,7 @@
         <v>13</v>
       </c>
       <c r="AF56" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG56" t="n">
         <v>12</v>
@@ -8462,7 +8462,7 @@
         <v>7.5</v>
       </c>
       <c r="AI56" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ56" t="n">
         <v>51</v>
@@ -8553,10 +8553,10 @@
         <v>3.25</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R57" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
@@ -8664,22 +8664,22 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="H58" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="I58" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="J58" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="K58" t="n">
-        <v>2.46</v>
+        <v>2.35</v>
       </c>
       <c r="L58" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
@@ -8690,74 +8690,74 @@
         <v>4.6</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="R58" t="n">
-        <v>2.36</v>
+        <v>2.18</v>
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="V58" t="n">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="Z58" t="n">
-        <v>2.37</v>
+        <v>2.33</v>
       </c>
       <c r="AA58" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="AB58" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC58" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AD58" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AE58" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AF58" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG58" t="n">
         <v>15</v>
       </c>
       <c r="AH58" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AI58" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AJ58" t="n">
         <v>35</v>
       </c>
       <c r="AK58" t="n">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="AL58" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AM58" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN58" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO58" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AP58" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AQ58" t="n">
         <v>27</v>
@@ -8797,103 +8797,103 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="H59" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="I59" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="J59" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="K59" t="n">
-        <v>2.16</v>
+        <v>1.98</v>
       </c>
       <c r="L59" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="P59" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="R59" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="n">
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
       <c r="V59" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="n">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="Z59" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="AA59" t="n">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="AB59" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="AC59" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AD59" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL59" t="n">
         <v>12</v>
       </c>
-      <c r="AE59" t="n">
+      <c r="AM59" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN59" t="n">
         <v>12</v>
       </c>
-      <c r="AF59" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG59" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH59" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK59" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL59" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AM59" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN59" t="n">
-        <v>11</v>
-      </c>
       <c r="AO59" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AP59" t="n">
+        <v>35</v>
+      </c>
+      <c r="AQ59" t="n">
         <v>30</v>
-      </c>
-      <c r="AQ59" t="n">
-        <v>40</v>
       </c>
       <c r="AR59" t="inlineStr"/>
       <c r="AS59" t="inlineStr"/>
@@ -8930,7 +8930,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H60" t="n">
         <v>4</v>
@@ -8939,7 +8939,7 @@
         <v>4.5</v>
       </c>
       <c r="J60" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K60" t="n">
         <v>2.3</v>
@@ -8954,10 +8954,10 @@
         <v>15</v>
       </c>
       <c r="O60" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P60" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q60" t="n">
         <v>1.7</v>
@@ -8968,10 +8968,10 @@
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V60" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W60" t="n">
         <v>1.33</v>
@@ -9016,7 +9016,7 @@
         <v>41</v>
       </c>
       <c r="AK60" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL60" t="n">
         <v>15</v>
@@ -9346,16 +9346,16 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H64" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I64" t="n">
         <v>5</v>
       </c>
       <c r="J64" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K64" t="n">
         <v>2.63</v>
@@ -9370,16 +9370,16 @@
         <v>21</v>
       </c>
       <c r="O64" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P64" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R64" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="S64" t="n">
         <v>1.8</v>
@@ -9409,10 +9409,10 @@
         <v>12</v>
       </c>
       <c r="AB64" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC64" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD64" t="n">
         <v>13</v>
@@ -9442,7 +9442,7 @@
         <v>21</v>
       </c>
       <c r="AM64" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN64" t="n">
         <v>17</v>
@@ -9932,22 +9932,22 @@
         <v>3.2</v>
       </c>
       <c r="M68" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N68" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O68" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P68" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R68" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
@@ -10055,16 +10055,16 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H69" t="n">
         <v>3.5</v>
       </c>
       <c r="I69" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J69" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K69" t="n">
         <v>2</v>
@@ -10114,13 +10114,13 @@
         <v>6</v>
       </c>
       <c r="AB69" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC69" t="n">
         <v>9</v>
       </c>
       <c r="AD69" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE69" t="n">
         <v>19</v>
@@ -10144,10 +10144,10 @@
         <v>101</v>
       </c>
       <c r="AL69" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM69" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN69" t="n">
         <v>13</v>
@@ -10156,7 +10156,7 @@
         <v>41</v>
       </c>
       <c r="AP69" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ69" t="n">
         <v>41</v>
@@ -10214,10 +10214,10 @@
         <v>3.6</v>
       </c>
       <c r="M70" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N70" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O70" t="n">
         <v>1.44</v>
@@ -10226,10 +10226,10 @@
         <v>2.63</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R70" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
@@ -10303,10 +10303,10 @@
         <v>41</v>
       </c>
       <c r="AR70" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AS70" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="71">
@@ -10344,16 +10344,16 @@
         <v>1.17</v>
       </c>
       <c r="H71" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I71" t="n">
         <v>17</v>
       </c>
       <c r="J71" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="K71" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="L71" t="n">
         <v>12</v>
@@ -10362,7 +10362,7 @@
         <v>1.03</v>
       </c>
       <c r="N71" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O71" t="n">
         <v>1.17</v>
@@ -10395,13 +10395,13 @@
         <v>3.5</v>
       </c>
       <c r="Y71" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Z71" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AA71" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB71" t="n">
         <v>6</v>
@@ -10425,7 +10425,7 @@
         <v>13</v>
       </c>
       <c r="AI71" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ71" t="n">
         <v>101</v>
@@ -10434,7 +10434,7 @@
         <v>900</v>
       </c>
       <c r="AL71" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM71" t="n">
         <v>67</v>
@@ -10443,13 +10443,13 @@
         <v>41</v>
       </c>
       <c r="AO71" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AP71" t="n">
         <v>101</v>
       </c>
       <c r="AQ71" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR71" t="n">
         <v>1.24</v>
@@ -10514,16 +10514,16 @@
         <v>7</v>
       </c>
       <c r="O72" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P72" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R72" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
@@ -10597,10 +10597,10 @@
         <v>41</v>
       </c>
       <c r="AR72" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="73">
@@ -10635,16 +10635,16 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H73" t="n">
         <v>3.7</v>
       </c>
       <c r="I73" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J73" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K73" t="n">
         <v>2.2</v>
@@ -10700,7 +10700,7 @@
         <v>8.5</v>
       </c>
       <c r="AD73" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE73" t="n">
         <v>15</v>
@@ -10712,7 +10712,7 @@
         <v>9</v>
       </c>
       <c r="AH73" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI73" t="n">
         <v>19</v>
@@ -10736,7 +10736,7 @@
         <v>67</v>
       </c>
       <c r="AP73" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ73" t="n">
         <v>51</v>
@@ -10794,10 +10794,10 @@
         <v>3.75</v>
       </c>
       <c r="M74" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N74" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O74" t="n">
         <v>1.29</v>
@@ -10935,10 +10935,10 @@
         <v>7.5</v>
       </c>
       <c r="M75" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N75" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O75" t="n">
         <v>1.18</v>
@@ -10953,10 +10953,10 @@
         <v>2.25</v>
       </c>
       <c r="S75" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T75" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U75" t="n">
         <v>2.5</v>
@@ -11071,7 +11071,7 @@
         <v>7</v>
       </c>
       <c r="J76" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K76" t="n">
         <v>2.4</v>
@@ -11127,7 +11127,7 @@
         <v>8.5</v>
       </c>
       <c r="AD76" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE76" t="n">
         <v>12</v>
@@ -11136,19 +11136,19 @@
         <v>23</v>
       </c>
       <c r="AG76" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH76" t="n">
         <v>8</v>
       </c>
       <c r="AI76" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ76" t="n">
         <v>51</v>
       </c>
       <c r="AK76" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL76" t="n">
         <v>19</v>
@@ -11163,7 +11163,7 @@
         <v>67</v>
       </c>
       <c r="AP76" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ76" t="n">
         <v>41</v>
@@ -11227,24 +11227,24 @@
         <v>11</v>
       </c>
       <c r="O77" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P77" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q77" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R77" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V77" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W77" t="n">
         <v>1.4</v>
@@ -11344,22 +11344,22 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="H78" t="n">
         <v>4.33</v>
       </c>
       <c r="I78" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="J78" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K78" t="n">
         <v>2.4</v>
       </c>
       <c r="L78" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="M78" t="n">
         <v>1.03</v>
@@ -11407,10 +11407,10 @@
         <v>19</v>
       </c>
       <c r="AB78" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC78" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD78" t="n">
         <v>51</v>
@@ -11437,7 +11437,7 @@
         <v>151</v>
       </c>
       <c r="AL78" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM78" t="n">
         <v>8.5</v>
@@ -11446,7 +11446,7 @@
         <v>8.5</v>
       </c>
       <c r="AO78" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP78" t="n">
         <v>12</v>
@@ -11507,10 +11507,10 @@
         <v>6</v>
       </c>
       <c r="M79" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N79" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O79" t="n">
         <v>1.17</v>
@@ -11519,16 +11519,16 @@
         <v>4.5</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R79" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S79" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T79" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U79" t="n">
         <v>2.5</v>
@@ -11634,13 +11634,13 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H80" t="n">
         <v>5.75</v>
       </c>
       <c r="I80" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J80" t="n">
         <v>1.67</v>
@@ -11652,10 +11652,10 @@
         <v>7.5</v>
       </c>
       <c r="M80" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N80" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="O80" t="n">
         <v>1.14</v>
@@ -11664,10 +11664,10 @@
         <v>5</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R80" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S80" t="n">
         <v>1.78</v>
@@ -11676,10 +11676,10 @@
         <v>2.03</v>
       </c>
       <c r="U80" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V80" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W80" t="n">
         <v>1.25</v>
@@ -11703,7 +11703,7 @@
         <v>9.5</v>
       </c>
       <c r="AD80" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE80" t="n">
         <v>11</v>
@@ -11724,10 +11724,10 @@
         <v>51</v>
       </c>
       <c r="AK80" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AL80" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM80" t="n">
         <v>41</v>
@@ -11736,7 +11736,7 @@
         <v>23</v>
       </c>
       <c r="AO80" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AP80" t="n">
         <v>51</v>
@@ -11797,22 +11797,22 @@
         <v>2.1</v>
       </c>
       <c r="M81" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N81" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O81" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P81" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R81" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
@@ -11865,7 +11865,7 @@
         <v>51</v>
       </c>
       <c r="AK81" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AL81" t="n">
         <v>7</v>
@@ -11920,111 +11920,111 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H82" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="I82" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="J82" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K82" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="L82" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="M82" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N82" t="n">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="O82" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="P82" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.93</v>
+        <v>2.15</v>
       </c>
       <c r="R82" t="n">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="V82" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="W82" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="X82" t="n">
-        <v>2.57</v>
+        <v>2.37</v>
       </c>
       <c r="Y82" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="Z82" t="n">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="AA82" t="n">
-        <v>8.25</v>
+        <v>7.1</v>
       </c>
       <c r="AB82" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AC82" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD82" t="n">
         <v>28</v>
       </c>
       <c r="AE82" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AF82" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG82" t="n">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="AH82" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AI82" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AJ82" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AK82" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="AL82" t="n">
-        <v>8.75</v>
+        <v>7.9</v>
       </c>
       <c r="AM82" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AN82" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AO82" t="n">
         <v>32</v>
       </c>
       <c r="AP82" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AQ82" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AR82" t="inlineStr"/>
       <c r="AS82" t="inlineStr"/>
@@ -12064,7 +12064,7 @@
         <v>4.35</v>
       </c>
       <c r="H83" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I83" t="n">
         <v>1.75</v>
@@ -12082,7 +12082,7 @@
         <v>1.07</v>
       </c>
       <c r="N83" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="O83" t="n">
         <v>1.34</v>
@@ -12129,16 +12129,16 @@
         <v>75</v>
       </c>
       <c r="AE83" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AF83" t="n">
         <v>55</v>
       </c>
       <c r="AG83" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AH83" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AI83" t="n">
         <v>16.5</v>
@@ -12165,7 +12165,7 @@
         <v>14.5</v>
       </c>
       <c r="AQ83" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR83" t="inlineStr"/>
       <c r="AS83" t="inlineStr"/>
@@ -12508,16 +12508,16 @@
         <v>6.5</v>
       </c>
       <c r="O86" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P86" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R86" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
@@ -12591,10 +12591,10 @@
         <v>51</v>
       </c>
       <c r="AR86" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="87">
@@ -12629,22 +12629,22 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="H87" t="n">
         <v>3.6</v>
       </c>
       <c r="I87" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="J87" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K87" t="n">
         <v>2.22</v>
       </c>
       <c r="L87" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="M87" t="n">
         <v>1.04</v>
@@ -12653,10 +12653,10 @@
         <v>8.25</v>
       </c>
       <c r="O87" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P87" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q87" t="n">
         <v>1.7</v>
@@ -12667,10 +12667,10 @@
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="V87" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="W87" t="n">
         <v>1.35</v>
@@ -12682,31 +12682,31 @@
         <v>1.62</v>
       </c>
       <c r="Z87" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="AA87" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AB87" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AC87" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD87" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AE87" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF87" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AG87" t="n">
         <v>8.25</v>
       </c>
       <c r="AH87" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AI87" t="n">
         <v>13</v>
@@ -12715,22 +12715,22 @@
         <v>50</v>
       </c>
       <c r="AK87" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AL87" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AM87" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AN87" t="n">
         <v>8.25</v>
       </c>
       <c r="AO87" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP87" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AQ87" t="n">
         <v>21</v>
@@ -12770,99 +12770,99 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="H88" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I88" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="J88" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K88" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L88" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="M88" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N88" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="O88" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="P88" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="R88" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="V88" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W88" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="X88" t="n">
-        <v>2.9</v>
+        <v>2.77</v>
       </c>
       <c r="Y88" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z88" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AA88" t="n">
-        <v>10.75</v>
+        <v>9.25</v>
       </c>
       <c r="AB88" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AC88" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD88" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE88" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AF88" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AG88" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AH88" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AI88" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AJ88" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AK88" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AL88" t="n">
         <v>9.5</v>
       </c>
       <c r="AM88" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AN88" t="n">
         <v>9.25</v>
@@ -12911,22 +12911,22 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H89" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I89" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="J89" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K89" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L89" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="M89" t="n">
         <v>1.05</v>
@@ -12938,7 +12938,7 @@
         <v>1.22</v>
       </c>
       <c r="P89" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="Q89" t="n">
         <v>1.65</v>
@@ -12955,31 +12955,31 @@
         <v>1.47</v>
       </c>
       <c r="W89" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X89" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="Y89" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Z89" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="AA89" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AB89" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC89" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD89" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AE89" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AF89" t="n">
         <v>21</v>
@@ -12988,31 +12988,31 @@
         <v>8</v>
       </c>
       <c r="AH89" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AI89" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AJ89" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AK89" t="n">
         <v>200</v>
       </c>
       <c r="AL89" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="AM89" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AN89" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AO89" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AP89" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ89" t="n">
         <v>23</v>
@@ -13082,18 +13082,18 @@
         <v>3.4</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R90" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V90" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W90" t="n">
         <v>1.44</v>
@@ -13475,34 +13475,34 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="H93" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I93" t="n">
-        <v>4.45</v>
+        <v>4.9</v>
       </c>
       <c r="J93" t="n">
-        <v>2.52</v>
+        <v>2.45</v>
       </c>
       <c r="K93" t="n">
         <v>1.9</v>
       </c>
       <c r="L93" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="M93" t="n">
         <v>1.11</v>
       </c>
       <c r="N93" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O93" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="P93" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="Q93" t="n">
         <v>2.6</v>
@@ -13525,25 +13525,25 @@
         <v>2.12</v>
       </c>
       <c r="Y93" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="Z93" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AA93" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="AB93" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="AC93" t="n">
         <v>9.75</v>
       </c>
       <c r="AD93" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE93" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF93" t="n">
         <v>55</v>
@@ -13552,10 +13552,10 @@
         <v>5.9</v>
       </c>
       <c r="AH93" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AI93" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ93" t="n">
         <v>200</v>
@@ -13564,22 +13564,22 @@
         <v>101</v>
       </c>
       <c r="AL93" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AM93" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AN93" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO93" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AP93" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AQ93" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AR93" t="inlineStr"/>
       <c r="AS93" t="inlineStr"/>
@@ -13723,10 +13723,10 @@
         <v>41</v>
       </c>
       <c r="AR94" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="95">
@@ -13907,7 +13907,7 @@
         <v>1.3</v>
       </c>
       <c r="J96" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="K96" t="n">
         <v>2.62</v>
@@ -13987,7 +13987,7 @@
         <v>500</v>
       </c>
       <c r="AL96" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AM96" t="n">
         <v>7.2</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-21.xlsx
@@ -722,22 +722,22 @@
         <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="T2" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="U2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
         <v>1.29</v>
@@ -758,7 +758,7 @@
         <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD2" t="n">
         <v>41</v>
@@ -782,13 +782,13 @@
         <v>41</v>
       </c>
       <c r="AK2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN2" t="n">
         <v>9.5</v>
@@ -837,40 +837,40 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R3" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -887,22 +887,22 @@
         <v>2.75</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AA3" t="n">
         <v>7</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC3" t="n">
         <v>8.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -923,16 +923,16 @@
         <v>51</v>
       </c>
       <c r="AK3" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM3" t="n">
         <v>21</v>
       </c>
       <c r="AN3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO3" t="n">
         <v>41</v>
@@ -990,69 +990,69 @@
         <v>2.63</v>
       </c>
       <c r="K4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L4" t="n">
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="R4" t="n">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="V4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W4" t="n">
         <v>1.4</v>
       </c>
-      <c r="W4" t="n">
-        <v>1.36</v>
-      </c>
       <c r="X4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB4" t="n">
         <v>10</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
         <v>17</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
         <v>6.5</v>
@@ -1064,16 +1064,16 @@
         <v>41</v>
       </c>
       <c r="AK4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM4" t="n">
         <v>19</v>
       </c>
       <c r="AN4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO4" t="n">
         <v>41</v>
@@ -1125,7 +1125,7 @@
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J5" t="n">
         <v>3.6</v>
@@ -1140,7 +1140,7 @@
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1260,22 +1260,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
@@ -1310,25 +1310,25 @@
         <v>2.75</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AA6" t="n">
         <v>7</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC6" t="n">
         <v>8.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
         <v>26</v>
@@ -1337,31 +1337,31 @@
         <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ6" t="n">
         <v>51</v>
       </c>
       <c r="AK6" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL6" t="n">
         <v>13</v>
       </c>
       <c r="AM6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO6" t="n">
         <v>51</v>
       </c>
       <c r="AP6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ6" t="n">
         <v>41</v>
@@ -1437,7 +1437,7 @@
         <v>1.44</v>
       </c>
       <c r="S7" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T7" t="n">
         <v>1.19</v>
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I9" t="n">
         <v>2.88</v>
@@ -1717,10 +1717,10 @@
         <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N9" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.73</v>
@@ -1735,7 +1735,7 @@
         <v>1.3</v>
       </c>
       <c r="S9" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="T9" t="n">
         <v>1.12</v>
@@ -1747,16 +1747,16 @@
         <v>1.08</v>
       </c>
       <c r="W9" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X9" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AA9" t="n">
         <v>6</v>
@@ -1777,7 +1777,7 @@
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AH9" t="n">
         <v>6</v>
@@ -1801,7 +1801,7 @@
         <v>13</v>
       </c>
       <c r="AO9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP9" t="n">
         <v>34</v>
@@ -1813,7 +1813,7 @@
         <v>2.55</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="10">
@@ -1848,16 +1848,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J10" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>1.91</v>
@@ -1902,22 +1902,22 @@
         <v>2.25</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -1941,19 +1941,19 @@
         <v>501</v>
       </c>
       <c r="AL10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM10" t="n">
         <v>17</v>
       </c>
       <c r="AN10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO10" t="n">
         <v>41</v>
       </c>
       <c r="AP10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ10" t="n">
         <v>51</v>
@@ -1997,10 +1997,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H11" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
         <v>3.5</v>
@@ -2018,7 +2018,7 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O11" t="n">
         <v>1.17</v>
@@ -2081,7 +2081,7 @@
         <v>7.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ11" t="n">
         <v>34</v>
@@ -2096,7 +2096,7 @@
         <v>21</v>
       </c>
       <c r="AN11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO11" t="n">
         <v>41</v>
@@ -2516,7 +2516,7 @@
         <v>9.25</v>
       </c>
       <c r="AM14" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AN14" t="n">
         <v>9.25</v>
@@ -2525,7 +2525,7 @@
         <v>27</v>
       </c>
       <c r="AP14" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AQ14" t="n">
         <v>25</v>
@@ -2565,37 +2565,37 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="H15" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J15" t="n">
         <v>2.65</v>
       </c>
       <c r="K15" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L15" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P15" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R15" t="n">
         <v>1.65</v>
@@ -2603,34 +2603,34 @@
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="V15" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W15" t="n">
         <v>1.42</v>
       </c>
       <c r="X15" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="AA15" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC15" t="n">
         <v>8.75</v>
       </c>
       <c r="AD15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="n">
         <v>17.5</v>
@@ -2639,22 +2639,22 @@
         <v>32</v>
       </c>
       <c r="AG15" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AI15" t="n">
         <v>16</v>
       </c>
       <c r="AJ15" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AK15" t="n">
         <v>800</v>
       </c>
       <c r="AL15" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AM15" t="n">
         <v>17</v>
@@ -2663,10 +2663,10 @@
         <v>12</v>
       </c>
       <c r="AO15" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AP15" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AQ15" t="n">
         <v>45</v>
@@ -2843,22 +2843,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I17" t="n">
-        <v>3.7</v>
+        <v>4.33</v>
       </c>
       <c r="J17" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K17" t="n">
         <v>2.38</v>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
@@ -2879,10 +2879,10 @@
         <v>2.25</v>
       </c>
       <c r="S17" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T17" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U17" t="n">
         <v>2.5</v>
@@ -2903,19 +2903,19 @@
         <v>2.25</v>
       </c>
       <c r="AA17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB17" t="n">
         <v>10</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>11</v>
       </c>
       <c r="AC17" t="n">
         <v>8.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF17" t="n">
         <v>21</v>
@@ -2924,10 +2924,10 @@
         <v>15</v>
       </c>
       <c r="AH17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ17" t="n">
         <v>41</v>
@@ -2939,19 +2939,19 @@
         <v>15</v>
       </c>
       <c r="AM17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO17" t="n">
         <v>41</v>
       </c>
       <c r="AP17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
@@ -2988,16 +2988,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H18" t="n">
         <v>3.8</v>
       </c>
       <c r="I18" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J18" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K18" t="n">
         <v>2.25</v>
@@ -3006,10 +3006,10 @@
         <v>5.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O18" t="n">
         <v>1.25</v>
@@ -3032,10 +3032,10 @@
         <v>1.33</v>
       </c>
       <c r="W18" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X18" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y18" t="n">
         <v>1.83</v>
@@ -3065,7 +3065,7 @@
         <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI18" t="n">
         <v>17</v>
@@ -3294,10 +3294,10 @@
         <v>13</v>
       </c>
       <c r="O20" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P20" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q20" t="n">
         <v>1.75</v>
@@ -3308,10 +3308,10 @@
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V20" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W20" t="n">
         <v>1.33</v>
@@ -3429,10 +3429,10 @@
         <v>7.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O21" t="n">
         <v>1.36</v>
@@ -3441,10 +3441,10 @@
         <v>3</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R21" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -3555,25 +3555,25 @@
         <v>1.4</v>
       </c>
       <c r="H22" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I22" t="n">
         <v>9</v>
       </c>
       <c r="J22" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K22" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L22" t="n">
         <v>7.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
         <v>1.29</v>
@@ -3582,10 +3582,10 @@
         <v>3.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R22" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
@@ -3617,7 +3617,7 @@
         <v>9</v>
       </c>
       <c r="AD22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE22" t="n">
         <v>13</v>
@@ -3626,7 +3626,7 @@
         <v>34</v>
       </c>
       <c r="AG22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH22" t="n">
         <v>8</v>
@@ -3641,13 +3641,13 @@
         <v>101</v>
       </c>
       <c r="AL22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM22" t="n">
         <v>41</v>
       </c>
       <c r="AN22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO22" t="n">
         <v>101</v>
@@ -3717,16 +3717,16 @@
         <v>11</v>
       </c>
       <c r="O23" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P23" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R23" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S23" t="n">
         <v>2.44</v>
@@ -3991,19 +3991,19 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H25" t="n">
         <v>3.4</v>
       </c>
       <c r="I25" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J25" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K25" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L25" t="n">
         <v>6.5</v>
@@ -4033,16 +4033,16 @@
         <v>1.26</v>
       </c>
       <c r="U25" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V25" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W25" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X25" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y25" t="n">
         <v>2.25</v>
@@ -4051,7 +4051,7 @@
         <v>1.57</v>
       </c>
       <c r="AA25" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AB25" t="n">
         <v>6.5</v>
@@ -4060,7 +4060,7 @@
         <v>9</v>
       </c>
       <c r="AD25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE25" t="n">
         <v>17</v>
@@ -4072,7 +4072,7 @@
         <v>7</v>
       </c>
       <c r="AH25" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI25" t="n">
         <v>21</v>
@@ -4099,13 +4099,13 @@
         <v>51</v>
       </c>
       <c r="AQ25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR25" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="26">
@@ -4143,7 +4143,7 @@
         <v>2.15</v>
       </c>
       <c r="H26" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I26" t="n">
         <v>3.2</v>
@@ -4152,7 +4152,7 @@
         <v>3</v>
       </c>
       <c r="K26" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L26" t="n">
         <v>4</v>
@@ -4184,16 +4184,16 @@
         <v>1.22</v>
       </c>
       <c r="W26" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X26" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA26" t="n">
         <v>7</v>
@@ -4208,28 +4208,28 @@
         <v>21</v>
       </c>
       <c r="AE26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF26" t="n">
         <v>34</v>
       </c>
       <c r="AG26" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH26" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ26" t="n">
         <v>51</v>
       </c>
       <c r="AK26" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM26" t="n">
         <v>15</v>
@@ -4284,51 +4284,51 @@
         <v>3.7</v>
       </c>
       <c r="H27" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I27" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
         <v>4.33</v>
       </c>
       <c r="K27" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L27" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O27" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P27" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q27" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R27" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="V27" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="W27" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X27" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y27" t="n">
         <v>1.8</v>
@@ -4337,7 +4337,7 @@
         <v>1.95</v>
       </c>
       <c r="AA27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB27" t="n">
         <v>19</v>
@@ -4352,13 +4352,13 @@
         <v>29</v>
       </c>
       <c r="AF27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG27" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI27" t="n">
         <v>15</v>
@@ -4367,25 +4367,25 @@
         <v>51</v>
       </c>
       <c r="AK27" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL27" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM27" t="n">
         <v>9.5</v>
       </c>
       <c r="AN27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO27" t="n">
         <v>17</v>
       </c>
       <c r="AP27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr"/>
@@ -4425,7 +4425,7 @@
         <v>2.25</v>
       </c>
       <c r="H28" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I28" t="n">
         <v>3.1</v>
@@ -4434,7 +4434,7 @@
         <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L28" t="n">
         <v>3.75</v>
@@ -4472,16 +4472,16 @@
         <v>2.63</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA28" t="n">
         <v>7.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC28" t="n">
         <v>9.5</v>
@@ -4496,7 +4496,7 @@
         <v>29</v>
       </c>
       <c r="AG28" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH28" t="n">
         <v>6.5</v>
@@ -4508,16 +4508,16 @@
         <v>51</v>
       </c>
       <c r="AK28" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL28" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM28" t="n">
         <v>15</v>
       </c>
       <c r="AN28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO28" t="n">
         <v>34</v>
@@ -4626,7 +4626,7 @@
         <v>13</v>
       </c>
       <c r="AB29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC29" t="n">
         <v>15</v>
@@ -4635,7 +4635,7 @@
         <v>51</v>
       </c>
       <c r="AE29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF29" t="n">
         <v>41</v>
@@ -4653,7 +4653,7 @@
         <v>51</v>
       </c>
       <c r="AK29" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL29" t="n">
         <v>7.5</v>
@@ -4708,10 +4708,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H30" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I30" t="n">
         <v>2</v>
@@ -4723,7 +4723,7 @@
         <v>2.2</v>
       </c>
       <c r="L30" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M30" t="n">
         <v>1.05</v>
@@ -4738,10 +4738,10 @@
         <v>3.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R30" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S30" t="n">
         <v>2</v>
@@ -4750,10 +4750,10 @@
         <v>1.85</v>
       </c>
       <c r="U30" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V30" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W30" t="n">
         <v>1.4</v>
@@ -4777,10 +4777,10 @@
         <v>12</v>
       </c>
       <c r="AD30" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE30" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF30" t="n">
         <v>34</v>
@@ -4801,16 +4801,16 @@
         <v>251</v>
       </c>
       <c r="AL30" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AN30" t="n">
         <v>9</v>
       </c>
       <c r="AO30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP30" t="n">
         <v>17</v>
@@ -4994,90 +4994,90 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H32" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="I32" t="n">
-        <v>2.82</v>
+        <v>3.5</v>
       </c>
       <c r="J32" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="K32" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="L32" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N32" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="O32" t="n">
         <v>1.8</v>
       </c>
-      <c r="L32" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N32" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.62</v>
-      </c>
       <c r="P32" t="n">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.82</v>
+        <v>3.35</v>
       </c>
       <c r="R32" t="n">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="n">
-        <v>5.2</v>
+        <v>6.3</v>
       </c>
       <c r="V32" t="n">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="W32" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="X32" t="n">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="Y32" t="n">
-        <v>2.18</v>
+        <v>2.52</v>
       </c>
       <c r="Z32" t="n">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="AA32" t="n">
-        <v>6.2</v>
+        <v>5</v>
       </c>
       <c r="AB32" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AC32" t="n">
         <v>11.25</v>
       </c>
       <c r="AD32" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AE32" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AF32" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AG32" t="n">
-        <v>4.7</v>
+        <v>4.05</v>
       </c>
       <c r="AH32" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="AI32" t="n">
-        <v>18.5</v>
+        <v>24</v>
       </c>
       <c r="AJ32" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AK32" t="n">
         <v>101</v>
@@ -5086,19 +5086,19 @@
         <v>6.2</v>
       </c>
       <c r="AM32" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="AN32" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AP32" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AQ32" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr"/>
@@ -5135,111 +5135,111 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.87</v>
+        <v>2.65</v>
       </c>
       <c r="H33" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="I33" t="n">
-        <v>2.7</v>
+        <v>3.05</v>
       </c>
       <c r="J33" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="K33" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="L33" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="M33" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="N33" t="n">
-        <v>4.9</v>
+        <v>4.35</v>
       </c>
       <c r="O33" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="P33" t="n">
-        <v>2.18</v>
+        <v>1.98</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.77</v>
+        <v>3.2</v>
       </c>
       <c r="R33" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="V33" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="W33" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="X33" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="Y33" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="AA33" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="AB33" t="n">
-        <v>12.5</v>
+        <v>10.75</v>
       </c>
       <c r="AC33" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AE33" t="n">
         <v>32</v>
       </c>
       <c r="AF33" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AG33" t="n">
-        <v>4.9</v>
+        <v>4.35</v>
       </c>
       <c r="AH33" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AI33" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AJ33" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AK33" t="n">
         <v>101</v>
       </c>
       <c r="AL33" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AM33" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AN33" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO33" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AP33" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AQ33" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr"/>
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H34" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I34" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="J34" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="K34" t="n">
         <v>1.82</v>
       </c>
       <c r="L34" t="n">
-        <v>4.75</v>
+        <v>4.85</v>
       </c>
       <c r="M34" t="n">
         <v>1.15</v>
@@ -5306,7 +5306,7 @@
         <v>2.2</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="R34" t="n">
         <v>1.39</v>
@@ -5341,7 +5341,7 @@
         <v>9.5</v>
       </c>
       <c r="AD34" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE34" t="n">
         <v>23</v>
@@ -5353,10 +5353,10 @@
         <v>4.8</v>
       </c>
       <c r="AH34" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AI34" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AJ34" t="n">
         <v>150</v>
@@ -5368,16 +5368,16 @@
         <v>8.25</v>
       </c>
       <c r="AM34" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN34" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AO34" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AP34" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AQ34" t="n">
         <v>70</v>
@@ -5417,45 +5417,45 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.18</v>
+        <v>1.93</v>
       </c>
       <c r="H35" t="n">
-        <v>2.72</v>
+        <v>2.85</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="J35" t="n">
-        <v>2.87</v>
+        <v>2.65</v>
       </c>
       <c r="K35" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="L35" t="n">
-        <v>4.65</v>
+        <v>5.2</v>
       </c>
       <c r="M35" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="N35" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O35" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P35" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="R35" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="V35" t="n">
         <v>1.14</v>
@@ -5467,37 +5467,37 @@
         <v>2.2</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AA35" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="AB35" t="n">
-        <v>8.75</v>
+        <v>7.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AD35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE35" t="n">
         <v>21</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>23</v>
       </c>
       <c r="AF35" t="n">
         <v>45</v>
       </c>
       <c r="AG35" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AH35" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AI35" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ35" t="n">
         <v>150</v>
@@ -5506,22 +5506,22 @@
         <v>101</v>
       </c>
       <c r="AL35" t="n">
-        <v>7.9</v>
+        <v>9.5</v>
       </c>
       <c r="AM35" t="n">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="AN35" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AO35" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AP35" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AQ35" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr"/>
@@ -5602,10 +5602,10 @@
         <v>1.36</v>
       </c>
       <c r="W36" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X36" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y36" t="n">
         <v>1.67</v>
@@ -5626,7 +5626,7 @@
         <v>21</v>
       </c>
       <c r="AE36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF36" t="n">
         <v>26</v>
@@ -5656,7 +5656,7 @@
         <v>11</v>
       </c>
       <c r="AO36" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP36" t="n">
         <v>23</v>
@@ -5699,7 +5699,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H37" t="n">
         <v>3.3</v>
@@ -5708,7 +5708,7 @@
         <v>5.5</v>
       </c>
       <c r="J37" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K37" t="n">
         <v>2</v>
@@ -5743,10 +5743,10 @@
         <v>1.2</v>
       </c>
       <c r="W37" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X37" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y37" t="n">
         <v>2.2</v>
@@ -5806,10 +5806,10 @@
         <v>51</v>
       </c>
       <c r="AR37" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="38">
@@ -5862,10 +5862,10 @@
         <v>5.5</v>
       </c>
       <c r="M38" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N38" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O38" t="n">
         <v>1.33</v>
@@ -6015,18 +6015,18 @@
         <v>3</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R39" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V39" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W39" t="n">
         <v>1.5</v>
@@ -6147,7 +6147,7 @@
         <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O40" t="n">
         <v>1.33</v>
@@ -6267,16 +6267,16 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H41" t="n">
         <v>3.25</v>
       </c>
       <c r="I41" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J41" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K41" t="n">
         <v>2.05</v>
@@ -6335,10 +6335,10 @@
         <v>34</v>
       </c>
       <c r="AE41" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF41" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG41" t="n">
         <v>9</v>
@@ -6356,7 +6356,7 @@
         <v>301</v>
       </c>
       <c r="AL41" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM41" t="n">
         <v>10</v>
@@ -6408,22 +6408,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H42" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I42" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J42" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K42" t="n">
         <v>2.1</v>
       </c>
       <c r="L42" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M42" t="n">
         <v>1.07</v>
@@ -6446,10 +6446,10 @@
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V42" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W42" t="n">
         <v>1.44</v>
@@ -6467,19 +6467,19 @@
         <v>6</v>
       </c>
       <c r="AB42" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC42" t="n">
         <v>9</v>
       </c>
       <c r="AD42" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE42" t="n">
         <v>15</v>
       </c>
       <c r="AF42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG42" t="n">
         <v>8.5</v>
@@ -6488,7 +6488,7 @@
         <v>7</v>
       </c>
       <c r="AI42" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ42" t="n">
         <v>67</v>
@@ -6500,10 +6500,10 @@
         <v>11</v>
       </c>
       <c r="AM42" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO42" t="n">
         <v>51</v>
@@ -6512,7 +6512,7 @@
         <v>41</v>
       </c>
       <c r="AQ42" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR42" t="inlineStr"/>
       <c r="AS42" t="inlineStr"/>
@@ -6567,10 +6567,10 @@
         <v>4.75</v>
       </c>
       <c r="M43" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N43" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O43" t="n">
         <v>1.25</v>
@@ -6579,10 +6579,10 @@
         <v>3.75</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R43" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
@@ -6690,22 +6690,22 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="H44" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="I44" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J44" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="K44" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L44" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M44" t="n">
         <v>1.02</v>
@@ -6720,10 +6720,10 @@
         <v>6</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R44" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S44" t="n">
         <v>1.8</v>
@@ -6744,10 +6744,10 @@
         <v>3.75</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AA44" t="n">
         <v>11</v>
@@ -6759,19 +6759,19 @@
         <v>8.5</v>
       </c>
       <c r="AD44" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE44" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF44" t="n">
         <v>19</v>
       </c>
       <c r="AG44" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH44" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI44" t="n">
         <v>12</v>
@@ -6783,13 +6783,13 @@
         <v>101</v>
       </c>
       <c r="AL44" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM44" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN44" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO44" t="n">
         <v>51</v>
@@ -6998,10 +6998,10 @@
         <v>2.88</v>
       </c>
       <c r="M46" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N46" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O46" t="n">
         <v>1.29</v>
@@ -7130,7 +7130,7 @@
         <v>3.2</v>
       </c>
       <c r="J47" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K47" t="n">
         <v>2.2</v>
@@ -7192,7 +7192,7 @@
         <v>17</v>
       </c>
       <c r="AF47" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG47" t="n">
         <v>11</v>
@@ -7222,7 +7222,7 @@
         <v>34</v>
       </c>
       <c r="AP47" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ47" t="n">
         <v>29</v>
@@ -7262,22 +7262,22 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I48" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="J48" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K48" t="n">
         <v>2.3</v>
       </c>
       <c r="L48" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M48" t="n">
         <v>1.03</v>
@@ -7316,10 +7316,10 @@
         <v>3.25</v>
       </c>
       <c r="Y48" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Z48" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA48" t="n">
         <v>9.5</v>
@@ -7331,7 +7331,7 @@
         <v>9</v>
       </c>
       <c r="AD48" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE48" t="n">
         <v>15</v>
@@ -7346,7 +7346,7 @@
         <v>7</v>
       </c>
       <c r="AI48" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ48" t="n">
         <v>41</v>
@@ -7358,16 +7358,16 @@
         <v>13</v>
       </c>
       <c r="AM48" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN48" t="n">
         <v>12</v>
       </c>
       <c r="AO48" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP48" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ48" t="n">
         <v>29</v>
@@ -7407,22 +7407,22 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H49" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="I49" t="n">
-        <v>4.35</v>
+        <v>3.95</v>
       </c>
       <c r="J49" t="n">
-        <v>2.27</v>
+        <v>2.4</v>
       </c>
       <c r="K49" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L49" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
@@ -7430,10 +7430,10 @@
         <v>1.28</v>
       </c>
       <c r="P49" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R49" t="n">
         <v>1.78</v>
@@ -7441,73 +7441,73 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="V49" t="n">
         <v>1.3</v>
       </c>
       <c r="W49" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="X49" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="Y49" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Z49" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA49" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AB49" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AC49" t="n">
         <v>8.25</v>
       </c>
       <c r="AD49" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AE49" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF49" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG49" t="n">
         <v>10.25</v>
       </c>
       <c r="AH49" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AI49" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AJ49" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK49" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AL49" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AM49" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AN49" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO49" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AP49" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AQ49" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR49" t="inlineStr"/>
       <c r="AS49" t="inlineStr"/>
@@ -7544,22 +7544,22 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="H50" t="n">
         <v>3.25</v>
       </c>
       <c r="I50" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J50" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="K50" t="n">
         <v>2.05</v>
       </c>
       <c r="L50" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
@@ -7570,7 +7570,7 @@
         <v>3.05</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R50" t="n">
         <v>1.78</v>
@@ -7578,7 +7578,7 @@
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="V50" t="n">
         <v>1.31</v>
@@ -7590,16 +7590,16 @@
         <v>2.52</v>
       </c>
       <c r="Y50" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="Z50" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="AA50" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AB50" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AC50" t="n">
         <v>8.25</v>
@@ -7608,10 +7608,10 @@
         <v>18</v>
       </c>
       <c r="AE50" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF50" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AG50" t="n">
         <v>9.75</v>
@@ -7629,22 +7629,22 @@
         <v>450</v>
       </c>
       <c r="AL50" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AM50" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN50" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO50" t="n">
         <v>55</v>
       </c>
       <c r="AP50" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AQ50" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AR50" t="inlineStr"/>
       <c r="AS50" t="inlineStr"/>
@@ -7814,22 +7814,22 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H52" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I52" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J52" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K52" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L52" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M52" t="n">
         <v>1.06</v>
@@ -7844,10 +7844,10 @@
         <v>3.25</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R52" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
@@ -7873,7 +7873,7 @@
         <v>6.5</v>
       </c>
       <c r="AB52" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC52" t="n">
         <v>9</v>
@@ -7903,7 +7903,7 @@
         <v>351</v>
       </c>
       <c r="AL52" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM52" t="n">
         <v>19</v>
@@ -7985,10 +7985,10 @@
         <v>3</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R53" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
@@ -8096,10 +8096,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H54" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I54" t="n">
         <v>2.35</v>
@@ -8108,7 +8108,7 @@
         <v>3.75</v>
       </c>
       <c r="K54" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L54" t="n">
         <v>3.25</v>
@@ -8120,16 +8120,16 @@
         <v>8</v>
       </c>
       <c r="O54" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P54" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R54" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
@@ -8140,10 +8140,10 @@
         <v>1.2</v>
       </c>
       <c r="W54" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X54" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y54" t="n">
         <v>2</v>
@@ -8161,7 +8161,7 @@
         <v>11</v>
       </c>
       <c r="AD54" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE54" t="n">
         <v>26</v>
@@ -8185,7 +8185,7 @@
         <v>451</v>
       </c>
       <c r="AL54" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM54" t="n">
         <v>11</v>
@@ -8255,10 +8255,10 @@
         <v>2.88</v>
       </c>
       <c r="M55" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N55" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O55" t="n">
         <v>1.44</v>
@@ -8267,10 +8267,10 @@
         <v>2.63</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R55" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
@@ -8344,10 +8344,10 @@
         <v>34</v>
       </c>
       <c r="AR55" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="56">
@@ -8523,13 +8523,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H57" t="n">
         <v>3.1</v>
       </c>
       <c r="I57" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J57" t="n">
         <v>3.75</v>
@@ -8538,13 +8538,13 @@
         <v>2.1</v>
       </c>
       <c r="L57" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M57" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N57" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O57" t="n">
         <v>1.33</v>
@@ -8561,10 +8561,10 @@
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V57" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W57" t="n">
         <v>1.44</v>
@@ -8579,7 +8579,7 @@
         <v>1.95</v>
       </c>
       <c r="AA57" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB57" t="n">
         <v>17</v>
@@ -8603,7 +8603,7 @@
         <v>6</v>
       </c>
       <c r="AI57" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ57" t="n">
         <v>51</v>
@@ -8615,10 +8615,10 @@
         <v>7.5</v>
       </c>
       <c r="AM57" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN57" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO57" t="n">
         <v>21</v>
@@ -8673,10 +8673,10 @@
         <v>4.3</v>
       </c>
       <c r="J58" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="K58" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="L58" t="n">
         <v>4.4</v>
@@ -8684,10 +8684,10 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P58" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="Q58" t="n">
         <v>1.53</v>
@@ -8698,10 +8698,10 @@
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="V58" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
@@ -8709,46 +8709,46 @@
         <v>1.53</v>
       </c>
       <c r="Z58" t="n">
-        <v>2.33</v>
+        <v>2.34</v>
       </c>
       <c r="AA58" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AB58" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AC58" t="n">
         <v>7</v>
       </c>
       <c r="AD58" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AE58" t="n">
         <v>9.75</v>
       </c>
       <c r="AF58" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG58" t="n">
         <v>15.5</v>
       </c>
-      <c r="AG58" t="n">
-        <v>15</v>
-      </c>
       <c r="AH58" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AI58" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AJ58" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AK58" t="n">
         <v>175</v>
       </c>
       <c r="AL58" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AM58" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN58" t="n">
         <v>12</v>
@@ -8757,10 +8757,10 @@
         <v>55</v>
       </c>
       <c r="AP58" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ58" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR58" t="inlineStr"/>
       <c r="AS58" t="inlineStr"/>
@@ -8797,36 +8797,36 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I59" t="n">
-        <v>4.75</v>
+        <v>5.2</v>
       </c>
       <c r="J59" t="n">
-        <v>2.37</v>
+        <v>2.27</v>
       </c>
       <c r="K59" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="L59" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P59" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R59" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
@@ -8839,61 +8839,61 @@
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Z59" t="n">
         <v>2.02</v>
       </c>
       <c r="AA59" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AB59" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AC59" t="n">
         <v>6.5</v>
       </c>
       <c r="AD59" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE59" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AF59" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG59" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH59" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AI59" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AJ59" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AK59" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AL59" t="n">
         <v>12</v>
       </c>
       <c r="AM59" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN59" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO59" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AP59" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ59" t="n">
         <v>35</v>
-      </c>
-      <c r="AQ59" t="n">
-        <v>30</v>
       </c>
       <c r="AR59" t="inlineStr"/>
       <c r="AS59" t="inlineStr"/>
@@ -8948,16 +8948,16 @@
         <v>4.75</v>
       </c>
       <c r="M60" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N60" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O60" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P60" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q60" t="n">
         <v>1.7</v>
@@ -8968,10 +8968,10 @@
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V60" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W60" t="n">
         <v>1.33</v>
@@ -9091,10 +9091,10 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P61" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Q61" t="n">
         <v>1.42</v>
@@ -9491,22 +9491,22 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H65" t="n">
         <v>3.6</v>
       </c>
       <c r="I65" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J65" t="n">
         <v>3</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2.75</v>
       </c>
       <c r="K65" t="n">
         <v>2.3</v>
       </c>
       <c r="L65" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M65" t="n">
         <v>1.03</v>
@@ -9547,22 +9547,22 @@
         <v>2.25</v>
       </c>
       <c r="AA65" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB65" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC65" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD65" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE65" t="n">
         <v>17</v>
       </c>
       <c r="AF65" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG65" t="n">
         <v>15</v>
@@ -9583,19 +9583,19 @@
         <v>12</v>
       </c>
       <c r="AM65" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN65" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO65" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP65" t="n">
         <v>21</v>
       </c>
       <c r="AQ65" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR65" t="inlineStr"/>
       <c r="AS65" t="inlineStr"/>
@@ -9632,22 +9632,22 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H66" t="n">
         <v>3.7</v>
       </c>
       <c r="I66" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J66" t="n">
         <v>4</v>
       </c>
       <c r="K66" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L66" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M66" t="n">
         <v>1.04</v>
@@ -9662,10 +9662,10 @@
         <v>3.75</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R66" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
@@ -9682,10 +9682,10 @@
         <v>3</v>
       </c>
       <c r="Y66" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Z66" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AA66" t="n">
         <v>12</v>
@@ -9694,16 +9694,16 @@
         <v>19</v>
       </c>
       <c r="AC66" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD66" t="n">
         <v>41</v>
       </c>
       <c r="AE66" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF66" t="n">
         <v>29</v>
-      </c>
-      <c r="AF66" t="n">
-        <v>34</v>
       </c>
       <c r="AG66" t="n">
         <v>12</v>
@@ -9712,22 +9712,22 @@
         <v>7</v>
       </c>
       <c r="AI66" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ66" t="n">
         <v>41</v>
       </c>
       <c r="AK66" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL66" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM66" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AN66" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO66" t="n">
         <v>17</v>
@@ -9944,18 +9944,18 @@
         <v>4</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R68" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V68" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W68" t="n">
         <v>1.33</v>
@@ -10055,16 +10055,16 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H69" t="n">
         <v>3.5</v>
       </c>
       <c r="I69" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J69" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K69" t="n">
         <v>2</v>
@@ -10114,13 +10114,13 @@
         <v>6</v>
       </c>
       <c r="AB69" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC69" t="n">
         <v>9</v>
       </c>
       <c r="AD69" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE69" t="n">
         <v>19</v>
@@ -10144,10 +10144,10 @@
         <v>101</v>
       </c>
       <c r="AL69" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM69" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN69" t="n">
         <v>13</v>
@@ -10156,7 +10156,7 @@
         <v>41</v>
       </c>
       <c r="AP69" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ69" t="n">
         <v>41</v>
@@ -10220,10 +10220,10 @@
         <v>8</v>
       </c>
       <c r="O70" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P70" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q70" t="n">
         <v>2.35</v>
@@ -10234,10 +10234,10 @@
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="V70" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W70" t="n">
         <v>1.53</v>
@@ -10303,10 +10303,10 @@
         <v>41</v>
       </c>
       <c r="AR70" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="71">
@@ -10371,22 +10371,22 @@
         <v>5</v>
       </c>
       <c r="Q71" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T71" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U71" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V71" t="n">
         <v>1.53</v>
-      </c>
-      <c r="R71" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S71" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="T71" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U71" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V71" t="n">
-        <v>1.57</v>
       </c>
       <c r="W71" t="n">
         <v>1.29</v>
@@ -10452,10 +10452,10 @@
         <v>101</v>
       </c>
       <c r="AR71" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="AS71" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
@@ -10490,10 +10490,10 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H72" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I72" t="n">
         <v>4</v>
@@ -10502,16 +10502,16 @@
         <v>2.75</v>
       </c>
       <c r="K72" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L72" t="n">
         <v>4.75</v>
       </c>
       <c r="M72" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N72" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O72" t="n">
         <v>1.5</v>
@@ -10534,46 +10534,46 @@
         <v>1.17</v>
       </c>
       <c r="W72" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X72" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y72" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="Z72" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AA72" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB72" t="n">
         <v>8</v>
       </c>
       <c r="AC72" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD72" t="n">
         <v>17</v>
       </c>
       <c r="AE72" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF72" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG72" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH72" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI72" t="n">
         <v>19</v>
       </c>
       <c r="AJ72" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK72" t="n">
         <v>501</v>
@@ -10594,13 +10594,13 @@
         <v>41</v>
       </c>
       <c r="AQ72" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR72" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="73">
@@ -10653,10 +10653,10 @@
         <v>6</v>
       </c>
       <c r="M73" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N73" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O73" t="n">
         <v>1.33</v>
@@ -10665,10 +10665,10 @@
         <v>3.25</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R73" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
@@ -10776,48 +10776,48 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="H74" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I74" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J74" t="n">
         <v>3</v>
       </c>
-      <c r="J74" t="n">
-        <v>2.88</v>
-      </c>
       <c r="K74" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L74" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M74" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N74" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O74" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P74" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="R74" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V74" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W74" t="n">
         <v>1.4</v>
@@ -10826,10 +10826,10 @@
         <v>2.75</v>
       </c>
       <c r="Y74" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Z74" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA74" t="n">
         <v>8</v>
@@ -10862,10 +10862,10 @@
         <v>51</v>
       </c>
       <c r="AK74" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL74" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM74" t="n">
         <v>15</v>
@@ -10874,7 +10874,7 @@
         <v>11</v>
       </c>
       <c r="AO74" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP74" t="n">
         <v>23</v>
@@ -10938,7 +10938,7 @@
         <v>1.03</v>
       </c>
       <c r="N75" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O75" t="n">
         <v>1.18</v>
@@ -10947,16 +10947,16 @@
         <v>4.5</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R75" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S75" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T75" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U75" t="n">
         <v>2.5</v>
@@ -11062,28 +11062,28 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="H76" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I76" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="J76" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K76" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L76" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M76" t="n">
         <v>1.04</v>
       </c>
       <c r="N76" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O76" t="n">
         <v>1.2</v>
@@ -11118,16 +11118,16 @@
         <v>1.95</v>
       </c>
       <c r="AA76" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB76" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC76" t="n">
         <v>8.5</v>
       </c>
       <c r="AD76" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE76" t="n">
         <v>12</v>
@@ -11139,31 +11139,31 @@
         <v>12</v>
       </c>
       <c r="AH76" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI76" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ76" t="n">
         <v>51</v>
       </c>
       <c r="AK76" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL76" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM76" t="n">
         <v>34</v>
       </c>
       <c r="AN76" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO76" t="n">
         <v>67</v>
       </c>
       <c r="AP76" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ76" t="n">
         <v>41</v>
@@ -11227,24 +11227,24 @@
         <v>11</v>
       </c>
       <c r="O77" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P77" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R77" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V77" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W77" t="n">
         <v>1.4</v>
@@ -11344,22 +11344,22 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>5.25</v>
+        <v>4.33</v>
       </c>
       <c r="H78" t="n">
+        <v>4</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J78" t="n">
         <v>4.33</v>
       </c>
-      <c r="I78" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J78" t="n">
-        <v>5</v>
-      </c>
       <c r="K78" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L78" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="M78" t="n">
         <v>1.03</v>
@@ -11374,22 +11374,22 @@
         <v>4.5</v>
       </c>
       <c r="Q78" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U78" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V78" t="n">
         <v>1.53</v>
-      </c>
-      <c r="R78" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="S78" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="T78" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U78" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V78" t="n">
-        <v>1.57</v>
       </c>
       <c r="W78" t="n">
         <v>1.29</v>
@@ -11398,58 +11398,58 @@
         <v>3.5</v>
       </c>
       <c r="Y78" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z78" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA78" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB78" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC78" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD78" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE78" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF78" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG78" t="n">
         <v>17</v>
       </c>
       <c r="AH78" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI78" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ78" t="n">
         <v>41</v>
       </c>
       <c r="AK78" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL78" t="n">
         <v>9.5</v>
       </c>
       <c r="AM78" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AN78" t="n">
         <v>8.5</v>
       </c>
       <c r="AO78" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP78" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ78" t="n">
         <v>21</v>
@@ -11513,10 +11513,10 @@
         <v>10</v>
       </c>
       <c r="O79" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P79" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q79" t="n">
         <v>1.62</v>
@@ -11646,55 +11646,55 @@
         <v>1.67</v>
       </c>
       <c r="K80" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L80" t="n">
         <v>7.5</v>
       </c>
       <c r="M80" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N80" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="O80" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P80" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="R80" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="S80" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="T80" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="U80" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="V80" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="W80" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X80" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Y80" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Z80" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AA80" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB80" t="n">
         <v>7</v>
@@ -11718,13 +11718,13 @@
         <v>12</v>
       </c>
       <c r="AI80" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ80" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK80" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AL80" t="n">
         <v>23</v>
@@ -11779,13 +11779,13 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="H81" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I81" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="J81" t="n">
         <v>5.5</v>
@@ -11797,10 +11797,10 @@
         <v>2.1</v>
       </c>
       <c r="M81" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N81" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="O81" t="n">
         <v>1.29</v>
@@ -11809,10 +11809,10 @@
         <v>3.5</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R81" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
@@ -11853,10 +11853,10 @@
         <v>51</v>
       </c>
       <c r="AG81" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH81" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI81" t="n">
         <v>17</v>
@@ -11865,7 +11865,7 @@
         <v>51</v>
       </c>
       <c r="AK81" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AL81" t="n">
         <v>7</v>
@@ -11923,78 +11923,78 @@
         <v>2.52</v>
       </c>
       <c r="H82" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I82" t="n">
         <v>2.72</v>
       </c>
       <c r="J82" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K82" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="L82" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="M82" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N82" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="O82" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="P82" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="R82" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="V82" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W82" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="X82" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="Y82" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="Z82" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AA82" t="n">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="AB82" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AC82" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AD82" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE82" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AF82" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AG82" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AH82" t="n">
         <v>5.8</v>
@@ -12006,25 +12006,25 @@
         <v>75</v>
       </c>
       <c r="AK82" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AL82" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="AM82" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AN82" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AO82" t="n">
         <v>32</v>
       </c>
       <c r="AP82" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ82" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AR82" t="inlineStr"/>
       <c r="AS82" t="inlineStr"/>
@@ -12061,7 +12061,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4.35</v>
+        <v>4.2</v>
       </c>
       <c r="H83" t="n">
         <v>3.4</v>
@@ -12070,7 +12070,7 @@
         <v>1.75</v>
       </c>
       <c r="J83" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="K83" t="n">
         <v>2.07</v>
@@ -12091,10 +12091,10 @@
         <v>3</v>
       </c>
       <c r="Q83" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R83" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
@@ -12108,7 +12108,7 @@
         <v>1.45</v>
       </c>
       <c r="X83" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="Y83" t="n">
         <v>1.9</v>
@@ -12117,22 +12117,22 @@
         <v>1.82</v>
       </c>
       <c r="AA83" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AB83" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC83" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD83" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AE83" t="n">
         <v>45</v>
       </c>
       <c r="AF83" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG83" t="n">
         <v>6.9</v>
@@ -12150,10 +12150,10 @@
         <v>700</v>
       </c>
       <c r="AL83" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AM83" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AN83" t="n">
         <v>8.25</v>
@@ -12484,40 +12484,40 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I86" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J86" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K86" t="n">
         <v>1.91</v>
       </c>
       <c r="L86" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M86" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N86" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O86" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P86" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R86" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
@@ -12543,13 +12543,13 @@
         <v>6</v>
       </c>
       <c r="AB86" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC86" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD86" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE86" t="n">
         <v>23</v>
@@ -12561,13 +12561,13 @@
         <v>6</v>
       </c>
       <c r="AH86" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI86" t="n">
         <v>19</v>
       </c>
       <c r="AJ86" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK86" t="n">
         <v>101</v>
@@ -12582,19 +12582,19 @@
         <v>13</v>
       </c>
       <c r="AO86" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP86" t="n">
         <v>34</v>
       </c>
       <c r="AQ86" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR86" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="87">
@@ -12629,22 +12629,22 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="H87" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I87" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="J87" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K87" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="L87" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="M87" t="n">
         <v>1.04</v>
@@ -12653,7 +12653,7 @@
         <v>8.25</v>
       </c>
       <c r="O87" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P87" t="n">
         <v>3.8</v>
@@ -12667,7 +12667,7 @@
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="V87" t="n">
         <v>1.44</v>
@@ -12682,31 +12682,31 @@
         <v>1.62</v>
       </c>
       <c r="Z87" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="AA87" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB87" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC87" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD87" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AE87" t="n">
         <v>32</v>
       </c>
       <c r="AF87" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG87" t="n">
         <v>8.25</v>
       </c>
       <c r="AH87" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AI87" t="n">
         <v>13</v>
@@ -12718,16 +12718,16 @@
         <v>300</v>
       </c>
       <c r="AL87" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AM87" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AN87" t="n">
         <v>8.25</v>
       </c>
       <c r="AO87" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AP87" t="n">
         <v>13.5</v>
@@ -12911,111 +12911,111 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H89" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="I89" t="n">
-        <v>2.6</v>
+        <v>2.82</v>
       </c>
       <c r="J89" t="n">
         <v>3.05</v>
       </c>
       <c r="K89" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L89" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="M89" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N89" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O89" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P89" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="R89" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="n">
-        <v>2.52</v>
+        <v>2.72</v>
       </c>
       <c r="V89" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="W89" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="X89" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="Y89" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="Z89" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="AA89" t="n">
-        <v>11.5</v>
+        <v>9.75</v>
       </c>
       <c r="AB89" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AC89" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD89" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE89" t="n">
         <v>19</v>
       </c>
       <c r="AF89" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG89" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH89" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="AI89" t="n">
         <v>10.75</v>
       </c>
       <c r="AJ89" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AO89" t="n">
         <v>37</v>
       </c>
-      <c r="AK89" t="n">
-        <v>200</v>
-      </c>
-      <c r="AL89" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AM89" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AN89" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AO89" t="n">
-        <v>30</v>
-      </c>
       <c r="AP89" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AQ89" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AR89" t="inlineStr"/>
       <c r="AS89" t="inlineStr"/>
@@ -13055,13 +13055,13 @@
         <v>1.7</v>
       </c>
       <c r="H90" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I90" t="n">
         <v>5</v>
       </c>
       <c r="J90" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K90" t="n">
         <v>2.2</v>
@@ -13096,10 +13096,10 @@
         <v>1.3</v>
       </c>
       <c r="W90" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X90" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y90" t="n">
         <v>1.91</v>
@@ -13126,7 +13126,7 @@
         <v>29</v>
       </c>
       <c r="AG90" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH90" t="n">
         <v>7</v>
@@ -13138,13 +13138,13 @@
         <v>51</v>
       </c>
       <c r="AK90" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL90" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM90" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN90" t="n">
         <v>17</v>
@@ -13193,69 +13193,69 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H91" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I91" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J91" t="n">
         <v>3.6</v>
       </c>
-      <c r="I91" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>3.75</v>
-      </c>
       <c r="K91" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L91" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M91" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N91" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O91" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P91" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.75</v>
+        <v>1.98</v>
       </c>
       <c r="R91" t="n">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X91" t="n">
         <v>2.75</v>
       </c>
-      <c r="V91" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W91" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X91" t="n">
-        <v>3.25</v>
-      </c>
       <c r="Y91" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="Z91" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AA91" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AB91" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC91" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD91" t="n">
         <v>34</v>
@@ -13267,10 +13267,10 @@
         <v>29</v>
       </c>
       <c r="AG91" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH91" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI91" t="n">
         <v>13</v>
@@ -13279,25 +13279,25 @@
         <v>41</v>
       </c>
       <c r="AK91" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL91" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM91" t="n">
         <v>11</v>
       </c>
       <c r="AN91" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO91" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP91" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ91" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR91" t="inlineStr"/>
       <c r="AS91" t="inlineStr"/>
@@ -13334,7 +13334,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H92" t="n">
         <v>3.3</v>
@@ -13343,19 +13343,19 @@
         <v>3.1</v>
       </c>
       <c r="J92" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K92" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L92" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M92" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N92" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O92" t="n">
         <v>1.33</v>
@@ -13475,40 +13475,40 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="H93" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I93" t="n">
-        <v>4.9</v>
+        <v>4.35</v>
       </c>
       <c r="J93" t="n">
-        <v>2.45</v>
+        <v>2.57</v>
       </c>
       <c r="K93" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="L93" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="M93" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N93" t="n">
-        <v>6</v>
+        <v>4.55</v>
       </c>
       <c r="O93" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="P93" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="R93" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
@@ -13525,37 +13525,37 @@
         <v>2.12</v>
       </c>
       <c r="Y93" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="Z93" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="AA93" t="n">
-        <v>4.55</v>
+        <v>4.7</v>
       </c>
       <c r="AB93" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC93" t="n">
         <v>9.75</v>
       </c>
       <c r="AD93" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AE93" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF93" t="n">
         <v>55</v>
       </c>
       <c r="AG93" t="n">
-        <v>5.9</v>
+        <v>4.9</v>
       </c>
       <c r="AH93" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AI93" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ93" t="n">
         <v>200</v>
@@ -13564,22 +13564,22 @@
         <v>101</v>
       </c>
       <c r="AL93" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="AM93" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AN93" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AO93" t="n">
+        <v>80</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>65</v>
+      </c>
+      <c r="AQ93" t="n">
         <v>100</v>
-      </c>
-      <c r="AP93" t="n">
-        <v>75</v>
-      </c>
-      <c r="AQ93" t="n">
-        <v>110</v>
       </c>
       <c r="AR93" t="inlineStr"/>
       <c r="AS93" t="inlineStr"/>
@@ -13616,16 +13616,16 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H94" t="n">
         <v>2.75</v>
       </c>
       <c r="I94" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J94" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K94" t="n">
         <v>1.95</v>
@@ -13640,16 +13640,16 @@
         <v>7</v>
       </c>
       <c r="O94" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P94" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R94" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr"/>
@@ -13666,10 +13666,10 @@
         <v>2.38</v>
       </c>
       <c r="Y94" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z94" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA94" t="n">
         <v>8</v>
@@ -13684,13 +13684,13 @@
         <v>29</v>
       </c>
       <c r="AE94" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF94" t="n">
         <v>41</v>
       </c>
       <c r="AG94" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH94" t="n">
         <v>5.5</v>
@@ -13702,7 +13702,7 @@
         <v>51</v>
       </c>
       <c r="AK94" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL94" t="n">
         <v>8</v>
@@ -13711,7 +13711,7 @@
         <v>13</v>
       </c>
       <c r="AN94" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO94" t="n">
         <v>29</v>
@@ -13723,10 +13723,10 @@
         <v>41</v>
       </c>
       <c r="AR94" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="95">

--- a/Jogos_da_Semana_FlashScore_2025-02-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-21.xlsx
@@ -728,10 +728,10 @@
         <v>2.38</v>
       </c>
       <c r="S2" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T2" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="U2" t="n">
         <v>2.38</v>
@@ -858,7 +858,7 @@
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
         <v>1.33</v>
@@ -867,10 +867,10 @@
         <v>3.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R3" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -978,16 +978,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K4" t="n">
         <v>2.2</v>
@@ -1002,16 +1002,16 @@
         <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -1034,7 +1034,7 @@
         <v>2</v>
       </c>
       <c r="AA4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB4" t="n">
         <v>10</v>
@@ -1043,7 +1043,7 @@
         <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="n">
         <v>17</v>
@@ -1052,16 +1052,16 @@
         <v>26</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
         <v>6.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK4" t="n">
         <v>201</v>
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J5" t="n">
         <v>3.6</v>
@@ -1140,7 +1140,7 @@
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1290,10 +1290,10 @@
         <v>3.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="R6" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -1848,22 +1848,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K10" t="n">
         <v>1.91</v>
       </c>
       <c r="L10" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>1.11</v>
@@ -1890,10 +1890,10 @@
         <v>1.23</v>
       </c>
       <c r="U10" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W10" t="n">
         <v>1.57</v>
@@ -1911,16 +1911,16 @@
         <v>6</v>
       </c>
       <c r="AB10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC10" t="n">
         <v>10</v>
       </c>
       <c r="AD10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
@@ -1935,28 +1935,28 @@
         <v>19</v>
       </c>
       <c r="AJ10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK10" t="n">
         <v>501</v>
       </c>
       <c r="AL10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN10" t="n">
         <v>13</v>
       </c>
       <c r="AO10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP10" t="n">
         <v>34</v>
       </c>
       <c r="AQ10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR10" t="n">
         <v>1.98</v>
@@ -1997,28 +1997,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L11" t="n">
         <v>3.5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.75</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O11" t="n">
         <v>1.17</v>
@@ -2027,16 +2027,16 @@
         <v>5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R11" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S11" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="T11" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U11" t="n">
         <v>2.3</v>
@@ -2060,19 +2060,19 @@
         <v>11</v>
       </c>
       <c r="AB11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC11" t="n">
         <v>9</v>
       </c>
       <c r="AD11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG11" t="n">
         <v>17</v>
@@ -2081,7 +2081,7 @@
         <v>7.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ11" t="n">
         <v>34</v>
@@ -2093,13 +2093,13 @@
         <v>15</v>
       </c>
       <c r="AM11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN11" t="n">
         <v>12</v>
       </c>
       <c r="AO11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP11" t="n">
         <v>23</v>
@@ -2480,10 +2480,10 @@
         <v>2.2</v>
       </c>
       <c r="AA14" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC14" t="n">
         <v>9.75</v>
@@ -2516,7 +2516,7 @@
         <v>9.25</v>
       </c>
       <c r="AM14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AN14" t="n">
         <v>9.25</v>
@@ -2525,10 +2525,10 @@
         <v>27</v>
       </c>
       <c r="AP14" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
@@ -2843,19 +2843,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H17" t="n">
         <v>3.8</v>
       </c>
       <c r="I17" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J17" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K17" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L17" t="n">
         <v>4.33</v>
@@ -2867,34 +2867,34 @@
         <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P17" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R17" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S17" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="T17" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="U17" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V17" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W17" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y17" t="n">
         <v>1.57</v>
@@ -2903,7 +2903,7 @@
         <v>2.25</v>
       </c>
       <c r="AA17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB17" t="n">
         <v>10</v>
@@ -2927,7 +2927,7 @@
         <v>7.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ17" t="n">
         <v>41</v>
@@ -2936,13 +2936,13 @@
         <v>126</v>
       </c>
       <c r="AL17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM17" t="n">
         <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO17" t="n">
         <v>41</v>
@@ -2951,7 +2951,7 @@
         <v>29</v>
       </c>
       <c r="AQ17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
@@ -3294,10 +3294,10 @@
         <v>13</v>
       </c>
       <c r="O20" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P20" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q20" t="n">
         <v>1.75</v>
@@ -3308,10 +3308,10 @@
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V20" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W20" t="n">
         <v>1.33</v>
@@ -3411,48 +3411,48 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J21" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K21" t="n">
         <v>2.1</v>
       </c>
       <c r="L21" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R21" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V21" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W21" t="n">
         <v>1.5</v>
@@ -3461,22 +3461,22 @@
         <v>2.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AA21" t="n">
         <v>5.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AC21" t="n">
         <v>9</v>
       </c>
       <c r="AD21" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
         <v>15</v>
@@ -3488,34 +3488,34 @@
         <v>8</v>
       </c>
       <c r="AH21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ21" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK21" t="n">
         <v>101</v>
       </c>
       <c r="AL21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AM21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO21" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AP21" t="n">
         <v>51</v>
       </c>
       <c r="AQ21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
@@ -3723,16 +3723,16 @@
         <v>3.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R23" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S23" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="T23" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="U23" t="n">
         <v>3.25</v>
@@ -3804,10 +3804,10 @@
         <v>34</v>
       </c>
       <c r="AR23" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="24">
@@ -3991,13 +3991,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H25" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J25" t="n">
         <v>2.38</v>
@@ -4006,7 +4006,7 @@
         <v>2</v>
       </c>
       <c r="L25" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M25" t="n">
         <v>1.1</v>
@@ -4087,10 +4087,10 @@
         <v>12</v>
       </c>
       <c r="AM25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO25" t="n">
         <v>67</v>
@@ -4140,13 +4140,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H26" t="n">
         <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J26" t="n">
         <v>3</v>
@@ -4158,10 +4158,10 @@
         <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O26" t="n">
         <v>1.4</v>
@@ -4178,10 +4178,10 @@
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V26" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W26" t="n">
         <v>1.5</v>
@@ -4281,22 +4281,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="H27" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="J27" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="K27" t="n">
         <v>2.1</v>
       </c>
       <c r="L27" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="M27" t="n">
         <v>1.06</v>
@@ -4305,60 +4305,60 @@
         <v>10</v>
       </c>
       <c r="O27" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P27" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R27" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V27" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W27" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X27" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AA27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD27" t="n">
         <v>41</v>
       </c>
       <c r="AE27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF27" t="n">
         <v>41</v>
       </c>
       <c r="AG27" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH27" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI27" t="n">
         <v>15</v>
@@ -4373,16 +4373,16 @@
         <v>7</v>
       </c>
       <c r="AM27" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AN27" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ27" t="n">
         <v>29</v>
@@ -4563,16 +4563,16 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="H29" t="n">
         <v>3.8</v>
       </c>
       <c r="I29" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="J29" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K29" t="n">
         <v>2.25</v>
@@ -4626,7 +4626,7 @@
         <v>13</v>
       </c>
       <c r="AB29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC29" t="n">
         <v>15</v>
@@ -4635,7 +4635,7 @@
         <v>51</v>
       </c>
       <c r="AE29" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF29" t="n">
         <v>41</v>
@@ -4738,10 +4738,10 @@
         <v>3.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R30" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S30" t="n">
         <v>2</v>
@@ -4994,37 +4994,37 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H32" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="I32" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="J32" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="K32" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="L32" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="M32" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="N32" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="O32" t="n">
         <v>1.8</v>
       </c>
       <c r="P32" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="R32" t="n">
         <v>1.28</v>
@@ -5032,49 +5032,49 @@
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="V32" t="n">
         <v>1.09</v>
       </c>
       <c r="W32" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="X32" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="Y32" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="Z32" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AA32" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AB32" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AD32" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE32" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF32" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG32" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="AH32" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AI32" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ32" t="n">
         <v>200</v>
@@ -5083,22 +5083,22 @@
         <v>101</v>
       </c>
       <c r="AL32" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AM32" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AN32" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO32" t="n">
         <v>60</v>
       </c>
       <c r="AP32" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AQ32" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr"/>
@@ -5135,7 +5135,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="H33" t="n">
         <v>2.67</v>
@@ -5144,57 +5144,57 @@
         <v>3.05</v>
       </c>
       <c r="J33" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K33" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="L33" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="M33" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="N33" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="O33" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P33" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="Q33" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="R33" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="V33" t="n">
         <v>1.1</v>
       </c>
       <c r="W33" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="X33" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Y33" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="Z33" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="AA33" t="n">
         <v>5.4</v>
       </c>
       <c r="AB33" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AC33" t="n">
         <v>11.5</v>
@@ -5203,43 +5203,43 @@
         <v>32</v>
       </c>
       <c r="AE33" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AF33" t="n">
         <v>65</v>
       </c>
       <c r="AG33" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="AH33" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AI33" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AJ33" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AK33" t="n">
         <v>101</v>
       </c>
       <c r="AL33" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="AM33" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AN33" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO33" t="n">
         <v>40</v>
       </c>
       <c r="AP33" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AQ33" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr"/>
@@ -5282,96 +5282,96 @@
         <v>2.72</v>
       </c>
       <c r="I34" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="J34" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="K34" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="L34" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="M34" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="N34" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O34" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P34" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="R34" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="V34" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="W34" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Z34" t="n">
         <v>1.62</v>
       </c>
-      <c r="X34" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>1.6</v>
-      </c>
       <c r="AA34" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AB34" t="n">
         <v>8.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AD34" t="n">
         <v>20</v>
       </c>
       <c r="AE34" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF34" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG34" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AH34" t="n">
         <v>5.6</v>
       </c>
       <c r="AI34" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AJ34" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AK34" t="n">
         <v>101</v>
       </c>
       <c r="AL34" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AM34" t="n">
         <v>22</v>
       </c>
       <c r="AN34" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO34" t="n">
         <v>80</v>
@@ -5417,111 +5417,111 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="H35" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L35" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N35" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q35" t="n">
         <v>2.85</v>
       </c>
-      <c r="I35" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J35" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="K35" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="L35" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N35" t="n">
-        <v>5</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P35" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.67</v>
-      </c>
       <c r="R35" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X35" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA35" t="n">
         <v>4.85</v>
       </c>
-      <c r="V35" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="X35" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>4.8</v>
-      </c>
       <c r="AB35" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AC35" t="n">
         <v>9.25</v>
       </c>
       <c r="AD35" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE35" t="n">
         <v>21</v>
       </c>
       <c r="AF35" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG35" t="n">
-        <v>5</v>
+        <v>4.65</v>
       </c>
       <c r="AH35" t="n">
         <v>5.8</v>
       </c>
       <c r="AI35" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ35" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AK35" t="n">
         <v>101</v>
       </c>
       <c r="AL35" t="n">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="AM35" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AN35" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AO35" t="n">
         <v>100</v>
       </c>
       <c r="AP35" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AQ35" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr"/>
@@ -5699,13 +5699,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H37" t="n">
         <v>3.3</v>
       </c>
       <c r="I37" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J37" t="n">
         <v>2.5</v>
@@ -5743,28 +5743,28 @@
         <v>1.2</v>
       </c>
       <c r="W37" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X37" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z37" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA37" t="n">
         <v>5.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC37" t="n">
         <v>9</v>
       </c>
       <c r="AD37" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE37" t="n">
         <v>17</v>
@@ -5779,10 +5779,10 @@
         <v>6.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ37" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK37" t="n">
         <v>501</v>
@@ -5791,16 +5791,16 @@
         <v>11</v>
       </c>
       <c r="AM37" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN37" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO37" t="n">
         <v>51</v>
       </c>
       <c r="AP37" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ37" t="n">
         <v>51</v>
@@ -5985,22 +5985,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H39" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I39" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J39" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K39" t="n">
         <v>2.05</v>
       </c>
       <c r="L39" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M39" t="n">
         <v>1.07</v>
@@ -6015,10 +6015,10 @@
         <v>3</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R39" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
@@ -6035,16 +6035,16 @@
         <v>2.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AA39" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB39" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC39" t="n">
         <v>9</v>
@@ -6056,13 +6056,13 @@
         <v>17</v>
       </c>
       <c r="AF39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG39" t="n">
         <v>8</v>
       </c>
       <c r="AH39" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI39" t="n">
         <v>17</v>
@@ -6083,7 +6083,7 @@
         <v>15</v>
       </c>
       <c r="AO39" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP39" t="n">
         <v>41</v>
@@ -6432,16 +6432,16 @@
         <v>9</v>
       </c>
       <c r="O42" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P42" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R42" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
@@ -6567,19 +6567,19 @@
         <v>4.75</v>
       </c>
       <c r="M43" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N43" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O43" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P43" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R43" t="n">
         <v>2</v>
@@ -6587,10 +6587,10 @@
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V43" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W43" t="n">
         <v>1.36</v>
@@ -6690,16 +6690,16 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H44" t="n">
         <v>4</v>
       </c>
       <c r="I44" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J44" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K44" t="n">
         <v>2.6</v>
@@ -6720,10 +6720,10 @@
         <v>6</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R44" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="S44" t="n">
         <v>1.8</v>
@@ -6762,7 +6762,7 @@
         <v>13</v>
       </c>
       <c r="AE44" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF44" t="n">
         <v>19</v>
@@ -6871,10 +6871,10 @@
         <v>2.35</v>
       </c>
       <c r="S45" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="T45" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="U45" t="n">
         <v>2.38</v>
@@ -7010,10 +7010,10 @@
         <v>3.5</v>
       </c>
       <c r="Q46" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R46" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
@@ -7407,107 +7407,107 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="H49" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="I49" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="J49" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="K49" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="L49" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P49" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R49" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="V49" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W49" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X49" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="Y49" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="Z49" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="AA49" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="AB49" t="n">
-        <v>8.25</v>
+        <v>10</v>
       </c>
       <c r="AC49" t="n">
         <v>8.25</v>
       </c>
       <c r="AD49" t="n">
-        <v>14.5</v>
+        <v>19</v>
       </c>
       <c r="AE49" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AF49" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AG49" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="AH49" t="n">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="AI49" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AJ49" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AK49" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AL49" t="n">
-        <v>11.25</v>
+        <v>10</v>
       </c>
       <c r="AM49" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AN49" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO49" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AP49" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AQ49" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR49" t="inlineStr"/>
       <c r="AS49" t="inlineStr"/>
@@ -7544,50 +7544,50 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="H50" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I50" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J50" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="K50" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L50" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P50" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R50" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="V50" t="n">
         <v>1.31</v>
       </c>
       <c r="W50" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X50" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="Y50" t="n">
         <v>1.7</v>
@@ -7596,7 +7596,7 @@
         <v>1.93</v>
       </c>
       <c r="AA50" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AB50" t="n">
         <v>9.5</v>
@@ -7605,22 +7605,22 @@
         <v>8.25</v>
       </c>
       <c r="AD50" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE50" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF50" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG50" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AH50" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AI50" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ50" t="n">
         <v>60</v>
@@ -7629,22 +7629,22 @@
         <v>450</v>
       </c>
       <c r="AL50" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AM50" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN50" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO50" t="n">
         <v>55</v>
       </c>
       <c r="AP50" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AQ50" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AR50" t="inlineStr"/>
       <c r="AS50" t="inlineStr"/>
@@ -7681,22 +7681,22 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H51" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I51" t="n">
-        <v>4.45</v>
+        <v>4.35</v>
       </c>
       <c r="J51" t="n">
         <v>2.2</v>
       </c>
       <c r="K51" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L51" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
@@ -7704,7 +7704,7 @@
         <v>1.19</v>
       </c>
       <c r="P51" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="Q51" t="n">
         <v>1.57</v>
@@ -7726,13 +7726,13 @@
         <v>1.57</v>
       </c>
       <c r="Z51" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="AA51" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB51" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AC51" t="n">
         <v>8</v>
@@ -7750,7 +7750,7 @@
         <v>13.5</v>
       </c>
       <c r="AH51" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AI51" t="n">
         <v>13</v>
@@ -7762,13 +7762,13 @@
         <v>300</v>
       </c>
       <c r="AL51" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM51" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN51" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO51" t="n">
         <v>75</v>
@@ -7955,22 +7955,22 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H53" t="n">
         <v>3.1</v>
       </c>
       <c r="I53" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J53" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K53" t="n">
         <v>2.05</v>
       </c>
       <c r="L53" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M53" t="n">
         <v>1.07</v>
@@ -7985,10 +7985,10 @@
         <v>3</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R53" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
@@ -8011,16 +8011,16 @@
         <v>1.91</v>
       </c>
       <c r="AA53" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC53" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD53" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE53" t="n">
         <v>21</v>
@@ -8044,22 +8044,22 @@
         <v>301</v>
       </c>
       <c r="AL53" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM53" t="n">
         <v>15</v>
       </c>
       <c r="AN53" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO53" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP53" t="n">
         <v>29</v>
       </c>
-      <c r="AP53" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ53" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR53" t="inlineStr"/>
       <c r="AS53" t="inlineStr"/>
@@ -8117,7 +8117,7 @@
         <v>1.08</v>
       </c>
       <c r="N54" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O54" t="n">
         <v>1.44</v>
@@ -8134,10 +8134,10 @@
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V54" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W54" t="n">
         <v>1.53</v>
@@ -8170,7 +8170,7 @@
         <v>41</v>
       </c>
       <c r="AG54" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH54" t="n">
         <v>6.5</v>
@@ -8202,8 +8202,12 @@
       <c r="AQ54" t="n">
         <v>34</v>
       </c>
-      <c r="AR54" t="inlineStr"/>
-      <c r="AS54" t="inlineStr"/>
+      <c r="AR54" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -8237,7 +8241,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H55" t="n">
         <v>3</v>
@@ -8246,54 +8250,54 @@
         <v>2.1</v>
       </c>
       <c r="J55" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K55" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L55" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M55" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N55" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O55" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P55" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="R55" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="V55" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W55" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X55" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y55" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Z55" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AA55" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB55" t="n">
         <v>17</v>
@@ -8305,19 +8309,19 @@
         <v>41</v>
       </c>
       <c r="AE55" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF55" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG55" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH55" t="n">
         <v>6</v>
       </c>
       <c r="AI55" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ55" t="n">
         <v>67</v>
@@ -8341,13 +8345,13 @@
         <v>21</v>
       </c>
       <c r="AQ55" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR55" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="56">
@@ -8382,28 +8386,28 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H56" t="n">
         <v>3.8</v>
       </c>
       <c r="I56" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J56" t="n">
         <v>2.2</v>
       </c>
       <c r="K56" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L56" t="n">
         <v>5.5</v>
       </c>
       <c r="M56" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N56" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O56" t="n">
         <v>1.25</v>
@@ -8412,7 +8416,7 @@
         <v>3.75</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R56" t="n">
         <v>2</v>
@@ -8432,16 +8436,16 @@
         <v>3</v>
       </c>
       <c r="Y56" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z56" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA56" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB56" t="n">
         <v>7.5</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>8</v>
       </c>
       <c r="AC56" t="n">
         <v>8.5</v>
@@ -8453,16 +8457,16 @@
         <v>13</v>
       </c>
       <c r="AF56" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG56" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH56" t="n">
         <v>7.5</v>
       </c>
       <c r="AI56" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ56" t="n">
         <v>51</v>
@@ -8474,7 +8478,7 @@
         <v>15</v>
       </c>
       <c r="AM56" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN56" t="n">
         <v>17</v>
@@ -8523,48 +8527,48 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H57" t="n">
         <v>3.1</v>
       </c>
       <c r="I57" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J57" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K57" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L57" t="n">
         <v>3</v>
       </c>
       <c r="M57" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N57" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O57" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P57" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="R57" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="V57" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="W57" t="n">
         <v>1.44</v>
@@ -8573,49 +8577,49 @@
         <v>2.63</v>
       </c>
       <c r="Y57" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Z57" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AA57" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB57" t="n">
         <v>17</v>
       </c>
       <c r="AC57" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD57" t="n">
         <v>34</v>
       </c>
       <c r="AE57" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF57" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG57" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH57" t="n">
         <v>6</v>
       </c>
       <c r="AI57" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ57" t="n">
         <v>51</v>
       </c>
       <c r="AK57" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL57" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM57" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN57" t="n">
         <v>9.5</v>
@@ -8664,36 +8668,36 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H58" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="I58" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J58" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="K58" t="n">
-        <v>2.37</v>
+        <v>2.27</v>
       </c>
       <c r="L58" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P58" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="R58" t="n">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
@@ -8706,49 +8710,49 @@
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="Z58" t="n">
-        <v>2.34</v>
+        <v>2.19</v>
       </c>
       <c r="AA58" t="n">
-        <v>8.25</v>
+        <v>7.2</v>
       </c>
       <c r="AB58" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="AC58" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AD58" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE58" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AF58" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AG58" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH58" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="AI58" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AJ58" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AK58" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AL58" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AM58" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN58" t="n">
         <v>12</v>
@@ -8757,10 +8761,10 @@
         <v>55</v>
       </c>
       <c r="AP58" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AQ58" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR58" t="inlineStr"/>
       <c r="AS58" t="inlineStr"/>
@@ -8797,103 +8801,107 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H59" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="I59" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="J59" t="n">
-        <v>2.27</v>
+        <v>2.18</v>
       </c>
       <c r="K59" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="L59" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P59" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="Q59" t="n">
         <v>1.78</v>
       </c>
       <c r="R59" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="V59" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
+        <v>1.35</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X59" t="n">
+        <v>2.45</v>
+      </c>
       <c r="Y59" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="Z59" t="n">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="AA59" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AB59" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="AC59" t="n">
         <v>6.5</v>
       </c>
       <c r="AD59" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AE59" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AF59" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG59" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH59" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="AI59" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AJ59" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AK59" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AL59" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AM59" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AN59" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO59" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AP59" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AQ59" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AR59" t="inlineStr"/>
       <c r="AS59" t="inlineStr"/>
@@ -8930,7 +8938,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H60" t="n">
         <v>4</v>
@@ -8945,7 +8953,7 @@
         <v>2.3</v>
       </c>
       <c r="L60" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M60" t="n">
         <v>1.04</v>
@@ -8995,13 +9003,13 @@
         <v>8.5</v>
       </c>
       <c r="AD60" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE60" t="n">
         <v>13</v>
       </c>
       <c r="AF60" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG60" t="n">
         <v>13</v>
@@ -9773,13 +9781,13 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H67" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I67" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J67" t="n">
         <v>2.5</v>
@@ -9829,10 +9837,10 @@
         <v>2.2</v>
       </c>
       <c r="AA67" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB67" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC67" t="n">
         <v>8.5</v>
@@ -9847,7 +9855,7 @@
         <v>21</v>
       </c>
       <c r="AG67" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH67" t="n">
         <v>7.5</v>
@@ -9868,7 +9876,7 @@
         <v>21</v>
       </c>
       <c r="AN67" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO67" t="n">
         <v>41</v>
@@ -9944,18 +9952,18 @@
         <v>4</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R68" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V68" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W68" t="n">
         <v>1.33</v>
@@ -10055,13 +10063,13 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H69" t="n">
         <v>3.5</v>
       </c>
       <c r="I69" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J69" t="n">
         <v>2.63</v>
@@ -10070,7 +10078,7 @@
         <v>2</v>
       </c>
       <c r="L69" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M69" t="n">
         <v>1.07</v>
@@ -10123,7 +10131,7 @@
         <v>15</v>
       </c>
       <c r="AE69" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF69" t="n">
         <v>34</v>
@@ -10132,7 +10140,7 @@
         <v>8</v>
       </c>
       <c r="AH69" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI69" t="n">
         <v>19</v>
@@ -10144,13 +10152,13 @@
         <v>101</v>
       </c>
       <c r="AL69" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM69" t="n">
         <v>19</v>
       </c>
       <c r="AN69" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO69" t="n">
         <v>41</v>
@@ -10196,28 +10204,28 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I70" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="J70" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K70" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L70" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M70" t="n">
         <v>1.08</v>
       </c>
       <c r="N70" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O70" t="n">
         <v>1.4</v>
@@ -10258,19 +10266,19 @@
         <v>11</v>
       </c>
       <c r="AC70" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD70" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE70" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF70" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG70" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH70" t="n">
         <v>6</v>
@@ -10279,25 +10287,25 @@
         <v>17</v>
       </c>
       <c r="AJ70" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK70" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AL70" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM70" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN70" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO70" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP70" t="n">
         <v>29</v>
-      </c>
-      <c r="AP70" t="n">
-        <v>26</v>
       </c>
       <c r="AQ70" t="n">
         <v>41</v>
@@ -10341,28 +10349,28 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="H71" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="I71" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J71" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="K71" t="n">
         <v>2.75</v>
       </c>
       <c r="L71" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M71" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N71" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O71" t="n">
         <v>1.17</v>
@@ -10377,10 +10385,10 @@
         <v>2.35</v>
       </c>
       <c r="S71" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="T71" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="U71" t="n">
         <v>2.38</v>
@@ -10395,10 +10403,10 @@
         <v>3.5</v>
       </c>
       <c r="Y71" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Z71" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AA71" t="n">
         <v>7.5</v>
@@ -10407,55 +10415,55 @@
         <v>6</v>
       </c>
       <c r="AC71" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE71" t="n">
         <v>11</v>
-      </c>
-      <c r="AD71" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>12</v>
       </c>
       <c r="AF71" t="n">
         <v>34</v>
       </c>
       <c r="AG71" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH71" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI71" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ71" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK71" t="n">
         <v>900</v>
       </c>
       <c r="AL71" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN71" t="n">
         <v>34</v>
       </c>
-      <c r="AM71" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN71" t="n">
-        <v>41</v>
-      </c>
       <c r="AO71" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AP71" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AQ71" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR71" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AS71" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="72">
@@ -10776,13 +10784,13 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H74" t="n">
         <v>3.25</v>
       </c>
       <c r="I74" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J74" t="n">
         <v>3</v>
@@ -10791,7 +10799,7 @@
         <v>2.1</v>
       </c>
       <c r="L74" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M74" t="n">
         <v>1.06</v>
@@ -10850,7 +10858,7 @@
         <v>29</v>
       </c>
       <c r="AG74" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH74" t="n">
         <v>6.5</v>
@@ -10874,10 +10882,10 @@
         <v>11</v>
       </c>
       <c r="AO74" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP74" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ74" t="n">
         <v>34</v>
@@ -11062,13 +11070,13 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H76" t="n">
         <v>3.9</v>
       </c>
       <c r="I76" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J76" t="n">
         <v>2.1</v>
@@ -11083,27 +11091,27 @@
         <v>1.04</v>
       </c>
       <c r="N76" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O76" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P76" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R76" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V76" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W76" t="n">
         <v>1.33</v>
@@ -11112,10 +11120,10 @@
         <v>3.25</v>
       </c>
       <c r="Y76" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z76" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AA76" t="n">
         <v>8</v>
@@ -11127,7 +11135,7 @@
         <v>8.5</v>
       </c>
       <c r="AD76" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE76" t="n">
         <v>12</v>
@@ -11203,10 +11211,10 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H77" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I77" t="n">
         <v>3</v>
@@ -11218,13 +11226,13 @@
         <v>2.1</v>
       </c>
       <c r="L77" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M77" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N77" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O77" t="n">
         <v>1.29</v>
@@ -11283,7 +11291,7 @@
         <v>6.5</v>
       </c>
       <c r="AI77" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ77" t="n">
         <v>51</v>
@@ -11301,10 +11309,10 @@
         <v>11</v>
       </c>
       <c r="AO77" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP77" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ77" t="n">
         <v>34</v>
@@ -11344,22 +11352,22 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H78" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I78" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="J78" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K78" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L78" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M78" t="n">
         <v>1.03</v>
@@ -11380,10 +11388,10 @@
         <v>2.35</v>
       </c>
       <c r="S78" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T78" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U78" t="n">
         <v>2.38</v>
@@ -11413,7 +11421,7 @@
         <v>15</v>
       </c>
       <c r="AD78" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE78" t="n">
         <v>34</v>
@@ -11425,16 +11433,16 @@
         <v>17</v>
       </c>
       <c r="AH78" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI78" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ78" t="n">
         <v>41</v>
       </c>
       <c r="AK78" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL78" t="n">
         <v>9.5</v>
@@ -11449,7 +11457,7 @@
         <v>13</v>
       </c>
       <c r="AP78" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ78" t="n">
         <v>21</v>
@@ -11489,22 +11497,22 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H79" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="I79" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J79" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K79" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L79" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M79" t="n">
         <v>1.03</v>
@@ -11519,22 +11527,22 @@
         <v>4.33</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R79" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S79" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="T79" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="U79" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V79" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W79" t="n">
         <v>1.3</v>
@@ -11549,13 +11557,13 @@
         <v>1.91</v>
       </c>
       <c r="AA79" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB79" t="n">
         <v>7.5</v>
       </c>
       <c r="AC79" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD79" t="n">
         <v>10</v>
@@ -11567,10 +11575,10 @@
         <v>23</v>
       </c>
       <c r="AG79" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH79" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI79" t="n">
         <v>17</v>
@@ -11579,13 +11587,13 @@
         <v>51</v>
       </c>
       <c r="AK79" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AL79" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM79" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN79" t="n">
         <v>21</v>
@@ -11634,16 +11642,16 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="H80" t="n">
         <v>5.75</v>
       </c>
       <c r="I80" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J80" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="K80" t="n">
         <v>2.6</v>
@@ -11652,10 +11660,10 @@
         <v>7.5</v>
       </c>
       <c r="M80" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N80" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="O80" t="n">
         <v>1.17</v>
@@ -11688,13 +11696,13 @@
         <v>3.5</v>
       </c>
       <c r="Y80" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Z80" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AA80" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB80" t="n">
         <v>7</v>
@@ -11703,7 +11711,7 @@
         <v>9.5</v>
       </c>
       <c r="AD80" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE80" t="n">
         <v>11</v>
@@ -11724,10 +11732,10 @@
         <v>67</v>
       </c>
       <c r="AK80" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AL80" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM80" t="n">
         <v>41</v>
@@ -11736,7 +11744,7 @@
         <v>23</v>
       </c>
       <c r="AO80" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AP80" t="n">
         <v>51</v>
@@ -11779,10 +11787,10 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="H81" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I81" t="n">
         <v>1.6</v>
@@ -11791,51 +11799,51 @@
         <v>5.5</v>
       </c>
       <c r="K81" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L81" t="n">
         <v>2.2</v>
       </c>
-      <c r="L81" t="n">
-        <v>2.1</v>
-      </c>
       <c r="M81" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N81" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="O81" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P81" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="R81" t="n">
-        <v>1.9</v>
+        <v>1.67</v>
       </c>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="V81" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="W81" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X81" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y81" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="Z81" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AA81" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB81" t="n">
         <v>29</v>
@@ -11844,34 +11852,34 @@
         <v>19</v>
       </c>
       <c r="AD81" t="n">
+        <v>67</v>
+      </c>
+      <c r="AE81" t="n">
         <v>51</v>
-      </c>
-      <c r="AE81" t="n">
-        <v>41</v>
       </c>
       <c r="AF81" t="n">
         <v>51</v>
       </c>
       <c r="AG81" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AH81" t="n">
         <v>7</v>
       </c>
       <c r="AI81" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ81" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK81" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AL81" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM81" t="n">
         <v>7</v>
-      </c>
-      <c r="AM81" t="n">
-        <v>7.5</v>
       </c>
       <c r="AN81" t="n">
         <v>9</v>
@@ -11880,10 +11888,10 @@
         <v>11</v>
       </c>
       <c r="AP81" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ81" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR81" t="inlineStr"/>
       <c r="AS81" t="inlineStr"/>
@@ -11923,19 +11931,19 @@
         <v>2.52</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I82" t="n">
         <v>2.72</v>
       </c>
       <c r="J82" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K82" t="n">
         <v>1.95</v>
       </c>
       <c r="L82" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="M82" t="n">
         <v>1.08</v>
@@ -11976,7 +11984,7 @@
         <v>1.88</v>
       </c>
       <c r="AA82" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AB82" t="n">
         <v>12.5</v>
@@ -12000,7 +12008,7 @@
         <v>5.8</v>
       </c>
       <c r="AI82" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AJ82" t="n">
         <v>75</v>
@@ -12009,10 +12017,10 @@
         <v>600</v>
       </c>
       <c r="AL82" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AM82" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AN82" t="n">
         <v>10.25</v>
@@ -12021,10 +12029,10 @@
         <v>32</v>
       </c>
       <c r="AP82" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ82" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AR82" t="inlineStr"/>
       <c r="AS82" t="inlineStr"/>
@@ -12061,7 +12069,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="H83" t="n">
         <v>3.4</v>
@@ -12202,13 +12210,13 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H84" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="I84" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="J84" t="n">
         <v>5</v>
@@ -12226,39 +12234,39 @@
         <v>29</v>
       </c>
       <c r="O84" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P84" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R84" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V84" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W84" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="X84" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Y84" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="Z84" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AA84" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB84" t="n">
         <v>41</v>
@@ -12267,7 +12275,7 @@
         <v>19</v>
       </c>
       <c r="AD84" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AE84" t="n">
         <v>34</v>
@@ -12282,22 +12290,22 @@
         <v>11</v>
       </c>
       <c r="AI84" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ84" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AK84" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL84" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM84" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN84" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO84" t="n">
         <v>13</v>
@@ -12502,10 +12510,10 @@
         <v>4</v>
       </c>
       <c r="M86" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N86" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O86" t="n">
         <v>1.53</v>
@@ -12911,28 +12919,28 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H89" t="n">
-        <v>3.05</v>
+        <v>2.85</v>
       </c>
       <c r="I89" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="J89" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K89" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L89" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="M89" t="n">
         <v>1.06</v>
       </c>
       <c r="N89" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="O89" t="n">
         <v>1.25</v>
@@ -12949,73 +12957,73 @@
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="V89" t="n">
         <v>1.4</v>
       </c>
       <c r="W89" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X89" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Y89" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="Z89" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="AA89" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AB89" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC89" t="n">
         <v>9</v>
       </c>
       <c r="AD89" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AE89" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF89" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG89" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AH89" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="AI89" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL89" t="n">
         <v>10.75</v>
       </c>
-      <c r="AJ89" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK89" t="n">
-        <v>250</v>
-      </c>
-      <c r="AL89" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AM89" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AN89" t="n">
         <v>9.75</v>
       </c>
       <c r="AO89" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AP89" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ89" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR89" t="inlineStr"/>
       <c r="AS89" t="inlineStr"/>
@@ -13052,16 +13060,16 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H90" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I90" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J90" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K90" t="n">
         <v>2.2</v>
@@ -13076,16 +13084,16 @@
         <v>11</v>
       </c>
       <c r="O90" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P90" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q90" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R90" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
@@ -13117,10 +13125,10 @@
         <v>8.5</v>
       </c>
       <c r="AD90" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE90" t="n">
         <v>13</v>
-      </c>
-      <c r="AE90" t="n">
-        <v>15</v>
       </c>
       <c r="AF90" t="n">
         <v>29</v>
@@ -13475,22 +13483,22 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="H93" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I93" t="n">
-        <v>4.35</v>
+        <v>4.6</v>
       </c>
       <c r="J93" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="K93" t="n">
         <v>1.88</v>
       </c>
       <c r="L93" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="M93" t="n">
         <v>1.12</v>
@@ -13502,18 +13510,18 @@
         <v>1.57</v>
       </c>
       <c r="P93" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="R93" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="V93" t="n">
         <v>1.12</v>
@@ -13522,28 +13530,28 @@
         <v>1.57</v>
       </c>
       <c r="X93" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Y93" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="Z93" t="n">
         <v>1.45</v>
       </c>
       <c r="AA93" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AB93" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AC93" t="n">
         <v>9.75</v>
       </c>
       <c r="AD93" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE93" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF93" t="n">
         <v>55</v>
@@ -13552,7 +13560,7 @@
         <v>4.9</v>
       </c>
       <c r="AH93" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AI93" t="n">
         <v>26</v>
@@ -13564,19 +13572,19 @@
         <v>101</v>
       </c>
       <c r="AL93" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM93" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN93" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO93" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AP93" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AQ93" t="n">
         <v>100</v>
@@ -14039,111 +14047,111 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H97" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I97" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="J97" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="K97" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="L97" t="n">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="M97" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N97" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="O97" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="P97" t="n">
-        <v>3.1</v>
+        <v>2.85</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="R97" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="V97" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="W97" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="X97" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="Y97" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="Z97" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AA97" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="AB97" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC97" t="n">
         <v>8.25</v>
       </c>
       <c r="AD97" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE97" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF97" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AG97" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="AH97" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AI97" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AJ97" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK97" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AL97" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AM97" t="n">
         <v>25</v>
       </c>
       <c r="AN97" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AO97" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AP97" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AQ97" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR97" t="inlineStr"/>
       <c r="AS97" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-21.xlsx
@@ -728,10 +728,10 @@
         <v>2.38</v>
       </c>
       <c r="S2" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T2" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="U2" t="n">
         <v>2.38</v>
@@ -837,28 +837,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="J3" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
         <v>1.33</v>
@@ -867,24 +867,24 @@
         <v>3.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V3" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y3" t="n">
         <v>1.8</v>
@@ -893,19 +893,19 @@
         <v>1.95</v>
       </c>
       <c r="AA3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC3" t="n">
         <v>9</v>
       </c>
-      <c r="AC3" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AD3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE3" t="n">
         <v>17</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>15</v>
       </c>
       <c r="AF3" t="n">
         <v>29</v>
@@ -926,10 +926,10 @@
         <v>251</v>
       </c>
       <c r="AL3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM3" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AN3" t="n">
         <v>13</v>
@@ -938,7 +938,7 @@
         <v>41</v>
       </c>
       <c r="AP3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ3" t="n">
         <v>41</v>
@@ -1008,10 +1008,10 @@
         <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="R4" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -1119,22 +1119,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
         <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
@@ -1187,7 +1187,7 @@
         <v>29</v>
       </c>
       <c r="AE5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
         <v>41</v>
@@ -1214,7 +1214,7 @@
         <v>12</v>
       </c>
       <c r="AN5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO5" t="n">
         <v>26</v>
@@ -1290,10 +1290,10 @@
         <v>3.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="R6" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -1401,10 +1401,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H7" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
         <v>2.2</v>
@@ -1419,49 +1419,49 @@
         <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R7" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S7" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="U7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W7" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB7" t="n">
         <v>17</v>
@@ -1479,7 +1479,7 @@
         <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH7" t="n">
         <v>6</v>
@@ -1488,13 +1488,13 @@
         <v>19</v>
       </c>
       <c r="AJ7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK7" t="n">
         <v>101</v>
       </c>
       <c r="AL7" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AM7" t="n">
         <v>9</v>
@@ -1506,16 +1506,16 @@
         <v>21</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
         <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="8">
@@ -1699,16 +1699,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H9" t="n">
         <v>2.7</v>
       </c>
       <c r="I9" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K9" t="n">
         <v>1.73</v>
@@ -1717,10 +1717,10 @@
         <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="N9" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="O9" t="n">
         <v>1.73</v>
@@ -1762,7 +1762,7 @@
         <v>6</v>
       </c>
       <c r="AB9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC9" t="n">
         <v>13</v>
@@ -1771,13 +1771,13 @@
         <v>34</v>
       </c>
       <c r="AE9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF9" t="n">
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AH9" t="n">
         <v>6</v>
@@ -1795,13 +1795,13 @@
         <v>5.5</v>
       </c>
       <c r="AM9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN9" t="n">
         <v>12</v>
       </c>
-      <c r="AN9" t="n">
-        <v>13</v>
-      </c>
       <c r="AO9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP9" t="n">
         <v>34</v>
@@ -1848,16 +1848,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
         <v>1.91</v>
@@ -1884,10 +1884,10 @@
         <v>1.48</v>
       </c>
       <c r="S10" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T10" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="U10" t="n">
         <v>5</v>
@@ -1908,16 +1908,16 @@
         <v>1.67</v>
       </c>
       <c r="AA10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -1944,16 +1944,16 @@
         <v>7.5</v>
       </c>
       <c r="AM10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO10" t="n">
         <v>34</v>
       </c>
       <c r="AP10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ10" t="n">
         <v>41</v>
@@ -1997,85 +1997,85 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I11" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="J11" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K11" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L11" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
+        <v>17</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB11" t="n">
         <v>15</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>13</v>
-      </c>
       <c r="AC11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE11" t="n">
         <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH11" t="n">
         <v>7.5</v>
@@ -2084,10 +2084,10 @@
         <v>11</v>
       </c>
       <c r="AJ11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL11" t="n">
         <v>15</v>
@@ -2096,16 +2096,16 @@
         <v>19</v>
       </c>
       <c r="AN11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO11" t="n">
         <v>34</v>
       </c>
       <c r="AP11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ11" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
@@ -2142,63 +2142,63 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H12" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J12" t="n">
         <v>3.55</v>
       </c>
-      <c r="I12" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.5</v>
-      </c>
       <c r="K12" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="L12" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P12" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="R12" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="V12" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="W12" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="X12" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AA12" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AB12" t="n">
         <v>16</v>
@@ -2210,28 +2210,28 @@
         <v>37</v>
       </c>
       <c r="AE12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG12" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="AH12" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AI12" t="n">
         <v>13.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="n">
         <v>400</v>
       </c>
       <c r="AL12" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AM12" t="n">
         <v>10.75</v>
@@ -2240,13 +2240,13 @@
         <v>8.75</v>
       </c>
       <c r="AO12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP12" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AQ12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
@@ -2292,84 +2292,84 @@
         <v>2.9</v>
       </c>
       <c r="J13" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="K13" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L13" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P13" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="R13" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="V13" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="W13" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="X13" t="n">
-        <v>2.65</v>
+        <v>2.82</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="AA13" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE13" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AG13" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AH13" t="n">
         <v>6.2</v>
       </c>
       <c r="AI13" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ13" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK13" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AL13" t="n">
         <v>9</v>
@@ -2480,10 +2480,10 @@
         <v>2.2</v>
       </c>
       <c r="AA14" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AB14" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC14" t="n">
         <v>9.75</v>
@@ -2843,16 +2843,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H17" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I17" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J17" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K17" t="n">
         <v>2.4</v>
@@ -2864,7 +2864,7 @@
         <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O17" t="n">
         <v>1.17</v>
@@ -2879,16 +2879,16 @@
         <v>2.35</v>
       </c>
       <c r="S17" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="T17" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="U17" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V17" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W17" t="n">
         <v>1.29</v>
@@ -2918,10 +2918,10 @@
         <v>13</v>
       </c>
       <c r="AF17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
         <v>7.5</v>
@@ -2939,10 +2939,10 @@
         <v>17</v>
       </c>
       <c r="AM17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO17" t="n">
         <v>41</v>
@@ -3273,10 +3273,10 @@
         <v>1.55</v>
       </c>
       <c r="H20" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I20" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J20" t="n">
         <v>2.1</v>
@@ -3314,10 +3314,10 @@
         <v>1.4</v>
       </c>
       <c r="W20" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X20" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y20" t="n">
         <v>1.83</v>
@@ -3344,7 +3344,7 @@
         <v>26</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH20" t="n">
         <v>8</v>
@@ -3414,7 +3414,7 @@
         <v>1.55</v>
       </c>
       <c r="H21" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I21" t="n">
         <v>6</v>
@@ -3426,13 +3426,13 @@
         <v>2.1</v>
       </c>
       <c r="L21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O21" t="n">
         <v>1.4</v>
@@ -3461,16 +3461,16 @@
         <v>2.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AA21" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AB21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AC21" t="n">
         <v>9</v>
@@ -3488,7 +3488,7 @@
         <v>8</v>
       </c>
       <c r="AH21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI21" t="n">
         <v>23</v>
@@ -3500,13 +3500,13 @@
         <v>101</v>
       </c>
       <c r="AL21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM21" t="n">
         <v>29</v>
       </c>
       <c r="AN21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO21" t="n">
         <v>67</v>
@@ -3552,13 +3552,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H22" t="n">
         <v>4.2</v>
       </c>
       <c r="I22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="J22" t="n">
         <v>1.91</v>
@@ -3567,7 +3567,7 @@
         <v>2.3</v>
       </c>
       <c r="L22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M22" t="n">
         <v>1.05</v>
@@ -3602,10 +3602,10 @@
         <v>2.75</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA22" t="n">
         <v>6</v>
@@ -3626,16 +3626,16 @@
         <v>34</v>
       </c>
       <c r="AG22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ22" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK22" t="n">
         <v>101</v>
@@ -3693,7 +3693,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
         <v>3.5</v>
@@ -3717,16 +3717,16 @@
         <v>11</v>
       </c>
       <c r="O23" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P23" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R23" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S23" t="n">
         <v>2.48</v>
@@ -3741,10 +3741,10 @@
         <v>1.33</v>
       </c>
       <c r="W23" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X23" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y23" t="n">
         <v>1.73</v>
@@ -3863,7 +3863,7 @@
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O24" t="n">
         <v>1.22</v>
@@ -3947,7 +3947,7 @@
         <v>26</v>
       </c>
       <c r="AP24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ24" t="n">
         <v>26</v>
@@ -3991,13 +3991,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H25" t="n">
         <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J25" t="n">
         <v>2.38</v>
@@ -4009,10 +4009,10 @@
         <v>6</v>
       </c>
       <c r="M25" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O25" t="n">
         <v>1.44</v>
@@ -4087,10 +4087,10 @@
         <v>12</v>
       </c>
       <c r="AM25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO25" t="n">
         <v>67</v>
@@ -4140,22 +4140,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="H26" t="n">
         <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K26" t="n">
         <v>2</v>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M26" t="n">
         <v>1.08</v>
@@ -4178,10 +4178,10 @@
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V26" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W26" t="n">
         <v>1.5</v>
@@ -4190,25 +4190,25 @@
         <v>2.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AA26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC26" t="n">
         <v>9.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF26" t="n">
         <v>34</v>
@@ -4229,19 +4229,19 @@
         <v>351</v>
       </c>
       <c r="AL26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP26" t="n">
         <v>34</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>29</v>
       </c>
       <c r="AQ26" t="n">
         <v>41</v>
@@ -4281,16 +4281,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H27" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I27" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="J27" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K27" t="n">
         <v>2.1</v>
@@ -4299,10 +4299,10 @@
         <v>2.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O27" t="n">
         <v>1.3</v>
@@ -4325,10 +4325,10 @@
         <v>1.29</v>
       </c>
       <c r="W27" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X27" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y27" t="n">
         <v>1.91</v>
@@ -4343,7 +4343,7 @@
         <v>21</v>
       </c>
       <c r="AC27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD27" t="n">
         <v>41</v>
@@ -4355,10 +4355,10 @@
         <v>41</v>
       </c>
       <c r="AG27" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI27" t="n">
         <v>15</v>
@@ -4563,13 +4563,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="H29" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I29" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="J29" t="n">
         <v>4.75</v>
@@ -4578,7 +4578,7 @@
         <v>2.25</v>
       </c>
       <c r="L29" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M29" t="n">
         <v>1.04</v>
@@ -4593,10 +4593,10 @@
         <v>3.75</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R29" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S29" t="n">
         <v>2</v>
@@ -4632,7 +4632,7 @@
         <v>15</v>
       </c>
       <c r="AD29" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE29" t="n">
         <v>34</v>
@@ -4641,10 +4641,10 @@
         <v>41</v>
       </c>
       <c r="AG29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI29" t="n">
         <v>15</v>
@@ -4665,10 +4665,10 @@
         <v>8.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ29" t="n">
         <v>23</v>
@@ -4708,16 +4708,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H30" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J30" t="n">
         <v>3.75</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2</v>
-      </c>
-      <c r="J30" t="n">
-        <v>4</v>
       </c>
       <c r="K30" t="n">
         <v>2.2</v>
@@ -4738,10 +4738,10 @@
         <v>3.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R30" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S30" t="n">
         <v>2</v>
@@ -4750,10 +4750,10 @@
         <v>1.85</v>
       </c>
       <c r="U30" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V30" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W30" t="n">
         <v>1.4</v>
@@ -4762,10 +4762,10 @@
         <v>2.75</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AA30" t="n">
         <v>10</v>
@@ -4774,7 +4774,7 @@
         <v>17</v>
       </c>
       <c r="AC30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD30" t="n">
         <v>34</v>
@@ -4853,22 +4853,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I31" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J31" t="n">
         <v>3.4</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3</v>
       </c>
       <c r="K31" t="n">
         <v>2.05</v>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M31" t="n">
         <v>1.08</v>
@@ -4903,37 +4903,37 @@
         <v>2.63</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA31" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AC31" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AE31" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AF31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG31" t="n">
         <v>8</v>
       </c>
       <c r="AH31" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ31" t="n">
         <v>51</v>
@@ -4942,22 +4942,22 @@
         <v>251</v>
       </c>
       <c r="AL31" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AM31" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AN31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ31" t="n">
         <v>34</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>41</v>
       </c>
       <c r="AR31" t="inlineStr"/>
       <c r="AS31" t="inlineStr"/>
@@ -4994,37 +4994,37 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H32" t="n">
-        <v>2.57</v>
+        <v>2.45</v>
       </c>
       <c r="I32" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="J32" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="K32" t="n">
         <v>1.75</v>
       </c>
       <c r="L32" t="n">
-        <v>4.5</v>
+        <v>4.15</v>
       </c>
       <c r="M32" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="N32" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O32" t="n">
         <v>1.8</v>
       </c>
       <c r="P32" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="R32" t="n">
         <v>1.28</v>
@@ -5041,40 +5041,40 @@
         <v>1.7</v>
       </c>
       <c r="X32" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="Y32" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="AA32" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="AB32" t="n">
-        <v>9.5</v>
+        <v>11.25</v>
       </c>
       <c r="AC32" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="AE32" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AF32" t="n">
         <v>65</v>
       </c>
       <c r="AG32" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AH32" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="AI32" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AJ32" t="n">
         <v>200</v>
@@ -5083,22 +5083,22 @@
         <v>101</v>
       </c>
       <c r="AL32" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="AM32" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AN32" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AO32" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AP32" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AQ32" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr"/>
@@ -5135,111 +5135,111 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="H33" t="n">
-        <v>2.67</v>
+        <v>2.57</v>
       </c>
       <c r="I33" t="n">
         <v>3.05</v>
       </c>
       <c r="J33" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K33" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="L33" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="N33" t="n">
-        <v>4.45</v>
+        <v>4.05</v>
       </c>
       <c r="O33" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="P33" t="n">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="Q33" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="R33" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>35</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>37</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AH33" t="n">
         <v>5.7</v>
       </c>
-      <c r="V33" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="X33" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>35</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>5.6</v>
-      </c>
       <c r="AI33" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AJ33" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AK33" t="n">
         <v>101</v>
       </c>
       <c r="AL33" t="n">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
       <c r="AM33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN33" t="n">
         <v>13.5</v>
       </c>
-      <c r="AN33" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AO33" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AP33" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AQ33" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr"/>
@@ -5276,66 +5276,66 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H34" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="I34" t="n">
-        <v>4.2</v>
+        <v>4.05</v>
       </c>
       <c r="J34" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="K34" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="L34" t="n">
-        <v>4.8</v>
+        <v>4.65</v>
       </c>
       <c r="M34" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N34" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O34" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="P34" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="R34" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="n">
-        <v>4.85</v>
+        <v>4.65</v>
       </c>
       <c r="V34" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W34" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="X34" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="Z34" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AA34" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AB34" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AC34" t="n">
         <v>9.25</v>
@@ -5344,19 +5344,19 @@
         <v>20</v>
       </c>
       <c r="AE34" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF34" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG34" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AH34" t="n">
         <v>5.6</v>
       </c>
       <c r="AI34" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AJ34" t="n">
         <v>120</v>
@@ -5365,22 +5365,22 @@
         <v>101</v>
       </c>
       <c r="AL34" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AM34" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AN34" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO34" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AP34" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AQ34" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AR34" t="inlineStr"/>
       <c r="AS34" t="inlineStr"/>
@@ -5417,111 +5417,111 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="H35" t="n">
-        <v>2.77</v>
+        <v>2.92</v>
       </c>
       <c r="I35" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="J35" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="K35" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L35" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="M35" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="N35" t="n">
-        <v>4.65</v>
+        <v>5.1</v>
       </c>
       <c r="O35" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="P35" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.85</v>
+        <v>2.62</v>
       </c>
       <c r="R35" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="n">
-        <v>5.2</v>
+        <v>4.75</v>
       </c>
       <c r="V35" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="W35" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="X35" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AA35" t="n">
-        <v>4.85</v>
+        <v>5.1</v>
       </c>
       <c r="AB35" t="n">
         <v>7.8</v>
       </c>
       <c r="AC35" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD35" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE35" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI35" t="n">
         <v>21</v>
       </c>
-      <c r="AF35" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>22</v>
-      </c>
       <c r="AJ35" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AK35" t="n">
         <v>101</v>
       </c>
       <c r="AL35" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AM35" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN35" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AO35" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AP35" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AQ35" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr"/>
@@ -5593,8 +5593,12 @@
       <c r="R36" t="n">
         <v>1.95</v>
       </c>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
+      <c r="S36" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.52</v>
+      </c>
       <c r="U36" t="n">
         <v>3.2</v>
       </c>
@@ -5664,8 +5668,12 @@
       <c r="AQ36" t="n">
         <v>29</v>
       </c>
-      <c r="AR36" t="inlineStr"/>
-      <c r="AS36" t="inlineStr"/>
+      <c r="AR36" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5699,7 +5707,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H37" t="n">
         <v>3.3</v>
@@ -5734,8 +5742,12 @@
       <c r="R37" t="n">
         <v>1.57</v>
       </c>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
+      <c r="S37" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.27</v>
+      </c>
       <c r="U37" t="n">
         <v>4.5</v>
       </c>
@@ -5764,7 +5776,7 @@
         <v>9</v>
       </c>
       <c r="AD37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE37" t="n">
         <v>17</v>
@@ -6150,10 +6162,10 @@
         <v>9</v>
       </c>
       <c r="O40" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P40" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q40" t="n">
         <v>2.1</v>
@@ -6552,7 +6564,7 @@
         <v>1.7</v>
       </c>
       <c r="H43" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I43" t="n">
         <v>4.5</v>
@@ -6561,7 +6573,7 @@
         <v>2.3</v>
       </c>
       <c r="K43" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L43" t="n">
         <v>4.75</v>
@@ -6579,10 +6591,10 @@
         <v>4</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R43" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
@@ -6593,10 +6605,10 @@
         <v>1.4</v>
       </c>
       <c r="W43" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X43" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y43" t="n">
         <v>1.73</v>
@@ -6605,7 +6617,7 @@
         <v>2</v>
       </c>
       <c r="AA43" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB43" t="n">
         <v>8.5</v>
@@ -6632,16 +6644,16 @@
         <v>15</v>
       </c>
       <c r="AJ43" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK43" t="n">
         <v>201</v>
       </c>
       <c r="AL43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM43" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN43" t="n">
         <v>15</v>
@@ -6693,31 +6705,31 @@
         <v>1.62</v>
       </c>
       <c r="H44" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I44" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J44" t="n">
         <v>2.1</v>
       </c>
       <c r="K44" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L44" t="n">
         <v>4.75</v>
       </c>
       <c r="M44" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N44" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O44" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P44" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q44" t="n">
         <v>1.48</v>
@@ -6744,10 +6756,10 @@
         <v>3.75</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Z44" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AA44" t="n">
         <v>11</v>
@@ -6771,7 +6783,7 @@
         <v>19</v>
       </c>
       <c r="AH44" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI44" t="n">
         <v>12</v>
@@ -6998,10 +7010,10 @@
         <v>2.88</v>
       </c>
       <c r="M46" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N46" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O46" t="n">
         <v>1.29</v>
@@ -7084,7 +7096,7 @@
         <v>17</v>
       </c>
       <c r="AQ46" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR46" t="inlineStr"/>
       <c r="AS46" t="inlineStr"/>
@@ -7407,83 +7419,83 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="H49" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I49" t="n">
-        <v>3.6</v>
+        <v>4.05</v>
       </c>
       <c r="J49" t="n">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="K49" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L49" t="n">
-        <v>4.15</v>
+        <v>4.35</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P49" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R49" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="V49" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W49" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X49" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="Y49" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Z49" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AA49" t="n">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="AB49" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="AC49" t="n">
         <v>8.25</v>
       </c>
       <c r="AD49" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AE49" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF49" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG49" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AH49" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="AI49" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ49" t="n">
         <v>65</v>
@@ -7492,19 +7504,19 @@
         <v>500</v>
       </c>
       <c r="AL49" t="n">
-        <v>10</v>
+        <v>11.75</v>
       </c>
       <c r="AM49" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AN49" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO49" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AP49" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AQ49" t="n">
         <v>40</v>
@@ -7544,19 +7556,19 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="H50" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="I50" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J50" t="n">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="K50" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="L50" t="n">
         <v>4.15</v>
@@ -7564,78 +7576,78 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P50" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="R50" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="V50" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W50" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="X50" t="n">
-        <v>2.57</v>
+        <v>2.45</v>
       </c>
       <c r="Y50" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="Z50" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AA50" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AB50" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC50" t="n">
         <v>8.25</v>
       </c>
       <c r="AD50" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AE50" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF50" t="n">
         <v>25</v>
       </c>
       <c r="AG50" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH50" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI50" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ50" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK50" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AL50" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AM50" t="n">
         <v>20</v>
       </c>
       <c r="AN50" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO50" t="n">
         <v>55</v>
@@ -7644,7 +7656,7 @@
         <v>35</v>
       </c>
       <c r="AQ50" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AR50" t="inlineStr"/>
       <c r="AS50" t="inlineStr"/>
@@ -7814,13 +7826,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
         <v>3.3</v>
       </c>
       <c r="I52" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J52" t="n">
         <v>2.75</v>
@@ -7832,10 +7844,10 @@
         <v>4.33</v>
       </c>
       <c r="M52" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N52" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O52" t="n">
         <v>1.33</v>
@@ -7870,16 +7882,16 @@
         <v>1.8</v>
       </c>
       <c r="AA52" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB52" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC52" t="n">
         <v>9</v>
       </c>
       <c r="AD52" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE52" t="n">
         <v>17</v>
@@ -7906,16 +7918,16 @@
         <v>9.5</v>
       </c>
       <c r="AM52" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN52" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO52" t="n">
         <v>41</v>
       </c>
       <c r="AP52" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ52" t="n">
         <v>41</v>
@@ -7955,19 +7967,19 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H53" t="n">
         <v>3.1</v>
       </c>
       <c r="I53" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J53" t="n">
         <v>3.1</v>
       </c>
       <c r="K53" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L53" t="n">
         <v>3.75</v>
@@ -7985,10 +7997,10 @@
         <v>3</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R53" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
@@ -8005,22 +8017,22 @@
         <v>2.5</v>
       </c>
       <c r="Y53" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Z53" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AA53" t="n">
         <v>7</v>
       </c>
       <c r="AB53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC53" t="n">
         <v>9.5</v>
       </c>
       <c r="AD53" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE53" t="n">
         <v>21</v>
@@ -8029,7 +8041,7 @@
         <v>34</v>
       </c>
       <c r="AG53" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH53" t="n">
         <v>6</v>
@@ -8041,22 +8053,22 @@
         <v>51</v>
       </c>
       <c r="AK53" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL53" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM53" t="n">
         <v>15</v>
       </c>
       <c r="AN53" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO53" t="n">
         <v>34</v>
       </c>
       <c r="AP53" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ53" t="n">
         <v>41</v>
@@ -8117,7 +8129,7 @@
         <v>1.08</v>
       </c>
       <c r="N54" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O54" t="n">
         <v>1.44</v>
@@ -8161,7 +8173,7 @@
         <v>11</v>
       </c>
       <c r="AD54" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE54" t="n">
         <v>26</v>
@@ -8203,10 +8215,10 @@
         <v>34</v>
       </c>
       <c r="AR54" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="55">
@@ -8247,57 +8259,57 @@
         <v>3</v>
       </c>
       <c r="I55" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J55" t="n">
         <v>4.5</v>
       </c>
       <c r="K55" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L55" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M55" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N55" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O55" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P55" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="R55" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V55" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W55" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X55" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y55" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Z55" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AA55" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB55" t="n">
         <v>17</v>
@@ -8309,19 +8321,19 @@
         <v>41</v>
       </c>
       <c r="AE55" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF55" t="n">
         <v>41</v>
       </c>
-      <c r="AF55" t="n">
-        <v>51</v>
-      </c>
       <c r="AG55" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH55" t="n">
         <v>6</v>
       </c>
       <c r="AI55" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ55" t="n">
         <v>67</v>
@@ -8345,13 +8357,13 @@
         <v>21</v>
       </c>
       <c r="AQ55" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR55" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="56">
@@ -8389,7 +8401,7 @@
         <v>1.57</v>
       </c>
       <c r="H56" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I56" t="n">
         <v>5.25</v>
@@ -8404,42 +8416,42 @@
         <v>5.5</v>
       </c>
       <c r="M56" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N56" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O56" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P56" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="R56" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V56" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W56" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X56" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y56" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z56" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA56" t="n">
         <v>7</v>
@@ -8460,7 +8472,7 @@
         <v>26</v>
       </c>
       <c r="AG56" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH56" t="n">
         <v>7.5</v>
@@ -8472,10 +8484,10 @@
         <v>51</v>
       </c>
       <c r="AK56" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL56" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM56" t="n">
         <v>29</v>
@@ -8527,28 +8539,28 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H57" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I57" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="J57" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K57" t="n">
         <v>2.05</v>
       </c>
       <c r="L57" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M57" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N57" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O57" t="n">
         <v>1.36</v>
@@ -8571,10 +8583,10 @@
         <v>1.22</v>
       </c>
       <c r="W57" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X57" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y57" t="n">
         <v>1.91</v>
@@ -8583,13 +8595,13 @@
         <v>1.91</v>
       </c>
       <c r="AA57" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB57" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC57" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD57" t="n">
         <v>34</v>
@@ -8616,22 +8628,22 @@
         <v>301</v>
       </c>
       <c r="AL57" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM57" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN57" t="n">
         <v>9.5</v>
       </c>
       <c r="AO57" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP57" t="n">
         <v>21</v>
       </c>
-      <c r="AP57" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ57" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR57" t="inlineStr"/>
       <c r="AS57" t="inlineStr"/>
@@ -8668,36 +8680,36 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H58" t="n">
         <v>3.65</v>
       </c>
       <c r="I58" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="J58" t="n">
         <v>2.15</v>
       </c>
       <c r="K58" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="L58" t="n">
-        <v>4.5</v>
+        <v>4.65</v>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P58" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="R58" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
@@ -8710,61 +8722,61 @@
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="Z58" t="n">
-        <v>2.19</v>
+        <v>2.05</v>
       </c>
       <c r="AA58" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="AB58" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="AC58" t="n">
         <v>6.9</v>
       </c>
       <c r="AD58" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AE58" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AF58" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG58" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH58" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AI58" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AJ58" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AK58" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AL58" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AM58" t="n">
         <v>23</v>
       </c>
       <c r="AN58" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO58" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AP58" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AQ58" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AR58" t="inlineStr"/>
       <c r="AS58" t="inlineStr"/>
@@ -8801,22 +8813,22 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H59" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="I59" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J59" t="n">
-        <v>2.18</v>
+        <v>2.27</v>
       </c>
       <c r="K59" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="L59" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
@@ -8827,10 +8839,10 @@
         <v>3.55</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R59" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
@@ -8841,61 +8853,61 @@
         <v>1.35</v>
       </c>
       <c r="W59" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="X59" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="Y59" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Z59" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="AA59" t="n">
         <v>5.8</v>
       </c>
       <c r="AB59" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AC59" t="n">
         <v>6.5</v>
       </c>
       <c r="AD59" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE59" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AF59" t="n">
         <v>18</v>
       </c>
       <c r="AG59" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH59" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="AI59" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AJ59" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AK59" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AL59" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN59" t="n">
         <v>13.5</v>
       </c>
-      <c r="AM59" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN59" t="n">
-        <v>14</v>
-      </c>
       <c r="AO59" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AP59" t="n">
         <v>45</v>
@@ -10063,28 +10075,28 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H69" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I69" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="J69" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K69" t="n">
         <v>2</v>
       </c>
       <c r="L69" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M69" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N69" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O69" t="n">
         <v>1.4</v>
@@ -10113,25 +10125,25 @@
         <v>2.5</v>
       </c>
       <c r="Y69" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z69" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AA69" t="n">
         <v>6</v>
       </c>
       <c r="AB69" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC69" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD69" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE69" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF69" t="n">
         <v>34</v>
@@ -10149,22 +10161,22 @@
         <v>67</v>
       </c>
       <c r="AK69" t="n">
-        <v>101</v>
+        <v>1250</v>
       </c>
       <c r="AL69" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM69" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN69" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO69" t="n">
         <v>41</v>
       </c>
       <c r="AP69" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ69" t="n">
         <v>41</v>
@@ -10349,94 +10361,94 @@
         </is>
       </c>
       <c r="G71" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H71" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="I71" t="n">
+        <v>11</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K71" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L71" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N71" t="n">
+        <v>15</v>
+      </c>
+      <c r="O71" t="n">
         <v>1.2</v>
       </c>
-      <c r="H71" t="n">
-        <v>6</v>
-      </c>
-      <c r="I71" t="n">
-        <v>13</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="K71" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L71" t="n">
-        <v>11</v>
-      </c>
-      <c r="M71" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N71" t="n">
-        <v>13</v>
-      </c>
-      <c r="O71" t="n">
-        <v>1.17</v>
-      </c>
       <c r="P71" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="R71" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="S71" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="T71" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="U71" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="V71" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="W71" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X71" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y71" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Z71" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AA71" t="n">
         <v>7.5</v>
       </c>
       <c r="AB71" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AC71" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD71" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE71" t="n">
         <v>11</v>
       </c>
       <c r="AF71" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG71" t="n">
         <v>13</v>
       </c>
       <c r="AH71" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI71" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AJ71" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK71" t="n">
         <v>900</v>
@@ -10448,22 +10460,22 @@
         <v>51</v>
       </c>
       <c r="AN71" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO71" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AP71" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AQ71" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR71" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="AS71" t="n">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="72">
@@ -10516,10 +10528,10 @@
         <v>4.75</v>
       </c>
       <c r="M72" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N72" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O72" t="n">
         <v>1.5</v>
@@ -10643,22 +10655,22 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="H73" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I73" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K73" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L73" t="n">
         <v>5.5</v>
-      </c>
-      <c r="J73" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K73" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L73" t="n">
-        <v>6</v>
       </c>
       <c r="M73" t="n">
         <v>1.06</v>
@@ -10693,22 +10705,22 @@
         <v>2.63</v>
       </c>
       <c r="Y73" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Z73" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AA73" t="n">
         <v>6</v>
       </c>
       <c r="AB73" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC73" t="n">
         <v>8.5</v>
       </c>
       <c r="AD73" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE73" t="n">
         <v>15</v>
@@ -10717,31 +10729,31 @@
         <v>29</v>
       </c>
       <c r="AG73" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH73" t="n">
         <v>7</v>
       </c>
       <c r="AI73" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ73" t="n">
         <v>67</v>
       </c>
       <c r="AK73" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AL73" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM73" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN73" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO73" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP73" t="n">
         <v>41</v>
@@ -11073,7 +11085,7 @@
         <v>1.57</v>
       </c>
       <c r="H76" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I76" t="n">
         <v>6</v>
@@ -11082,7 +11094,7 @@
         <v>2.1</v>
       </c>
       <c r="K76" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L76" t="n">
         <v>5.5</v>
@@ -11091,7 +11103,7 @@
         <v>1.04</v>
       </c>
       <c r="N76" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O76" t="n">
         <v>1.22</v>
@@ -11120,13 +11132,13 @@
         <v>3.25</v>
       </c>
       <c r="Y76" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z76" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA76" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB76" t="n">
         <v>8</v>
@@ -11162,13 +11174,13 @@
         <v>17</v>
       </c>
       <c r="AM76" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN76" t="n">
         <v>19</v>
       </c>
       <c r="AO76" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP76" t="n">
         <v>41</v>
@@ -11235,24 +11247,24 @@
         <v>10</v>
       </c>
       <c r="O77" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P77" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q77" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R77" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V77" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W77" t="n">
         <v>1.4</v>
@@ -11352,76 +11364,76 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="H78" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I78" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="J78" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K78" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L78" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N78" t="n">
+        <v>15</v>
+      </c>
+      <c r="O78" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q78" t="n">
         <v>1.62</v>
       </c>
-      <c r="J78" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K78" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L78" t="n">
+      <c r="R78" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S78" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U78" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X78" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Z78" t="n">
         <v>2.1</v>
       </c>
-      <c r="M78" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N78" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="O78" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P78" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R78" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S78" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T78" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U78" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V78" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W78" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X78" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Y78" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Z78" t="n">
-        <v>2.2</v>
-      </c>
       <c r="AA78" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB78" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC78" t="n">
         <v>15</v>
       </c>
       <c r="AD78" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE78" t="n">
         <v>34</v>
@@ -11430,10 +11442,10 @@
         <v>34</v>
       </c>
       <c r="AG78" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH78" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI78" t="n">
         <v>15</v>
@@ -11445,7 +11457,7 @@
         <v>151</v>
       </c>
       <c r="AL78" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM78" t="n">
         <v>9.5</v>
@@ -11457,7 +11469,7 @@
         <v>13</v>
       </c>
       <c r="AP78" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ78" t="n">
         <v>21</v>
@@ -11497,40 +11509,40 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="H79" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I79" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J79" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="K79" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L79" t="n">
         <v>5.5</v>
       </c>
       <c r="M79" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N79" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O79" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P79" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="R79" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="S79" t="n">
         <v>2.03</v>
@@ -11539,25 +11551,25 @@
         <v>1.78</v>
       </c>
       <c r="U79" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V79" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W79" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="X79" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Y79" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z79" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA79" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB79" t="n">
         <v>7.5</v>
@@ -11566,19 +11578,19 @@
         <v>8.5</v>
       </c>
       <c r="AD79" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE79" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG79" t="n">
         <v>12</v>
       </c>
-      <c r="AF79" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG79" t="n">
-        <v>13</v>
-      </c>
       <c r="AH79" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI79" t="n">
         <v>17</v>
@@ -11587,19 +11599,19 @@
         <v>51</v>
       </c>
       <c r="AK79" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AL79" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN79" t="n">
         <v>19</v>
       </c>
-      <c r="AM79" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN79" t="n">
-        <v>21</v>
-      </c>
       <c r="AO79" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP79" t="n">
         <v>41</v>
@@ -11642,10 +11654,10 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H80" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="I80" t="n">
         <v>7.5</v>
@@ -11657,7 +11669,7 @@
         <v>2.6</v>
       </c>
       <c r="L80" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M80" t="n">
         <v>1.02</v>
@@ -11666,46 +11678,46 @@
         <v>11</v>
       </c>
       <c r="O80" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P80" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="R80" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="S80" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T80" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U80" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="V80" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="W80" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X80" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Y80" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Z80" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA80" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB80" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC80" t="n">
         <v>9.5</v>
@@ -11717,22 +11729,22 @@
         <v>11</v>
       </c>
       <c r="AF80" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG80" t="n">
         <v>17</v>
       </c>
       <c r="AH80" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI80" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ80" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK80" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AL80" t="n">
         <v>21</v>
@@ -11787,40 +11799,40 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="H81" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I81" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J81" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K81" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L81" t="n">
         <v>2.2</v>
       </c>
       <c r="M81" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N81" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O81" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P81" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R81" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
@@ -11831,16 +11843,16 @@
         <v>1.22</v>
       </c>
       <c r="W81" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X81" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y81" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Z81" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AA81" t="n">
         <v>13</v>
@@ -11849,7 +11861,7 @@
         <v>29</v>
       </c>
       <c r="AC81" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD81" t="n">
         <v>67</v>
@@ -11861,28 +11873,28 @@
         <v>51</v>
       </c>
       <c r="AG81" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH81" t="n">
         <v>7</v>
       </c>
       <c r="AI81" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ81" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK81" t="n">
         <v>1000</v>
       </c>
       <c r="AL81" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AM81" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AN81" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO81" t="n">
         <v>11</v>
@@ -11891,7 +11903,7 @@
         <v>15</v>
       </c>
       <c r="AQ81" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR81" t="inlineStr"/>
       <c r="AS81" t="inlineStr"/>
@@ -11946,7 +11958,7 @@
         <v>3.45</v>
       </c>
       <c r="M82" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N82" t="n">
         <v>6.3</v>
@@ -11990,16 +12002,16 @@
         <v>12.5</v>
       </c>
       <c r="AC82" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD82" t="n">
         <v>29</v>
       </c>
       <c r="AE82" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF82" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AG82" t="n">
         <v>6.3</v>
@@ -12011,13 +12023,13 @@
         <v>14</v>
       </c>
       <c r="AJ82" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK82" t="n">
         <v>600</v>
       </c>
       <c r="AL82" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AM82" t="n">
         <v>13.5</v>
@@ -12078,7 +12090,7 @@
         <v>1.75</v>
       </c>
       <c r="J83" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="K83" t="n">
         <v>2.07</v>
@@ -12119,13 +12131,13 @@
         <v>2.57</v>
       </c>
       <c r="Y83" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="Z83" t="n">
         <v>1.82</v>
       </c>
       <c r="AA83" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AB83" t="n">
         <v>23</v>
@@ -12134,13 +12146,13 @@
         <v>14.5</v>
       </c>
       <c r="AD83" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AE83" t="n">
         <v>45</v>
       </c>
       <c r="AF83" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG83" t="n">
         <v>6.9</v>
@@ -12152,7 +12164,7 @@
         <v>16.5</v>
       </c>
       <c r="AJ83" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AK83" t="n">
         <v>700</v>
@@ -12492,22 +12504,22 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H86" t="n">
         <v>2.9</v>
       </c>
       <c r="I86" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J86" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K86" t="n">
         <v>1.91</v>
       </c>
       <c r="L86" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M86" t="n">
         <v>1.11</v>
@@ -12551,13 +12563,13 @@
         <v>6</v>
       </c>
       <c r="AB86" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC86" t="n">
         <v>10</v>
       </c>
-      <c r="AC86" t="n">
-        <v>11</v>
-      </c>
       <c r="AD86" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE86" t="n">
         <v>23</v>
@@ -12569,13 +12581,13 @@
         <v>6</v>
       </c>
       <c r="AH86" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI86" t="n">
         <v>19</v>
       </c>
       <c r="AJ86" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK86" t="n">
         <v>101</v>
@@ -12590,13 +12602,13 @@
         <v>13</v>
       </c>
       <c r="AO86" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP86" t="n">
         <v>34</v>
       </c>
       <c r="AQ86" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR86" t="n">
         <v>2.03</v>
@@ -12922,96 +12934,96 @@
         <v>2.6</v>
       </c>
       <c r="H89" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="I89" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="J89" t="n">
         <v>3.15</v>
       </c>
       <c r="K89" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="L89" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="M89" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N89" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="O89" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P89" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R89" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="V89" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="W89" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="X89" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="Y89" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="Z89" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="AA89" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AB89" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC89" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD89" t="n">
+        <v>35</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AJ89" t="n">
         <v>32</v>
-      </c>
-      <c r="AE89" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF89" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG89" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AH89" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AI89" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ89" t="n">
-        <v>37</v>
       </c>
       <c r="AK89" t="n">
         <v>200</v>
       </c>
       <c r="AL89" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AM89" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AN89" t="n">
         <v>9.75</v>
@@ -13020,10 +13032,10 @@
         <v>40</v>
       </c>
       <c r="AP89" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ89" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AR89" t="inlineStr"/>
       <c r="AS89" t="inlineStr"/>
@@ -13060,16 +13072,16 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H90" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I90" t="n">
         <v>5.25</v>
       </c>
       <c r="J90" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K90" t="n">
         <v>2.2</v>
@@ -13078,42 +13090,42 @@
         <v>5.5</v>
       </c>
       <c r="M90" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N90" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O90" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P90" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="R90" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V90" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W90" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X90" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y90" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Z90" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AA90" t="n">
         <v>6.5</v>
@@ -13128,13 +13140,13 @@
         <v>12</v>
       </c>
       <c r="AE90" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF90" t="n">
         <v>29</v>
       </c>
       <c r="AG90" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH90" t="n">
         <v>7</v>
@@ -13146,7 +13158,7 @@
         <v>51</v>
       </c>
       <c r="AK90" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL90" t="n">
         <v>13</v>
@@ -13201,19 +13213,19 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H91" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I91" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J91" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K91" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L91" t="n">
         <v>2.88</v>
@@ -13260,22 +13272,22 @@
         <v>10</v>
       </c>
       <c r="AB91" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC91" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD91" t="n">
         <v>34</v>
       </c>
       <c r="AE91" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF91" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG91" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH91" t="n">
         <v>6.5</v>
@@ -13290,13 +13302,13 @@
         <v>201</v>
       </c>
       <c r="AL91" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM91" t="n">
         <v>11</v>
       </c>
       <c r="AN91" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO91" t="n">
         <v>21</v>
@@ -13360,10 +13372,10 @@
         <v>4</v>
       </c>
       <c r="M92" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N92" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O92" t="n">
         <v>1.33</v>
@@ -13483,19 +13495,19 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="H93" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I93" t="n">
         <v>4.6</v>
       </c>
       <c r="J93" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="K93" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="L93" t="n">
         <v>5.3</v>
@@ -13504,7 +13516,7 @@
         <v>1.12</v>
       </c>
       <c r="N93" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="O93" t="n">
         <v>1.57</v>
@@ -13513,10 +13525,10 @@
         <v>2.12</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="R93" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
@@ -13527,10 +13539,10 @@
         <v>1.12</v>
       </c>
       <c r="W93" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="X93" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="Y93" t="n">
         <v>2.4</v>
@@ -13551,7 +13563,7 @@
         <v>14</v>
       </c>
       <c r="AE93" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF93" t="n">
         <v>55</v>
@@ -13560,7 +13572,7 @@
         <v>4.9</v>
       </c>
       <c r="AH93" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AI93" t="n">
         <v>26</v>
@@ -14047,111 +14059,111 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H97" t="n">
         <v>3.3</v>
       </c>
       <c r="I97" t="n">
-        <v>4.55</v>
+        <v>4.75</v>
       </c>
       <c r="J97" t="n">
         <v>2.32</v>
       </c>
       <c r="K97" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L97" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="M97" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N97" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="O97" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="P97" t="n">
-        <v>2.85</v>
+        <v>2.65</v>
       </c>
       <c r="Q97" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="R97" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="V97" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="W97" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="X97" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="Y97" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="Z97" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AA97" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="AB97" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="AC97" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD97" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE97" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF97" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AG97" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="AH97" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AI97" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AJ97" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AK97" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AL97" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AM97" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN97" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AO97" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AP97" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AQ97" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AR97" t="inlineStr"/>
       <c r="AS97" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-21.xlsx
@@ -728,10 +728,10 @@
         <v>2.38</v>
       </c>
       <c r="S2" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="T2" t="n">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="U2" t="n">
         <v>2.38</v>
@@ -837,13 +837,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J3" t="n">
         <v>2.75</v>
@@ -855,30 +855,30 @@
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q3" t="n">
         <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="V3" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="W3" t="n">
         <v>1.44</v>
@@ -896,7 +896,7 @@
         <v>7.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC3" t="n">
         <v>9</v>
@@ -932,7 +932,7 @@
         <v>17</v>
       </c>
       <c r="AN3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO3" t="n">
         <v>41</v>
@@ -941,7 +941,7 @@
         <v>29</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -978,16 +978,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K4" t="n">
         <v>2.2</v>
@@ -1002,16 +1002,16 @@
         <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="R4" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -1037,22 +1037,22 @@
         <v>7.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC4" t="n">
         <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
         <v>26</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
         <v>6.5</v>
@@ -1073,7 +1073,7 @@
         <v>19</v>
       </c>
       <c r="AN4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO4" t="n">
         <v>41</v>
@@ -1119,28 +1119,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
         <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1187,7 +1187,7 @@
         <v>29</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF5" t="n">
         <v>41</v>
@@ -1214,7 +1214,7 @@
         <v>12</v>
       </c>
       <c r="AN5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO5" t="n">
         <v>26</v>
@@ -1260,13 +1260,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H6" t="n">
         <v>3.75</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J6" t="n">
         <v>2.3</v>
@@ -1275,7 +1275,7 @@
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
@@ -1290,10 +1290,10 @@
         <v>3.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -1310,22 +1310,22 @@
         <v>2.75</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AA6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC6" t="n">
         <v>8.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1407,7 +1407,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J7" t="n">
         <v>4.5</v>
@@ -1419,10 +1419,10 @@
         <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
@@ -1431,16 +1431,16 @@
         <v>2.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S7" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="U7" t="n">
         <v>5</v>
@@ -1491,7 +1491,7 @@
         <v>67</v>
       </c>
       <c r="AK7" t="n">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="AL7" t="n">
         <v>6</v>
@@ -1500,10 +1500,10 @@
         <v>9</v>
       </c>
       <c r="AN7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP7" t="n">
         <v>21</v>
@@ -1512,10 +1512,10 @@
         <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="8">
@@ -1550,34 +1550,34 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J8" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q8" t="n">
         <v>2.35</v>
@@ -1586,22 +1586,22 @@
         <v>1.57</v>
       </c>
       <c r="S8" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T8" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="V8" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X8" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y8" t="n">
         <v>2.1</v>
@@ -1699,28 +1699,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
         <v>2.7</v>
       </c>
       <c r="I9" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="J9" t="n">
         <v>4.33</v>
       </c>
       <c r="K9" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="L9" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.17</v>
       </c>
       <c r="N9" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
         <v>1.73</v>
@@ -1747,28 +1747,28 @@
         <v>1.08</v>
       </c>
       <c r="W9" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="X9" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE9" t="n">
         <v>41</v>
@@ -1795,16 +1795,16 @@
         <v>5.5</v>
       </c>
       <c r="AM9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN9" t="n">
         <v>12</v>
       </c>
       <c r="AO9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP9" t="n">
         <v>29</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>34</v>
       </c>
       <c r="AQ9" t="n">
         <v>51</v>
@@ -1854,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
         <v>3.4</v>
@@ -1863,7 +1863,7 @@
         <v>1.91</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M10" t="n">
         <v>1.11</v>
@@ -1920,7 +1920,7 @@
         <v>26</v>
       </c>
       <c r="AE10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
@@ -1941,7 +1941,7 @@
         <v>501</v>
       </c>
       <c r="AL10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM10" t="n">
         <v>13</v>
@@ -2283,22 +2283,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="H13" t="n">
         <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="J13" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="K13" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L13" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
@@ -2307,10 +2307,10 @@
         <v>6.9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q13" t="n">
         <v>1.95</v>
@@ -2339,28 +2339,28 @@
         <v>1.98</v>
       </c>
       <c r="AA13" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AB13" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE13" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG13" t="n">
         <v>6.9</v>
       </c>
       <c r="AH13" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AI13" t="n">
         <v>13.5</v>
@@ -2372,13 +2372,13 @@
         <v>500</v>
       </c>
       <c r="AL13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM13" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AN13" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AO13" t="n">
         <v>35</v>
@@ -2387,7 +2387,7 @@
         <v>25</v>
       </c>
       <c r="AQ13" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
@@ -2430,7 +2430,7 @@
         <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="J14" t="n">
         <v>3.2</v>
@@ -2565,37 +2565,37 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="H15" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J15" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="K15" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="M15" t="n">
         <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P15" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R15" t="n">
         <v>1.65</v>
@@ -2603,10 +2603,10 @@
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="V15" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W15" t="n">
         <v>1.42</v>
@@ -2615,58 +2615,58 @@
         <v>2.65</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="AA15" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AC15" t="n">
         <v>8.75</v>
       </c>
       <c r="AD15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE15" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF15" t="n">
         <v>32</v>
       </c>
       <c r="AG15" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AH15" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AI15" t="n">
         <v>16</v>
       </c>
       <c r="AJ15" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AK15" t="n">
         <v>800</v>
       </c>
       <c r="AL15" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AM15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO15" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AP15" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AQ15" t="n">
         <v>45</v>
@@ -2706,83 +2706,83 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="H16" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="I16" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.42</v>
+        <v>2.57</v>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="L16" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P16" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="R16" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="V16" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W16" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X16" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="AA16" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AB16" t="n">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="AC16" t="n">
         <v>8.75</v>
       </c>
       <c r="AD16" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AE16" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AF16" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG16" t="n">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="AH16" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="AI16" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AJ16" t="n">
         <v>120</v>
@@ -2791,22 +2791,22 @@
         <v>101</v>
       </c>
       <c r="AL16" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AM16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN16" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AP16" t="n">
         <v>50</v>
       </c>
       <c r="AQ16" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr"/>
@@ -2843,13 +2843,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H17" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I17" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J17" t="n">
         <v>2.3</v>
@@ -2879,16 +2879,16 @@
         <v>2.35</v>
       </c>
       <c r="S17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T17" t="n">
         <v>1.9</v>
       </c>
-      <c r="T17" t="n">
-        <v>1.95</v>
-      </c>
       <c r="U17" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V17" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W17" t="n">
         <v>1.29</v>
@@ -2897,10 +2897,10 @@
         <v>3.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z17" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA17" t="n">
         <v>10</v>
@@ -2930,7 +2930,7 @@
         <v>12</v>
       </c>
       <c r="AJ17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK17" t="n">
         <v>126</v>
@@ -2939,10 +2939,10 @@
         <v>17</v>
       </c>
       <c r="AM17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO17" t="n">
         <v>41</v>
@@ -3012,16 +3012,16 @@
         <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P18" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R18" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
@@ -3270,22 +3270,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H20" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I20" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J20" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K20" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
@@ -3300,10 +3300,10 @@
         <v>4</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R20" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
@@ -3314,10 +3314,10 @@
         <v>1.4</v>
       </c>
       <c r="W20" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X20" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y20" t="n">
         <v>1.83</v>
@@ -3338,19 +3338,19 @@
         <v>11</v>
       </c>
       <c r="AE20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF20" t="n">
         <v>26</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ20" t="n">
         <v>51</v>
@@ -3368,7 +3368,7 @@
         <v>17</v>
       </c>
       <c r="AO20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP20" t="n">
         <v>41</v>
@@ -3429,22 +3429,22 @@
         <v>7</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P21" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R21" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -3467,7 +3467,7 @@
         <v>1.53</v>
       </c>
       <c r="AA21" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AB21" t="n">
         <v>6</v>
@@ -3476,7 +3476,7 @@
         <v>9</v>
       </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
         <v>15</v>
@@ -3488,7 +3488,7 @@
         <v>8</v>
       </c>
       <c r="AH21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI21" t="n">
         <v>23</v>
@@ -3693,16 +3693,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H23" t="n">
         <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J23" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K23" t="n">
         <v>2.2</v>
@@ -3756,16 +3756,16 @@
         <v>8</v>
       </c>
       <c r="AB23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC23" t="n">
         <v>9</v>
       </c>
       <c r="AD23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF23" t="n">
         <v>26</v>
@@ -3780,7 +3780,7 @@
         <v>15</v>
       </c>
       <c r="AJ23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK23" t="n">
         <v>201</v>
@@ -3789,16 +3789,16 @@
         <v>11</v>
       </c>
       <c r="AM23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN23" t="n">
         <v>12</v>
       </c>
       <c r="AO23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ23" t="n">
         <v>34</v>
@@ -3863,7 +3863,7 @@
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O24" t="n">
         <v>1.22</v>
@@ -3991,28 +3991,28 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="H25" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I25" t="n">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="J25" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K25" t="n">
         <v>2</v>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O25" t="n">
         <v>1.44</v>
@@ -4021,13 +4021,13 @@
         <v>2.63</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R25" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S25" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="T25" t="n">
         <v>1.26</v>
@@ -4045,28 +4045,28 @@
         <v>2.38</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA25" t="n">
         <v>5.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC25" t="n">
         <v>9</v>
       </c>
       <c r="AD25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE25" t="n">
         <v>17</v>
       </c>
       <c r="AF25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG25" t="n">
         <v>7</v>
@@ -4084,16 +4084,16 @@
         <v>101</v>
       </c>
       <c r="AL25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP25" t="n">
         <v>51</v>
@@ -4140,28 +4140,28 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H26" t="n">
         <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J26" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
         <v>2</v>
       </c>
       <c r="L26" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O26" t="n">
         <v>1.4</v>
@@ -4199,7 +4199,7 @@
         <v>6.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC26" t="n">
         <v>9.5</v>
@@ -4229,7 +4229,7 @@
         <v>351</v>
       </c>
       <c r="AL26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM26" t="n">
         <v>17</v>
@@ -4241,7 +4241,7 @@
         <v>41</v>
       </c>
       <c r="AP26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ26" t="n">
         <v>41</v>
@@ -4281,16 +4281,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H27" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I27" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J27" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K27" t="n">
         <v>2.1</v>
@@ -4325,10 +4325,10 @@
         <v>1.29</v>
       </c>
       <c r="W27" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X27" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y27" t="n">
         <v>1.91</v>
@@ -4343,7 +4343,7 @@
         <v>21</v>
       </c>
       <c r="AC27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD27" t="n">
         <v>41</v>
@@ -4355,10 +4355,10 @@
         <v>41</v>
       </c>
       <c r="AG27" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH27" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI27" t="n">
         <v>15</v>
@@ -4443,19 +4443,19 @@
         <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P28" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q28" t="n">
         <v>2.05</v>
       </c>
       <c r="R28" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
@@ -4708,22 +4708,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="H30" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="J30" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K30" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L30" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M30" t="n">
         <v>1.05</v>
@@ -4738,10 +4738,10 @@
         <v>3.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R30" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S30" t="n">
         <v>2</v>
@@ -4750,10 +4750,10 @@
         <v>1.85</v>
       </c>
       <c r="U30" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V30" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W30" t="n">
         <v>1.4</v>
@@ -4762,28 +4762,28 @@
         <v>2.75</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC30" t="n">
         <v>10</v>
       </c>
-      <c r="AB30" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>11</v>
-      </c>
       <c r="AD30" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE30" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF30" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG30" t="n">
         <v>11</v>
@@ -4804,19 +4804,19 @@
         <v>8</v>
       </c>
       <c r="AM30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN30" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP30" t="n">
         <v>19</v>
       </c>
-      <c r="AP30" t="n">
-        <v>17</v>
-      </c>
       <c r="AQ30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="inlineStr"/>
@@ -4853,13 +4853,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H31" t="n">
         <v>2.9</v>
       </c>
       <c r="I31" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J31" t="n">
         <v>3.4</v>
@@ -4918,7 +4918,7 @@
         <v>11</v>
       </c>
       <c r="AD31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE31" t="n">
         <v>23</v>
@@ -4994,13 +4994,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="H32" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="I32" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J32" t="n">
         <v>3.4</v>
@@ -5009,57 +5009,57 @@
         <v>1.75</v>
       </c>
       <c r="L32" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="N32" t="n">
         <v>4.15</v>
       </c>
-      <c r="M32" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="N32" t="n">
-        <v>4</v>
-      </c>
       <c r="O32" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P32" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="R32" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="V32" t="n">
         <v>1.09</v>
       </c>
       <c r="W32" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="X32" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Y32" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Z32" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AA32" t="n">
         <v>5.3</v>
       </c>
       <c r="AB32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC32" t="n">
         <v>11.25</v>
       </c>
-      <c r="AC32" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AD32" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AE32" t="n">
         <v>35</v>
@@ -5068,37 +5068,37 @@
         <v>65</v>
       </c>
       <c r="AG32" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="AH32" t="n">
         <v>5.4</v>
       </c>
       <c r="AI32" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ32" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AK32" t="n">
         <v>101</v>
       </c>
       <c r="AL32" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AM32" t="n">
         <v>15</v>
       </c>
       <c r="AN32" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AP32" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AQ32" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr"/>
@@ -5138,31 +5138,31 @@
         <v>2.75</v>
       </c>
       <c r="H33" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="I33" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K33" t="n">
         <v>1.72</v>
       </c>
       <c r="L33" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="M33" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="N33" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="O33" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="P33" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q33" t="n">
         <v>3.4</v>
@@ -5173,7 +5173,7 @@
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="V33" t="n">
         <v>1.08</v>
@@ -5185,19 +5185,19 @@
         <v>1.95</v>
       </c>
       <c r="Y33" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="Z33" t="n">
         <v>1.44</v>
       </c>
       <c r="AA33" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AB33" t="n">
         <v>11.25</v>
       </c>
       <c r="AC33" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD33" t="n">
         <v>35</v>
@@ -5206,13 +5206,13 @@
         <v>37</v>
       </c>
       <c r="AF33" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG33" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="AH33" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AI33" t="n">
         <v>26</v>
@@ -5224,22 +5224,22 @@
         <v>101</v>
       </c>
       <c r="AL33" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AM33" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AN33" t="n">
         <v>13</v>
       </c>
-      <c r="AN33" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AO33" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AP33" t="n">
         <v>45</v>
       </c>
       <c r="AQ33" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr"/>
@@ -5417,48 +5417,48 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="H35" t="n">
         <v>2.92</v>
       </c>
       <c r="I35" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="J35" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="K35" t="n">
         <v>1.91</v>
       </c>
       <c r="L35" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M35" t="n">
         <v>1.13</v>
       </c>
       <c r="N35" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O35" t="n">
         <v>1.55</v>
       </c>
       <c r="P35" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="R35" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="n">
-        <v>4.75</v>
+        <v>4.65</v>
       </c>
       <c r="V35" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W35" t="n">
         <v>1.55</v>
@@ -5467,13 +5467,13 @@
         <v>2.3</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="AA35" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AB35" t="n">
         <v>7.8</v>
@@ -5482,22 +5482,22 @@
         <v>9</v>
       </c>
       <c r="AD35" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AI35" t="n">
         <v>20</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>21</v>
       </c>
       <c r="AJ35" t="n">
         <v>150</v>
@@ -5506,16 +5506,16 @@
         <v>101</v>
       </c>
       <c r="AL35" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AM35" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN35" t="n">
         <v>16</v>
       </c>
       <c r="AO35" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AP35" t="n">
         <v>60</v>
@@ -5573,7 +5573,7 @@
         <v>2.2</v>
       </c>
       <c r="L36" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M36" t="n">
         <v>1.05</v>
@@ -5588,22 +5588,22 @@
         <v>3.75</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R36" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S36" t="n">
-        <v>2.49</v>
+        <v>2.55</v>
       </c>
       <c r="T36" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="U36" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="V36" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W36" t="n">
         <v>1.4</v>
@@ -5669,10 +5669,10 @@
         <v>29</v>
       </c>
       <c r="AR36" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="37">
@@ -5707,13 +5707,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H37" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I37" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J37" t="n">
         <v>2.5</v>
@@ -5776,7 +5776,7 @@
         <v>9</v>
       </c>
       <c r="AD37" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE37" t="n">
         <v>17</v>
@@ -6147,7 +6147,7 @@
         <v>2.3</v>
       </c>
       <c r="J40" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K40" t="n">
         <v>2.05</v>
@@ -6159,7 +6159,7 @@
         <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O40" t="n">
         <v>1.36</v>
@@ -6200,7 +6200,7 @@
         <v>15</v>
       </c>
       <c r="AC40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD40" t="n">
         <v>34</v>
@@ -6242,7 +6242,7 @@
         <v>21</v>
       </c>
       <c r="AQ40" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR40" t="inlineStr"/>
       <c r="AS40" t="inlineStr"/>
@@ -6279,7 +6279,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H41" t="n">
         <v>3.25</v>
@@ -6294,7 +6294,7 @@
         <v>2.05</v>
       </c>
       <c r="L41" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M41" t="n">
         <v>1.06</v>
@@ -6335,10 +6335,10 @@
         <v>1.83</v>
       </c>
       <c r="AA41" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC41" t="n">
         <v>12</v>
@@ -6353,7 +6353,7 @@
         <v>41</v>
       </c>
       <c r="AG41" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH41" t="n">
         <v>6.5</v>
@@ -6377,7 +6377,7 @@
         <v>9.5</v>
       </c>
       <c r="AO41" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP41" t="n">
         <v>19</v>
@@ -6561,28 +6561,28 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H43" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I43" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J43" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K43" t="n">
         <v>2.3</v>
       </c>
       <c r="L43" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M43" t="n">
         <v>1.04</v>
       </c>
       <c r="N43" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O43" t="n">
         <v>1.22</v>
@@ -6591,10 +6591,10 @@
         <v>4</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R43" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
@@ -6638,7 +6638,7 @@
         <v>12</v>
       </c>
       <c r="AH43" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI43" t="n">
         <v>15</v>
@@ -6732,10 +6732,10 @@
         <v>5.5</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R44" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="S44" t="n">
         <v>1.8</v>
@@ -6744,10 +6744,10 @@
         <v>2.05</v>
       </c>
       <c r="U44" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V44" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W44" t="n">
         <v>1.25</v>
@@ -7702,13 +7702,13 @@
         <v>4.35</v>
       </c>
       <c r="J51" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="K51" t="n">
         <v>2.25</v>
       </c>
       <c r="L51" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
@@ -7753,7 +7753,7 @@
         <v>14</v>
       </c>
       <c r="AE51" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF51" t="n">
         <v>20</v>
@@ -7768,16 +7768,16 @@
         <v>13</v>
       </c>
       <c r="AJ51" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AK51" t="n">
         <v>300</v>
       </c>
       <c r="AL51" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AM51" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AN51" t="n">
         <v>14</v>
@@ -7789,7 +7789,7 @@
         <v>37</v>
       </c>
       <c r="AQ51" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR51" t="inlineStr"/>
       <c r="AS51" t="inlineStr"/>
@@ -7997,18 +7997,18 @@
         <v>3</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R53" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V53" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W53" t="n">
         <v>1.5</v>
@@ -8108,22 +8108,22 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H54" t="n">
         <v>3.2</v>
       </c>
       <c r="I54" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J54" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K54" t="n">
         <v>1.95</v>
       </c>
       <c r="L54" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M54" t="n">
         <v>1.08</v>
@@ -8146,10 +8146,10 @@
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="V54" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W54" t="n">
         <v>1.53</v>
@@ -8182,7 +8182,7 @@
         <v>41</v>
       </c>
       <c r="AG54" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH54" t="n">
         <v>6.5</v>
@@ -8197,7 +8197,7 @@
         <v>451</v>
       </c>
       <c r="AL54" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AM54" t="n">
         <v>11</v>
@@ -8209,16 +8209,16 @@
         <v>23</v>
       </c>
       <c r="AP54" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ54" t="n">
         <v>34</v>
       </c>
       <c r="AR54" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="55">
@@ -8253,22 +8253,22 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H55" t="n">
         <v>3</v>
       </c>
       <c r="I55" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J55" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K55" t="n">
         <v>1.95</v>
       </c>
       <c r="L55" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M55" t="n">
         <v>1.08</v>
@@ -8291,10 +8291,10 @@
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="V55" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W55" t="n">
         <v>1.53</v>
@@ -8333,7 +8333,7 @@
         <v>6</v>
       </c>
       <c r="AI55" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ55" t="n">
         <v>67</v>
@@ -8357,13 +8357,13 @@
         <v>21</v>
       </c>
       <c r="AQ55" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR55" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="56">
@@ -8398,7 +8398,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H56" t="n">
         <v>3.75</v>
@@ -8416,10 +8416,10 @@
         <v>5.5</v>
       </c>
       <c r="M56" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N56" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O56" t="n">
         <v>1.29</v>
@@ -8442,16 +8442,16 @@
         <v>1.33</v>
       </c>
       <c r="W56" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X56" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y56" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Z56" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA56" t="n">
         <v>7</v>
@@ -8472,7 +8472,7 @@
         <v>26</v>
       </c>
       <c r="AG56" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH56" t="n">
         <v>7.5</v>
@@ -8487,10 +8487,10 @@
         <v>301</v>
       </c>
       <c r="AL56" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM56" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN56" t="n">
         <v>17</v>
@@ -8539,13 +8539,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I57" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="J57" t="n">
         <v>3.75</v>
@@ -8554,51 +8554,51 @@
         <v>2.05</v>
       </c>
       <c r="L57" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M57" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N57" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O57" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P57" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R57" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V57" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W57" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X57" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y57" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Z57" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AA57" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB57" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC57" t="n">
         <v>12</v>
@@ -8613,7 +8613,7 @@
         <v>41</v>
       </c>
       <c r="AG57" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH57" t="n">
         <v>6</v>
@@ -8625,7 +8625,7 @@
         <v>51</v>
       </c>
       <c r="AK57" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL57" t="n">
         <v>7.5</v>
@@ -8637,13 +8637,13 @@
         <v>9.5</v>
       </c>
       <c r="AO57" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP57" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ57" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR57" t="inlineStr"/>
       <c r="AS57" t="inlineStr"/>
@@ -8680,36 +8680,36 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="H58" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="I58" t="n">
-        <v>4.6</v>
+        <v>4.35</v>
       </c>
       <c r="J58" t="n">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
       <c r="K58" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="L58" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="P58" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R58" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
@@ -8719,55 +8719,59 @@
       <c r="V58" t="n">
         <v>1.55</v>
       </c>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
+      <c r="W58" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X58" t="n">
+        <v>2.47</v>
+      </c>
       <c r="Y58" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="Z58" t="n">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
       <c r="AA58" t="n">
         <v>6.4</v>
       </c>
       <c r="AB58" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="AC58" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AD58" t="n">
-        <v>10.25</v>
+        <v>12</v>
       </c>
       <c r="AE58" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AF58" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG58" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AH58" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="AI58" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AJ58" t="n">
         <v>45</v>
       </c>
       <c r="AK58" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AL58" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AM58" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN58" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AO58" t="n">
         <v>60</v>
@@ -8813,22 +8817,22 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="H59" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I59" t="n">
-        <v>5.6</v>
+        <v>4.1</v>
       </c>
       <c r="J59" t="n">
-        <v>2.27</v>
+        <v>2.5</v>
       </c>
       <c r="K59" t="n">
         <v>1.98</v>
       </c>
       <c r="L59" t="n">
-        <v>5.5</v>
+        <v>4.45</v>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
@@ -8836,60 +8840,60 @@
         <v>1.27</v>
       </c>
       <c r="P59" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R59" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="V59" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W59" t="n">
         <v>1.4</v>
       </c>
       <c r="X59" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Y59" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="Z59" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AA59" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AB59" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="AC59" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AD59" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AE59" t="n">
-        <v>10.75</v>
+        <v>12.5</v>
       </c>
       <c r="AF59" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG59" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AH59" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AI59" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AJ59" t="n">
         <v>40</v>
@@ -8898,22 +8902,22 @@
         <v>250</v>
       </c>
       <c r="AL59" t="n">
-        <v>12.5</v>
+        <v>10.25</v>
       </c>
       <c r="AM59" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>55</v>
+      </c>
+      <c r="AP59" t="n">
         <v>29</v>
       </c>
-      <c r="AN59" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AO59" t="n">
-        <v>90</v>
-      </c>
-      <c r="AP59" t="n">
-        <v>45</v>
-      </c>
       <c r="AQ59" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AR59" t="inlineStr"/>
       <c r="AS59" t="inlineStr"/>
@@ -8950,7 +8954,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="H60" t="n">
         <v>4</v>
@@ -9091,30 +9095,30 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="H61" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="I61" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J61" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="K61" t="n">
         <v>2.6</v>
       </c>
       <c r="L61" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P61" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="Q61" t="n">
         <v>1.42</v>
@@ -9136,19 +9140,19 @@
         <v>1.65</v>
       </c>
       <c r="Z61" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AA61" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AB61" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC61" t="n">
         <v>8.5</v>
       </c>
       <c r="AD61" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AE61" t="n">
         <v>10.25</v>
@@ -9157,37 +9161,37 @@
         <v>21</v>
       </c>
       <c r="AG61" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH61" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AI61" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AJ61" t="n">
         <v>60</v>
       </c>
       <c r="AK61" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AL61" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM61" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN61" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO61" t="n">
         <v>150</v>
       </c>
       <c r="AP61" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AQ61" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR61" t="inlineStr"/>
       <c r="AS61" t="inlineStr"/>
@@ -9223,45 +9227,117 @@
           <t>Berkane</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
+      <c r="G62" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J62" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L62" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N62" t="n">
+        <v>7</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1.57</v>
+      </c>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr"/>
-      <c r="AA62" t="inlineStr"/>
-      <c r="AB62" t="inlineStr"/>
-      <c r="AC62" t="inlineStr"/>
-      <c r="AD62" t="inlineStr"/>
-      <c r="AE62" t="inlineStr"/>
-      <c r="AF62" t="inlineStr"/>
-      <c r="AG62" t="inlineStr"/>
-      <c r="AH62" t="inlineStr"/>
-      <c r="AI62" t="inlineStr"/>
-      <c r="AJ62" t="inlineStr"/>
+      <c r="U62" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X62" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>67</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>51</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>81</v>
+      </c>
       <c r="AK62" t="inlineStr"/>
-      <c r="AL62" t="inlineStr"/>
-      <c r="AM62" t="inlineStr"/>
-      <c r="AN62" t="inlineStr"/>
-      <c r="AO62" t="inlineStr"/>
-      <c r="AP62" t="inlineStr"/>
-      <c r="AQ62" t="inlineStr"/>
-      <c r="AR62" t="inlineStr"/>
-      <c r="AS62" t="inlineStr"/>
+      <c r="AL62" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>2.03</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -9294,43 +9370,103 @@
           <t>Chabab Mohammedia</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
+      <c r="G63" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H63" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I63" t="n">
+        <v>15</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K63" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L63" t="n">
+        <v>13</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N63" t="n">
+        <v>11</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2.15</v>
+      </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
+      <c r="U63" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V63" t="n">
+        <v>1.44</v>
+      </c>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr"/>
-      <c r="AA63" t="inlineStr"/>
-      <c r="AB63" t="inlineStr"/>
-      <c r="AC63" t="inlineStr"/>
-      <c r="AD63" t="inlineStr"/>
-      <c r="AE63" t="inlineStr"/>
-      <c r="AF63" t="inlineStr"/>
-      <c r="AG63" t="inlineStr"/>
-      <c r="AH63" t="inlineStr"/>
-      <c r="AI63" t="inlineStr"/>
-      <c r="AJ63" t="inlineStr"/>
+      <c r="AA63" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>101</v>
+      </c>
       <c r="AK63" t="inlineStr"/>
-      <c r="AL63" t="inlineStr"/>
-      <c r="AM63" t="inlineStr"/>
-      <c r="AN63" t="inlineStr"/>
-      <c r="AO63" t="inlineStr"/>
-      <c r="AP63" t="inlineStr"/>
-      <c r="AQ63" t="inlineStr"/>
+      <c r="AL63" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>41</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>301</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>126</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>126</v>
+      </c>
       <c r="AR63" t="inlineStr"/>
       <c r="AS63" t="inlineStr"/>
     </row>
@@ -9511,93 +9647,97 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H65" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I65" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="J65" t="n">
         <v>3</v>
       </c>
       <c r="K65" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L65" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M65" t="n">
         <v>1.03</v>
       </c>
       <c r="N65" t="n">
+        <v>17</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U65" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V65" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X65" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB65" t="n">
         <v>15</v>
       </c>
-      <c r="O65" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P65" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R65" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V65" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W65" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X65" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AA65" t="n">
+      <c r="AC65" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI65" t="n">
         <v>11</v>
       </c>
-      <c r="AB65" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC65" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD65" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG65" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH65" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI65" t="n">
-        <v>12</v>
-      </c>
       <c r="AJ65" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK65" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL65" t="n">
         <v>12</v>
@@ -9609,13 +9749,13 @@
         <v>10</v>
       </c>
       <c r="AO65" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP65" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ65" t="n">
         <v>21</v>
-      </c>
-      <c r="AQ65" t="n">
-        <v>23</v>
       </c>
       <c r="AR65" t="inlineStr"/>
       <c r="AS65" t="inlineStr"/>
@@ -9652,22 +9792,22 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H66" t="n">
         <v>3.7</v>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J66" t="n">
         <v>4</v>
       </c>
       <c r="K66" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L66" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M66" t="n">
         <v>1.04</v>
@@ -9682,7 +9822,7 @@
         <v>3.75</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R66" t="n">
         <v>2</v>
@@ -9702,10 +9842,10 @@
         <v>3</v>
       </c>
       <c r="Y66" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z66" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA66" t="n">
         <v>12</v>
@@ -9720,10 +9860,10 @@
         <v>41</v>
       </c>
       <c r="AE66" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF66" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG66" t="n">
         <v>12</v>
@@ -9732,16 +9872,16 @@
         <v>7</v>
       </c>
       <c r="AI66" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ66" t="n">
         <v>41</v>
       </c>
       <c r="AK66" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL66" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM66" t="n">
         <v>10</v>
@@ -9793,48 +9933,48 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H67" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I67" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J67" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K67" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L67" t="n">
         <v>4</v>
       </c>
       <c r="M67" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N67" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O67" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P67" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R67" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V67" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W67" t="n">
         <v>1.33</v>
@@ -9843,13 +9983,13 @@
         <v>3.25</v>
       </c>
       <c r="Y67" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z67" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA67" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB67" t="n">
         <v>10</v>
@@ -9864,13 +10004,13 @@
         <v>15</v>
       </c>
       <c r="AF67" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG67" t="n">
         <v>13</v>
       </c>
       <c r="AH67" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI67" t="n">
         <v>13</v>
@@ -9882,13 +10022,13 @@
         <v>151</v>
       </c>
       <c r="AL67" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM67" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN67" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO67" t="n">
         <v>41</v>
@@ -10237,7 +10377,7 @@
         <v>1.08</v>
       </c>
       <c r="N70" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O70" t="n">
         <v>1.4</v>
@@ -10655,10 +10795,10 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H73" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I73" t="n">
         <v>5.25</v>
@@ -10685,10 +10825,10 @@
         <v>3.25</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R73" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
@@ -10714,13 +10854,13 @@
         <v>6</v>
       </c>
       <c r="AB73" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC73" t="n">
         <v>8.5</v>
       </c>
       <c r="AD73" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE73" t="n">
         <v>15</v>
@@ -10729,13 +10869,13 @@
         <v>29</v>
       </c>
       <c r="AG73" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH73" t="n">
         <v>7</v>
       </c>
       <c r="AI73" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ73" t="n">
         <v>67</v>
@@ -11103,7 +11243,7 @@
         <v>1.04</v>
       </c>
       <c r="N76" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O76" t="n">
         <v>1.22</v>
@@ -11364,22 +11504,22 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H78" t="n">
         <v>3.9</v>
       </c>
       <c r="I78" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="J78" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K78" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L78" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M78" t="n">
         <v>1.01</v>
@@ -11427,13 +11567,13 @@
         <v>15</v>
       </c>
       <c r="AB78" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC78" t="n">
         <v>15</v>
       </c>
       <c r="AD78" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE78" t="n">
         <v>34</v>
@@ -11460,7 +11600,7 @@
         <v>9</v>
       </c>
       <c r="AM78" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AN78" t="n">
         <v>8.5</v>
@@ -11509,13 +11649,13 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H79" t="n">
         <v>3.9</v>
       </c>
       <c r="I79" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J79" t="n">
         <v>2.05</v>
@@ -11527,22 +11667,22 @@
         <v>5.5</v>
       </c>
       <c r="M79" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N79" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O79" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P79" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R79" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S79" t="n">
         <v>2.03</v>
@@ -11557,10 +11697,10 @@
         <v>1.4</v>
       </c>
       <c r="W79" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X79" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y79" t="n">
         <v>1.83</v>
@@ -11599,13 +11739,13 @@
         <v>51</v>
       </c>
       <c r="AK79" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AL79" t="n">
         <v>17</v>
       </c>
       <c r="AM79" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN79" t="n">
         <v>19</v>
@@ -11654,19 +11794,19 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H80" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I80" t="n">
         <v>7.5</v>
       </c>
       <c r="J80" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K80" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="L80" t="n">
         <v>7</v>
@@ -11675,13 +11815,13 @@
         <v>1.02</v>
       </c>
       <c r="N80" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O80" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P80" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q80" t="n">
         <v>1.44</v>
@@ -11714,7 +11854,7 @@
         <v>1.83</v>
       </c>
       <c r="AA80" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB80" t="n">
         <v>7.5</v>
@@ -11732,10 +11872,10 @@
         <v>23</v>
       </c>
       <c r="AG80" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AH80" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI80" t="n">
         <v>21</v>
@@ -11744,10 +11884,10 @@
         <v>51</v>
       </c>
       <c r="AK80" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="AL80" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM80" t="n">
         <v>41</v>
@@ -11762,7 +11902,7 @@
         <v>51</v>
       </c>
       <c r="AQ80" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR80" t="inlineStr"/>
       <c r="AS80" t="inlineStr"/>
@@ -11799,48 +11939,48 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="H81" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I81" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="J81" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K81" t="n">
         <v>2.05</v>
       </c>
       <c r="L81" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M81" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N81" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O81" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P81" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R81" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V81" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W81" t="n">
         <v>1.5</v>
@@ -11855,10 +11995,10 @@
         <v>1.57</v>
       </c>
       <c r="AA81" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB81" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC81" t="n">
         <v>21</v>
@@ -11873,7 +12013,7 @@
         <v>51</v>
       </c>
       <c r="AG81" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH81" t="n">
         <v>7</v>
@@ -11885,7 +12025,7 @@
         <v>81</v>
       </c>
       <c r="AK81" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AL81" t="n">
         <v>5.5</v>
@@ -11897,13 +12037,13 @@
         <v>9.5</v>
       </c>
       <c r="AO81" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP81" t="n">
         <v>15</v>
       </c>
       <c r="AQ81" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR81" t="inlineStr"/>
       <c r="AS81" t="inlineStr"/>
@@ -11940,25 +12080,25 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="H82" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I82" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="J82" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K82" t="n">
         <v>1.95</v>
       </c>
       <c r="L82" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="M82" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N82" t="n">
         <v>6.3</v>
@@ -11978,7 +12118,7 @@
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="V82" t="n">
         <v>1.24</v>
@@ -11990,61 +12130,61 @@
         <v>2.42</v>
       </c>
       <c r="Y82" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Z82" t="n">
         <v>1.88</v>
       </c>
       <c r="AA82" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="AB82" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC82" t="n">
         <v>9.75</v>
       </c>
       <c r="AD82" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE82" t="n">
         <v>23</v>
       </c>
       <c r="AF82" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG82" t="n">
         <v>6.3</v>
       </c>
       <c r="AH82" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AI82" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ82" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK82" t="n">
         <v>600</v>
       </c>
       <c r="AL82" t="n">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="AM82" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AN82" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AO82" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AP82" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ82" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AR82" t="inlineStr"/>
       <c r="AS82" t="inlineStr"/>
@@ -12090,60 +12230,60 @@
         <v>1.75</v>
       </c>
       <c r="J83" t="n">
-        <v>4.85</v>
+        <v>4.75</v>
       </c>
       <c r="K83" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="L83" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="M83" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N83" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="O83" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="P83" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="R83" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="V83" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="W83" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="X83" t="n">
-        <v>2.57</v>
+        <v>2.67</v>
       </c>
       <c r="Y83" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="Z83" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="AA83" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AB83" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC83" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD83" t="n">
         <v>75</v>
@@ -12152,40 +12292,40 @@
         <v>45</v>
       </c>
       <c r="AF83" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AG83" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="AH83" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AI83" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AJ83" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AK83" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="AL83" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="AM83" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AN83" t="n">
         <v>8</v>
       </c>
-      <c r="AN83" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AO83" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AP83" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AQ83" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AR83" t="inlineStr"/>
       <c r="AS83" t="inlineStr"/>
@@ -12222,48 +12362,48 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="H84" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I84" t="n">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="J84" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K84" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="L84" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="M84" t="n">
         <v>1.01</v>
       </c>
       <c r="N84" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O84" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="P84" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="R84" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="V84" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="W84" t="n">
         <v>1.17</v>
@@ -12278,34 +12418,34 @@
         <v>3</v>
       </c>
       <c r="AA84" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB84" t="n">
         <v>41</v>
       </c>
       <c r="AC84" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD84" t="n">
         <v>67</v>
       </c>
       <c r="AE84" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF84" t="n">
         <v>34</v>
       </c>
-      <c r="AF84" t="n">
+      <c r="AG84" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ84" t="n">
         <v>29</v>
-      </c>
-      <c r="AG84" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH84" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI84" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ84" t="n">
-        <v>26</v>
       </c>
       <c r="AK84" t="n">
         <v>67</v>
@@ -12314,7 +12454,7 @@
         <v>17</v>
       </c>
       <c r="AM84" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN84" t="n">
         <v>10</v>
@@ -12326,7 +12466,7 @@
         <v>11</v>
       </c>
       <c r="AQ84" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR84" t="inlineStr"/>
       <c r="AS84" t="inlineStr"/>
@@ -12363,111 +12503,111 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="H85" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="I85" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J85" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K85" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="L85" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="M85" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="N85" t="n">
-        <v>5.4</v>
+        <v>4.85</v>
       </c>
       <c r="O85" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P85" t="n">
-        <v>2.42</v>
+        <v>2.25</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.42</v>
+        <v>2.67</v>
       </c>
       <c r="R85" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="n">
-        <v>4.3</v>
+        <v>4.85</v>
       </c>
       <c r="V85" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="W85" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="X85" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="Y85" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="Z85" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AA85" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="AB85" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AC85" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD85" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE85" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF85" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AG85" t="n">
-        <v>5.4</v>
+        <v>4.85</v>
       </c>
       <c r="AH85" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AI85" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AJ85" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AK85" t="n">
         <v>900</v>
       </c>
       <c r="AL85" t="n">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="AM85" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AN85" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AO85" t="n">
         <v>50</v>
       </c>
       <c r="AP85" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AQ85" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AR85" t="inlineStr"/>
       <c r="AS85" t="inlineStr"/>
@@ -12504,22 +12644,22 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H86" t="n">
         <v>2.9</v>
       </c>
       <c r="I86" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J86" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K86" t="n">
         <v>1.91</v>
       </c>
       <c r="L86" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M86" t="n">
         <v>1.11</v>
@@ -12563,13 +12703,13 @@
         <v>6</v>
       </c>
       <c r="AB86" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC86" t="n">
         <v>10</v>
       </c>
       <c r="AD86" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE86" t="n">
         <v>23</v>
@@ -12602,13 +12742,13 @@
         <v>13</v>
       </c>
       <c r="AO86" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP86" t="n">
         <v>34</v>
       </c>
       <c r="AQ86" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR86" t="n">
         <v>2.03</v>
@@ -12649,22 +12789,22 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="H87" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I87" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="J87" t="n">
-        <v>4.1</v>
+        <v>4.35</v>
       </c>
       <c r="K87" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L87" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="M87" t="n">
         <v>1.04</v>
@@ -12673,21 +12813,21 @@
         <v>8.25</v>
       </c>
       <c r="O87" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P87" t="n">
         <v>3.8</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R87" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="V87" t="n">
         <v>1.44</v>
@@ -12702,31 +12842,31 @@
         <v>1.62</v>
       </c>
       <c r="Z87" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="AA87" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AB87" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AC87" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD87" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AE87" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AF87" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AG87" t="n">
         <v>8.25</v>
       </c>
       <c r="AH87" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AI87" t="n">
         <v>13</v>
@@ -12735,22 +12875,22 @@
         <v>50</v>
       </c>
       <c r="AK87" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AL87" t="n">
         <v>8.5</v>
       </c>
       <c r="AM87" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AN87" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AO87" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AP87" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AQ87" t="n">
         <v>21</v>
@@ -12802,99 +12942,99 @@
         <v>3.25</v>
       </c>
       <c r="K88" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L88" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="M88" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N88" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="O88" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="P88" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R88" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="n">
-        <v>2.9</v>
+        <v>2.77</v>
       </c>
       <c r="V88" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="W88" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="X88" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="Y88" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Z88" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="AA88" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AB88" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC88" t="n">
         <v>9.75</v>
       </c>
       <c r="AD88" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AE88" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF88" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG88" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AH88" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AI88" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AJ88" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AK88" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AL88" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM88" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AN88" t="n">
         <v>9.25</v>
       </c>
       <c r="AO88" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP88" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AQ88" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR88" t="inlineStr"/>
       <c r="AS88" t="inlineStr"/>
@@ -12931,54 +13071,54 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="H89" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="I89" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="J89" t="n">
         <v>3.15</v>
       </c>
       <c r="K89" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="L89" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="M89" t="n">
         <v>1.05</v>
       </c>
       <c r="N89" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="O89" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P89" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R89" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="V89" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="W89" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="X89" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="Y89" t="n">
         <v>1.47</v>
@@ -12990,52 +13130,52 @@
         <v>10.5</v>
       </c>
       <c r="AB89" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC89" t="n">
         <v>9.25</v>
       </c>
       <c r="AD89" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AE89" t="n">
         <v>19.5</v>
       </c>
       <c r="AF89" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG89" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AH89" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="AI89" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AJ89" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AK89" t="n">
         <v>200</v>
       </c>
       <c r="AL89" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AM89" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AN89" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AO89" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AP89" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ89" t="n">
         <v>21</v>
-      </c>
-      <c r="AQ89" t="n">
-        <v>22</v>
       </c>
       <c r="AR89" t="inlineStr"/>
       <c r="AS89" t="inlineStr"/>
@@ -13090,22 +13230,22 @@
         <v>5.5</v>
       </c>
       <c r="M90" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N90" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O90" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P90" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q90" t="n">
         <v>2.05</v>
       </c>
       <c r="R90" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
@@ -13122,10 +13262,10 @@
         <v>2.63</v>
       </c>
       <c r="Y90" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Z90" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AA90" t="n">
         <v>6.5</v>
@@ -13146,7 +13286,7 @@
         <v>29</v>
       </c>
       <c r="AG90" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH90" t="n">
         <v>7</v>
@@ -13243,18 +13383,18 @@
         <v>3.5</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R91" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V91" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W91" t="n">
         <v>1.4</v>
@@ -13516,13 +13656,13 @@
         <v>1.12</v>
       </c>
       <c r="N93" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="O93" t="n">
         <v>1.57</v>
       </c>
       <c r="P93" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q93" t="n">
         <v>2.62</v>
@@ -13548,7 +13688,7 @@
         <v>2.4</v>
       </c>
       <c r="Z93" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AA93" t="n">
         <v>4.6</v>
@@ -13636,7 +13776,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H94" t="n">
         <v>2.75</v>
@@ -13654,10 +13794,10 @@
         <v>3.5</v>
       </c>
       <c r="M94" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N94" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O94" t="n">
         <v>1.44</v>
@@ -13666,18 +13806,18 @@
         <v>2.63</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R94" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V94" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W94" t="n">
         <v>1.53</v>
@@ -13692,7 +13832,7 @@
         <v>1.8</v>
       </c>
       <c r="AA94" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB94" t="n">
         <v>13</v>
@@ -13743,10 +13883,10 @@
         <v>41</v>
       </c>
       <c r="AR94" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -14059,87 +14199,87 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H97" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I97" t="n">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="J97" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="K97" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L97" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="M97" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N97" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="O97" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P97" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="Q97" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R97" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="V97" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W97" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X97" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="Y97" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="Z97" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="AA97" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AB97" t="n">
         <v>6.9</v>
       </c>
       <c r="AC97" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD97" t="n">
         <v>13</v>
       </c>
       <c r="AE97" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF97" t="n">
         <v>37</v>
       </c>
       <c r="AG97" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AH97" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AI97" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AJ97" t="n">
         <v>120</v>
@@ -14151,13 +14291,13 @@
         <v>10.75</v>
       </c>
       <c r="AM97" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN97" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AO97" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AP97" t="n">
         <v>60</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-21.xlsx
@@ -692,19 +692,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H2" t="n">
         <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L2" t="n">
         <v>2.5</v>
@@ -728,10 +728,10 @@
         <v>2.38</v>
       </c>
       <c r="S2" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="T2" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U2" t="n">
         <v>2.38</v>
@@ -758,7 +758,7 @@
         <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD2" t="n">
         <v>41</v>
@@ -788,13 +788,13 @@
         <v>12</v>
       </c>
       <c r="AM2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN2" t="n">
         <v>9.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP2" t="n">
         <v>15</v>
@@ -837,22 +837,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -881,49 +881,49 @@
         <v>1.33</v>
       </c>
       <c r="W3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AA3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC3" t="n">
         <v>9</v>
       </c>
       <c r="AD3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH3" t="n">
         <v>6.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL3" t="n">
         <v>10</v>
@@ -935,10 +935,10 @@
         <v>12</v>
       </c>
       <c r="AO3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
         <v>34</v>
@@ -978,16 +978,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K4" t="n">
         <v>2.2</v>
@@ -1034,19 +1034,19 @@
         <v>2</v>
       </c>
       <c r="AA4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC4" t="n">
         <v>9</v>
       </c>
       <c r="AD4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE4" t="n">
         <v>17</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>15</v>
       </c>
       <c r="AF4" t="n">
         <v>26</v>
@@ -1058,10 +1058,10 @@
         <v>6.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK4" t="n">
         <v>201</v>
@@ -1073,7 +1073,7 @@
         <v>19</v>
       </c>
       <c r="AN4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO4" t="n">
         <v>41</v>
@@ -1137,10 +1137,10 @@
         <v>3.25</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1196,7 +1196,7 @@
         <v>7.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI5" t="n">
         <v>15</v>
@@ -1205,7 +1205,7 @@
         <v>51</v>
       </c>
       <c r="AK5" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL5" t="n">
         <v>7.5</v>
@@ -1290,10 +1290,10 @@
         <v>3.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R6" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -1401,13 +1401,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J7" t="n">
         <v>4.5</v>
@@ -1467,16 +1467,16 @@
         <v>17</v>
       </c>
       <c r="AC7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD7" t="n">
         <v>41</v>
       </c>
       <c r="AE7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF7" t="n">
         <v>41</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>51</v>
       </c>
       <c r="AG7" t="n">
         <v>6.5</v>
@@ -1503,7 +1503,7 @@
         <v>9.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP7" t="n">
         <v>21</v>
@@ -1848,13 +1848,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J10" t="n">
         <v>3.4</v>
@@ -1863,7 +1863,7 @@
         <v>1.91</v>
       </c>
       <c r="L10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>1.11</v>
@@ -1890,10 +1890,10 @@
         <v>1.22</v>
       </c>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V10" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W10" t="n">
         <v>1.57</v>
@@ -1908,7 +1908,7 @@
         <v>1.67</v>
       </c>
       <c r="AA10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB10" t="n">
         <v>11</v>
@@ -1917,10 +1917,10 @@
         <v>11</v>
       </c>
       <c r="AD10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
@@ -1959,10 +1959,10 @@
         <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="11">
@@ -2142,48 +2142,48 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H12" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="I12" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="J12" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K12" t="n">
         <v>2.12</v>
       </c>
       <c r="L12" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>7.6</v>
+        <v>6.7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>3.35</v>
+        <v>2.92</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="R12" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>2.95</v>
+        <v>3.45</v>
       </c>
       <c r="V12" t="n">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="W12" t="n">
         <v>1.4</v>
@@ -2192,61 +2192,61 @@
         <v>2.75</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="AA12" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="AB12" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF12" t="n">
         <v>37</v>
       </c>
-      <c r="AE12" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>32</v>
-      </c>
       <c r="AG12" t="n">
-        <v>7.6</v>
+        <v>6.7</v>
       </c>
       <c r="AH12" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AI12" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AK12" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="AL12" t="n">
-        <v>8.25</v>
+        <v>7.1</v>
       </c>
       <c r="AM12" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AN12" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AO12" t="n">
         <v>21</v>
       </c>
       <c r="AP12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ12" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
@@ -2283,102 +2283,102 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I13" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="J13" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="L13" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P13" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R13" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="V13" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="W13" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="X13" t="n">
-        <v>2.82</v>
+        <v>2.65</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="AA13" t="n">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="AB13" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD13" t="n">
         <v>25</v>
       </c>
       <c r="AE13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF13" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AG13" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AH13" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AI13" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ13" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK13" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AL13" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AM13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AN13" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AO13" t="n">
         <v>35</v>
@@ -2424,111 +2424,111 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="J14" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K14" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L14" t="n">
         <v>3.1</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>7.8</v>
+        <v>7.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="P14" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="R14" t="n">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
-        <v>2.77</v>
+        <v>3.2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="W14" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="X14" t="n">
-        <v>2.77</v>
+        <v>2.6</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AA14" t="n">
-        <v>10.25</v>
+        <v>8.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AD14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF14" t="n">
         <v>32</v>
       </c>
-      <c r="AE14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>25</v>
-      </c>
       <c r="AG14" t="n">
-        <v>7.8</v>
+        <v>7.1</v>
       </c>
       <c r="AH14" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AI14" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AK14" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="AL14" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AM14" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AN14" t="n">
         <v>9.25</v>
       </c>
       <c r="AO14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP14" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AQ14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
@@ -2706,107 +2706,111 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="H16" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>4.1</v>
+        <v>4.65</v>
       </c>
       <c r="J16" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="K16" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="L16" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+        <v>5.3</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>5.8</v>
+      </c>
       <c r="O16" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="P16" t="n">
-        <v>2.45</v>
+        <v>2.27</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="R16" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>3.8</v>
+        <v>4.15</v>
       </c>
       <c r="V16" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="W16" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="X16" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AA16" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="AB16" t="n">
-        <v>7.8</v>
+        <v>7.1</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AE16" t="n">
         <v>18</v>
       </c>
       <c r="AF16" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AG16" t="n">
-        <v>7.1</v>
+        <v>6.3</v>
       </c>
       <c r="AH16" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AI16" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AJ16" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AK16" t="n">
         <v>101</v>
       </c>
       <c r="AL16" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AM16" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AN16" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AO16" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AP16" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AQ16" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr"/>
@@ -2879,10 +2883,10 @@
         <v>2.35</v>
       </c>
       <c r="S17" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T17" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U17" t="n">
         <v>2.38</v>
@@ -3065,7 +3069,7 @@
         <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI18" t="n">
         <v>17</v>
@@ -3083,7 +3087,7 @@
         <v>26</v>
       </c>
       <c r="AN18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO18" t="n">
         <v>51</v>
@@ -3159,10 +3163,10 @@
         <v>7</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R19" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
@@ -3411,16 +3415,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H21" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J21" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K21" t="n">
         <v>2.1</v>
@@ -3429,30 +3433,30 @@
         <v>7</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="P21" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="R21" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W21" t="n">
         <v>1.5</v>
@@ -3482,13 +3486,13 @@
         <v>15</v>
       </c>
       <c r="AF21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG21" t="n">
         <v>8</v>
       </c>
       <c r="AH21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI21" t="n">
         <v>23</v>
@@ -3500,22 +3504,22 @@
         <v>101</v>
       </c>
       <c r="AL21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN21" t="n">
         <v>21</v>
       </c>
       <c r="AO21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP21" t="n">
         <v>51</v>
       </c>
       <c r="AQ21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
@@ -3555,7 +3559,7 @@
         <v>1.38</v>
       </c>
       <c r="H22" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I22" t="n">
         <v>9.5</v>
@@ -3576,24 +3580,24 @@
         <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P22" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q22" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R22" t="n">
         <v>1.98</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.88</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V22" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W22" t="n">
         <v>1.4</v>
@@ -3602,10 +3606,10 @@
         <v>2.75</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA22" t="n">
         <v>6</v>
@@ -3626,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="AG22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH22" t="n">
         <v>8.5</v>
@@ -3693,13 +3697,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I23" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3.4</v>
       </c>
       <c r="J23" t="n">
         <v>2.63</v>
@@ -3729,10 +3733,10 @@
         <v>1.98</v>
       </c>
       <c r="S23" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="T23" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="U23" t="n">
         <v>3.25</v>
@@ -3804,10 +3808,10 @@
         <v>34</v>
       </c>
       <c r="AR23" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="24">
@@ -3842,13 +3846,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H24" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I24" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="J24" t="n">
         <v>3.2</v>
@@ -3863,7 +3867,7 @@
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O24" t="n">
         <v>1.22</v>
@@ -3991,28 +3995,28 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="H25" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="K25" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L25" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N25" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O25" t="n">
         <v>1.44</v>
@@ -4021,91 +4025,91 @@
         <v>2.63</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R25" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S25" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="U25" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W25" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X25" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA25" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB25" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE25" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG25" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ25" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK25" t="n">
         <v>101</v>
       </c>
       <c r="AL25" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AM25" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AN25" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AO25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ25" t="n">
         <v>51</v>
       </c>
       <c r="AR25" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="26">
@@ -4164,16 +4168,16 @@
         <v>9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P26" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R26" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -4281,16 +4285,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H27" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I27" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="J27" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K27" t="n">
         <v>2.1</v>
@@ -4299,10 +4303,10 @@
         <v>2.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O27" t="n">
         <v>1.3</v>
@@ -4311,10 +4315,10 @@
         <v>3.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R27" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
@@ -4325,10 +4329,10 @@
         <v>1.29</v>
       </c>
       <c r="W27" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X27" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y27" t="n">
         <v>1.91</v>
@@ -4343,7 +4347,7 @@
         <v>21</v>
       </c>
       <c r="AC27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD27" t="n">
         <v>41</v>
@@ -4355,10 +4359,10 @@
         <v>41</v>
       </c>
       <c r="AG27" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI27" t="n">
         <v>15</v>
@@ -4563,16 +4567,16 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H29" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I29" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="J29" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K29" t="n">
         <v>2.25</v>
@@ -4581,10 +4585,10 @@
         <v>2.38</v>
       </c>
       <c r="M29" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O29" t="n">
         <v>1.25</v>
@@ -4593,10 +4597,10 @@
         <v>3.75</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R29" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S29" t="n">
         <v>2</v>
@@ -4605,10 +4609,10 @@
         <v>1.85</v>
       </c>
       <c r="U29" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V29" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W29" t="n">
         <v>1.36</v>
@@ -4632,7 +4636,7 @@
         <v>15</v>
       </c>
       <c r="AD29" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE29" t="n">
         <v>34</v>
@@ -4653,7 +4657,7 @@
         <v>51</v>
       </c>
       <c r="AK29" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL29" t="n">
         <v>7.5</v>
@@ -4665,13 +4669,13 @@
         <v>8.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR29" t="inlineStr"/>
       <c r="AS29" t="inlineStr"/>
@@ -4708,16 +4712,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J30" t="n">
         <v>3.6</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.5</v>
       </c>
       <c r="K30" t="n">
         <v>2.1</v>
@@ -4732,16 +4736,16 @@
         <v>11</v>
       </c>
       <c r="O30" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P30" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="R30" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S30" t="n">
         <v>2</v>
@@ -4750,22 +4754,22 @@
         <v>1.85</v>
       </c>
       <c r="U30" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V30" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W30" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X30" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA30" t="n">
         <v>9</v>
@@ -4774,7 +4778,7 @@
         <v>15</v>
       </c>
       <c r="AC30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD30" t="n">
         <v>29</v>
@@ -4783,13 +4787,13 @@
         <v>23</v>
       </c>
       <c r="AF30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH30" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI30" t="n">
         <v>15</v>
@@ -4801,7 +4805,7 @@
         <v>251</v>
       </c>
       <c r="AL30" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM30" t="n">
         <v>11</v>
@@ -4994,87 +4998,87 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.65</v>
+        <v>3.6</v>
       </c>
       <c r="H32" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="I32" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="J32" t="n">
-        <v>3.4</v>
+        <v>4.35</v>
       </c>
       <c r="K32" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L32" t="n">
-        <v>4.05</v>
+        <v>3.1</v>
       </c>
       <c r="M32" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="N32" t="n">
-        <v>4.15</v>
+        <v>4.45</v>
       </c>
       <c r="O32" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="P32" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R32" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="V32" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="W32" t="n">
         <v>1.65</v>
       </c>
       <c r="X32" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Y32" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="Z32" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AA32" t="n">
-        <v>5.3</v>
+        <v>6.7</v>
       </c>
       <c r="AB32" t="n">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>11.25</v>
+        <v>14</v>
       </c>
       <c r="AD32" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AE32" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="AF32" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AG32" t="n">
-        <v>4.15</v>
+        <v>4.45</v>
       </c>
       <c r="AH32" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ32" t="n">
         <v>175</v>
@@ -5083,22 +5087,22 @@
         <v>101</v>
       </c>
       <c r="AL32" t="n">
-        <v>6.2</v>
+        <v>5.2</v>
       </c>
       <c r="AM32" t="n">
-        <v>15</v>
+        <v>9.75</v>
       </c>
       <c r="AN32" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="AP32" t="n">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="AQ32" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr"/>
@@ -5135,28 +5139,28 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="H33" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="J33" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="K33" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="L33" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="M33" t="n">
         <v>1.19</v>
       </c>
       <c r="N33" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="O33" t="n">
         <v>1.82</v>
@@ -5179,43 +5183,43 @@
         <v>1.08</v>
       </c>
       <c r="W33" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="X33" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Y33" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="Z33" t="n">
         <v>1.44</v>
       </c>
       <c r="AA33" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="AB33" t="n">
-        <v>11.25</v>
+        <v>10</v>
       </c>
       <c r="AC33" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE33" t="n">
         <v>35</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>37</v>
       </c>
       <c r="AF33" t="n">
         <v>80</v>
       </c>
       <c r="AG33" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="AH33" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AI33" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ33" t="n">
         <v>250</v>
@@ -5224,22 +5228,22 @@
         <v>101</v>
       </c>
       <c r="AL33" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AM33" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AN33" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO33" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AP33" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AQ33" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr"/>
@@ -5276,54 +5280,54 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="H34" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="I34" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>2.77</v>
+        <v>2.9</v>
       </c>
       <c r="K34" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="L34" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="M34" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N34" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O34" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="P34" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="R34" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="n">
-        <v>4.65</v>
+        <v>4.8</v>
       </c>
       <c r="V34" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W34" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="X34" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="Y34" t="n">
         <v>2.12</v>
@@ -5332,31 +5336,31 @@
         <v>1.65</v>
       </c>
       <c r="AA34" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AB34" t="n">
         <v>8.75</v>
       </c>
       <c r="AC34" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AD34" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE34" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF34" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG34" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AH34" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AJ34" t="n">
         <v>120</v>
@@ -5365,22 +5369,22 @@
         <v>101</v>
       </c>
       <c r="AL34" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AM34" t="n">
         <v>20</v>
       </c>
       <c r="AN34" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO34" t="n">
         <v>70</v>
       </c>
       <c r="AP34" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AQ34" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AR34" t="inlineStr"/>
       <c r="AS34" t="inlineStr"/>
@@ -5417,22 +5421,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="H35" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="I35" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="J35" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="K35" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="L35" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="M35" t="n">
         <v>1.13</v>
@@ -5441,7 +5445,7 @@
         <v>5.2</v>
       </c>
       <c r="O35" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="P35" t="n">
         <v>2.32</v>
@@ -5455,7 +5459,7 @@
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="V35" t="n">
         <v>1.16</v>
@@ -5467,25 +5471,25 @@
         <v>2.3</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="AA35" t="n">
         <v>5.2</v>
       </c>
       <c r="AB35" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AC35" t="n">
         <v>9</v>
       </c>
       <c r="AD35" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AF35" t="n">
         <v>40</v>
@@ -5494,25 +5498,25 @@
         <v>5.2</v>
       </c>
       <c r="AH35" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AI35" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ35" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AK35" t="n">
         <v>101</v>
       </c>
       <c r="AL35" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AM35" t="n">
         <v>23</v>
       </c>
       <c r="AN35" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO35" t="n">
         <v>90</v>
@@ -5521,7 +5525,7 @@
         <v>60</v>
       </c>
       <c r="AQ35" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr"/>
@@ -5710,10 +5714,10 @@
         <v>1.8</v>
       </c>
       <c r="H37" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I37" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J37" t="n">
         <v>2.5</v>
@@ -5776,7 +5780,7 @@
         <v>9</v>
       </c>
       <c r="AD37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE37" t="n">
         <v>17</v>
@@ -5818,10 +5822,10 @@
         <v>51</v>
       </c>
       <c r="AR37" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="38">
@@ -5862,54 +5866,54 @@
         <v>3.5</v>
       </c>
       <c r="I38" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J38" t="n">
         <v>2.4</v>
       </c>
       <c r="K38" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L38" t="n">
         <v>5.5</v>
       </c>
       <c r="M38" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O38" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P38" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="R38" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="V38" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="W38" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X38" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z38" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AA38" t="n">
         <v>6</v>
@@ -5918,19 +5922,19 @@
         <v>7.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD38" t="n">
         <v>13</v>
       </c>
       <c r="AE38" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF38" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG38" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH38" t="n">
         <v>7</v>
@@ -5951,7 +5955,7 @@
         <v>23</v>
       </c>
       <c r="AN38" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO38" t="n">
         <v>51</v>
@@ -5960,7 +5964,7 @@
         <v>41</v>
       </c>
       <c r="AQ38" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR38" t="inlineStr"/>
       <c r="AS38" t="inlineStr"/>
@@ -5997,28 +6001,28 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H39" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I39" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J39" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K39" t="n">
         <v>2.05</v>
       </c>
       <c r="L39" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M39" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N39" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O39" t="n">
         <v>1.36</v>
@@ -6027,10 +6031,10 @@
         <v>3</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R39" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
@@ -6071,10 +6075,10 @@
         <v>34</v>
       </c>
       <c r="AG39" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI39" t="n">
         <v>17</v>
@@ -6159,7 +6163,7 @@
         <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O40" t="n">
         <v>1.36</v>
@@ -6279,28 +6283,28 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H41" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I41" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="J41" t="n">
         <v>4</v>
       </c>
       <c r="K41" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L41" t="n">
         <v>2.88</v>
       </c>
       <c r="M41" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N41" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O41" t="n">
         <v>1.33</v>
@@ -6309,10 +6313,10 @@
         <v>3.25</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R41" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
@@ -6344,7 +6348,7 @@
         <v>12</v>
       </c>
       <c r="AD41" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE41" t="n">
         <v>29</v>
@@ -6353,7 +6357,7 @@
         <v>41</v>
       </c>
       <c r="AG41" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH41" t="n">
         <v>6.5</v>
@@ -6371,10 +6375,10 @@
         <v>7</v>
       </c>
       <c r="AM41" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AN41" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO41" t="n">
         <v>19</v>
@@ -6561,93 +6565,93 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H43" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I43" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J43" t="n">
         <v>2.25</v>
       </c>
       <c r="K43" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L43" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M43" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N43" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O43" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P43" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="R43" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V43" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W43" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X43" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="Z43" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AA43" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB43" t="n">
         <v>8</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>8.5</v>
       </c>
       <c r="AC43" t="n">
         <v>8.5</v>
       </c>
       <c r="AD43" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE43" t="n">
         <v>13</v>
       </c>
       <c r="AF43" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG43" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH43" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI43" t="n">
         <v>15</v>
       </c>
       <c r="AJ43" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK43" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL43" t="n">
         <v>15</v>
@@ -6656,13 +6660,13 @@
         <v>26</v>
       </c>
       <c r="AN43" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO43" t="n">
         <v>51</v>
       </c>
       <c r="AP43" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ43" t="n">
         <v>41</v>
@@ -6702,10 +6706,10 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H44" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I44" t="n">
         <v>5.25</v>
@@ -6714,28 +6718,28 @@
         <v>2.1</v>
       </c>
       <c r="K44" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L44" t="n">
         <v>4.75</v>
       </c>
       <c r="M44" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N44" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O44" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P44" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R44" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S44" t="n">
         <v>1.8</v>
@@ -6744,10 +6748,10 @@
         <v>2.05</v>
       </c>
       <c r="U44" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V44" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W44" t="n">
         <v>1.25</v>
@@ -6756,10 +6760,10 @@
         <v>3.75</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AA44" t="n">
         <v>11</v>
@@ -6783,7 +6787,7 @@
         <v>19</v>
       </c>
       <c r="AH44" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI44" t="n">
         <v>12</v>
@@ -6868,31 +6872,31 @@
         <v>1.03</v>
       </c>
       <c r="N45" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O45" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P45" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R45" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S45" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T45" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="U45" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V45" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W45" t="n">
         <v>1.29</v>
@@ -7010,10 +7014,10 @@
         <v>2.88</v>
       </c>
       <c r="M46" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N46" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O46" t="n">
         <v>1.29</v>
@@ -7274,22 +7278,22 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H48" t="n">
         <v>3.4</v>
       </c>
       <c r="I48" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="J48" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="K48" t="n">
         <v>2.3</v>
       </c>
       <c r="L48" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M48" t="n">
         <v>1.03</v>
@@ -7298,61 +7302,61 @@
         <v>15</v>
       </c>
       <c r="O48" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P48" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R48" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S48" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="T48" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="U48" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V48" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W48" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X48" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y48" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z48" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA48" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC48" t="n">
         <v>9.5</v>
       </c>
-      <c r="AB48" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>9</v>
-      </c>
       <c r="AD48" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE48" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF48" t="n">
         <v>21</v>
       </c>
       <c r="AG48" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH48" t="n">
         <v>7</v>
@@ -7361,28 +7365,28 @@
         <v>12</v>
       </c>
       <c r="AJ48" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK48" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL48" t="n">
         <v>13</v>
       </c>
       <c r="AM48" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO48" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP48" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ48" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR48" t="inlineStr"/>
       <c r="AS48" t="inlineStr"/>
@@ -7826,34 +7830,34 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H52" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I52" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="J52" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K52" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L52" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M52" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N52" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O52" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P52" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q52" t="n">
         <v>2.1</v>
@@ -7882,16 +7886,16 @@
         <v>1.8</v>
       </c>
       <c r="AA52" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB52" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AC52" t="n">
         <v>9</v>
       </c>
       <c r="AD52" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE52" t="n">
         <v>17</v>
@@ -7915,19 +7919,19 @@
         <v>351</v>
       </c>
       <c r="AL52" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM52" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO52" t="n">
         <v>41</v>
       </c>
       <c r="AP52" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ52" t="n">
         <v>41</v>
@@ -7997,18 +8001,18 @@
         <v>3</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R53" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V53" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W53" t="n">
         <v>1.5</v>
@@ -8253,28 +8257,28 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I55" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J55" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K55" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L55" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M55" t="n">
         <v>1.08</v>
       </c>
       <c r="N55" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O55" t="n">
         <v>1.44</v>
@@ -8303,13 +8307,13 @@
         <v>2.38</v>
       </c>
       <c r="Y55" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Z55" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AA55" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB55" t="n">
         <v>17</v>
@@ -8327,19 +8331,19 @@
         <v>41</v>
       </c>
       <c r="AG55" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH55" t="n">
         <v>6</v>
       </c>
       <c r="AI55" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ55" t="n">
         <v>67</v>
       </c>
       <c r="AK55" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AL55" t="n">
         <v>6</v>
@@ -8354,10 +8358,10 @@
         <v>19</v>
       </c>
       <c r="AP55" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ55" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR55" t="n">
         <v>1.78</v>
@@ -8545,7 +8549,7 @@
         <v>3.1</v>
       </c>
       <c r="I57" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J57" t="n">
         <v>3.75</v>
@@ -8569,10 +8573,10 @@
         <v>3.25</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R57" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
@@ -8837,10 +8841,10 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P59" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="Q59" t="n">
         <v>1.83</v>
@@ -8851,10 +8855,10 @@
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="V59" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W59" t="n">
         <v>1.4</v>
@@ -8866,7 +8870,7 @@
         <v>1.76</v>
       </c>
       <c r="Z59" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="AA59" t="n">
         <v>6</v>
@@ -8954,10 +8958,10 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="H60" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I60" t="n">
         <v>4.5</v>
@@ -8969,33 +8973,33 @@
         <v>2.3</v>
       </c>
       <c r="L60" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M60" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N60" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O60" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P60" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R60" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V60" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W60" t="n">
         <v>1.33</v>
@@ -9010,7 +9014,7 @@
         <v>2.05</v>
       </c>
       <c r="AA60" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB60" t="n">
         <v>9</v>
@@ -9019,7 +9023,7 @@
         <v>8.5</v>
       </c>
       <c r="AD60" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE60" t="n">
         <v>13</v>
@@ -9040,7 +9044,7 @@
         <v>41</v>
       </c>
       <c r="AK60" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL60" t="n">
         <v>15</v>
@@ -9313,7 +9317,9 @@
       <c r="AJ62" t="n">
         <v>81</v>
       </c>
-      <c r="AK62" t="inlineStr"/>
+      <c r="AK62" t="n">
+        <v>101</v>
+      </c>
       <c r="AL62" t="n">
         <v>5</v>
       </c>
@@ -9371,53 +9377,61 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="H63" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="I63" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J63" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="K63" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="L63" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M63" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N63" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O63" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P63" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="R63" t="n">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="V63" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
+        <v>1.36</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>1.53</v>
+      </c>
       <c r="AA63" t="n">
         <v>6.5</v>
       </c>
@@ -9425,47 +9439,49 @@
         <v>5.5</v>
       </c>
       <c r="AC63" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AD63" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE63" t="n">
         <v>13</v>
       </c>
       <c r="AF63" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG63" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH63" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI63" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AJ63" t="n">
         <v>101</v>
       </c>
-      <c r="AK63" t="inlineStr"/>
+      <c r="AK63" t="n">
+        <v>101</v>
+      </c>
       <c r="AL63" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AM63" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN63" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO63" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AP63" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AQ63" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AR63" t="inlineStr"/>
       <c r="AS63" t="inlineStr"/>
@@ -9505,37 +9521,37 @@
         <v>1.55</v>
       </c>
       <c r="H64" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I64" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J64" t="n">
         <v>2.05</v>
       </c>
       <c r="K64" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L64" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M64" t="n">
         <v>1.02</v>
       </c>
       <c r="N64" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O64" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P64" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R64" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="S64" t="n">
         <v>1.8</v>
@@ -9544,28 +9560,28 @@
         <v>2.05</v>
       </c>
       <c r="U64" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V64" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W64" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X64" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Y64" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Z64" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AA64" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB64" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC64" t="n">
         <v>8.5</v>
@@ -9577,10 +9593,10 @@
         <v>11</v>
       </c>
       <c r="AF64" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG64" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH64" t="n">
         <v>9</v>
@@ -9589,10 +9605,10 @@
         <v>13</v>
       </c>
       <c r="AJ64" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK64" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL64" t="n">
         <v>21</v>
@@ -9610,7 +9626,7 @@
         <v>34</v>
       </c>
       <c r="AQ64" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR64" t="inlineStr"/>
       <c r="AS64" t="inlineStr"/>
@@ -9647,64 +9663,64 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H65" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I65" t="n">
         <v>2.5</v>
       </c>
       <c r="J65" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K65" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L65" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M65" t="n">
         <v>1.03</v>
       </c>
       <c r="N65" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O65" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P65" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R65" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="S65" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="T65" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="U65" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X65" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Z65" t="n">
         <v>2.38</v>
-      </c>
-      <c r="V65" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W65" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X65" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>2.5</v>
       </c>
       <c r="AA65" t="n">
         <v>12</v>
@@ -9722,25 +9738,25 @@
         <v>19</v>
       </c>
       <c r="AF65" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG65" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH65" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI65" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ65" t="n">
         <v>34</v>
       </c>
       <c r="AK65" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL65" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM65" t="n">
         <v>15</v>
@@ -9755,7 +9771,7 @@
         <v>19</v>
       </c>
       <c r="AQ65" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR65" t="inlineStr"/>
       <c r="AS65" t="inlineStr"/>
@@ -9810,10 +9826,10 @@
         <v>2.6</v>
       </c>
       <c r="M66" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N66" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O66" t="n">
         <v>1.25</v>
@@ -9822,18 +9838,18 @@
         <v>3.75</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R66" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V66" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W66" t="n">
         <v>1.36</v>
@@ -9954,33 +9970,33 @@
         <v>1.04</v>
       </c>
       <c r="N67" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O67" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P67" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R67" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V67" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W67" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X67" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y67" t="n">
         <v>1.67</v>
@@ -10007,7 +10023,7 @@
         <v>23</v>
       </c>
       <c r="AG67" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH67" t="n">
         <v>7</v>
@@ -10028,16 +10044,16 @@
         <v>19</v>
       </c>
       <c r="AN67" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO67" t="n">
         <v>41</v>
       </c>
       <c r="AP67" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ67" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR67" t="inlineStr"/>
       <c r="AS67" t="inlineStr"/>
@@ -10104,18 +10120,18 @@
         <v>4</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R68" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V68" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W68" t="n">
         <v>1.33</v>
@@ -10356,19 +10372,19 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H70" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I70" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J70" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K70" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L70" t="n">
         <v>3.75</v>
@@ -10380,10 +10396,10 @@
         <v>8</v>
       </c>
       <c r="O70" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P70" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q70" t="n">
         <v>2.35</v>
@@ -10394,10 +10410,10 @@
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V70" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W70" t="n">
         <v>1.53</v>
@@ -10430,7 +10446,7 @@
         <v>34</v>
       </c>
       <c r="AG70" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH70" t="n">
         <v>6</v>
@@ -10463,10 +10479,10 @@
         <v>41</v>
       </c>
       <c r="AR70" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="71">
@@ -10501,13 +10517,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="H71" t="n">
         <v>5.25</v>
       </c>
       <c r="I71" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J71" t="n">
         <v>1.73</v>
@@ -10516,7 +10532,7 @@
         <v>2.6</v>
       </c>
       <c r="L71" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="M71" t="n">
         <v>1.03</v>
@@ -10549,73 +10565,73 @@
         <v>1.44</v>
       </c>
       <c r="W71" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X71" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y71" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Z71" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AA71" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD71" t="n">
         <v>7.5</v>
       </c>
-      <c r="AB71" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AC71" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD71" t="n">
-        <v>8</v>
-      </c>
       <c r="AE71" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF71" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG71" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH71" t="n">
         <v>10</v>
       </c>
       <c r="AI71" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AJ71" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK71" t="n">
         <v>900</v>
       </c>
       <c r="AL71" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM71" t="n">
         <v>51</v>
       </c>
       <c r="AN71" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO71" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AP71" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AQ71" t="n">
         <v>67</v>
       </c>
       <c r="AR71" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AS71" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="72">
@@ -10674,24 +10690,24 @@
         <v>7</v>
       </c>
       <c r="O72" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P72" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R72" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V72" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W72" t="n">
         <v>1.57</v>
@@ -10757,10 +10773,10 @@
         <v>51</v>
       </c>
       <c r="AR72" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="73">
@@ -10825,10 +10841,10 @@
         <v>3.25</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R73" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
@@ -11243,7 +11259,7 @@
         <v>1.04</v>
       </c>
       <c r="N76" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O76" t="n">
         <v>1.22</v>
@@ -11252,10 +11268,10 @@
         <v>4</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R76" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
@@ -11320,7 +11336,7 @@
         <v>19</v>
       </c>
       <c r="AO76" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP76" t="n">
         <v>41</v>
@@ -11363,16 +11379,16 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H77" t="n">
         <v>3.25</v>
       </c>
       <c r="I77" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J77" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K77" t="n">
         <v>2.1</v>
@@ -11413,10 +11429,10 @@
         <v>2.75</v>
       </c>
       <c r="Y77" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Z77" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA77" t="n">
         <v>8</v>
@@ -11428,7 +11444,7 @@
         <v>9.5</v>
       </c>
       <c r="AD77" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE77" t="n">
         <v>19</v>
@@ -11443,13 +11459,13 @@
         <v>6.5</v>
       </c>
       <c r="AI77" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ77" t="n">
         <v>51</v>
       </c>
       <c r="AK77" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL77" t="n">
         <v>9.5</v>
@@ -11504,28 +11520,28 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H78" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I78" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="J78" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="K78" t="n">
         <v>2.38</v>
       </c>
       <c r="L78" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="M78" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N78" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O78" t="n">
         <v>1.2</v>
@@ -11534,10 +11550,10 @@
         <v>4.33</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R78" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S78" t="n">
         <v>2.03</v>
@@ -11546,10 +11562,10 @@
         <v>1.78</v>
       </c>
       <c r="U78" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V78" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W78" t="n">
         <v>1.3</v>
@@ -11558,34 +11574,34 @@
         <v>3.4</v>
       </c>
       <c r="Y78" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z78" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA78" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB78" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC78" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD78" t="n">
         <v>51</v>
       </c>
       <c r="AE78" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF78" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG78" t="n">
         <v>15</v>
       </c>
       <c r="AH78" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI78" t="n">
         <v>15</v>
@@ -11597,22 +11613,22 @@
         <v>151</v>
       </c>
       <c r="AL78" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM78" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AN78" t="n">
         <v>8.5</v>
       </c>
       <c r="AO78" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP78" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ78" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR78" t="inlineStr"/>
       <c r="AS78" t="inlineStr"/>
@@ -11649,28 +11665,28 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H79" t="n">
         <v>3.9</v>
       </c>
       <c r="I79" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J79" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K79" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L79" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M79" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N79" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O79" t="n">
         <v>1.25</v>
@@ -11679,10 +11695,10 @@
         <v>3.75</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R79" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S79" t="n">
         <v>2.03</v>
@@ -11691,34 +11707,34 @@
         <v>1.78</v>
       </c>
       <c r="U79" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V79" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W79" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X79" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y79" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z79" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA79" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB79" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC79" t="n">
         <v>8.5</v>
       </c>
       <c r="AD79" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE79" t="n">
         <v>13</v>
@@ -11727,7 +11743,7 @@
         <v>26</v>
       </c>
       <c r="AG79" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH79" t="n">
         <v>8</v>
@@ -11739,7 +11755,7 @@
         <v>51</v>
       </c>
       <c r="AK79" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AL79" t="n">
         <v>17</v>
@@ -11748,16 +11764,16 @@
         <v>34</v>
       </c>
       <c r="AN79" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO79" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP79" t="n">
         <v>41</v>
       </c>
       <c r="AQ79" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR79" t="inlineStr"/>
       <c r="AS79" t="inlineStr"/>
@@ -11818,16 +11834,16 @@
         <v>12</v>
       </c>
       <c r="O80" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P80" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R80" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S80" t="n">
         <v>1.8</v>
@@ -11836,46 +11852,46 @@
         <v>2</v>
       </c>
       <c r="U80" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V80" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W80" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="X80" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Y80" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z80" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA80" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB80" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC80" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD80" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE80" t="n">
         <v>11</v>
       </c>
       <c r="AF80" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG80" t="n">
         <v>21</v>
       </c>
       <c r="AH80" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI80" t="n">
         <v>21</v>
@@ -11884,10 +11900,10 @@
         <v>51</v>
       </c>
       <c r="AK80" t="n">
-        <v>500</v>
+        <v>151</v>
       </c>
       <c r="AL80" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM80" t="n">
         <v>41</v>
@@ -12080,66 +12096,66 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I82" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="J82" t="n">
         <v>3.3</v>
       </c>
       <c r="K82" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L82" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="M82" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N82" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="O82" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="P82" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="R82" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="V82" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="W82" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X82" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="Y82" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Z82" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AA82" t="n">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="AB82" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC82" t="n">
         <v>9.75</v>
@@ -12151,13 +12167,13 @@
         <v>23</v>
       </c>
       <c r="AF82" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AG82" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AH82" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AI82" t="n">
         <v>14.5</v>
@@ -12166,22 +12182,22 @@
         <v>75</v>
       </c>
       <c r="AK82" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AL82" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AM82" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AN82" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AO82" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AP82" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AQ82" t="n">
         <v>37</v>
@@ -12221,16 +12237,16 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="H83" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I83" t="n">
         <v>1.75</v>
       </c>
       <c r="J83" t="n">
-        <v>4.75</v>
+        <v>4.65</v>
       </c>
       <c r="K83" t="n">
         <v>2.12</v>
@@ -12245,24 +12261,24 @@
         <v>7.3</v>
       </c>
       <c r="O83" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P83" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R83" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="V83" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W83" t="n">
         <v>1.42</v>
@@ -12271,25 +12287,25 @@
         <v>2.67</v>
       </c>
       <c r="Y83" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Z83" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AA83" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AB83" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC83" t="n">
         <v>14</v>
       </c>
       <c r="AD83" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AE83" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AF83" t="n">
         <v>45</v>
@@ -12298,34 +12314,34 @@
         <v>7.3</v>
       </c>
       <c r="AH83" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AI83" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AJ83" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK83" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AL83" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AM83" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AN83" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AO83" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AP83" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AQ83" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR83" t="inlineStr"/>
       <c r="AS83" t="inlineStr"/>
@@ -12789,22 +12805,22 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.1</v>
+        <v>4.35</v>
       </c>
       <c r="H87" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I87" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="J87" t="n">
-        <v>4.35</v>
+        <v>4.6</v>
       </c>
       <c r="K87" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="L87" t="n">
         <v>2.22</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.32</v>
       </c>
       <c r="M87" t="n">
         <v>1.04</v>
@@ -12833,64 +12849,64 @@
         <v>1.44</v>
       </c>
       <c r="W87" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X87" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="Y87" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="Z87" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AA87" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC87" t="n">
         <v>14</v>
       </c>
-      <c r="AB87" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC87" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AD87" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AE87" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AF87" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AG87" t="n">
         <v>8.25</v>
       </c>
       <c r="AH87" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AI87" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ87" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK87" t="n">
         <v>350</v>
       </c>
       <c r="AL87" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AM87" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AN87" t="n">
         <v>8</v>
       </c>
       <c r="AO87" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP87" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AQ87" t="n">
         <v>21</v>
@@ -13353,19 +13369,19 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H91" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I91" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J91" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K91" t="n">
         <v>2.2</v>
-      </c>
-      <c r="J91" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K91" t="n">
-        <v>2.1</v>
       </c>
       <c r="L91" t="n">
         <v>2.88</v>
@@ -13412,22 +13428,22 @@
         <v>10</v>
       </c>
       <c r="AB91" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC91" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD91" t="n">
         <v>34</v>
       </c>
       <c r="AE91" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF91" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG91" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH91" t="n">
         <v>6.5</v>
@@ -13442,13 +13458,13 @@
         <v>201</v>
       </c>
       <c r="AL91" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM91" t="n">
         <v>11</v>
       </c>
       <c r="AN91" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO91" t="n">
         <v>21</v>
@@ -13494,13 +13510,13 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H92" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I92" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J92" t="n">
         <v>2.88</v>
@@ -13512,10 +13528,10 @@
         <v>4</v>
       </c>
       <c r="M92" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N92" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O92" t="n">
         <v>1.33</v>
@@ -13556,10 +13572,10 @@
         <v>10</v>
       </c>
       <c r="AC92" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD92" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE92" t="n">
         <v>19</v>
@@ -13574,7 +13590,7 @@
         <v>6.5</v>
       </c>
       <c r="AI92" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ92" t="n">
         <v>51</v>
@@ -13595,7 +13611,7 @@
         <v>34</v>
       </c>
       <c r="AP92" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ92" t="n">
         <v>34</v>
@@ -13635,22 +13651,22 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.82</v>
+        <v>1.65</v>
       </c>
       <c r="H93" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I93" t="n">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
       <c r="J93" t="n">
-        <v>2.52</v>
+        <v>2.3</v>
       </c>
       <c r="K93" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="L93" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="M93" t="n">
         <v>1.12</v>
@@ -13659,63 +13675,63 @@
         <v>4.55</v>
       </c>
       <c r="O93" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="P93" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.62</v>
+        <v>2.47</v>
       </c>
       <c r="R93" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="V93" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="W93" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="X93" t="n">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="Y93" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="Z93" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="AA93" t="n">
         <v>4.6</v>
       </c>
       <c r="AB93" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="AC93" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AD93" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE93" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AF93" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG93" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="AH93" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AI93" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ93" t="n">
         <v>200</v>
@@ -13724,22 +13740,22 @@
         <v>101</v>
       </c>
       <c r="AL93" t="n">
-        <v>8.5</v>
+        <v>9.75</v>
       </c>
       <c r="AM93" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AN93" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO93" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AP93" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AQ93" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AR93" t="inlineStr"/>
       <c r="AS93" t="inlineStr"/>
@@ -13776,22 +13792,22 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H94" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I94" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J94" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K94" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L94" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M94" t="n">
         <v>1.11</v>
@@ -13820,16 +13836,16 @@
         <v>1.18</v>
       </c>
       <c r="W94" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X94" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y94" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Z94" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AA94" t="n">
         <v>7.5</v>
@@ -13838,7 +13854,7 @@
         <v>13</v>
       </c>
       <c r="AC94" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD94" t="n">
         <v>29</v>
@@ -13850,10 +13866,10 @@
         <v>41</v>
       </c>
       <c r="AG94" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH94" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AI94" t="n">
         <v>15</v>
@@ -13865,13 +13881,13 @@
         <v>351</v>
       </c>
       <c r="AL94" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM94" t="n">
         <v>13</v>
       </c>
       <c r="AN94" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO94" t="n">
         <v>29</v>
@@ -13883,10 +13899,10 @@
         <v>41</v>
       </c>
       <c r="AR94" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AS94" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="95">
@@ -13921,44 +13937,44 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="H95" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I95" t="n">
-        <v>4.1</v>
+        <v>4.25</v>
       </c>
       <c r="J95" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="K95" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L95" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P95" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R95" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="V95" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W95" t="n">
         <v>1.42</v>
@@ -13970,31 +13986,31 @@
         <v>1.7</v>
       </c>
       <c r="Z95" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="AA95" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AB95" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC95" t="n">
         <v>8</v>
       </c>
       <c r="AD95" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AE95" t="n">
         <v>14</v>
       </c>
       <c r="AF95" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG95" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH95" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AI95" t="n">
         <v>14</v>
@@ -14006,16 +14022,16 @@
         <v>450</v>
       </c>
       <c r="AL95" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AM95" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AN95" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO95" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AP95" t="n">
         <v>40</v>
@@ -14058,7 +14074,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="H96" t="n">
         <v>5.1</v>
@@ -14067,7 +14083,7 @@
         <v>1.3</v>
       </c>
       <c r="J96" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="K96" t="n">
         <v>2.62</v>
@@ -14085,7 +14101,7 @@
         <v>1.15</v>
       </c>
       <c r="P96" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q96" t="n">
         <v>1.47</v>
@@ -14120,10 +14136,10 @@
         <v>55</v>
       </c>
       <c r="AC96" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AD96" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AE96" t="n">
         <v>80</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-21.xlsx
@@ -698,13 +698,13 @@
         <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L2" t="n">
         <v>2.5</v>
@@ -728,10 +728,10 @@
         <v>2.38</v>
       </c>
       <c r="S2" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="T2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="U2" t="n">
         <v>2.38</v>
@@ -758,7 +758,7 @@
         <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD2" t="n">
         <v>41</v>
@@ -788,13 +788,13 @@
         <v>12</v>
       </c>
       <c r="AM2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN2" t="n">
         <v>9.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP2" t="n">
         <v>15</v>
@@ -843,7 +843,7 @@
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J3" t="n">
         <v>2.88</v>
@@ -861,16 +861,16 @@
         <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R3" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -981,7 +981,7 @@
         <v>2.05</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
         <v>3.6</v>
@@ -1002,24 +1002,24 @@
         <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="R4" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W4" t="n">
         <v>1.4</v>
@@ -1134,7 +1134,7 @@
         <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M5" t="n">
         <v>1.1</v>
@@ -1143,16 +1143,16 @@
         <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="R5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
@@ -1196,7 +1196,7 @@
         <v>7.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI5" t="n">
         <v>15</v>
@@ -1205,7 +1205,7 @@
         <v>51</v>
       </c>
       <c r="AK5" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL5" t="n">
         <v>7.5</v>
@@ -1284,16 +1284,16 @@
         <v>10</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P6" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="R6" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -1401,22 +1401,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J7" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K7" t="n">
         <v>1.91</v>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1437,10 +1437,10 @@
         <v>1.5</v>
       </c>
       <c r="S7" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="U7" t="n">
         <v>5</v>
@@ -1461,7 +1461,7 @@
         <v>1.67</v>
       </c>
       <c r="AA7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB7" t="n">
         <v>17</v>
@@ -1497,10 +1497,10 @@
         <v>6</v>
       </c>
       <c r="AM7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AN7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO7" t="n">
         <v>21</v>
@@ -1512,10 +1512,10 @@
         <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="8">
@@ -1711,10 +1711,10 @@
         <v>4.33</v>
       </c>
       <c r="K9" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="L9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M9" t="n">
         <v>1.17</v>
@@ -1723,16 +1723,16 @@
         <v>5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="R9" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S9" t="n">
         <v>6.4</v>
@@ -1747,16 +1747,16 @@
         <v>1.08</v>
       </c>
       <c r="W9" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X9" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AA9" t="n">
         <v>6.5</v>
@@ -1777,7 +1777,7 @@
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AH9" t="n">
         <v>6</v>
@@ -1792,7 +1792,7 @@
         <v>101</v>
       </c>
       <c r="AL9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AM9" t="n">
         <v>10</v>
@@ -2145,28 +2145,28 @@
         <v>3.1</v>
       </c>
       <c r="H12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="J12" t="n">
         <v>3.6</v>
       </c>
       <c r="K12" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P12" t="n">
         <v>2.92</v>
@@ -2186,25 +2186,25 @@
         <v>1.26</v>
       </c>
       <c r="W12" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X12" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="AA12" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AB12" t="n">
         <v>15.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AD12" t="n">
         <v>40</v>
@@ -2216,10 +2216,10 @@
         <v>37</v>
       </c>
       <c r="AG12" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AH12" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AI12" t="n">
         <v>15</v>
@@ -2228,22 +2228,22 @@
         <v>75</v>
       </c>
       <c r="AK12" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AL12" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AM12" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AN12" t="n">
         <v>9</v>
       </c>
       <c r="AO12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP12" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AQ12" t="n">
         <v>32</v>
@@ -2283,111 +2283,111 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H13" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="K13" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L13" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="M13" t="n">
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P13" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="R13" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="V13" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="W13" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="X13" t="n">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="AA13" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="AC13" t="n">
         <v>9.25</v>
       </c>
       <c r="AD13" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF13" t="n">
         <v>32</v>
       </c>
       <c r="AG13" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AH13" t="n">
         <v>6</v>
       </c>
       <c r="AI13" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ13" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK13" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AL13" t="n">
         <v>8.75</v>
       </c>
       <c r="AM13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN13" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AO13" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AP13" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AQ13" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
@@ -2424,111 +2424,111 @@
         </is>
       </c>
       <c r="G14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I14" t="n">
         <v>2.72</v>
       </c>
-      <c r="H14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.47</v>
-      </c>
       <c r="J14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" t="n">
         <v>3.35</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.1</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="P14" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="R14" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="V14" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W14" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="X14" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="Z14" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AA14" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AC14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AE14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF14" t="n">
         <v>32</v>
       </c>
       <c r="AG14" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AH14" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AI14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AM14" t="n">
         <v>13.5</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>500</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AN14" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AO14" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AP14" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AQ14" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
@@ -2565,87 +2565,87 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J15" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="K15" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L15" t="n">
-        <v>4.15</v>
+        <v>4.35</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="P15" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="R15" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="V15" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W15" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X15" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AA15" t="n">
         <v>6.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE15" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AF15" t="n">
         <v>32</v>
       </c>
       <c r="AG15" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AH15" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="AI15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ15" t="n">
         <v>90</v>
@@ -2654,22 +2654,22 @@
         <v>800</v>
       </c>
       <c r="AL15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN15" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AP15" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AQ15" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
@@ -3139,7 +3139,7 @@
         <v>5.25</v>
       </c>
       <c r="I19" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J19" t="n">
         <v>1.8</v>
@@ -3154,51 +3154,51 @@
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O19" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="R19" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V19" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W19" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="X19" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z19" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC19" t="n">
         <v>9</v>
       </c>
       <c r="AD19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE19" t="n">
         <v>10</v>
@@ -3207,7 +3207,7 @@
         <v>19</v>
       </c>
       <c r="AG19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH19" t="n">
         <v>12</v>
@@ -3219,7 +3219,7 @@
         <v>41</v>
       </c>
       <c r="AK19" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL19" t="n">
         <v>23</v>
@@ -3237,7 +3237,7 @@
         <v>41</v>
       </c>
       <c r="AQ19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr"/>
@@ -3556,28 +3556,28 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="H22" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J22" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K22" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O22" t="n">
         <v>1.25</v>
@@ -3586,24 +3586,24 @@
         <v>3.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R22" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V22" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W22" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X22" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y22" t="n">
         <v>2.2</v>
@@ -3612,7 +3612,7 @@
         <v>1.62</v>
       </c>
       <c r="AA22" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB22" t="n">
         <v>6</v>
@@ -3621,19 +3621,19 @@
         <v>9</v>
       </c>
       <c r="AD22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF22" t="n">
         <v>34</v>
       </c>
       <c r="AG22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI22" t="n">
         <v>23</v>
@@ -3645,16 +3645,16 @@
         <v>101</v>
       </c>
       <c r="AL22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM22" t="n">
         <v>41</v>
       </c>
       <c r="AN22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO22" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AP22" t="n">
         <v>67</v>
@@ -3995,22 +3995,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="H25" t="n">
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="J25" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K25" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L25" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M25" t="n">
         <v>1.11</v>
@@ -4019,52 +4019,52 @@
         <v>6.5</v>
       </c>
       <c r="O25" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R25" t="n">
         <v>1.44</v>
       </c>
-      <c r="P25" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.5</v>
-      </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T25" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="U25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA25" t="n">
         <v>5</v>
       </c>
-      <c r="V25" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X25" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>6</v>
-      </c>
       <c r="AB25" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AC25" t="n">
         <v>9.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AE25" t="n">
         <v>21</v>
@@ -4073,31 +4073,31 @@
         <v>41</v>
       </c>
       <c r="AG25" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH25" t="n">
         <v>6</v>
       </c>
       <c r="AI25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ25" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK25" t="n">
         <v>101</v>
       </c>
       <c r="AL25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP25" t="n">
         <v>41</v>
@@ -4106,10 +4106,10 @@
         <v>51</v>
       </c>
       <c r="AR25" t="n">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="26">
@@ -4144,22 +4144,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="H26" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I26" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M26" t="n">
         <v>1.07</v>
@@ -4188,10 +4188,10 @@
         <v>1.22</v>
       </c>
       <c r="W26" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X26" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y26" t="n">
         <v>2</v>
@@ -4203,49 +4203,49 @@
         <v>6.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD26" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF26" t="n">
         <v>34</v>
       </c>
       <c r="AG26" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI26" t="n">
         <v>17</v>
       </c>
       <c r="AJ26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK26" t="n">
         <v>351</v>
       </c>
       <c r="AL26" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AM26" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AN26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO26" t="n">
         <v>41</v>
       </c>
       <c r="AP26" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AQ26" t="n">
         <v>41</v>
@@ -4285,13 +4285,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H27" t="n">
         <v>3.5</v>
       </c>
       <c r="I27" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J27" t="n">
         <v>4.5</v>
@@ -4300,13 +4300,13 @@
         <v>2.1</v>
       </c>
       <c r="L27" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M27" t="n">
         <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O27" t="n">
         <v>1.3</v>
@@ -4329,16 +4329,16 @@
         <v>1.29</v>
       </c>
       <c r="W27" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X27" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AA27" t="n">
         <v>11</v>
@@ -4359,7 +4359,7 @@
         <v>41</v>
       </c>
       <c r="AG27" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH27" t="n">
         <v>6.5</v>
@@ -4371,25 +4371,25 @@
         <v>51</v>
       </c>
       <c r="AK27" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL27" t="n">
         <v>7</v>
       </c>
       <c r="AM27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AN27" t="n">
         <v>8.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP27" t="n">
         <v>15</v>
       </c>
       <c r="AQ27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr"/>
@@ -4426,81 +4426,81 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="H28" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I28" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K28" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L28" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N28" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O28" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P28" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="R28" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V28" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="W28" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X28" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AA28" t="n">
         <v>7.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC28" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG28" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH28" t="n">
         <v>6.5</v>
@@ -4512,22 +4512,22 @@
         <v>51</v>
       </c>
       <c r="AK28" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL28" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AM28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN28" t="n">
         <v>12</v>
       </c>
       <c r="AO28" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ28" t="n">
         <v>34</v>
@@ -4712,13 +4712,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H30" t="n">
         <v>3.5</v>
       </c>
       <c r="I30" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J30" t="n">
         <v>3.6</v>
@@ -4727,25 +4727,25 @@
         <v>2.1</v>
       </c>
       <c r="L30" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M30" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O30" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P30" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R30" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S30" t="n">
         <v>2</v>
@@ -4754,10 +4754,10 @@
         <v>1.85</v>
       </c>
       <c r="U30" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V30" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W30" t="n">
         <v>1.44</v>
@@ -4772,10 +4772,10 @@
         <v>1.83</v>
       </c>
       <c r="AA30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC30" t="n">
         <v>11</v>
@@ -4793,7 +4793,7 @@
         <v>10</v>
       </c>
       <c r="AH30" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI30" t="n">
         <v>15</v>
@@ -4802,7 +4802,7 @@
         <v>51</v>
       </c>
       <c r="AK30" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL30" t="n">
         <v>7.5</v>
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H31" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I31" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J31" t="n">
         <v>3.4</v>
@@ -4881,24 +4881,24 @@
         <v>8</v>
       </c>
       <c r="O31" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P31" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R31" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V31" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W31" t="n">
         <v>1.44</v>
@@ -4907,10 +4907,10 @@
         <v>2.63</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA31" t="n">
         <v>8.5</v>
@@ -4955,7 +4955,7 @@
         <v>11</v>
       </c>
       <c r="AO31" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP31" t="n">
         <v>23</v>
@@ -5280,28 +5280,28 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="H34" t="n">
         <v>2.72</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="J34" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="K34" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="L34" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="M34" t="n">
         <v>1.14</v>
       </c>
       <c r="N34" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O34" t="n">
         <v>1.57</v>
@@ -5324,16 +5324,16 @@
         <v>1.15</v>
       </c>
       <c r="W34" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="X34" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="Z34" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="AA34" t="n">
         <v>5.3</v>
@@ -5342,25 +5342,25 @@
         <v>8.75</v>
       </c>
       <c r="AC34" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AD34" t="n">
         <v>21</v>
       </c>
       <c r="AE34" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF34" t="n">
         <v>45</v>
       </c>
       <c r="AG34" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AH34" t="n">
         <v>5.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AJ34" t="n">
         <v>120</v>
@@ -5369,22 +5369,22 @@
         <v>101</v>
       </c>
       <c r="AL34" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM34" t="n">
         <v>20</v>
       </c>
       <c r="AN34" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO34" t="n">
         <v>70</v>
       </c>
       <c r="AP34" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AQ34" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AR34" t="inlineStr"/>
       <c r="AS34" t="inlineStr"/>
@@ -5421,22 +5421,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H35" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="I35" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J35" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="K35" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="L35" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M35" t="n">
         <v>1.13</v>
@@ -5445,51 +5445,51 @@
         <v>5.2</v>
       </c>
       <c r="O35" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P35" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="R35" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="V35" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W35" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="X35" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AA35" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="AB35" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="AC35" t="n">
         <v>9</v>
       </c>
       <c r="AD35" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AE35" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AF35" t="n">
         <v>40</v>
@@ -5498,34 +5498,34 @@
         <v>5.2</v>
       </c>
       <c r="AH35" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AI35" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AJ35" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK35" t="n">
         <v>101</v>
       </c>
       <c r="AL35" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AM35" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN35" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO35" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AP35" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AQ35" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr"/>
@@ -5592,10 +5592,10 @@
         <v>3.75</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R36" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S36" t="n">
         <v>2.55</v>
@@ -5604,10 +5604,10 @@
         <v>1.5</v>
       </c>
       <c r="U36" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="V36" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W36" t="n">
         <v>1.4</v>
@@ -5711,7 +5711,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H37" t="n">
         <v>3.3</v>
@@ -5759,22 +5759,22 @@
         <v>1.2</v>
       </c>
       <c r="W37" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X37" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z37" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA37" t="n">
         <v>5.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC37" t="n">
         <v>9</v>
@@ -5798,7 +5798,7 @@
         <v>19</v>
       </c>
       <c r="AJ37" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK37" t="n">
         <v>501</v>
@@ -5810,7 +5810,7 @@
         <v>23</v>
       </c>
       <c r="AN37" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO37" t="n">
         <v>51</v>
@@ -5822,10 +5822,10 @@
         <v>51</v>
       </c>
       <c r="AR37" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="38">
@@ -5860,16 +5860,16 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H38" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I38" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J38" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K38" t="n">
         <v>2.05</v>
@@ -5878,10 +5878,10 @@
         <v>5.5</v>
       </c>
       <c r="M38" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O38" t="n">
         <v>1.4</v>
@@ -5949,13 +5949,13 @@
         <v>1000</v>
       </c>
       <c r="AL38" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM38" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN38" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO38" t="n">
         <v>51</v>
@@ -6001,84 +6001,84 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H39" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I39" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J39" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K39" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L39" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M39" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O39" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P39" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="R39" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V39" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W39" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X39" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y39" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AA39" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB39" t="n">
         <v>8</v>
       </c>
       <c r="AC39" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD39" t="n">
         <v>15</v>
       </c>
       <c r="AE39" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF39" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG39" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI39" t="n">
         <v>17</v>
@@ -6090,13 +6090,13 @@
         <v>351</v>
       </c>
       <c r="AL39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM39" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO39" t="n">
         <v>51</v>
@@ -6166,10 +6166,10 @@
         <v>9</v>
       </c>
       <c r="O40" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P40" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q40" t="n">
         <v>2.1</v>
@@ -6283,19 +6283,19 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H41" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I41" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J41" t="n">
         <v>4</v>
       </c>
       <c r="K41" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L41" t="n">
         <v>2.88</v>
@@ -6304,19 +6304,19 @@
         <v>1.07</v>
       </c>
       <c r="N41" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O41" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P41" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R41" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
@@ -6339,7 +6339,7 @@
         <v>1.83</v>
       </c>
       <c r="AA41" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB41" t="n">
         <v>17</v>
@@ -6348,7 +6348,7 @@
         <v>12</v>
       </c>
       <c r="AD41" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE41" t="n">
         <v>29</v>
@@ -6357,13 +6357,13 @@
         <v>41</v>
       </c>
       <c r="AG41" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH41" t="n">
         <v>6.5</v>
       </c>
       <c r="AI41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ41" t="n">
         <v>51</v>
@@ -6375,10 +6375,10 @@
         <v>7</v>
       </c>
       <c r="AM41" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN41" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>9</v>
       </c>
       <c r="AO41" t="n">
         <v>19</v>
@@ -6424,22 +6424,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H42" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I42" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J42" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K42" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L42" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M42" t="n">
         <v>1.07</v>
@@ -6468,16 +6468,16 @@
         <v>1.22</v>
       </c>
       <c r="W42" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X42" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z42" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AA42" t="n">
         <v>6</v>
@@ -6492,13 +6492,13 @@
         <v>13</v>
       </c>
       <c r="AE42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF42" t="n">
         <v>34</v>
       </c>
       <c r="AG42" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH42" t="n">
         <v>7</v>
@@ -6510,16 +6510,16 @@
         <v>67</v>
       </c>
       <c r="AK42" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AL42" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM42" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN42" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO42" t="n">
         <v>51</v>
@@ -6565,60 +6565,60 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H43" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I43" t="n">
         <v>5.25</v>
       </c>
       <c r="J43" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K43" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L43" t="n">
         <v>5.5</v>
       </c>
       <c r="M43" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N43" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O43" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P43" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="R43" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V43" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W43" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X43" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z43" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA43" t="n">
         <v>7.5</v>
@@ -6636,13 +6636,13 @@
         <v>13</v>
       </c>
       <c r="AF43" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG43" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH43" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI43" t="n">
         <v>15</v>
@@ -6651,13 +6651,13 @@
         <v>51</v>
       </c>
       <c r="AK43" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL43" t="n">
         <v>15</v>
       </c>
       <c r="AM43" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN43" t="n">
         <v>17</v>
@@ -6706,40 +6706,40 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="H44" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="I44" t="n">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="J44" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K44" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L44" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M44" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N44" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O44" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P44" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R44" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="S44" t="n">
         <v>1.8</v>
@@ -6748,10 +6748,10 @@
         <v>2.05</v>
       </c>
       <c r="U44" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V44" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W44" t="n">
         <v>1.25</v>
@@ -6769,13 +6769,13 @@
         <v>11</v>
       </c>
       <c r="AB44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC44" t="n">
         <v>8.5</v>
       </c>
       <c r="AD44" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE44" t="n">
         <v>12</v>
@@ -6784,10 +6784,10 @@
         <v>19</v>
       </c>
       <c r="AG44" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH44" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI44" t="n">
         <v>12</v>
@@ -6799,13 +6799,13 @@
         <v>101</v>
       </c>
       <c r="AL44" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM44" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN44" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO44" t="n">
         <v>51</v>
@@ -6814,7 +6814,7 @@
         <v>34</v>
       </c>
       <c r="AQ44" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR44" t="inlineStr"/>
       <c r="AS44" t="inlineStr"/>
@@ -6851,52 +6851,52 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H45" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L45" t="n">
         <v>3.75</v>
-      </c>
-      <c r="I45" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J45" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K45" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.6</v>
       </c>
       <c r="M45" t="n">
         <v>1.03</v>
       </c>
       <c r="N45" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O45" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P45" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="R45" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S45" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T45" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="U45" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V45" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="W45" t="n">
         <v>1.29</v>
@@ -6923,10 +6923,10 @@
         <v>19</v>
       </c>
       <c r="AE45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF45" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG45" t="n">
         <v>17</v>
@@ -6947,13 +6947,13 @@
         <v>15</v>
       </c>
       <c r="AM45" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN45" t="n">
         <v>12</v>
       </c>
       <c r="AO45" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP45" t="n">
         <v>23</v>
@@ -7008,7 +7008,7 @@
         <v>3.75</v>
       </c>
       <c r="K46" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L46" t="n">
         <v>2.88</v>
@@ -7026,18 +7026,18 @@
         <v>3.5</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R46" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V46" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W46" t="n">
         <v>1.4</v>
@@ -7070,16 +7070,16 @@
         <v>34</v>
       </c>
       <c r="AG46" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH46" t="n">
         <v>6.5</v>
       </c>
       <c r="AI46" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ46" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK46" t="n">
         <v>201</v>
@@ -7830,28 +7830,28 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H52" t="n">
         <v>3.4</v>
       </c>
       <c r="I52" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J52" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K52" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L52" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M52" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N52" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O52" t="n">
         <v>1.36</v>
@@ -7860,18 +7860,18 @@
         <v>3</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R52" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V52" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W52" t="n">
         <v>1.44</v>
@@ -7880,22 +7880,22 @@
         <v>2.63</v>
       </c>
       <c r="Y52" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Z52" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AA52" t="n">
         <v>6.5</v>
       </c>
       <c r="AB52" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC52" t="n">
         <v>9</v>
       </c>
       <c r="AD52" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE52" t="n">
         <v>17</v>
@@ -7904,7 +7904,7 @@
         <v>29</v>
       </c>
       <c r="AG52" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH52" t="n">
         <v>6.5</v>
@@ -7913,16 +7913,16 @@
         <v>17</v>
       </c>
       <c r="AJ52" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK52" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AL52" t="n">
         <v>10</v>
       </c>
       <c r="AM52" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN52" t="n">
         <v>13</v>
@@ -8001,10 +8001,10 @@
         <v>3</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R53" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
@@ -8130,22 +8130,22 @@
         <v>3.4</v>
       </c>
       <c r="M54" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N54" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O54" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P54" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R54" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
@@ -8257,10 +8257,10 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H55" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I55" t="n">
         <v>2.05</v>
@@ -8269,16 +8269,16 @@
         <v>4.5</v>
       </c>
       <c r="K55" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L55" t="n">
         <v>2.88</v>
       </c>
       <c r="M55" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N55" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O55" t="n">
         <v>1.44</v>
@@ -8287,39 +8287,39 @@
         <v>2.63</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R55" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V55" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W55" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X55" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y55" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z55" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AA55" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB55" t="n">
         <v>17</v>
       </c>
       <c r="AC55" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD55" t="n">
         <v>41</v>
@@ -8331,19 +8331,19 @@
         <v>41</v>
       </c>
       <c r="AG55" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AH55" t="n">
         <v>6</v>
       </c>
       <c r="AI55" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ55" t="n">
         <v>67</v>
       </c>
       <c r="AK55" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AL55" t="n">
         <v>6</v>
@@ -8358,16 +8358,16 @@
         <v>19</v>
       </c>
       <c r="AP55" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ55" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR55" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="56">
@@ -8970,7 +8970,7 @@
         <v>2.3</v>
       </c>
       <c r="K60" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L60" t="n">
         <v>4.75</v>
@@ -9008,13 +9008,13 @@
         <v>3.25</v>
       </c>
       <c r="Y60" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Z60" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AA60" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB60" t="n">
         <v>9</v>
@@ -9029,10 +9029,10 @@
         <v>13</v>
       </c>
       <c r="AF60" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG60" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH60" t="n">
         <v>7.5</v>
@@ -9044,7 +9044,7 @@
         <v>41</v>
       </c>
       <c r="AK60" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL60" t="n">
         <v>15</v>
@@ -9389,7 +9389,7 @@
         <v>1.73</v>
       </c>
       <c r="K63" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L63" t="n">
         <v>10</v>
@@ -9427,13 +9427,13 @@
         <v>3</v>
       </c>
       <c r="Y63" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Z63" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA63" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB63" t="n">
         <v>5.5</v>
@@ -9448,7 +9448,7 @@
         <v>13</v>
       </c>
       <c r="AF63" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG63" t="n">
         <v>10</v>
@@ -9457,7 +9457,7 @@
         <v>10</v>
       </c>
       <c r="AI63" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ63" t="n">
         <v>101</v>
@@ -9518,16 +9518,16 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H64" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I64" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J64" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K64" t="n">
         <v>2.6</v>
@@ -9548,10 +9548,10 @@
         <v>5.5</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R64" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="S64" t="n">
         <v>1.8</v>
@@ -9560,10 +9560,10 @@
         <v>2.05</v>
       </c>
       <c r="U64" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V64" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W64" t="n">
         <v>1.25</v>
@@ -9572,22 +9572,22 @@
         <v>3.75</v>
       </c>
       <c r="Y64" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Z64" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AA64" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB64" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC64" t="n">
         <v>8.5</v>
       </c>
       <c r="AD64" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE64" t="n">
         <v>11</v>
@@ -9602,7 +9602,7 @@
         <v>9</v>
       </c>
       <c r="AI64" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ64" t="n">
         <v>41</v>
@@ -9623,7 +9623,7 @@
         <v>51</v>
       </c>
       <c r="AP64" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ64" t="n">
         <v>34</v>
@@ -9663,64 +9663,64 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="H65" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I65" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="J65" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K65" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L65" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M65" t="n">
         <v>1.03</v>
       </c>
       <c r="N65" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O65" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="P65" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q65" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T65" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U65" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V65" t="n">
         <v>1.62</v>
       </c>
-      <c r="R65" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S65" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="T65" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U65" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V65" t="n">
-        <v>1.5</v>
-      </c>
       <c r="W65" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X65" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y65" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="Z65" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AA65" t="n">
         <v>12</v>
@@ -9729,49 +9729,49 @@
         <v>15</v>
       </c>
       <c r="AC65" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD65" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE65" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG65" t="n">
         <v>19</v>
       </c>
-      <c r="AF65" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG65" t="n">
-        <v>15</v>
-      </c>
       <c r="AH65" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI65" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ65" t="n">
         <v>34</v>
       </c>
       <c r="AK65" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL65" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN65" t="n">
         <v>11</v>
       </c>
-      <c r="AM65" t="n">
-        <v>15</v>
-      </c>
-      <c r="AN65" t="n">
-        <v>10</v>
-      </c>
       <c r="AO65" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP65" t="n">
         <v>19</v>
       </c>
       <c r="AQ65" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR65" t="inlineStr"/>
       <c r="AS65" t="inlineStr"/>
@@ -9949,13 +9949,13 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H67" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I67" t="n">
         <v>3.7</v>
-      </c>
-      <c r="I67" t="n">
-        <v>3.6</v>
       </c>
       <c r="J67" t="n">
         <v>2.6</v>
@@ -9964,13 +9964,13 @@
         <v>2.25</v>
       </c>
       <c r="L67" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M67" t="n">
         <v>1.04</v>
       </c>
       <c r="N67" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O67" t="n">
         <v>1.25</v>
@@ -9979,7 +9979,7 @@
         <v>3.75</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R67" t="n">
         <v>2</v>
@@ -9999,16 +9999,16 @@
         <v>3</v>
       </c>
       <c r="Y67" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z67" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA67" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB67" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC67" t="n">
         <v>8.5</v>
@@ -10029,19 +10029,19 @@
         <v>7</v>
       </c>
       <c r="AI67" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ67" t="n">
         <v>41</v>
       </c>
       <c r="AK67" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL67" t="n">
         <v>12</v>
       </c>
       <c r="AM67" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN67" t="n">
         <v>13</v>
@@ -10120,18 +10120,18 @@
         <v>4</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R68" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V68" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W68" t="n">
         <v>1.33</v>
@@ -10372,19 +10372,19 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I70" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J70" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K70" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L70" t="n">
         <v>3.75</v>
@@ -10393,13 +10393,13 @@
         <v>1.08</v>
       </c>
       <c r="N70" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O70" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P70" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q70" t="n">
         <v>2.35</v>
@@ -10410,10 +10410,10 @@
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="V70" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W70" t="n">
         <v>1.53</v>
@@ -10446,7 +10446,7 @@
         <v>34</v>
       </c>
       <c r="AG70" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH70" t="n">
         <v>6</v>
@@ -10517,10 +10517,10 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H71" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I71" t="n">
         <v>12</v>
@@ -10529,16 +10529,16 @@
         <v>1.73</v>
       </c>
       <c r="K71" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L71" t="n">
         <v>9.5</v>
       </c>
       <c r="M71" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N71" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O71" t="n">
         <v>1.2</v>
@@ -10571,10 +10571,10 @@
         <v>3.25</v>
       </c>
       <c r="Y71" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z71" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA71" t="n">
         <v>7</v>
@@ -10601,7 +10601,7 @@
         <v>10</v>
       </c>
       <c r="AI71" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ71" t="n">
         <v>81</v>
@@ -10672,7 +10672,7 @@
         <v>3.1</v>
       </c>
       <c r="I72" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J72" t="n">
         <v>2.75</v>
@@ -10710,22 +10710,22 @@
         <v>1.18</v>
       </c>
       <c r="W72" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X72" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y72" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z72" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA72" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB72" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC72" t="n">
         <v>9.5</v>
@@ -10734,13 +10734,13 @@
         <v>17</v>
       </c>
       <c r="AE72" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF72" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG72" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH72" t="n">
         <v>6</v>
@@ -10749,7 +10749,7 @@
         <v>19</v>
       </c>
       <c r="AJ72" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK72" t="n">
         <v>501</v>
@@ -10773,10 +10773,10 @@
         <v>51</v>
       </c>
       <c r="AR72" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -10811,10 +10811,10 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H73" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I73" t="n">
         <v>5.25</v>
@@ -10841,10 +10841,10 @@
         <v>3.25</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R73" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
@@ -10870,13 +10870,13 @@
         <v>6</v>
       </c>
       <c r="AB73" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC73" t="n">
         <v>8.5</v>
       </c>
       <c r="AD73" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE73" t="n">
         <v>15</v>
@@ -10885,13 +10885,13 @@
         <v>29</v>
       </c>
       <c r="AG73" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH73" t="n">
         <v>7</v>
       </c>
       <c r="AI73" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ73" t="n">
         <v>67</v>
@@ -10952,22 +10952,22 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="H74" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="J74" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="K74" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L74" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M74" t="n">
         <v>1.06</v>
@@ -10982,18 +10982,18 @@
         <v>3.4</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R74" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V74" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W74" t="n">
         <v>1.4</v>
@@ -11008,25 +11008,25 @@
         <v>1.91</v>
       </c>
       <c r="AA74" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB74" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AC74" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD74" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE74" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF74" t="n">
         <v>29</v>
       </c>
       <c r="AG74" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH74" t="n">
         <v>6.5</v>
@@ -11041,19 +11041,19 @@
         <v>251</v>
       </c>
       <c r="AL74" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM74" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN74" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO74" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP74" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ74" t="n">
         <v>34</v>
@@ -11241,16 +11241,16 @@
         <v>1.57</v>
       </c>
       <c r="H76" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I76" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J76" t="n">
         <v>2.1</v>
       </c>
       <c r="K76" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L76" t="n">
         <v>5.5</v>
@@ -11259,7 +11259,7 @@
         <v>1.04</v>
       </c>
       <c r="N76" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O76" t="n">
         <v>1.22</v>
@@ -11268,10 +11268,10 @@
         <v>4</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R76" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
@@ -11303,7 +11303,7 @@
         <v>8.5</v>
       </c>
       <c r="AD76" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE76" t="n">
         <v>12</v>
@@ -11330,7 +11330,7 @@
         <v>17</v>
       </c>
       <c r="AM76" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN76" t="n">
         <v>19</v>
@@ -11379,13 +11379,13 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H77" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I77" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J77" t="n">
         <v>3.1</v>
@@ -11394,7 +11394,7 @@
         <v>2.1</v>
       </c>
       <c r="L77" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M77" t="n">
         <v>1.06</v>
@@ -11417,16 +11417,16 @@
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V77" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W77" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X77" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y77" t="n">
         <v>1.8</v>
@@ -11438,7 +11438,7 @@
         <v>8</v>
       </c>
       <c r="AB77" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC77" t="n">
         <v>9.5</v>
@@ -11447,13 +11447,13 @@
         <v>23</v>
       </c>
       <c r="AE77" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF77" t="n">
         <v>29</v>
       </c>
       <c r="AG77" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH77" t="n">
         <v>6.5</v>
@@ -11468,7 +11468,7 @@
         <v>251</v>
       </c>
       <c r="AL77" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM77" t="n">
         <v>15</v>
@@ -11695,10 +11695,10 @@
         <v>3.75</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R79" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S79" t="n">
         <v>2.03</v>
@@ -11707,10 +11707,10 @@
         <v>1.78</v>
       </c>
       <c r="U79" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V79" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W79" t="n">
         <v>1.36</v>
@@ -11810,34 +11810,34 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="H80" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="I80" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J80" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="K80" t="n">
         <v>2.75</v>
       </c>
       <c r="L80" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M80" t="n">
-        <v>1.02</v>
+        <v>21</v>
       </c>
       <c r="N80" t="n">
-        <v>12</v>
+        <v>1.03</v>
       </c>
       <c r="O80" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P80" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q80" t="n">
         <v>1.4</v>
@@ -11864,10 +11864,10 @@
         <v>4</v>
       </c>
       <c r="Y80" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Z80" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AA80" t="n">
         <v>10</v>
@@ -11876,10 +11876,10 @@
         <v>8</v>
       </c>
       <c r="AC80" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD80" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE80" t="n">
         <v>11</v>
@@ -11891,10 +11891,10 @@
         <v>21</v>
       </c>
       <c r="AH80" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI80" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ80" t="n">
         <v>51</v>
@@ -11903,19 +11903,19 @@
         <v>151</v>
       </c>
       <c r="AL80" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM80" t="n">
         <v>41</v>
       </c>
       <c r="AN80" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO80" t="n">
         <v>81</v>
       </c>
       <c r="AP80" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ80" t="n">
         <v>41</v>
@@ -11955,19 +11955,19 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H81" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I81" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="J81" t="n">
         <v>6.5</v>
       </c>
       <c r="K81" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L81" t="n">
         <v>2.1</v>
@@ -11999,10 +11999,10 @@
         <v>1.25</v>
       </c>
       <c r="W81" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X81" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y81" t="n">
         <v>2.25</v>
@@ -12017,22 +12017,22 @@
         <v>34</v>
       </c>
       <c r="AC81" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD81" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AE81" t="n">
         <v>51</v>
       </c>
       <c r="AF81" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG81" t="n">
         <v>7.5</v>
       </c>
       <c r="AH81" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI81" t="n">
         <v>21</v>
@@ -12047,7 +12047,7 @@
         <v>5.5</v>
       </c>
       <c r="AM81" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AN81" t="n">
         <v>9.5</v>
@@ -12519,28 +12519,28 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="H85" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="I85" t="n">
         <v>3.35</v>
       </c>
       <c r="J85" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K85" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="L85" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="M85" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N85" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="O85" t="n">
         <v>1.57</v>
@@ -12549,81 +12549,81 @@
         <v>2.25</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="R85" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="V85" t="n">
         <v>1.14</v>
       </c>
       <c r="W85" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="X85" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="Y85" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Z85" t="n">
         <v>1.65</v>
       </c>
       <c r="AA85" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AB85" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AC85" t="n">
         <v>10</v>
       </c>
       <c r="AD85" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE85" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF85" t="n">
         <v>45</v>
       </c>
       <c r="AG85" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="AH85" t="n">
         <v>5.3</v>
       </c>
       <c r="AI85" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AJ85" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK85" t="n">
         <v>900</v>
       </c>
       <c r="AL85" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AM85" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AN85" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO85" t="n">
         <v>50</v>
       </c>
       <c r="AP85" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AQ85" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR85" t="inlineStr"/>
       <c r="AS85" t="inlineStr"/>
@@ -12660,22 +12660,22 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H86" t="n">
         <v>2.9</v>
       </c>
       <c r="I86" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J86" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K86" t="n">
         <v>1.91</v>
       </c>
       <c r="L86" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M86" t="n">
         <v>1.11</v>
@@ -12719,13 +12719,13 @@
         <v>6</v>
       </c>
       <c r="AB86" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC86" t="n">
         <v>10</v>
       </c>
       <c r="AD86" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE86" t="n">
         <v>23</v>
@@ -12758,13 +12758,13 @@
         <v>13</v>
       </c>
       <c r="AO86" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP86" t="n">
         <v>34</v>
       </c>
       <c r="AQ86" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR86" t="n">
         <v>2.03</v>
@@ -12805,19 +12805,19 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="H87" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I87" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="J87" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K87" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L87" t="n">
         <v>2.22</v>
@@ -12826,75 +12826,75 @@
         <v>1.04</v>
       </c>
       <c r="N87" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O87" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P87" t="n">
-        <v>3.8</v>
+        <v>4.05</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="R87" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="n">
-        <v>2.6</v>
+        <v>2.42</v>
       </c>
       <c r="V87" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W87" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="X87" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Y87" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="Z87" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AA87" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AB87" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC87" t="n">
         <v>14</v>
       </c>
       <c r="AD87" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AE87" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AF87" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AG87" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH87" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="AI87" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ87" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK87" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AL87" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AM87" t="n">
         <v>9</v>
@@ -12909,7 +12909,7 @@
         <v>12.5</v>
       </c>
       <c r="AQ87" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR87" t="inlineStr"/>
       <c r="AS87" t="inlineStr"/>
@@ -12946,10 +12946,10 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="H88" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I88" t="n">
         <v>2.52</v>
@@ -12958,48 +12958,48 @@
         <v>3.25</v>
       </c>
       <c r="K88" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L88" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="M88" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N88" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="O88" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P88" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R88" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="n">
-        <v>2.77</v>
+        <v>2.85</v>
       </c>
       <c r="V88" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W88" t="n">
         <v>1.39</v>
       </c>
-      <c r="W88" t="n">
-        <v>1.38</v>
-      </c>
       <c r="X88" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="Y88" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Z88" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="AA88" t="n">
         <v>9.5</v>
@@ -13020,13 +13020,13 @@
         <v>27</v>
       </c>
       <c r="AG88" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AH88" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AI88" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AJ88" t="n">
         <v>45</v>
@@ -13035,10 +13035,10 @@
         <v>300</v>
       </c>
       <c r="AL88" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM88" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AN88" t="n">
         <v>9.25</v>
@@ -13047,10 +13047,10 @@
         <v>29</v>
       </c>
       <c r="AP88" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AQ88" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR88" t="inlineStr"/>
       <c r="AS88" t="inlineStr"/>
@@ -13228,28 +13228,28 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="H90" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I90" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J90" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K90" t="n">
         <v>2.2</v>
       </c>
       <c r="L90" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M90" t="n">
         <v>1.06</v>
       </c>
       <c r="N90" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O90" t="n">
         <v>1.3</v>
@@ -13258,10 +13258,10 @@
         <v>3.4</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R90" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
@@ -13272,31 +13272,31 @@
         <v>1.29</v>
       </c>
       <c r="W90" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X90" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y90" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Z90" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AA90" t="n">
         <v>6.5</v>
       </c>
       <c r="AB90" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC90" t="n">
         <v>8.5</v>
       </c>
       <c r="AD90" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE90" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF90" t="n">
         <v>29</v>
@@ -13305,13 +13305,13 @@
         <v>9.5</v>
       </c>
       <c r="AH90" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI90" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ90" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK90" t="n">
         <v>351</v>
@@ -13320,19 +13320,19 @@
         <v>13</v>
       </c>
       <c r="AM90" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN90" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO90" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP90" t="n">
         <v>41</v>
       </c>
       <c r="AQ90" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR90" t="inlineStr"/>
       <c r="AS90" t="inlineStr"/>
@@ -13369,22 +13369,22 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H91" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I91" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J91" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I91" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="J91" t="n">
-        <v>3.6</v>
       </c>
       <c r="K91" t="n">
         <v>2.2</v>
       </c>
       <c r="L91" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M91" t="n">
         <v>1.05</v>
@@ -13434,7 +13434,7 @@
         <v>11</v>
       </c>
       <c r="AD91" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE91" t="n">
         <v>23</v>
@@ -13461,7 +13461,7 @@
         <v>8.5</v>
       </c>
       <c r="AM91" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN91" t="n">
         <v>9.5</v>
@@ -13470,7 +13470,7 @@
         <v>21</v>
       </c>
       <c r="AP91" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ91" t="n">
         <v>26</v>
@@ -13510,28 +13510,28 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H92" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I92" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J92" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K92" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L92" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M92" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N92" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O92" t="n">
         <v>1.33</v>
@@ -13540,10 +13540,10 @@
         <v>3.25</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R92" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
@@ -13572,10 +13572,10 @@
         <v>10</v>
       </c>
       <c r="AC92" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD92" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE92" t="n">
         <v>19</v>
@@ -13590,7 +13590,7 @@
         <v>6.5</v>
       </c>
       <c r="AI92" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ92" t="n">
         <v>51</v>
@@ -13611,7 +13611,7 @@
         <v>34</v>
       </c>
       <c r="AP92" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ92" t="n">
         <v>34</v>
@@ -13792,22 +13792,22 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H94" t="n">
         <v>2.7</v>
       </c>
       <c r="I94" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J94" t="n">
         <v>3.6</v>
       </c>
       <c r="K94" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L94" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M94" t="n">
         <v>1.11</v>
@@ -13836,10 +13836,10 @@
         <v>1.18</v>
       </c>
       <c r="W94" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X94" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y94" t="n">
         <v>2</v>
@@ -13848,7 +13848,7 @@
         <v>1.73</v>
       </c>
       <c r="AA94" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB94" t="n">
         <v>13</v>
@@ -13860,7 +13860,7 @@
         <v>29</v>
       </c>
       <c r="AE94" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF94" t="n">
         <v>41</v>
@@ -13884,10 +13884,10 @@
         <v>7.5</v>
       </c>
       <c r="AM94" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN94" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO94" t="n">
         <v>29</v>
@@ -13899,10 +13899,10 @@
         <v>41</v>
       </c>
       <c r="AR94" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -13940,19 +13940,19 @@
         <v>1.78</v>
       </c>
       <c r="H95" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I95" t="n">
         <v>4.25</v>
       </c>
       <c r="J95" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="K95" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L95" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
@@ -13986,31 +13986,31 @@
         <v>1.7</v>
       </c>
       <c r="Z95" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="AA95" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AB95" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AC95" t="n">
         <v>8</v>
       </c>
       <c r="AD95" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE95" t="n">
         <v>14</v>
       </c>
       <c r="AF95" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG95" t="n">
         <v>10.5</v>
       </c>
       <c r="AH95" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AI95" t="n">
         <v>14</v>
@@ -14022,16 +14022,16 @@
         <v>450</v>
       </c>
       <c r="AL95" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AM95" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN95" t="n">
         <v>14</v>
       </c>
       <c r="AO95" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AP95" t="n">
         <v>40</v>
@@ -14074,16 +14074,16 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="H96" t="n">
         <v>5.1</v>
       </c>
       <c r="I96" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="J96" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="K96" t="n">
         <v>2.62</v>
@@ -14098,10 +14098,10 @@
         <v>9.5</v>
       </c>
       <c r="O96" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P96" t="n">
-        <v>4.75</v>
+        <v>4.65</v>
       </c>
       <c r="Q96" t="n">
         <v>1.47</v>
@@ -14112,7 +14112,7 @@
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="V96" t="n">
         <v>1.62</v>
@@ -14121,19 +14121,19 @@
         <v>1.27</v>
       </c>
       <c r="X96" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="Y96" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="Z96" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="AA96" t="n">
         <v>25</v>
       </c>
       <c r="AB96" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AC96" t="n">
         <v>25</v>
@@ -14145,7 +14145,7 @@
         <v>80</v>
       </c>
       <c r="AF96" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG96" t="n">
         <v>9.5</v>
@@ -14160,13 +14160,13 @@
         <v>80</v>
       </c>
       <c r="AK96" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AL96" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AM96" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AN96" t="n">
         <v>8.75</v>
@@ -14215,99 +14215,99 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="H97" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I97" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J97" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="K97" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="L97" t="n">
         <v>5.3</v>
       </c>
       <c r="M97" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N97" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="O97" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P97" t="n">
-        <v>2.6</v>
+        <v>2.42</v>
       </c>
       <c r="Q97" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="R97" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="n">
-        <v>4.05</v>
+        <v>4.4</v>
       </c>
       <c r="V97" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="W97" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X97" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="Y97" t="n">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
       <c r="Z97" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA97" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AB97" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AC97" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AD97" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE97" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AF97" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AG97" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="AH97" t="n">
         <v>6.5</v>
       </c>
       <c r="AI97" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ97" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AK97" t="n">
         <v>1000</v>
       </c>
       <c r="AL97" t="n">
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="AM97" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN97" t="n">
         <v>17</v>
@@ -14316,10 +14316,10 @@
         <v>100</v>
       </c>
       <c r="AP97" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AQ97" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AR97" t="inlineStr"/>
       <c r="AS97" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-21.xlsx
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H2" t="n">
         <v>3.8</v>
@@ -704,7 +704,7 @@
         <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L2" t="n">
         <v>2.5</v>
@@ -840,10 +840,10 @@
         <v>2.2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J3" t="n">
         <v>2.88</v>
@@ -861,24 +861,24 @@
         <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="R3" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W3" t="n">
         <v>1.4</v>
@@ -887,10 +887,10 @@
         <v>2.75</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA3" t="n">
         <v>8</v>
@@ -905,13 +905,13 @@
         <v>21</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH3" t="n">
         <v>6.5</v>
@@ -920,10 +920,10 @@
         <v>13</v>
       </c>
       <c r="AJ3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL3" t="n">
         <v>10</v>
@@ -978,78 +978,78 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="J4" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K4" t="n">
         <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.03</v>
+        <v>1.91</v>
       </c>
       <c r="R4" t="n">
-        <v>1.87</v>
+        <v>1.99</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="W4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Z4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AA4" t="n">
         <v>8</v>
       </c>
       <c r="AB4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
@@ -1067,13 +1067,13 @@
         <v>201</v>
       </c>
       <c r="AL4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO4" t="n">
         <v>41</v>
@@ -1134,13 +1134,13 @@
         <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
         <v>1.44</v>
@@ -1149,10 +1149,10 @@
         <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
@@ -1196,7 +1196,7 @@
         <v>7.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI5" t="n">
         <v>15</v>
@@ -1225,8 +1225,12 @@
       <c r="AQ5" t="n">
         <v>34</v>
       </c>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
+      <c r="AR5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1260,13 +1264,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
         <v>2.3</v>
@@ -1275,7 +1279,7 @@
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
@@ -1284,16 +1288,16 @@
         <v>10</v>
       </c>
       <c r="O6" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -1325,10 +1329,10 @@
         <v>8.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
         <v>26</v>
@@ -1401,22 +1405,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="K7" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1425,10 +1429,10 @@
         <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P7" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q7" t="n">
         <v>2.5</v>
@@ -1461,25 +1465,25 @@
         <v>1.67</v>
       </c>
       <c r="AA7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD7" t="n">
         <v>41</v>
       </c>
       <c r="AE7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH7" t="n">
         <v>6</v>
@@ -1494,28 +1498,28 @@
         <v>501</v>
       </c>
       <c r="AL7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AM7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN7" t="n">
         <v>9.5</v>
       </c>
-      <c r="AN7" t="n">
-        <v>10</v>
-      </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ7" t="n">
         <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="8">
@@ -1735,10 +1739,10 @@
         <v>1.29</v>
       </c>
       <c r="S9" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="T9" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="U9" t="n">
         <v>8</v>
@@ -1810,10 +1814,10 @@
         <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10">
@@ -1848,22 +1852,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
       </c>
       <c r="I10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J10" t="n">
         <v>3.1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.4</v>
       </c>
       <c r="K10" t="n">
         <v>1.91</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M10" t="n">
         <v>1.11</v>
@@ -1911,13 +1915,13 @@
         <v>6</v>
       </c>
       <c r="AB10" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -1941,19 +1945,19 @@
         <v>501</v>
       </c>
       <c r="AL10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN10" t="n">
         <v>13</v>
       </c>
-      <c r="AN10" t="n">
-        <v>12</v>
-      </c>
       <c r="AO10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP10" t="n">
         <v>34</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>29</v>
       </c>
       <c r="AQ10" t="n">
         <v>41</v>
@@ -2565,22 +2569,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I15" t="n">
         <v>3.9</v>
       </c>
       <c r="J15" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="K15" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L15" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
@@ -2595,7 +2599,7 @@
         <v>2.95</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="R15" t="n">
         <v>1.7</v>
@@ -2609,22 +2613,22 @@
         <v>1.26</v>
       </c>
       <c r="W15" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="X15" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AA15" t="n">
         <v>6.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AC15" t="n">
         <v>8.5</v>
@@ -2633,7 +2637,7 @@
         <v>15</v>
       </c>
       <c r="AE15" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF15" t="n">
         <v>32</v>
@@ -2642,10 +2646,10 @@
         <v>6.8</v>
       </c>
       <c r="AH15" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AI15" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AJ15" t="n">
         <v>90</v>
@@ -2654,7 +2658,7 @@
         <v>800</v>
       </c>
       <c r="AL15" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AM15" t="n">
         <v>20</v>
@@ -2666,7 +2670,7 @@
         <v>60</v>
       </c>
       <c r="AP15" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AQ15" t="n">
         <v>50</v>
@@ -2853,16 +2857,16 @@
         <v>3.8</v>
       </c>
       <c r="I17" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K17" t="n">
         <v>2.4</v>
       </c>
       <c r="L17" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
@@ -2883,10 +2887,10 @@
         <v>2.35</v>
       </c>
       <c r="S17" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T17" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="U17" t="n">
         <v>2.38</v>
@@ -2910,19 +2914,19 @@
         <v>10</v>
       </c>
       <c r="AB17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC17" t="n">
         <v>8.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE17" t="n">
         <v>13</v>
       </c>
       <c r="AF17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
@@ -2934,13 +2938,13 @@
         <v>12</v>
       </c>
       <c r="AJ17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK17" t="n">
         <v>126</v>
       </c>
       <c r="AL17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM17" t="n">
         <v>23</v>
@@ -2992,48 +2996,48 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="H18" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="I18" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K18" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L18" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O18" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P18" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="R18" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V18" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W18" t="n">
         <v>1.36</v>
@@ -3057,7 +3061,7 @@
         <v>8.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE18" t="n">
         <v>13</v>
@@ -3066,13 +3070,13 @@
         <v>26</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH18" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ18" t="n">
         <v>51</v>
@@ -3081,10 +3085,10 @@
         <v>301</v>
       </c>
       <c r="AL18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN18" t="n">
         <v>17</v>
@@ -3715,10 +3719,10 @@
         <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
         <v>1.25</v>
@@ -3727,10 +3731,10 @@
         <v>3.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R23" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
         <v>2.44</v>
@@ -3739,10 +3743,10 @@
         <v>1.54</v>
       </c>
       <c r="U23" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V23" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W23" t="n">
         <v>1.36</v>
@@ -3995,16 +3999,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H25" t="n">
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J25" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K25" t="n">
         <v>1.91</v>
@@ -4019,22 +4023,22 @@
         <v>6.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P25" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R25" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S25" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="U25" t="n">
         <v>5.5</v>
@@ -4049,16 +4053,16 @@
         <v>2.2</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AA25" t="n">
         <v>5</v>
       </c>
       <c r="AB25" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC25" t="n">
         <v>9.5</v>
@@ -4091,25 +4095,25 @@
         <v>9.5</v>
       </c>
       <c r="AM25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO25" t="n">
         <v>51</v>
       </c>
       <c r="AP25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ25" t="n">
         <v>51</v>
       </c>
       <c r="AR25" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="26">
@@ -4309,36 +4313,36 @@
         <v>10</v>
       </c>
       <c r="O27" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P27" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R27" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V27" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W27" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X27" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AA27" t="n">
         <v>11</v>
@@ -4359,7 +4363,7 @@
         <v>41</v>
       </c>
       <c r="AG27" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH27" t="n">
         <v>6.5</v>
@@ -4371,13 +4375,13 @@
         <v>51</v>
       </c>
       <c r="AK27" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL27" t="n">
         <v>7</v>
       </c>
       <c r="AM27" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AN27" t="n">
         <v>8.5</v>
@@ -4386,10 +4390,10 @@
         <v>17</v>
       </c>
       <c r="AP27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr"/>
@@ -4567,13 +4571,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H29" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I29" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="J29" t="n">
         <v>5</v>
@@ -4582,13 +4586,13 @@
         <v>2.25</v>
       </c>
       <c r="L29" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O29" t="n">
         <v>1.25</v>
@@ -4597,10 +4601,10 @@
         <v>3.75</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="R29" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S29" t="n">
         <v>2</v>
@@ -4609,10 +4613,10 @@
         <v>1.85</v>
       </c>
       <c r="U29" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V29" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W29" t="n">
         <v>1.36</v>
@@ -4630,7 +4634,7 @@
         <v>13</v>
       </c>
       <c r="AB29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC29" t="n">
         <v>15</v>
@@ -4639,19 +4643,19 @@
         <v>51</v>
       </c>
       <c r="AE29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF29" t="n">
         <v>41</v>
       </c>
       <c r="AG29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ29" t="n">
         <v>51</v>
@@ -4663,7 +4667,7 @@
         <v>7.5</v>
       </c>
       <c r="AM29" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AN29" t="n">
         <v>8.5</v>
@@ -4712,22 +4716,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H30" t="n">
         <v>3.5</v>
       </c>
       <c r="I30" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="J30" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K30" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L30" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M30" t="n">
         <v>1.06</v>
@@ -4736,16 +4740,16 @@
         <v>10</v>
       </c>
       <c r="O30" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P30" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R30" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S30" t="n">
         <v>2</v>
@@ -4772,7 +4776,7 @@
         <v>1.83</v>
       </c>
       <c r="AA30" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB30" t="n">
         <v>13</v>
@@ -4790,13 +4794,13 @@
         <v>34</v>
       </c>
       <c r="AG30" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ30" t="n">
         <v>51</v>
@@ -4811,16 +4815,16 @@
         <v>11</v>
       </c>
       <c r="AN30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP30" t="n">
         <v>21</v>
       </c>
-      <c r="AP30" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="inlineStr"/>
@@ -4857,22 +4861,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H31" t="n">
         <v>2.88</v>
       </c>
       <c r="I31" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J31" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K31" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L31" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M31" t="n">
         <v>1.08</v>
@@ -4881,30 +4885,30 @@
         <v>8</v>
       </c>
       <c r="O31" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P31" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R31" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V31" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W31" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X31" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y31" t="n">
         <v>1.83</v>
@@ -4913,10 +4917,10 @@
         <v>1.83</v>
       </c>
       <c r="AA31" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC31" t="n">
         <v>11</v>
@@ -4931,19 +4935,19 @@
         <v>34</v>
       </c>
       <c r="AG31" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH31" t="n">
         <v>5.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ31" t="n">
         <v>51</v>
       </c>
       <c r="AK31" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL31" t="n">
         <v>8.5</v>
@@ -4958,7 +4962,7 @@
         <v>29</v>
       </c>
       <c r="AP31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ31" t="n">
         <v>34</v>
@@ -5565,37 +5569,37 @@
         <v>2.3</v>
       </c>
       <c r="H36" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J36" t="n">
         <v>3</v>
       </c>
       <c r="K36" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L36" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N36" t="n">
+        <v>10</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P36" t="n">
         <v>3.5</v>
       </c>
-      <c r="M36" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N36" t="n">
-        <v>11</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P36" t="n">
-        <v>3.75</v>
-      </c>
       <c r="Q36" t="n">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="R36" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="S36" t="n">
         <v>2.55</v>
@@ -5604,10 +5608,10 @@
         <v>1.5</v>
       </c>
       <c r="U36" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="V36" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="W36" t="n">
         <v>1.4</v>
@@ -5616,16 +5620,16 @@
         <v>2.75</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z36" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA36" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC36" t="n">
         <v>9.5</v>
@@ -5637,10 +5641,10 @@
         <v>19</v>
       </c>
       <c r="AF36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH36" t="n">
         <v>6.5</v>
@@ -5649,13 +5653,13 @@
         <v>13</v>
       </c>
       <c r="AJ36" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK36" t="n">
         <v>201</v>
       </c>
       <c r="AL36" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM36" t="n">
         <v>15</v>
@@ -5664,13 +5668,13 @@
         <v>11</v>
       </c>
       <c r="AO36" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP36" t="n">
         <v>23</v>
       </c>
       <c r="AQ36" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR36" t="n">
         <v>1.44</v>
@@ -5711,28 +5715,28 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="H37" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I37" t="n">
-        <v>5.25</v>
+        <v>4.1</v>
       </c>
       <c r="J37" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K37" t="n">
         <v>2</v>
       </c>
       <c r="L37" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M37" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N37" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O37" t="n">
         <v>1.44</v>
@@ -5765,31 +5769,31 @@
         <v>2.38</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z37" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA37" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB37" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC37" t="n">
         <v>9</v>
       </c>
       <c r="AD37" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE37" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF37" t="n">
         <v>34</v>
       </c>
       <c r="AG37" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH37" t="n">
         <v>6.5</v>
@@ -5798,28 +5802,28 @@
         <v>19</v>
       </c>
       <c r="AJ37" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK37" t="n">
         <v>501</v>
       </c>
       <c r="AL37" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AM37" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AN37" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AO37" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP37" t="n">
         <v>41</v>
       </c>
       <c r="AQ37" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR37" t="n">
         <v>1.8</v>
@@ -5860,96 +5864,96 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="H38" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I38" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J38" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K38" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L38" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M38" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O38" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P38" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="R38" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="V38" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="W38" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X38" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y38" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z38" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA38" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB38" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC38" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD38" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE38" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF38" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH38" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI38" t="n">
         <v>19</v>
       </c>
       <c r="AJ38" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK38" t="n">
         <v>1000</v>
       </c>
       <c r="AL38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM38" t="n">
         <v>21</v>
@@ -5966,8 +5970,12 @@
       <c r="AQ38" t="n">
         <v>51</v>
       </c>
-      <c r="AR38" t="inlineStr"/>
-      <c r="AS38" t="inlineStr"/>
+      <c r="AR38" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>1.98</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6022,7 +6030,7 @@
         <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O39" t="n">
         <v>1.33</v>
@@ -6051,22 +6059,22 @@
         <v>2.63</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AA39" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB39" t="n">
         <v>8</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE39" t="n">
         <v>15</v>
@@ -6075,7 +6083,7 @@
         <v>29</v>
       </c>
       <c r="AG39" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH39" t="n">
         <v>6.5</v>
@@ -6148,7 +6156,7 @@
         <v>3.1</v>
       </c>
       <c r="I40" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J40" t="n">
         <v>3.75</v>
@@ -6172,10 +6180,10 @@
         <v>3.25</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R40" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
@@ -6283,34 +6291,34 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H41" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I41" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J41" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K41" t="n">
         <v>2.05</v>
       </c>
       <c r="L41" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M41" t="n">
         <v>1.07</v>
       </c>
       <c r="N41" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O41" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P41" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q41" t="n">
         <v>2.1</v>
@@ -6339,16 +6347,16 @@
         <v>1.83</v>
       </c>
       <c r="AA41" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB41" t="n">
         <v>17</v>
       </c>
       <c r="AC41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD41" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE41" t="n">
         <v>29</v>
@@ -6357,7 +6365,7 @@
         <v>41</v>
       </c>
       <c r="AG41" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH41" t="n">
         <v>6.5</v>
@@ -6375,16 +6383,16 @@
         <v>7</v>
       </c>
       <c r="AM41" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AN41" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO41" t="n">
         <v>19</v>
       </c>
       <c r="AP41" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ41" t="n">
         <v>29</v>
@@ -6439,7 +6447,7 @@
         <v>2.05</v>
       </c>
       <c r="L42" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M42" t="n">
         <v>1.07</v>
@@ -6448,16 +6456,16 @@
         <v>9</v>
       </c>
       <c r="O42" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P42" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R42" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
@@ -6510,7 +6518,7 @@
         <v>67</v>
       </c>
       <c r="AK42" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AL42" t="n">
         <v>10</v>
@@ -6565,48 +6573,48 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="H43" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I43" t="n">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="J43" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="K43" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L43" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M43" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O43" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P43" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R43" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V43" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W43" t="n">
         <v>1.33</v>
@@ -6624,46 +6632,46 @@
         <v>7.5</v>
       </c>
       <c r="AB43" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC43" t="n">
         <v>8.5</v>
       </c>
       <c r="AD43" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE43" t="n">
         <v>12</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>13</v>
       </c>
       <c r="AF43" t="n">
         <v>23</v>
       </c>
       <c r="AG43" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH43" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI43" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ43" t="n">
         <v>51</v>
       </c>
       <c r="AK43" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL43" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM43" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN43" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO43" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP43" t="n">
         <v>41</v>
@@ -6706,13 +6714,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H44" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I44" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J44" t="n">
         <v>2.2</v>
@@ -6724,10 +6732,10 @@
         <v>4.33</v>
       </c>
       <c r="M44" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N44" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O44" t="n">
         <v>1.14</v>
@@ -6736,10 +6744,10 @@
         <v>5.5</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R44" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S44" t="n">
         <v>1.8</v>
@@ -6748,10 +6756,10 @@
         <v>2.05</v>
       </c>
       <c r="U44" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V44" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W44" t="n">
         <v>1.25</v>
@@ -6772,7 +6780,7 @@
         <v>11</v>
       </c>
       <c r="AC44" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD44" t="n">
         <v>15</v>
@@ -6784,7 +6792,7 @@
         <v>19</v>
       </c>
       <c r="AG44" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH44" t="n">
         <v>8</v>
@@ -6799,7 +6807,7 @@
         <v>101</v>
       </c>
       <c r="AL44" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM44" t="n">
         <v>29</v>
@@ -6851,13 +6859,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H45" t="n">
         <v>3.8</v>
       </c>
       <c r="I45" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J45" t="n">
         <v>2.5</v>
@@ -6866,7 +6874,7 @@
         <v>2.4</v>
       </c>
       <c r="L45" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M45" t="n">
         <v>1.03</v>
@@ -6881,22 +6889,22 @@
         <v>5</v>
       </c>
       <c r="Q45" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V45" t="n">
         <v>1.53</v>
-      </c>
-      <c r="R45" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S45" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="T45" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U45" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V45" t="n">
-        <v>1.57</v>
       </c>
       <c r="W45" t="n">
         <v>1.29</v>
@@ -6905,34 +6913,34 @@
         <v>3.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Z45" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AA45" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB45" t="n">
         <v>11</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>12</v>
       </c>
       <c r="AC45" t="n">
         <v>9</v>
       </c>
       <c r="AD45" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE45" t="n">
         <v>13</v>
       </c>
       <c r="AF45" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG45" t="n">
         <v>17</v>
       </c>
       <c r="AH45" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI45" t="n">
         <v>12</v>
@@ -6941,7 +6949,7 @@
         <v>34</v>
       </c>
       <c r="AK45" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL45" t="n">
         <v>15</v>
@@ -6956,7 +6964,7 @@
         <v>41</v>
       </c>
       <c r="AP45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ45" t="n">
         <v>26</v>
@@ -7137,28 +7145,28 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H47" t="n">
         <v>3.4</v>
       </c>
       <c r="I47" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J47" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K47" t="n">
         <v>2.2</v>
       </c>
       <c r="L47" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M47" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N47" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O47" t="n">
         <v>1.25</v>
@@ -7167,10 +7175,10 @@
         <v>3.75</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R47" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
@@ -7208,7 +7216,7 @@
         <v>17</v>
       </c>
       <c r="AF47" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG47" t="n">
         <v>11</v>
@@ -7238,7 +7246,7 @@
         <v>34</v>
       </c>
       <c r="AP47" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ47" t="n">
         <v>29</v>
@@ -7830,28 +7838,28 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I52" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="J52" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K52" t="n">
         <v>2.05</v>
       </c>
       <c r="L52" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M52" t="n">
         <v>1.07</v>
       </c>
       <c r="N52" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O52" t="n">
         <v>1.36</v>
@@ -7860,10 +7868,10 @@
         <v>3</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R52" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
@@ -7874,34 +7882,34 @@
         <v>1.22</v>
       </c>
       <c r="W52" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X52" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y52" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Z52" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AA52" t="n">
         <v>6.5</v>
       </c>
       <c r="AB52" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC52" t="n">
         <v>9</v>
       </c>
       <c r="AD52" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE52" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF52" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG52" t="n">
         <v>8.5</v>
@@ -7913,16 +7921,16 @@
         <v>17</v>
       </c>
       <c r="AJ52" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK52" t="n">
         <v>401</v>
       </c>
       <c r="AL52" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM52" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AN52" t="n">
         <v>13</v>
@@ -7971,19 +7979,19 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H53" t="n">
         <v>3.1</v>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J53" t="n">
         <v>3.1</v>
       </c>
       <c r="K53" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L53" t="n">
         <v>3.75</v>
@@ -8009,22 +8017,22 @@
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V53" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W53" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X53" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y53" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Z53" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AA53" t="n">
         <v>7</v>
@@ -8036,7 +8044,7 @@
         <v>9.5</v>
       </c>
       <c r="AD53" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE53" t="n">
         <v>21</v>
@@ -8045,7 +8053,7 @@
         <v>34</v>
       </c>
       <c r="AG53" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH53" t="n">
         <v>6</v>
@@ -8057,16 +8065,16 @@
         <v>51</v>
       </c>
       <c r="AK53" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL53" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM53" t="n">
         <v>15</v>
       </c>
       <c r="AN53" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO53" t="n">
         <v>34</v>
@@ -8112,22 +8120,22 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H54" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I54" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="J54" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K54" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L54" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M54" t="n">
         <v>1.07</v>
@@ -8136,57 +8144,57 @@
         <v>9</v>
       </c>
       <c r="O54" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P54" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R54" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V54" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W54" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X54" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y54" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Z54" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AA54" t="n">
         <v>7.5</v>
       </c>
       <c r="AB54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC54" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD54" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE54" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF54" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG54" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH54" t="n">
         <v>6.5</v>
@@ -8195,22 +8203,22 @@
         <v>17</v>
       </c>
       <c r="AJ54" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK54" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AL54" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM54" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN54" t="n">
         <v>10</v>
       </c>
       <c r="AO54" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP54" t="n">
         <v>23</v>
@@ -8257,7 +8265,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H55" t="n">
         <v>3</v>
@@ -8275,10 +8283,10 @@
         <v>2.88</v>
       </c>
       <c r="M55" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N55" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O55" t="n">
         <v>1.44</v>
@@ -8287,10 +8295,10 @@
         <v>2.63</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R55" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
@@ -8301,16 +8309,16 @@
         <v>1.18</v>
       </c>
       <c r="W55" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X55" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y55" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Z55" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AA55" t="n">
         <v>8.5</v>
@@ -8319,7 +8327,7 @@
         <v>17</v>
       </c>
       <c r="AC55" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD55" t="n">
         <v>41</v>
@@ -8331,13 +8339,13 @@
         <v>41</v>
       </c>
       <c r="AG55" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH55" t="n">
         <v>6</v>
       </c>
       <c r="AI55" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ55" t="n">
         <v>67</v>
@@ -8361,13 +8369,13 @@
         <v>21</v>
       </c>
       <c r="AQ55" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR55" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="56">
@@ -8543,22 +8551,22 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H57" t="n">
         <v>3.1</v>
       </c>
       <c r="I57" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="J57" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K57" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L57" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M57" t="n">
         <v>1.07</v>
@@ -8567,24 +8575,24 @@
         <v>9</v>
       </c>
       <c r="O57" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P57" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R57" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V57" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W57" t="n">
         <v>1.44</v>
@@ -8599,7 +8607,7 @@
         <v>1.95</v>
       </c>
       <c r="AA57" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB57" t="n">
         <v>17</v>
@@ -8614,16 +8622,16 @@
         <v>29</v>
       </c>
       <c r="AF57" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG57" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH57" t="n">
         <v>6</v>
       </c>
       <c r="AI57" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ57" t="n">
         <v>51</v>
@@ -8635,10 +8643,10 @@
         <v>7.5</v>
       </c>
       <c r="AM57" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN57" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO57" t="n">
         <v>21</v>
@@ -8958,7 +8966,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H60" t="n">
         <v>4.1</v>
@@ -8967,7 +8975,7 @@
         <v>4.5</v>
       </c>
       <c r="J60" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K60" t="n">
         <v>2.38</v>
@@ -9008,10 +9016,10 @@
         <v>3.25</v>
       </c>
       <c r="Y60" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Z60" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AA60" t="n">
         <v>8.5</v>
@@ -9035,7 +9043,7 @@
         <v>15</v>
       </c>
       <c r="AH60" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI60" t="n">
         <v>15</v>
@@ -9050,7 +9058,7 @@
         <v>15</v>
       </c>
       <c r="AM60" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN60" t="n">
         <v>15</v>
@@ -9518,40 +9526,40 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="H64" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I64" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K64" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L64" t="n">
         <v>5.5</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L64" t="n">
-        <v>5</v>
       </c>
       <c r="M64" t="n">
         <v>1.02</v>
       </c>
       <c r="N64" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O64" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P64" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R64" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="S64" t="n">
         <v>1.8</v>
@@ -9560,10 +9568,10 @@
         <v>2.05</v>
       </c>
       <c r="U64" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="V64" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="W64" t="n">
         <v>1.25</v>
@@ -9572,10 +9580,10 @@
         <v>3.75</v>
       </c>
       <c r="Y64" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z64" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA64" t="n">
         <v>10</v>
@@ -9587,7 +9595,7 @@
         <v>8.5</v>
       </c>
       <c r="AD64" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE64" t="n">
         <v>11</v>
@@ -9599,7 +9607,7 @@
         <v>19</v>
       </c>
       <c r="AH64" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI64" t="n">
         <v>15</v>
@@ -9611,22 +9619,22 @@
         <v>126</v>
       </c>
       <c r="AL64" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM64" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN64" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO64" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP64" t="n">
         <v>41</v>
       </c>
       <c r="AQ64" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR64" t="inlineStr"/>
       <c r="AS64" t="inlineStr"/>
@@ -9663,76 +9671,76 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H65" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I65" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="J65" t="n">
         <v>2.88</v>
       </c>
       <c r="K65" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L65" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M65" t="n">
         <v>1.03</v>
       </c>
       <c r="N65" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O65" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="P65" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q65" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U65" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V65" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X65" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y65" t="n">
         <v>1.53</v>
       </c>
-      <c r="R65" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S65" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T65" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="U65" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V65" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W65" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X65" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>1.44</v>
-      </c>
       <c r="Z65" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="AA65" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AB65" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC65" t="n">
         <v>9.5</v>
       </c>
       <c r="AD65" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE65" t="n">
         <v>17</v>
@@ -9741,22 +9749,22 @@
         <v>21</v>
       </c>
       <c r="AG65" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AH65" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI65" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ65" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK65" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL65" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM65" t="n">
         <v>17</v>
@@ -9768,10 +9776,10 @@
         <v>29</v>
       </c>
       <c r="AP65" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ65" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AR65" t="inlineStr"/>
       <c r="AS65" t="inlineStr"/>
@@ -9949,22 +9957,22 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="H67" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I67" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="J67" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="K67" t="n">
         <v>2.25</v>
       </c>
       <c r="L67" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M67" t="n">
         <v>1.04</v>
@@ -9979,7 +9987,7 @@
         <v>3.75</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R67" t="n">
         <v>2</v>
@@ -10008,13 +10016,13 @@
         <v>8</v>
       </c>
       <c r="AB67" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC67" t="n">
         <v>8.5</v>
       </c>
       <c r="AD67" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE67" t="n">
         <v>15</v>
@@ -10038,7 +10046,7 @@
         <v>201</v>
       </c>
       <c r="AL67" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM67" t="n">
         <v>21</v>
@@ -10050,7 +10058,7 @@
         <v>41</v>
       </c>
       <c r="AP67" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ67" t="n">
         <v>34</v>
@@ -10090,13 +10098,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H68" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I68" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J68" t="n">
         <v>3.1</v>
@@ -10105,7 +10113,7 @@
         <v>2.25</v>
       </c>
       <c r="L68" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M68" t="n">
         <v>1.04</v>
@@ -10120,18 +10128,18 @@
         <v>4</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R68" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V68" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W68" t="n">
         <v>1.33</v>
@@ -10140,13 +10148,13 @@
         <v>3.25</v>
       </c>
       <c r="Y68" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z68" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA68" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB68" t="n">
         <v>15</v>
@@ -10161,7 +10169,7 @@
         <v>19</v>
       </c>
       <c r="AF68" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG68" t="n">
         <v>13</v>
@@ -10176,10 +10184,10 @@
         <v>41</v>
       </c>
       <c r="AK68" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL68" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM68" t="n">
         <v>15</v>
@@ -10194,7 +10202,7 @@
         <v>19</v>
       </c>
       <c r="AQ68" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR68" t="inlineStr"/>
       <c r="AS68" t="inlineStr"/>
@@ -10811,22 +10819,22 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="H73" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="I73" t="n">
-        <v>5.25</v>
+        <v>6.25</v>
       </c>
       <c r="J73" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K73" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L73" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M73" t="n">
         <v>1.06</v>
@@ -10861,58 +10869,58 @@
         <v>2.63</v>
       </c>
       <c r="Y73" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Z73" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA73" t="n">
         <v>6</v>
       </c>
       <c r="AB73" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AC73" t="n">
         <v>8.5</v>
       </c>
       <c r="AD73" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE73" t="n">
         <v>13</v>
-      </c>
-      <c r="AE73" t="n">
-        <v>15</v>
       </c>
       <c r="AF73" t="n">
         <v>29</v>
       </c>
       <c r="AG73" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH73" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI73" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ73" t="n">
         <v>67</v>
       </c>
       <c r="AK73" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AL73" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM73" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN73" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO73" t="n">
+        <v>67</v>
+      </c>
+      <c r="AP73" t="n">
         <v>51</v>
-      </c>
-      <c r="AP73" t="n">
-        <v>41</v>
       </c>
       <c r="AQ73" t="n">
         <v>51</v>
@@ -11093,22 +11101,22 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="H75" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="I75" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J75" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K75" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="L75" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M75" t="n">
         <v>1.03</v>
@@ -11117,34 +11125,34 @@
         <v>17</v>
       </c>
       <c r="O75" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P75" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="R75" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S75" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T75" t="n">
         <v>2</v>
       </c>
-      <c r="T75" t="n">
-        <v>1.85</v>
-      </c>
       <c r="U75" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V75" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="W75" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X75" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y75" t="n">
         <v>1.91</v>
@@ -11153,7 +11161,7 @@
         <v>1.8</v>
       </c>
       <c r="AA75" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB75" t="n">
         <v>7</v>
@@ -11162,7 +11170,7 @@
         <v>9</v>
       </c>
       <c r="AD75" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE75" t="n">
         <v>11</v>
@@ -11171,10 +11179,10 @@
         <v>26</v>
       </c>
       <c r="AG75" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH75" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AI75" t="n">
         <v>21</v>
@@ -11268,10 +11276,10 @@
         <v>4</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R76" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
@@ -11379,22 +11387,22 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="H77" t="n">
         <v>3.2</v>
       </c>
       <c r="I77" t="n">
-        <v>2.88</v>
+        <v>2.55</v>
       </c>
       <c r="J77" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K77" t="n">
         <v>2.1</v>
       </c>
       <c r="L77" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M77" t="n">
         <v>1.06</v>
@@ -11423,28 +11431,28 @@
         <v>1.3</v>
       </c>
       <c r="W77" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X77" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y77" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Z77" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AA77" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB77" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC77" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD77" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE77" t="n">
         <v>21</v>
@@ -11459,31 +11467,31 @@
         <v>6.5</v>
       </c>
       <c r="AI77" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ77" t="n">
         <v>51</v>
       </c>
       <c r="AK77" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL77" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM77" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN77" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO77" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ77" t="n">
         <v>29</v>
-      </c>
-      <c r="AP77" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ77" t="n">
-        <v>34</v>
       </c>
       <c r="AR77" t="inlineStr"/>
       <c r="AS77" t="inlineStr"/>
@@ -11958,10 +11966,10 @@
         <v>7</v>
       </c>
       <c r="H81" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I81" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="J81" t="n">
         <v>6.5</v>
@@ -11970,7 +11978,7 @@
         <v>2.1</v>
       </c>
       <c r="L81" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="M81" t="n">
         <v>1.07</v>
@@ -11979,16 +11987,16 @@
         <v>7.5</v>
       </c>
       <c r="O81" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P81" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R81" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
@@ -12029,7 +12037,7 @@
         <v>67</v>
       </c>
       <c r="AG81" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH81" t="n">
         <v>7.5</v>
@@ -12050,10 +12058,10 @@
         <v>6</v>
       </c>
       <c r="AN81" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO81" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AO81" t="n">
-        <v>10</v>
       </c>
       <c r="AP81" t="n">
         <v>15</v>
@@ -12660,22 +12668,22 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H86" t="n">
         <v>2.9</v>
       </c>
       <c r="I86" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="J86" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K86" t="n">
         <v>1.91</v>
       </c>
       <c r="L86" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M86" t="n">
         <v>1.11</v>
@@ -12704,28 +12712,28 @@
         <v>1.14</v>
       </c>
       <c r="W86" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X86" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y86" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z86" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA86" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB86" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AC86" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD86" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE86" t="n">
         <v>23</v>
@@ -12743,7 +12751,7 @@
         <v>19</v>
       </c>
       <c r="AJ86" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK86" t="n">
         <v>101</v>
@@ -12752,19 +12760,19 @@
         <v>7.5</v>
       </c>
       <c r="AM86" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN86" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO86" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ86" t="n">
         <v>41</v>
-      </c>
-      <c r="AP86" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ86" t="n">
-        <v>51</v>
       </c>
       <c r="AR86" t="n">
         <v>2.03</v>
@@ -12805,108 +12813,108 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H87" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I87" t="n">
         <v>1.7</v>
       </c>
       <c r="J87" t="n">
-        <v>4.5</v>
+        <v>4.35</v>
       </c>
       <c r="K87" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="L87" t="n">
         <v>2.22</v>
       </c>
       <c r="M87" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N87" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O87" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P87" t="n">
-        <v>4.05</v>
+        <v>4.2</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R87" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="V87" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="W87" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="X87" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Y87" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Z87" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AA87" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB87" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC87" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD87" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AE87" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF87" t="n">
         <v>35</v>
       </c>
       <c r="AG87" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH87" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AI87" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ87" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AK87" t="n">
         <v>300</v>
       </c>
       <c r="AL87" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AM87" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AN87" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AO87" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AP87" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AQ87" t="n">
         <v>20</v>
@@ -14074,111 +14082,111 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>7.7</v>
+        <v>9.5</v>
       </c>
       <c r="H96" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="I96" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="J96" t="n">
-        <v>6.8</v>
+        <v>7.9</v>
       </c>
       <c r="K96" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="L96" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="M96" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N96" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="O96" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="P96" t="n">
-        <v>4.65</v>
+        <v>5</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="R96" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="n">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="V96" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="W96" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="X96" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="Y96" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="Z96" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="AA96" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AB96" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AC96" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AD96" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AE96" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AF96" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AG96" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH96" t="n">
-        <v>10.75</v>
+        <v>12.5</v>
       </c>
       <c r="AI96" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AJ96" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK96" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AL96" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AM96" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AN96" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AO96" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AP96" t="n">
         <v>10.25</v>
       </c>
       <c r="AQ96" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AR96" t="inlineStr"/>
       <c r="AS96" t="inlineStr"/>
@@ -14215,22 +14223,22 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="H97" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="I97" t="n">
-        <v>4.8</v>
+        <v>6.1</v>
       </c>
       <c r="J97" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="K97" t="n">
         <v>1.98</v>
       </c>
       <c r="L97" t="n">
-        <v>5.3</v>
+        <v>6.3</v>
       </c>
       <c r="M97" t="n">
         <v>1.11</v>
@@ -14239,84 +14247,84 @@
         <v>5.6</v>
       </c>
       <c r="O97" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="P97" t="n">
-        <v>2.42</v>
+        <v>2.57</v>
       </c>
       <c r="Q97" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="R97" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="n">
-        <v>4.4</v>
+        <v>4.05</v>
       </c>
       <c r="V97" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W97" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X97" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="Y97" t="n">
-        <v>2.27</v>
+        <v>2.12</v>
       </c>
       <c r="Z97" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="AA97" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AB97" t="n">
         <v>6.8</v>
       </c>
       <c r="AC97" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AD97" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE97" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AF97" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AG97" t="n">
         <v>5.6</v>
       </c>
       <c r="AH97" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AI97" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AJ97" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AK97" t="n">
         <v>1000</v>
       </c>
       <c r="AL97" t="n">
-        <v>9.75</v>
+        <v>12.5</v>
       </c>
       <c r="AM97" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AN97" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AO97" t="n">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="AP97" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AQ97" t="n">
         <v>80</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-21.xlsx
@@ -728,10 +728,10 @@
         <v>2.38</v>
       </c>
       <c r="S2" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="T2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="U2" t="n">
         <v>2.38</v>
@@ -840,10 +840,10 @@
         <v>2.2</v>
       </c>
       <c r="H3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I3" t="n">
         <v>3.3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.25</v>
       </c>
       <c r="J3" t="n">
         <v>2.88</v>
@@ -867,10 +867,10 @@
         <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="R3" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -887,10 +887,10 @@
         <v>2.75</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AA3" t="n">
         <v>8</v>
@@ -905,13 +905,13 @@
         <v>21</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH3" t="n">
         <v>6.5</v>
@@ -920,10 +920,10 @@
         <v>13</v>
       </c>
       <c r="AJ3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL3" t="n">
         <v>10</v>
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J5" t="n">
         <v>3.6</v>
@@ -1134,7 +1134,7 @@
         <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
@@ -1143,10 +1143,10 @@
         <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
         <v>2.3</v>
@@ -1282,10 +1282,10 @@
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
         <v>1.3</v>
@@ -1294,10 +1294,10 @@
         <v>3.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R6" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -1405,7 +1405,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H7" t="n">
         <v>3.2</v>
@@ -1414,10 +1414,10 @@
         <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L7" t="n">
         <v>2.75</v>
@@ -1429,28 +1429,28 @@
         <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S7" t="n">
         <v>4.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V7" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W7" t="n">
         <v>1.57</v>
@@ -1459,10 +1459,10 @@
         <v>2.25</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA7" t="n">
         <v>9</v>
@@ -1483,16 +1483,16 @@
         <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH7" t="n">
         <v>6</v>
       </c>
       <c r="AI7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK7" t="n">
         <v>501</v>
@@ -1510,16 +1510,16 @@
         <v>17</v>
       </c>
       <c r="AP7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
         <v>41</v>
       </c>
       <c r="AR7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AS7" t="n">
         <v>1.88</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>1.98</v>
       </c>
     </row>
     <row r="8">
@@ -1554,22 +1554,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1578,10 +1578,10 @@
         <v>7.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q8" t="n">
         <v>2.35</v>
@@ -1596,16 +1596,16 @@
         <v>1.29</v>
       </c>
       <c r="U8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V8" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X8" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y8" t="n">
         <v>2.1</v>
@@ -1647,7 +1647,7 @@
         <v>501</v>
       </c>
       <c r="AL8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM8" t="n">
         <v>21</v>
@@ -1703,13 +1703,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H9" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="I9" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="J9" t="n">
         <v>4.33</v>
@@ -1718,43 +1718,43 @@
         <v>1.73</v>
       </c>
       <c r="L9" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P9" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="R9" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="S9" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="T9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="U9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V9" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W9" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X9" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Y9" t="n">
         <v>2.63</v>
@@ -1763,10 +1763,10 @@
         <v>1.44</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC9" t="n">
         <v>15</v>
@@ -1778,19 +1778,19 @@
         <v>41</v>
       </c>
       <c r="AF9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AH9" t="n">
         <v>6</v>
       </c>
       <c r="AI9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AK9" t="n">
         <v>101</v>
@@ -1799,25 +1799,25 @@
         <v>5</v>
       </c>
       <c r="AM9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ9" t="n">
         <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="10">
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K10" t="n">
         <v>1.91</v>
       </c>
       <c r="L10" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M10" t="n">
         <v>1.11</v>
@@ -1906,25 +1906,25 @@
         <v>2.25</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AC10" t="n">
         <v>10</v>
       </c>
       <c r="AD10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE10" t="n">
         <v>21</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>23</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
@@ -1939,28 +1939,28 @@
         <v>19</v>
       </c>
       <c r="AJ10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK10" t="n">
         <v>501</v>
       </c>
       <c r="AL10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN10" t="n">
         <v>15</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>13</v>
       </c>
       <c r="AO10" t="n">
         <v>41</v>
       </c>
       <c r="AP10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR10" t="n">
         <v>2</v>
@@ -3701,22 +3701,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I23" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="J23" t="n">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="K23" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M23" t="n">
         <v>1.04</v>
@@ -3731,16 +3731,16 @@
         <v>3.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S23" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="T23" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="U23" t="n">
         <v>3</v>
@@ -3764,25 +3764,25 @@
         <v>8</v>
       </c>
       <c r="AB23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE23" t="n">
         <v>15</v>
       </c>
       <c r="AF23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI23" t="n">
         <v>15</v>
@@ -3794,28 +3794,28 @@
         <v>201</v>
       </c>
       <c r="AL23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO23" t="n">
         <v>41</v>
       </c>
       <c r="AP23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ23" t="n">
         <v>34</v>
       </c>
       <c r="AR23" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="24">
@@ -3850,22 +3850,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H24" t="n">
         <v>3.5</v>
       </c>
       <c r="I24" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J24" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K24" t="n">
         <v>2.2</v>
       </c>
       <c r="L24" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M24" t="n">
         <v>1.04</v>
@@ -3874,43 +3874,43 @@
         <v>12</v>
       </c>
       <c r="O24" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P24" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="R24" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S24" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="T24" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="U24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X24" t="n">
         <v>2.75</v>
       </c>
-      <c r="V24" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X24" t="n">
-        <v>3</v>
-      </c>
       <c r="Y24" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z24" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB24" t="n">
         <v>13</v>
@@ -3919,7 +3919,7 @@
         <v>10</v>
       </c>
       <c r="AD24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE24" t="n">
         <v>19</v>
@@ -3940,10 +3940,10 @@
         <v>41</v>
       </c>
       <c r="AK24" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM24" t="n">
         <v>13</v>
@@ -3958,13 +3958,13 @@
         <v>21</v>
       </c>
       <c r="AQ24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR24" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="AS24" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -3999,28 +3999,28 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J25" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K25" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L25" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M25" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N25" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O25" t="n">
         <v>1.5</v>
@@ -4035,10 +4035,10 @@
         <v>1.48</v>
       </c>
       <c r="S25" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="T25" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U25" t="n">
         <v>5.5</v>
@@ -4047,10 +4047,10 @@
         <v>1.14</v>
       </c>
       <c r="W25" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X25" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y25" t="n">
         <v>2.38</v>
@@ -4068,10 +4068,10 @@
         <v>9.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF25" t="n">
         <v>41</v>
@@ -4080,7 +4080,7 @@
         <v>6</v>
       </c>
       <c r="AH25" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI25" t="n">
         <v>21</v>
@@ -4092,7 +4092,7 @@
         <v>101</v>
       </c>
       <c r="AL25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM25" t="n">
         <v>23</v>
@@ -4107,7 +4107,7 @@
         <v>51</v>
       </c>
       <c r="AQ25" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR25" t="n">
         <v>2</v>
@@ -4861,22 +4861,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="H31" t="n">
         <v>2.88</v>
       </c>
       <c r="I31" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="J31" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K31" t="n">
         <v>2</v>
       </c>
       <c r="L31" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M31" t="n">
         <v>1.08</v>
@@ -4885,24 +4885,24 @@
         <v>8</v>
       </c>
       <c r="O31" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P31" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R31" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V31" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W31" t="n">
         <v>1.5</v>
@@ -4917,19 +4917,19 @@
         <v>1.83</v>
       </c>
       <c r="AA31" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF31" t="n">
         <v>34</v>
@@ -4950,22 +4950,22 @@
         <v>301</v>
       </c>
       <c r="AL31" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP31" t="n">
         <v>29</v>
       </c>
-      <c r="AP31" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ31" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR31" t="inlineStr"/>
       <c r="AS31" t="inlineStr"/>
@@ -5715,16 +5715,16 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H37" t="n">
         <v>3.4</v>
       </c>
       <c r="I37" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J37" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K37" t="n">
         <v>2</v>
@@ -5733,10 +5733,10 @@
         <v>5</v>
       </c>
       <c r="M37" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N37" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O37" t="n">
         <v>1.44</v>
@@ -5769,13 +5769,13 @@
         <v>2.38</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z37" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA37" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB37" t="n">
         <v>8</v>
@@ -5784,7 +5784,7 @@
         <v>9</v>
       </c>
       <c r="AD37" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE37" t="n">
         <v>19</v>
@@ -5793,7 +5793,7 @@
         <v>34</v>
       </c>
       <c r="AG37" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH37" t="n">
         <v>6.5</v>
@@ -5802,7 +5802,7 @@
         <v>19</v>
       </c>
       <c r="AJ37" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK37" t="n">
         <v>501</v>
@@ -5811,19 +5811,19 @@
         <v>9</v>
       </c>
       <c r="AM37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN37" t="n">
         <v>15</v>
       </c>
       <c r="AO37" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP37" t="n">
         <v>41</v>
       </c>
       <c r="AQ37" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR37" t="n">
         <v>1.8</v>
@@ -7859,19 +7859,19 @@
         <v>1.07</v>
       </c>
       <c r="N52" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O52" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P52" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R52" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
@@ -8268,7 +8268,7 @@
         <v>3.6</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I55" t="n">
         <v>2.05</v>
@@ -8277,7 +8277,7 @@
         <v>4.5</v>
       </c>
       <c r="K55" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L55" t="n">
         <v>2.88</v>
@@ -8295,18 +8295,18 @@
         <v>2.63</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R55" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="V55" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W55" t="n">
         <v>1.53</v>
@@ -8315,13 +8315,13 @@
         <v>2.38</v>
       </c>
       <c r="Y55" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Z55" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AA55" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB55" t="n">
         <v>17</v>
@@ -8339,7 +8339,7 @@
         <v>41</v>
       </c>
       <c r="AG55" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH55" t="n">
         <v>6</v>
@@ -8351,7 +8351,7 @@
         <v>67</v>
       </c>
       <c r="AK55" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AL55" t="n">
         <v>6</v>
@@ -8366,16 +8366,16 @@
         <v>19</v>
       </c>
       <c r="AP55" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ55" t="n">
         <v>34</v>
       </c>
       <c r="AR55" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -8966,22 +8966,22 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H60" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I60" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J60" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K60" t="n">
         <v>2.38</v>
       </c>
       <c r="L60" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M60" t="n">
         <v>1.03</v>
@@ -9010,10 +9010,10 @@
         <v>1.44</v>
       </c>
       <c r="W60" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X60" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y60" t="n">
         <v>1.7</v>
@@ -9025,7 +9025,7 @@
         <v>8.5</v>
       </c>
       <c r="AB60" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC60" t="n">
         <v>8.5</v>
@@ -9034,7 +9034,7 @@
         <v>13</v>
       </c>
       <c r="AE60" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF60" t="n">
         <v>21</v>
@@ -10380,34 +10380,34 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H70" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I70" t="n">
         <v>3.1</v>
       </c>
       <c r="J70" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K70" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L70" t="n">
         <v>3.75</v>
       </c>
       <c r="M70" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N70" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O70" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P70" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q70" t="n">
         <v>2.35</v>
@@ -10418,10 +10418,10 @@
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V70" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W70" t="n">
         <v>1.53</v>
@@ -10436,7 +10436,7 @@
         <v>1.73</v>
       </c>
       <c r="AA70" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB70" t="n">
         <v>11</v>
@@ -10448,13 +10448,13 @@
         <v>23</v>
       </c>
       <c r="AE70" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF70" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG70" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH70" t="n">
         <v>6</v>
@@ -10463,7 +10463,7 @@
         <v>17</v>
       </c>
       <c r="AJ70" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK70" t="n">
         <v>900</v>
@@ -11246,37 +11246,37 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H76" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I76" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J76" t="n">
         <v>2.1</v>
       </c>
       <c r="K76" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L76" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M76" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N76" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O76" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P76" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R76" t="n">
         <v>2</v>
@@ -11284,28 +11284,28 @@
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V76" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W76" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X76" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y76" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Z76" t="n">
         <v>1.8</v>
       </c>
-      <c r="Z76" t="n">
-        <v>1.95</v>
-      </c>
       <c r="AA76" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB76" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC76" t="n">
         <v>8.5</v>
@@ -11314,25 +11314,25 @@
         <v>11</v>
       </c>
       <c r="AE76" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF76" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG76" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH76" t="n">
         <v>7.5</v>
       </c>
       <c r="AI76" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ76" t="n">
         <v>51</v>
       </c>
       <c r="AK76" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AL76" t="n">
         <v>17</v>
@@ -11341,16 +11341,16 @@
         <v>34</v>
       </c>
       <c r="AN76" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO76" t="n">
         <v>67</v>
       </c>
       <c r="AP76" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ76" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR76" t="inlineStr"/>
       <c r="AS76" t="inlineStr"/>
@@ -13806,22 +13806,22 @@
         <v>2.7</v>
       </c>
       <c r="I94" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J94" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K94" t="n">
         <v>1.95</v>
       </c>
       <c r="L94" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M94" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N94" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O94" t="n">
         <v>1.44</v>
@@ -13877,7 +13877,7 @@
         <v>6</v>
       </c>
       <c r="AH94" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AI94" t="n">
         <v>15</v>
@@ -13898,7 +13898,7 @@
         <v>11</v>
       </c>
       <c r="AO94" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP94" t="n">
         <v>26</v>
@@ -13945,68 +13945,68 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="H95" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="I95" t="n">
         <v>4.25</v>
       </c>
       <c r="J95" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="K95" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="L95" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P95" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R95" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="V95" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W95" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="X95" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="Y95" t="n">
         <v>1.7</v>
       </c>
       <c r="Z95" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AA95" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AB95" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AC95" t="n">
         <v>8</v>
       </c>
       <c r="AD95" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AE95" t="n">
         <v>14</v>
@@ -14015,10 +14015,10 @@
         <v>24</v>
       </c>
       <c r="AG95" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AH95" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="AI95" t="n">
         <v>14</v>
@@ -14030,16 +14030,16 @@
         <v>450</v>
       </c>
       <c r="AL95" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AM95" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AN95" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO95" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AP95" t="n">
         <v>40</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-21.xlsx
@@ -1554,28 +1554,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J8" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
         <v>1.44</v>
@@ -1602,10 +1602,10 @@
         <v>1.18</v>
       </c>
       <c r="W8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X8" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y8" t="n">
         <v>2.1</v>
@@ -1647,7 +1647,7 @@
         <v>501</v>
       </c>
       <c r="AL8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM8" t="n">
         <v>21</v>
@@ -1703,76 +1703,76 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="I9" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
         <v>1.73</v>
       </c>
       <c r="L9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="N9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="O9" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="P9" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="S9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T9" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="U9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V9" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W9" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="X9" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AA9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC9" t="n">
         <v>15</v>
       </c>
       <c r="AD9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE9" t="n">
         <v>41</v>
@@ -1781,7 +1781,7 @@
         <v>67</v>
       </c>
       <c r="AG9" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AH9" t="n">
         <v>6</v>
@@ -1790,34 +1790,34 @@
         <v>26</v>
       </c>
       <c r="AJ9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AK9" t="n">
         <v>101</v>
       </c>
       <c r="AL9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AM9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR9" t="n">
-        <v>2.75</v>
+        <v>3.05</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="10">
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="J10" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
         <v>1.91</v>
       </c>
       <c r="L10" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M10" t="n">
         <v>1.11</v>
@@ -1888,7 +1888,7 @@
         <v>1.48</v>
       </c>
       <c r="S10" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T10" t="n">
         <v>1.22</v>
@@ -1900,10 +1900,10 @@
         <v>1.14</v>
       </c>
       <c r="W10" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y10" t="n">
         <v>2.2</v>
@@ -1915,22 +1915,22 @@
         <v>5.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC10" t="n">
         <v>10</v>
       </c>
       <c r="AD10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH10" t="n">
         <v>6</v>
@@ -1945,19 +1945,19 @@
         <v>501</v>
       </c>
       <c r="AL10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM10" t="n">
         <v>17</v>
       </c>
       <c r="AN10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO10" t="n">
         <v>41</v>
       </c>
       <c r="AP10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ10" t="n">
         <v>51</v>
@@ -3999,28 +3999,28 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="H25" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J25" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K25" t="n">
         <v>1.95</v>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N25" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O25" t="n">
         <v>1.5</v>
@@ -4035,16 +4035,16 @@
         <v>1.48</v>
       </c>
       <c r="S25" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T25" t="n">
         <v>1.22</v>
       </c>
       <c r="U25" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W25" t="n">
         <v>1.57</v>
@@ -4053,22 +4053,22 @@
         <v>2.25</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AA25" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC25" t="n">
         <v>9.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE25" t="n">
         <v>19</v>
@@ -4080,7 +4080,7 @@
         <v>6</v>
       </c>
       <c r="AH25" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI25" t="n">
         <v>21</v>
@@ -4092,28 +4092,28 @@
         <v>101</v>
       </c>
       <c r="AL25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO25" t="n">
         <v>51</v>
       </c>
       <c r="AP25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ25" t="n">
         <v>51</v>
       </c>
-      <c r="AQ25" t="n">
-        <v>67</v>
-      </c>
       <c r="AR25" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="26">
@@ -4861,48 +4861,48 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H31" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I31" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J31" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K31" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L31" t="n">
         <v>3.75</v>
       </c>
       <c r="M31" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O31" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P31" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R31" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V31" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W31" t="n">
         <v>1.5</v>
@@ -4926,7 +4926,7 @@
         <v>10</v>
       </c>
       <c r="AD31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE31" t="n">
         <v>21</v>
@@ -4935,7 +4935,7 @@
         <v>34</v>
       </c>
       <c r="AG31" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH31" t="n">
         <v>5.5</v>
@@ -8966,10 +8966,10 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H60" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I60" t="n">
         <v>5</v>
@@ -8978,7 +8978,7 @@
         <v>2.2</v>
       </c>
       <c r="K60" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L60" t="n">
         <v>5</v>
@@ -8996,10 +8996,10 @@
         <v>4.33</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R60" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
@@ -9016,7 +9016,7 @@
         <v>3.4</v>
       </c>
       <c r="Y60" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Z60" t="n">
         <v>2.05</v>
@@ -9055,22 +9055,22 @@
         <v>151</v>
       </c>
       <c r="AL60" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM60" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN60" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO60" t="n">
         <v>51</v>
       </c>
       <c r="AP60" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ60" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR60" t="inlineStr"/>
       <c r="AS60" t="inlineStr"/>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H70" t="n">
         <v>3</v>
       </c>
       <c r="I70" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J70" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K70" t="n">
         <v>1.95</v>
@@ -10410,30 +10410,30 @@
         <v>2.63</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="R70" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="V70" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W70" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X70" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y70" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z70" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AA70" t="n">
         <v>6.5</v>
@@ -10442,10 +10442,10 @@
         <v>11</v>
       </c>
       <c r="AC70" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD70" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE70" t="n">
         <v>23</v>
@@ -10454,7 +10454,7 @@
         <v>41</v>
       </c>
       <c r="AG70" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH70" t="n">
         <v>6</v>
@@ -10466,19 +10466,19 @@
         <v>67</v>
       </c>
       <c r="AK70" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AL70" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM70" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN70" t="n">
         <v>12</v>
       </c>
       <c r="AO70" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP70" t="n">
         <v>29</v>
@@ -10487,10 +10487,10 @@
         <v>41</v>
       </c>
       <c r="AR70" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="71">
@@ -10525,19 +10525,19 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="H71" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I71" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J71" t="n">
         <v>1.73</v>
       </c>
       <c r="K71" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L71" t="n">
         <v>9.5</v>
@@ -10555,10 +10555,10 @@
         <v>4.33</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R71" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S71" t="n">
         <v>2.05</v>
@@ -10573,10 +10573,10 @@
         <v>1.44</v>
       </c>
       <c r="W71" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X71" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y71" t="n">
         <v>2.2</v>
@@ -10591,7 +10591,7 @@
         <v>6</v>
       </c>
       <c r="AC71" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD71" t="n">
         <v>7.5</v>
@@ -10600,16 +10600,16 @@
         <v>12</v>
       </c>
       <c r="AF71" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG71" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH71" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI71" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ71" t="n">
         <v>81</v>
@@ -10624,7 +10624,7 @@
         <v>51</v>
       </c>
       <c r="AN71" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO71" t="n">
         <v>151</v>
@@ -10636,10 +10636,10 @@
         <v>67</v>
       </c>
       <c r="AR71" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AS71" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="72">

--- a/Jogos_da_Semana_FlashScore_2025-02-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-21.xlsx
@@ -1888,7 +1888,7 @@
         <v>1.48</v>
       </c>
       <c r="S10" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T10" t="n">
         <v>1.22</v>
@@ -1900,10 +1900,10 @@
         <v>1.14</v>
       </c>
       <c r="W10" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X10" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y10" t="n">
         <v>2.2</v>
@@ -1912,7 +1912,7 @@
         <v>1.62</v>
       </c>
       <c r="AA10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB10" t="n">
         <v>9</v>
@@ -1924,13 +1924,13 @@
         <v>21</v>
       </c>
       <c r="AE10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH10" t="n">
         <v>6</v>
@@ -3999,13 +3999,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H25" t="n">
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J25" t="n">
         <v>2.75</v>
@@ -4017,10 +4017,10 @@
         <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O25" t="n">
         <v>1.5</v>
@@ -4029,10 +4029,10 @@
         <v>2.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R25" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S25" t="n">
         <v>4.1</v>
@@ -4062,13 +4062,13 @@
         <v>5.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC25" t="n">
         <v>9.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE25" t="n">
         <v>19</v>
@@ -4077,13 +4077,13 @@
         <v>41</v>
       </c>
       <c r="AG25" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH25" t="n">
         <v>6</v>
       </c>
       <c r="AI25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ25" t="n">
         <v>81</v>
@@ -4092,7 +4092,7 @@
         <v>101</v>
       </c>
       <c r="AL25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM25" t="n">
         <v>21</v>
@@ -4110,10 +4110,10 @@
         <v>51</v>
       </c>
       <c r="AR25" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="26">
@@ -8966,22 +8966,22 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="H60" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I60" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J60" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K60" t="n">
         <v>2.4</v>
       </c>
       <c r="L60" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M60" t="n">
         <v>1.03</v>
@@ -8990,24 +8990,28 @@
         <v>15</v>
       </c>
       <c r="O60" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P60" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R60" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
+        <v>2.25</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1.8</v>
+      </c>
       <c r="U60" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V60" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W60" t="n">
         <v>1.3</v>
@@ -9016,7 +9020,7 @@
         <v>3.4</v>
       </c>
       <c r="Y60" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Z60" t="n">
         <v>2.05</v>
@@ -9031,7 +9035,7 @@
         <v>8.5</v>
       </c>
       <c r="AD60" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE60" t="n">
         <v>12</v>
@@ -9107,22 +9111,22 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="H61" t="n">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="I61" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="J61" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="K61" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="L61" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
@@ -9149,61 +9153,61 @@
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="Z61" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="AA61" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AB61" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC61" t="n">
         <v>8.5</v>
       </c>
       <c r="AD61" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AE61" t="n">
         <v>10.25</v>
       </c>
       <c r="AF61" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG61" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH61" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AI61" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AJ61" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK61" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AL61" t="n">
         <v>25</v>
       </c>
       <c r="AM61" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN61" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO61" t="n">
         <v>150</v>
       </c>
       <c r="AP61" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AQ61" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AR61" t="inlineStr"/>
       <c r="AS61" t="inlineStr"/>
@@ -10531,7 +10535,7 @@
         <v>5.5</v>
       </c>
       <c r="I71" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J71" t="n">
         <v>1.73</v>
@@ -10543,10 +10547,10 @@
         <v>9.5</v>
       </c>
       <c r="M71" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N71" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O71" t="n">
         <v>1.2</v>
@@ -10555,10 +10559,10 @@
         <v>4.33</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R71" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S71" t="n">
         <v>2.05</v>
@@ -10567,10 +10571,10 @@
         <v>1.8</v>
       </c>
       <c r="U71" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V71" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W71" t="n">
         <v>1.3</v>
@@ -10627,7 +10631,7 @@
         <v>29</v>
       </c>
       <c r="AO71" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AP71" t="n">
         <v>81</v>
